--- a/techniqo/candlepattern/midcap_50.xlsx
+++ b/techniqo/candlepattern/midcap_50.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\Websitee\techniqo\candlepattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\webend\techniqo\candlepattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -689,9 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX10" sqref="AX10"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,38 +884,38 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>36.950000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="C2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D2">
+        <v>37.1</v>
+      </c>
+      <c r="E2">
         <v>37.25</v>
       </c>
-      <c r="D2">
-        <v>35.950000000000003</v>
-      </c>
-      <c r="E2">
-        <v>36.25</v>
-      </c>
       <c r="F2">
-        <v>-0.5</v>
+        <v>-0.14999999999999861</v>
       </c>
       <c r="G2">
-        <v>-1.360544217687075</v>
+        <v>-0.40106951871657381</v>
       </c>
       <c r="H2" s="9">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>-1.8944519621109683</v>
+        <v>-1.1936339522546493</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>1.8944519621109683</v>
+        <v>1.1936339522546493</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>0.81190798376183249</v>
+        <v>0.2652519893899053</v>
       </c>
       <c r="K2" s="9">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0.82758620689654394</v>
+        <v>0.40268456375838546</v>
       </c>
       <c r="L2" s="9" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
@@ -946,38 +946,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>37.799999999999997</v>
+        <v>37.9</v>
       </c>
       <c r="T2">
         <v>37.9</v>
       </c>
       <c r="U2">
-        <v>36.4</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="V2">
-        <v>36.75</v>
+        <v>37.4</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-0.66401062416998669</v>
       </c>
       <c r="Y2" s="9">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>-2.7777777777777701</v>
+        <v>-1.3192612137203166</v>
       </c>
       <c r="Z2" s="9">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>2.7777777777777701</v>
+        <v>1.3192612137203166</v>
       </c>
       <c r="AA2" s="9">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.26455026455026831</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="9">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>0.95238095238095632</v>
+        <v>0.53475935828875865</v>
       </c>
       <c r="AC2" s="9" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -1004,38 +1004,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>37.85</v>
+        <v>37.5</v>
       </c>
       <c r="AJ2">
-        <v>38.25</v>
+        <v>38.15</v>
       </c>
       <c r="AK2">
-        <v>36.5</v>
+        <v>37.25</v>
       </c>
       <c r="AL2">
-        <v>36.75</v>
+        <v>37.65</v>
       </c>
       <c r="AM2">
-        <v>-1</v>
+        <v>0.54999999999999716</v>
       </c>
       <c r="AN2">
-        <v>-2.6490066225165561</v>
+        <v>1.4824797843665689</v>
       </c>
       <c r="AO2" s="9">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>-2.9062087186261598</v>
+        <v>0.39999999999999619</v>
       </c>
       <c r="AP2" s="9">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>2.9062087186261598</v>
+        <v>0.39999999999999619</v>
       </c>
       <c r="AQ2" s="9">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>1.0568031704095073</v>
+        <v>1.3280212483399734</v>
       </c>
       <c r="AR2" s="9">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0.68027210884353739</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1067,38 +1067,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>647.95000000000005</v>
+        <v>752</v>
       </c>
       <c r="C3">
-        <v>650</v>
+        <v>783</v>
       </c>
       <c r="D3">
-        <v>635.79999999999995</v>
+        <v>749.55</v>
       </c>
       <c r="E3">
-        <v>641.29999999999995</v>
+        <v>761.5</v>
       </c>
       <c r="F3">
-        <v>-6.5500000000000682</v>
+        <v>14.600000000000019</v>
       </c>
       <c r="G3">
-        <v>-1.011036505363907</v>
+        <v>1.9547462846431951</v>
       </c>
       <c r="H3" s="9">
         <f t="shared" si="0"/>
-        <v>-1.0263137587776976</v>
+        <v>1.2632978723404253</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" si="1"/>
-        <v>1.0263137587776976</v>
+        <v>1.2632978723404253</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" si="2"/>
-        <v>0.31638243691642171</v>
+        <v>2.8233749179251477</v>
       </c>
       <c r="K3" s="9">
         <f t="shared" si="3"/>
-        <v>0.85763293310463129</v>
+        <v>0.32579787234043162</v>
       </c>
       <c r="L3" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="O3" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P3" s="9" t="str">
         <f t="shared" si="8"/>
@@ -1129,38 +1129,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>642.9</v>
+        <v>745.55</v>
       </c>
       <c r="T3">
-        <v>651.54999999999995</v>
+        <v>752.1</v>
       </c>
       <c r="U3">
-        <v>640.85</v>
+        <v>738.15</v>
       </c>
       <c r="V3">
-        <v>647.85</v>
+        <v>746.9</v>
       </c>
       <c r="W3">
-        <v>7.6000000000000227</v>
+        <v>5.3999999999999773</v>
       </c>
       <c r="X3">
-        <v>1.187036313939871</v>
+        <v>0.72825354012137256</v>
       </c>
       <c r="Y3" s="9">
         <f t="shared" si="11"/>
-        <v>0.76994867008866785</v>
+        <v>0.18107437462276479</v>
       </c>
       <c r="Z3" s="9">
         <f t="shared" si="12"/>
-        <v>0.76994867008866785</v>
+        <v>0.18107437462276479</v>
       </c>
       <c r="AA3" s="9">
         <f t="shared" si="13"/>
-        <v>0.57111985799180853</v>
+        <v>0.6962110054893621</v>
       </c>
       <c r="AB3" s="9">
         <f t="shared" si="14"/>
-        <v>0.31886763104681204</v>
+        <v>0.99255583126550573</v>
       </c>
       <c r="AC3" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1187,38 +1187,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>656</v>
+        <v>743</v>
       </c>
       <c r="AJ3">
-        <v>657.9</v>
+        <v>747.5</v>
       </c>
       <c r="AK3">
-        <v>635</v>
+        <v>728.3</v>
       </c>
       <c r="AL3">
-        <v>640.25</v>
+        <v>741.5</v>
       </c>
       <c r="AM3">
-        <v>-15.350000000000019</v>
+        <v>0.75</v>
       </c>
       <c r="AN3">
-        <v>-2.3413666870042742</v>
+        <v>0.10124873439082011</v>
       </c>
       <c r="AO3" s="9">
         <f t="shared" si="21"/>
-        <v>-2.4009146341463414</v>
+        <v>-0.20188425302826379</v>
       </c>
       <c r="AP3" s="9">
         <f t="shared" si="22"/>
-        <v>2.4009146341463414</v>
+        <v>0.20188425302826379</v>
       </c>
       <c r="AQ3" s="9">
         <f t="shared" si="23"/>
-        <v>0.28963414634145995</v>
+        <v>0.60565275908479144</v>
       </c>
       <c r="AR3" s="9">
         <f t="shared" si="24"/>
-        <v>0.81999219055056627</v>
+        <v>1.7801753202967021</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1250,38 +1250,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>1381</v>
+        <v>1637.9</v>
       </c>
       <c r="C4">
-        <v>1405.55</v>
+        <v>1653.2</v>
       </c>
       <c r="D4">
-        <v>1359.25</v>
+        <v>1590.15</v>
       </c>
       <c r="E4">
-        <v>1365.05</v>
+        <v>1623.7</v>
       </c>
       <c r="F4">
-        <v>-23.10000000000014</v>
+        <v>11.900000000000089</v>
       </c>
       <c r="G4">
-        <v>-1.6640852933760859</v>
+        <v>0.73830500062043003</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>-1.154960173787114</v>
+        <v>-0.86696379510348887</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="1"/>
-        <v>1.154960173787114</v>
+        <v>0.86696379510348887</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="2"/>
-        <v>1.7776973207820388</v>
+        <v>0.93412296232980963</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="3"/>
-        <v>0.42489286106735691</v>
+        <v>2.0662683993348496</v>
       </c>
       <c r="L4" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1312,38 +1312,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>1453</v>
+        <v>1614</v>
       </c>
       <c r="T4">
-        <v>1480</v>
+        <v>1648.65</v>
       </c>
       <c r="U4">
-        <v>1376.3</v>
+        <v>1595.05</v>
       </c>
       <c r="V4">
-        <v>1388.15</v>
+        <v>1611.8</v>
       </c>
       <c r="W4">
-        <v>-49.349999999999909</v>
+        <v>2.899999999999864</v>
       </c>
       <c r="X4">
-        <v>-3.433043478260863</v>
+        <v>0.18024737398221541</v>
       </c>
       <c r="Y4" s="9">
         <f t="shared" si="11"/>
-        <v>-4.4631796283551211</v>
+        <v>-0.13630731102850344</v>
       </c>
       <c r="Z4" s="9">
         <f t="shared" si="12"/>
-        <v>4.4631796283551211</v>
+        <v>0.13630731102850344</v>
       </c>
       <c r="AA4" s="9">
         <f t="shared" si="13"/>
-        <v>1.8582243633860975</v>
+        <v>2.1468401486988906</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="14"/>
-        <v>0.85365414400462025</v>
+        <v>1.0392108202010175</v>
       </c>
       <c r="AC4" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1370,38 +1370,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>1411.8</v>
+        <v>1600</v>
       </c>
       <c r="AJ4">
-        <v>1444</v>
+        <v>1615</v>
       </c>
       <c r="AK4">
-        <v>1405.5</v>
+        <v>1585.05</v>
       </c>
       <c r="AL4">
-        <v>1437.5</v>
+        <v>1608.9</v>
       </c>
       <c r="AM4">
-        <v>25.700000000000049</v>
+        <v>2.450000000000045</v>
       </c>
       <c r="AN4">
-        <v>1.820371157387735</v>
+        <v>0.1525101932833294</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="21"/>
-        <v>1.8203711573877353</v>
+        <v>0.55625000000000568</v>
       </c>
       <c r="AP4" s="9">
         <f t="shared" si="22"/>
-        <v>1.8203711573877353</v>
+        <v>0.55625000000000568</v>
       </c>
       <c r="AQ4" s="9">
         <f t="shared" si="23"/>
-        <v>0.4521739130434782</v>
+        <v>0.37914102803156868</v>
       </c>
       <c r="AR4" s="9">
         <f t="shared" si="24"/>
-        <v>0.44623884402889608</v>
+        <v>0.93437500000000295</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1433,38 +1433,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>111</v>
+        <v>116.8</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>126.5</v>
       </c>
       <c r="D5">
-        <v>107.2</v>
+        <v>116.8</v>
       </c>
       <c r="E5">
-        <v>108.45</v>
+        <v>125.55</v>
       </c>
       <c r="F5">
-        <v>-2.5499999999999972</v>
+        <v>9.3499999999999943</v>
       </c>
       <c r="G5">
-        <v>-2.2972972972972951</v>
+        <v>8.0464716006884629</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>-2.2972972972972947</v>
+        <v>7.4914383561643847</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>2.2972972972972947</v>
+        <v>7.4914383561643847</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75667064914376969</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="3"/>
-        <v>1.152604887044721</v>
+        <v>0</v>
       </c>
       <c r="L5" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1495,38 +1495,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>114.8</v>
+        <v>116.55</v>
       </c>
       <c r="T5">
-        <v>114.95</v>
+        <v>117.55</v>
       </c>
       <c r="U5">
-        <v>110.7</v>
+        <v>115</v>
       </c>
       <c r="V5">
-        <v>111</v>
+        <v>116.2</v>
       </c>
       <c r="W5">
-        <v>-1.2999999999999969</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="X5">
-        <v>-1.157613535173639</v>
+        <v>-4.3010752688169597E-2</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="11"/>
-        <v>-3.3101045296167224</v>
+        <v>-0.30030030030029542</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="12"/>
-        <v>3.3101045296167224</v>
+        <v>0.30030030030029542</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="13"/>
-        <v>0.13066202090592829</v>
+        <v>0.8580008580008579</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="14"/>
-        <v>0.27027027027026773</v>
+        <v>1.0327022375215171</v>
       </c>
       <c r="AC5" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1553,38 +1553,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>108.7</v>
+        <v>115</v>
       </c>
       <c r="AJ5">
-        <v>113.35</v>
+        <v>117.45</v>
       </c>
       <c r="AK5">
-        <v>107.25</v>
+        <v>113.3</v>
       </c>
       <c r="AL5">
-        <v>112.3</v>
+        <v>116.25</v>
       </c>
       <c r="AM5">
-        <v>3.5499999999999972</v>
+        <v>2.8499999999999939</v>
       </c>
       <c r="AN5">
-        <v>3.2643678160919518</v>
+        <v>2.5132275132275081</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="21"/>
-        <v>3.3118675252989829</v>
+        <v>1.0869565217391304</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" si="22"/>
-        <v>3.3118675252989829</v>
+        <v>1.0869565217391304</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" si="23"/>
-        <v>0.93499554764024684</v>
+        <v>1.0322580645161314</v>
       </c>
       <c r="AR5" s="9">
         <f t="shared" si="24"/>
-        <v>1.3339466421343171</v>
+        <v>1.4782608695652197</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1616,38 +1616,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>1238.75</v>
+        <v>1312.95</v>
       </c>
       <c r="C6">
-        <v>1262</v>
+        <v>1378.45</v>
       </c>
       <c r="D6">
-        <v>1220.05</v>
+        <v>1304.2</v>
       </c>
       <c r="E6">
-        <v>1244.5</v>
+        <v>1370.75</v>
       </c>
       <c r="F6">
-        <v>1.9000000000000909</v>
+        <v>68.450000000000045</v>
       </c>
       <c r="G6">
-        <v>0.1529051987767657</v>
+        <v>5.2560853873915416</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>0.46417759838546918</v>
+        <v>4.4023001637533765</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>0.46417759838546918</v>
+        <v>4.4023001637533765</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="2"/>
-        <v>1.4061872237846524</v>
+        <v>0.5617362757614478</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="3"/>
-        <v>1.5095862764883994</v>
+        <v>0.66643817357858259</v>
       </c>
       <c r="L6" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1678,38 +1678,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="T6">
-        <v>1268.1500000000001</v>
+        <v>1309</v>
       </c>
       <c r="U6">
-        <v>1234.05</v>
+        <v>1250.05</v>
       </c>
       <c r="V6">
-        <v>1242.5999999999999</v>
+        <v>1302.3</v>
       </c>
       <c r="W6">
-        <v>5.6499999999998636</v>
+        <v>43.899999999999856</v>
       </c>
       <c r="X6">
-        <v>0.45676866486113932</v>
+        <v>3.4885568976477961</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="11"/>
-        <v>-3.2180209171366929E-2</v>
+        <v>3.5214626391096946</v>
       </c>
       <c r="Z6" s="9">
         <f t="shared" si="12"/>
-        <v>3.2180209171366929E-2</v>
+        <v>3.5214626391096946</v>
       </c>
       <c r="AA6" s="9">
         <f t="shared" si="13"/>
-        <v>2.0233306516492431</v>
+        <v>0.51447439146126439</v>
       </c>
       <c r="AB6" s="9">
         <f t="shared" si="14"/>
-        <v>0.68807339449540927</v>
+        <v>0.63195548489666498</v>
       </c>
       <c r="AC6" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1736,38 +1736,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>1250</v>
+        <v>1270</v>
       </c>
       <c r="AJ6">
-        <v>1250.05</v>
+        <v>1280</v>
       </c>
       <c r="AK6">
-        <v>1216</v>
+        <v>1251.05</v>
       </c>
       <c r="AL6">
-        <v>1236.95</v>
+        <v>1258.4000000000001</v>
       </c>
       <c r="AM6">
-        <v>-18.549999999999951</v>
+        <v>-4.75</v>
       </c>
       <c r="AN6">
-        <v>-1.477499004380721</v>
+        <v>-0.37604401694177247</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="21"/>
-        <v>-1.0439999999999963</v>
+        <v>-0.91338582677164637</v>
       </c>
       <c r="AP6" s="9">
         <f t="shared" si="22"/>
-        <v>1.0439999999999963</v>
+        <v>0.91338582677164637</v>
       </c>
       <c r="AQ6" s="9">
         <f t="shared" si="23"/>
-        <v>3.9999999999963624E-3</v>
+        <v>0.78740157480314954</v>
       </c>
       <c r="AR6" s="9">
         <f t="shared" si="24"/>
-        <v>1.6936820405028534</v>
+        <v>0.58407501589320854</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1799,38 +1799,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>51.65</v>
+        <v>47.75</v>
       </c>
       <c r="C7">
-        <v>51.65</v>
+        <v>48.3</v>
       </c>
       <c r="D7">
-        <v>49.4</v>
+        <v>46.7</v>
       </c>
       <c r="E7">
-        <v>49.65</v>
+        <v>47.25</v>
       </c>
       <c r="F7">
-        <v>-1.7000000000000031</v>
+        <v>-0.39999999999999858</v>
       </c>
       <c r="G7">
-        <v>-3.310613437195721</v>
+        <v>-0.83945435466946194</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>-3.8722168441432716</v>
+        <v>-1.0471204188481675</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>3.8722168441432716</v>
+        <v>1.0471204188481675</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1518324607329784</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
-        <v>0.50352467270896273</v>
+        <v>1.164021164021158</v>
       </c>
       <c r="L7" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1861,38 +1861,38 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>51.2</v>
+        <v>49</v>
       </c>
       <c r="T7">
-        <v>52.3</v>
+        <v>49</v>
       </c>
       <c r="U7">
-        <v>50.2</v>
+        <v>47.05</v>
       </c>
       <c r="V7">
-        <v>51.35</v>
+        <v>47.65</v>
       </c>
       <c r="W7">
-        <v>1.100000000000001</v>
+        <v>-1.25</v>
       </c>
       <c r="X7">
-        <v>2.1890547263681621</v>
+        <v>-2.556237218813906</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="11"/>
-        <v>0.29296874999999722</v>
+        <v>-2.7551020408163294</v>
       </c>
       <c r="Z7" s="9">
         <f t="shared" si="12"/>
-        <v>0.29296874999999722</v>
+        <v>2.7551020408163294</v>
       </c>
       <c r="AA7" s="9">
         <f t="shared" si="13"/>
-        <v>1.8500486854917151</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="9">
         <f t="shared" si="14"/>
-        <v>1.953125</v>
+        <v>1.2591815320042004</v>
       </c>
       <c r="AC7" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1919,38 +1919,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>55.9</v>
+        <v>45.8</v>
       </c>
       <c r="AJ7">
-        <v>58.5</v>
+        <v>49.5</v>
       </c>
       <c r="AK7">
-        <v>48.3</v>
+        <v>45.7</v>
       </c>
       <c r="AL7">
-        <v>50.25</v>
+        <v>48.9</v>
       </c>
       <c r="AM7">
-        <v>-4.75</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="AN7">
-        <v>-8.6363636363636367</v>
+        <v>7.9470198675496722</v>
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="21"/>
-        <v>-10.107334525939175</v>
+        <v>6.7685589519650691</v>
       </c>
       <c r="AP7" s="9">
         <f t="shared" si="22"/>
-        <v>10.107334525939175</v>
+        <v>6.7685589519650691</v>
       </c>
       <c r="AQ7" s="9">
         <f t="shared" si="23"/>
-        <v>4.6511627906976774</v>
+        <v>1.2269938650306778</v>
       </c>
       <c r="AR7" s="9">
         <f t="shared" si="24"/>
-        <v>3.8805970149253786</v>
+        <v>0.21834061135369937</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1982,38 +1982,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>1317</v>
+        <v>1280</v>
       </c>
       <c r="C8">
-        <v>1323.1</v>
+        <v>1342.8</v>
       </c>
       <c r="D8">
-        <v>1290.7</v>
+        <v>1270.05</v>
       </c>
       <c r="E8">
-        <v>1312.4</v>
+        <v>1330.65</v>
       </c>
       <c r="F8">
-        <v>-13.19999999999982</v>
+        <v>66.050000000000182</v>
       </c>
       <c r="G8">
-        <v>-0.99577549788773534</v>
+        <v>5.2229954135695227</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>-0.34927866362945398</v>
+        <v>3.9570312500000071</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>0.34927866362945398</v>
+        <v>3.9570312500000071</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="2"/>
-        <v>0.46317388003036514</v>
+        <v>0.91308758877239415</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="3"/>
-        <v>1.6534593111856173</v>
+        <v>0.77734375000000355</v>
       </c>
       <c r="L8" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2044,38 +2044,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>1327</v>
+        <v>1270</v>
       </c>
       <c r="T8">
-        <v>1342</v>
+        <v>1291</v>
       </c>
       <c r="U8">
-        <v>1317.65</v>
+        <v>1260.05</v>
       </c>
       <c r="V8">
-        <v>1325.6</v>
+        <v>1264.5999999999999</v>
       </c>
       <c r="W8">
-        <v>6.5499999999999554</v>
+        <v>-0.5500000000001819</v>
       </c>
       <c r="X8">
-        <v>0.49656950077707102</v>
+        <v>-4.3473105955829892E-2</v>
       </c>
       <c r="Y8" s="9">
         <f t="shared" si="11"/>
-        <v>-0.10550113036926081</v>
+        <v>-0.42519685039370797</v>
       </c>
       <c r="Z8" s="9">
         <f t="shared" si="12"/>
-        <v>0.10550113036926081</v>
+        <v>0.42519685039370797</v>
       </c>
       <c r="AA8" s="9">
         <f t="shared" si="13"/>
-        <v>1.1303692539562924</v>
+        <v>1.6535433070866141</v>
       </c>
       <c r="AB8" s="9">
         <f t="shared" si="14"/>
-        <v>0.59972842486419875</v>
+        <v>0.35979756444725247</v>
       </c>
       <c r="AC8" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2102,38 +2102,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>1330</v>
+        <v>1290</v>
       </c>
       <c r="AJ8">
-        <v>1340</v>
+        <v>1304.8499999999999</v>
       </c>
       <c r="AK8">
-        <v>1312</v>
+        <v>1257.45</v>
       </c>
       <c r="AL8">
-        <v>1319.05</v>
+        <v>1265.1500000000001</v>
       </c>
       <c r="AM8">
-        <v>-12.35000000000014</v>
+        <v>-17.049999999999951</v>
       </c>
       <c r="AN8">
-        <v>-0.92759501276852463</v>
+        <v>-1.3297457494930549</v>
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="21"/>
-        <v>-0.8233082706766951</v>
+        <v>-1.9263565891472798</v>
       </c>
       <c r="AP8" s="9">
         <f t="shared" si="22"/>
-        <v>0.8233082706766951</v>
+        <v>1.9263565891472798</v>
       </c>
       <c r="AQ8" s="9">
         <f t="shared" si="23"/>
-        <v>0.75187969924812026</v>
+        <v>1.1511627906976674</v>
       </c>
       <c r="AR8" s="9">
         <f t="shared" si="24"/>
-        <v>0.5344755695386797</v>
+        <v>0.6086234833814208</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2165,38 +2165,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>84.95</v>
+        <v>106</v>
       </c>
       <c r="C9">
-        <v>88.7</v>
+        <v>109.65</v>
       </c>
       <c r="D9">
-        <v>84.3</v>
+        <v>104.4</v>
       </c>
       <c r="E9">
-        <v>87.55</v>
+        <v>107.05</v>
       </c>
       <c r="F9">
-        <v>2.25</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="G9">
-        <v>2.6377491207502932</v>
+        <v>4.6943765281173571</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>3.0606238964096462</v>
+        <v>0.99056603773584639</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>3.0606238964096462</v>
+        <v>0.99056603773584639</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="2"/>
-        <v>1.3135351227869856</v>
+        <v>2.4287716020551224</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
-        <v>0.76515597410241987</v>
+        <v>1.5094339622641455</v>
       </c>
       <c r="L9" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="P9" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q9" s="9" t="str">
         <f t="shared" si="9"/>
@@ -2227,38 +2227,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>84.95</v>
+        <v>102</v>
       </c>
       <c r="T9">
-        <v>86.45</v>
+        <v>102.75</v>
       </c>
       <c r="U9">
-        <v>83.8</v>
+        <v>101.3</v>
       </c>
       <c r="V9">
-        <v>85.3</v>
+        <v>102.25</v>
       </c>
       <c r="W9">
-        <v>1.5999999999999941</v>
+        <v>0.65000000000000568</v>
       </c>
       <c r="X9">
-        <v>1.911589008363195</v>
+        <v>0.63976377952756469</v>
       </c>
       <c r="Y9" s="9">
         <f t="shared" si="11"/>
-        <v>0.41200706297821577</v>
+        <v>0.24509803921568626</v>
       </c>
       <c r="Z9" s="9">
         <f t="shared" si="12"/>
-        <v>0.41200706297821577</v>
+        <v>0.24509803921568626</v>
       </c>
       <c r="AA9" s="9">
         <f t="shared" si="13"/>
-        <v>1.3481828839390455</v>
+        <v>0.48899755501222492</v>
       </c>
       <c r="AB9" s="9">
         <f t="shared" si="14"/>
-        <v>1.3537374926427377</v>
+        <v>0.68627450980392435</v>
       </c>
       <c r="AC9" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2285,38 +2285,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>81.95</v>
+        <v>101.65</v>
       </c>
       <c r="AJ9">
-        <v>84.95</v>
+        <v>102.7</v>
       </c>
       <c r="AK9">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AL9">
-        <v>83.7</v>
+        <v>101.6</v>
       </c>
       <c r="AM9">
-        <v>1.2000000000000031</v>
+        <v>0.54999999999999716</v>
       </c>
       <c r="AN9">
-        <v>1.4545454545454579</v>
+        <v>0.54428500742206543</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="21"/>
-        <v>2.1354484441732762</v>
+        <v>-4.9188391539607842E-2</v>
       </c>
       <c r="AP9" s="9">
         <f t="shared" si="22"/>
-        <v>2.1354484441732762</v>
+        <v>4.9188391539607842E-2</v>
       </c>
       <c r="AQ9" s="9">
         <f t="shared" si="23"/>
-        <v>1.4934289127837514</v>
+        <v>1.032956222331527</v>
       </c>
       <c r="AR9" s="9">
         <f t="shared" si="24"/>
-        <v>1.1592434411226391</v>
+        <v>2.5590551181102308</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2348,38 +2348,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>350</v>
+        <v>465.25</v>
       </c>
       <c r="C10">
-        <v>353.6</v>
+        <v>481.85</v>
       </c>
       <c r="D10">
-        <v>309.25</v>
+        <v>465</v>
       </c>
       <c r="E10">
-        <v>316.5</v>
+        <v>475.6</v>
       </c>
       <c r="F10">
-        <v>-36</v>
+        <v>12.200000000000051</v>
       </c>
       <c r="G10">
-        <v>-10.212765957446811</v>
+        <v>2.6327147173068721</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>-9.5714285714285712</v>
+        <v>2.2246104245029605</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>9.5714285714285712</v>
+        <v>2.2246104245029605</v>
       </c>
       <c r="J10" s="9">
         <f t="shared" si="2"/>
-        <v>1.0285714285714351</v>
+        <v>1.3141295206055508</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
-        <v>2.2906793048973144</v>
+        <v>5.3734551316496508E-2</v>
       </c>
       <c r="L10" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2410,38 +2410,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>363.2</v>
+        <v>459.5</v>
       </c>
       <c r="T10">
-        <v>363.2</v>
+        <v>466.5</v>
       </c>
       <c r="U10">
-        <v>350.45</v>
+        <v>456.3</v>
       </c>
       <c r="V10">
-        <v>352.5</v>
+        <v>463.4</v>
       </c>
       <c r="W10">
-        <v>-4.9499999999999886</v>
+        <v>1.9499999999999891</v>
       </c>
       <c r="X10">
-        <v>-1.384809064204781</v>
+        <v>0.42258099469064658</v>
       </c>
       <c r="Y10" s="9">
         <f t="shared" si="11"/>
-        <v>-2.9460352422907459</v>
+        <v>0.84874863982589277</v>
       </c>
       <c r="Z10" s="9">
         <f t="shared" si="12"/>
-        <v>2.9460352422907459</v>
+        <v>0.84874863982589277</v>
       </c>
       <c r="AA10" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.66896849374191258</v>
       </c>
       <c r="AB10" s="9">
         <f t="shared" si="14"/>
-        <v>0.58156028368794643</v>
+        <v>0.69640914036996482</v>
       </c>
       <c r="AC10" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2468,38 +2468,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>351.95</v>
+        <v>470</v>
       </c>
       <c r="AJ10">
-        <v>365</v>
+        <v>472</v>
       </c>
       <c r="AK10">
-        <v>348.15</v>
+        <v>454.35</v>
       </c>
       <c r="AL10">
-        <v>357.45</v>
+        <v>461.45</v>
       </c>
       <c r="AM10">
-        <v>0.80000000000001137</v>
+        <v>-4.5</v>
       </c>
       <c r="AN10">
-        <v>0.22430954717510479</v>
+        <v>-0.9657688593196696</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="21"/>
-        <v>1.5627219775536298</v>
+        <v>-1.8191489361702153</v>
       </c>
       <c r="AP10" s="9">
         <f t="shared" si="22"/>
-        <v>1.5627219775536298</v>
+        <v>1.8191489361702153</v>
       </c>
       <c r="AQ10" s="9">
         <f t="shared" si="23"/>
-        <v>2.1121835221709362</v>
+        <v>0.42553191489361702</v>
       </c>
       <c r="AR10" s="9">
         <f t="shared" si="24"/>
-        <v>1.0796988208552385</v>
+        <v>1.5386282370787661</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2534,35 +2534,35 @@
         <v>36.200000000000003</v>
       </c>
       <c r="C11">
-        <v>36.799999999999997</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="D11">
-        <v>35.35</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>35.75</v>
+        <v>36.25</v>
       </c>
       <c r="F11">
-        <v>-1.149999999999999</v>
+        <v>-0.85000000000000142</v>
       </c>
       <c r="G11">
-        <v>-3.116531165311649</v>
+        <v>-2.2911051212938038</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>-1.2430939226519415</v>
+        <v>0.13812154696131812</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="1"/>
-        <v>1.2430939226519415</v>
+        <v>0.13812154696131812</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>1.6574585635358958</v>
+        <v>3.3103448275862144</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="3"/>
-        <v>1.118881118881115</v>
+        <v>0.55248618784531167</v>
       </c>
       <c r="L11" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O11" s="9" t="str">
         <f t="shared" si="7"/>
@@ -2593,38 +2593,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>38.700000000000003</v>
+        <v>37.35</v>
       </c>
       <c r="T11">
-        <v>38.700000000000003</v>
+        <v>37.85</v>
       </c>
       <c r="U11">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="V11">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="W11">
-        <v>-0.95000000000000284</v>
+        <v>5.0000000000004263E-2</v>
       </c>
       <c r="X11">
-        <v>-2.509907529722597</v>
+        <v>0.13495276653172539</v>
       </c>
       <c r="Y11" s="9">
         <f t="shared" si="11"/>
-        <v>-4.6511627906976845</v>
+        <v>-0.66934404283801874</v>
       </c>
       <c r="Z11" s="9">
         <f t="shared" si="12"/>
-        <v>4.6511627906976845</v>
+        <v>0.66934404283801874</v>
       </c>
       <c r="AA11" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.3386880856760375</v>
       </c>
       <c r="AB11" s="9">
         <f t="shared" si="14"/>
-        <v>1.0840108401083972</v>
+        <v>0.26954177897574505</v>
       </c>
       <c r="AC11" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2651,38 +2651,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>36.299999999999997</v>
+        <v>37</v>
       </c>
       <c r="AJ11">
-        <v>38.5</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="AK11">
-        <v>35.549999999999997</v>
+        <v>36.35</v>
       </c>
       <c r="AL11">
-        <v>37.85</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="AM11">
-        <v>1.5</v>
+        <v>0.54999999999999716</v>
       </c>
       <c r="AN11">
-        <v>4.1265474552957357</v>
+        <v>1.506849315068485</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="21"/>
-        <v>4.2699724517906459</v>
+        <v>0.13513513513512745</v>
       </c>
       <c r="AP11" s="9">
         <f t="shared" si="22"/>
-        <v>4.2699724517906459</v>
+        <v>0.13513513513512745</v>
       </c>
       <c r="AQ11" s="9">
         <f t="shared" si="23"/>
-        <v>1.7173051519154519</v>
+        <v>0.67476383265856954</v>
       </c>
       <c r="AR11" s="9">
         <f t="shared" si="24"/>
-        <v>2.0661157024793391</v>
+        <v>1.756756756756753</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2714,38 +2714,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>103.95</v>
+        <v>102</v>
       </c>
       <c r="C12">
-        <v>104.15</v>
+        <v>102.9</v>
       </c>
       <c r="D12">
-        <v>100.2</v>
+        <v>99.85</v>
       </c>
       <c r="E12">
-        <v>102</v>
+        <v>100.4</v>
       </c>
       <c r="F12">
-        <v>-2.5</v>
+        <v>-0.44999999999998858</v>
       </c>
       <c r="G12">
-        <v>-2.392344497607656</v>
+        <v>-0.44620723847296839</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>-1.8759018759018784</v>
+        <v>-1.5686274509803866</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="1"/>
-        <v>1.8759018759018784</v>
+        <v>1.5686274509803866</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="2"/>
-        <v>0.19240019240019515</v>
+        <v>0.88235294117647611</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>1.7647058823529385</v>
+        <v>0.54780876494025033</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="6"/>
@@ -2776,38 +2776,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>106</v>
+        <v>100.6</v>
       </c>
       <c r="T12">
-        <v>107.45</v>
+        <v>102.75</v>
       </c>
       <c r="U12">
-        <v>103.1</v>
+        <v>98.3</v>
       </c>
       <c r="V12">
-        <v>104.5</v>
+        <v>100.85</v>
       </c>
       <c r="W12">
-        <v>-0.29999999999999721</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
-        <v>-0.28625954198473008</v>
+        <v>0.49825610363726958</v>
       </c>
       <c r="Y12" s="9">
         <f t="shared" si="11"/>
-        <v>-1.4150943396226416</v>
+        <v>0.2485089463220676</v>
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="12"/>
-        <v>1.4150943396226416</v>
+        <v>0.2485089463220676</v>
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="13"/>
-        <v>1.3679245283018895</v>
+        <v>1.883986117997031</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="14"/>
-        <v>1.3397129186602925</v>
+        <v>2.2862823061630193</v>
       </c>
       <c r="AC12" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2834,38 +2834,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>102.3</v>
+        <v>98.65</v>
       </c>
       <c r="AJ12">
-        <v>106.35</v>
+        <v>100.9</v>
       </c>
       <c r="AK12">
-        <v>102</v>
+        <v>98.15</v>
       </c>
       <c r="AL12">
-        <v>104.8</v>
+        <v>100.35</v>
       </c>
       <c r="AM12">
-        <v>-4.7000000000000028</v>
+        <v>2.6999999999999891</v>
       </c>
       <c r="AN12">
-        <v>-4.2922374429223771</v>
+        <v>2.7649769585253341</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="21"/>
-        <v>2.4437927663734116</v>
+        <v>1.723264064875812</v>
       </c>
       <c r="AP12" s="9">
         <f t="shared" si="22"/>
-        <v>2.4437927663734116</v>
+        <v>1.723264064875812</v>
       </c>
       <c r="AQ12" s="9">
         <f t="shared" si="23"/>
-        <v>1.4790076335877835</v>
+        <v>0.54808171400100791</v>
       </c>
       <c r="AR12" s="9">
         <f t="shared" si="24"/>
-        <v>0.29325513196480663</v>
+        <v>0.50684237202230109</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2897,38 +2897,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>128.75</v>
+        <v>120.5</v>
       </c>
       <c r="C13">
-        <v>128.75</v>
+        <v>124.5</v>
       </c>
       <c r="D13">
-        <v>122.15</v>
+        <v>119.55</v>
       </c>
       <c r="E13">
-        <v>122.95</v>
+        <v>120.2</v>
       </c>
       <c r="F13">
-        <v>-5.3500000000000094</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="G13">
-        <v>-4.1699142634450572</v>
+        <v>0.29203170629954822</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>-4.5048543689320368</v>
+        <v>-0.2489626556016574</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="1"/>
-        <v>4.5048543689320368</v>
+        <v>0.2489626556016574</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.3195020746887969</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
-        <v>0.65067100447336079</v>
+        <v>0.54076539101497978</v>
       </c>
       <c r="L13" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O13" s="9" t="str">
         <f t="shared" si="7"/>
@@ -2959,38 +2959,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>129</v>
+        <v>119.15</v>
       </c>
       <c r="T13">
-        <v>131.4</v>
+        <v>120.85</v>
       </c>
       <c r="U13">
-        <v>127.4</v>
+        <v>118.5</v>
       </c>
       <c r="V13">
-        <v>128.30000000000001</v>
+        <v>119.85</v>
       </c>
       <c r="W13">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>-0.58117008911274692</v>
+        <v>0.84139671855279763</v>
       </c>
       <c r="Y13" s="9">
         <f t="shared" si="11"/>
-        <v>-0.54263565891471988</v>
+        <v>0.58749475451111088</v>
       </c>
       <c r="Z13" s="9">
         <f t="shared" si="12"/>
-        <v>0.54263565891471988</v>
+        <v>0.58749475451111088</v>
       </c>
       <c r="AA13" s="9">
         <f t="shared" si="13"/>
-        <v>1.8604651162790742</v>
+        <v>0.83437630371297455</v>
       </c>
       <c r="AB13" s="9">
         <f t="shared" si="14"/>
-        <v>0.70148090413094744</v>
+        <v>0.54553084347461656</v>
       </c>
       <c r="AC13" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3017,38 +3017,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>125.05</v>
+        <v>120.4</v>
       </c>
       <c r="AJ13">
-        <v>129.5</v>
+        <v>120.5</v>
       </c>
       <c r="AK13">
-        <v>124.65</v>
+        <v>118.4</v>
       </c>
       <c r="AL13">
-        <v>129.05000000000001</v>
+        <v>118.85</v>
       </c>
       <c r="AM13">
-        <v>2.600000000000009</v>
+        <v>-1</v>
       </c>
       <c r="AN13">
-        <v>2.0561486753657641</v>
+        <v>-0.83437630371297455</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="21"/>
-        <v>3.198720511795293</v>
+        <v>-1.2873754152824013</v>
       </c>
       <c r="AP13" s="9">
         <f t="shared" si="22"/>
-        <v>3.198720511795293</v>
+        <v>1.2873754152824013</v>
       </c>
       <c r="AQ13" s="9">
         <f t="shared" si="23"/>
-        <v>0.34870205346763933</v>
+        <v>8.3056478405310885E-2</v>
       </c>
       <c r="AR13" s="9">
         <f t="shared" si="24"/>
-        <v>0.31987205117952139</v>
+        <v>0.37862852334874941</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3080,38 +3080,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>613</v>
+        <v>630.79999999999995</v>
       </c>
       <c r="C14">
-        <v>626.9</v>
+        <v>656</v>
       </c>
       <c r="D14">
-        <v>598.6</v>
+        <v>630.5</v>
       </c>
       <c r="E14">
-        <v>611.54999999999995</v>
+        <v>652.70000000000005</v>
       </c>
       <c r="F14">
-        <v>4.4499999999999318</v>
+        <v>26.25</v>
       </c>
       <c r="G14">
-        <v>0.73299291714708148</v>
+        <v>4.1902785537552871</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>-0.23654159869495031</v>
+        <v>3.471781864299317</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="1"/>
-        <v>0.23654159869495031</v>
+        <v>3.471781864299317</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="2"/>
-        <v>2.2675367047308286</v>
+        <v>0.50559215566109306</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
-        <v>2.1175701087400758</v>
+        <v>4.7558655675325703E-2</v>
       </c>
       <c r="L14" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="P14" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q14" s="9" t="str">
         <f t="shared" si="9"/>
@@ -3142,38 +3142,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="T14">
-        <v>622</v>
+        <v>644.35</v>
       </c>
       <c r="U14">
-        <v>605.15</v>
+        <v>613.35</v>
       </c>
       <c r="V14">
-        <v>607.1</v>
+        <v>626.45000000000005</v>
       </c>
       <c r="W14">
-        <v>-6.1000000000000227</v>
+        <v>-3.549999999999955</v>
       </c>
       <c r="X14">
-        <v>-0.99478147423353258</v>
+        <v>-0.56349206349205627</v>
       </c>
       <c r="Y14" s="9">
         <f t="shared" si="11"/>
-        <v>-1.1237785016286608</v>
+        <v>-0.56349206349205627</v>
       </c>
       <c r="Z14" s="9">
         <f t="shared" si="12"/>
-        <v>1.1237785016286608</v>
+        <v>0.56349206349205627</v>
       </c>
       <c r="AA14" s="9">
         <f t="shared" si="13"/>
-        <v>1.3029315960912053</v>
+        <v>2.2777777777777812</v>
       </c>
       <c r="AB14" s="9">
         <f t="shared" si="14"/>
-        <v>0.32119914346895823</v>
+        <v>2.0911485353978807</v>
       </c>
       <c r="AC14" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3200,38 +3200,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>602</v>
+        <v>619.5</v>
       </c>
       <c r="AJ14">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="AK14">
-        <v>601.54999999999995</v>
+        <v>619.5</v>
       </c>
       <c r="AL14">
-        <v>613.20000000000005</v>
+        <v>630</v>
       </c>
       <c r="AM14">
-        <v>6.6500000000000909</v>
+        <v>16.600000000000019</v>
       </c>
       <c r="AN14">
-        <v>1.096364685516461</v>
+        <v>2.706227583958269</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="21"/>
-        <v>1.8604651162790773</v>
+        <v>1.6949152542372881</v>
       </c>
       <c r="AP14" s="9">
         <f t="shared" si="22"/>
-        <v>1.8604651162790773</v>
+        <v>1.6949152542372881</v>
       </c>
       <c r="AQ14" s="9">
         <f t="shared" si="23"/>
-        <v>0.78277886497063831</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="AR14" s="9">
         <f t="shared" si="24"/>
-        <v>7.4750830564791607E-2</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3263,38 +3263,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C15">
-        <v>200</v>
+        <v>236.2</v>
       </c>
       <c r="D15">
-        <v>188.5</v>
+        <v>226.5</v>
       </c>
       <c r="E15">
-        <v>193</v>
+        <v>232.1</v>
       </c>
       <c r="F15">
-        <v>-8.8000000000000114</v>
+        <v>7.6500000000000057</v>
       </c>
       <c r="G15">
-        <v>-4.3607532210109072</v>
+        <v>3.4083314769436428</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="0"/>
-        <v>-3.5000000000000004</v>
+        <v>0.91304347826086707</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="1"/>
-        <v>3.5000000000000004</v>
+        <v>0.91304347826086707</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.766479965532096</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="3"/>
-        <v>2.3316062176165802</v>
+        <v>1.5217391304347827</v>
       </c>
       <c r="L15" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="P15" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q15" s="9" t="str">
         <f t="shared" si="9"/>
@@ -3325,38 +3325,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>210</v>
+        <v>222.6</v>
       </c>
       <c r="T15">
-        <v>211.75</v>
+        <v>226.45</v>
       </c>
       <c r="U15">
-        <v>200</v>
+        <v>221.35</v>
       </c>
       <c r="V15">
-        <v>201.8</v>
+        <v>224.45</v>
       </c>
       <c r="W15">
-        <v>-4.1499999999999773</v>
+        <v>3.1999999999999891</v>
       </c>
       <c r="X15">
-        <v>-2.015052197135216</v>
+        <v>1.4463276836158141</v>
       </c>
       <c r="Y15" s="9">
         <f t="shared" si="11"/>
-        <v>-3.9047619047618989</v>
+        <v>0.83108715184186632</v>
       </c>
       <c r="Z15" s="9">
         <f t="shared" si="12"/>
-        <v>3.9047619047618989</v>
+        <v>0.83108715184186632</v>
       </c>
       <c r="AA15" s="9">
         <f t="shared" si="13"/>
-        <v>0.83333333333333337</v>
+        <v>0.89106705279572296</v>
       </c>
       <c r="AB15" s="9">
         <f t="shared" si="14"/>
-        <v>0.89197224975223544</v>
+        <v>0.5615453728661276</v>
       </c>
       <c r="AC15" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3383,38 +3383,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>192.7</v>
+        <v>222</v>
       </c>
       <c r="AJ15">
-        <v>208.4</v>
+        <v>225.85</v>
       </c>
       <c r="AK15">
-        <v>190.1</v>
+        <v>217.05</v>
       </c>
       <c r="AL15">
-        <v>205.95</v>
+        <v>221.25</v>
       </c>
       <c r="AM15">
-        <v>9.1499999999999773</v>
+        <v>0.69999999999998863</v>
       </c>
       <c r="AN15">
-        <v>4.6493902439024266</v>
+        <v>0.31738834731352922</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="21"/>
-        <v>6.8759730150492997</v>
+        <v>-0.33783783783783783</v>
       </c>
       <c r="AP15" s="9">
         <f t="shared" si="22"/>
-        <v>6.8759730150492997</v>
+        <v>0.33783783783783783</v>
       </c>
       <c r="AQ15" s="9">
         <f t="shared" si="23"/>
-        <v>1.1896091284292387</v>
+        <v>1.7342342342342318</v>
       </c>
       <c r="AR15" s="9">
         <f t="shared" si="24"/>
-        <v>1.3492475350285389</v>
+        <v>1.8983050847457574</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3446,38 +3446,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>410.2</v>
+        <v>456.85</v>
       </c>
       <c r="C16">
-        <v>414.65</v>
+        <v>487.75</v>
       </c>
       <c r="D16">
-        <v>396</v>
+        <v>456.1</v>
       </c>
       <c r="E16">
-        <v>397.6</v>
+        <v>471.55</v>
       </c>
       <c r="F16">
-        <v>-13</v>
+        <v>15.150000000000031</v>
       </c>
       <c r="G16">
-        <v>-3.1660983925962012</v>
+        <v>3.3194566170026372</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
-        <v>-3.0716723549487974</v>
+        <v>3.2176863303053493</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="1"/>
-        <v>3.0716723549487974</v>
+        <v>3.2176863303053493</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="2"/>
-        <v>1.0848366650414405</v>
+        <v>3.4354787403244593</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="3"/>
-        <v>0.40241448692153486</v>
+        <v>0.16416766991353837</v>
       </c>
       <c r="L16" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3508,38 +3508,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>410.9</v>
+        <v>465</v>
       </c>
       <c r="T16">
-        <v>417.4</v>
+        <v>469</v>
       </c>
       <c r="U16">
-        <v>405.5</v>
+        <v>452.5</v>
       </c>
       <c r="V16">
-        <v>410.6</v>
+        <v>456.4</v>
       </c>
       <c r="W16">
-        <v>6.9000000000000341</v>
+        <v>-14.05000000000001</v>
       </c>
       <c r="X16">
-        <v>1.709189992568747</v>
+        <v>-2.9865022850462348</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="11"/>
-        <v>-7.3010464833281705E-2</v>
+        <v>-1.8494623655914026</v>
       </c>
       <c r="Z16" s="9">
         <f t="shared" si="12"/>
-        <v>7.3010464833281705E-2</v>
+        <v>1.8494623655914026</v>
       </c>
       <c r="AA16" s="9">
         <f t="shared" si="13"/>
-        <v>1.5818934047213435</v>
+        <v>0.86021505376344087</v>
       </c>
       <c r="AB16" s="9">
         <f t="shared" si="14"/>
-        <v>1.2420847540185149</v>
+        <v>0.85451358457492943</v>
       </c>
       <c r="AC16" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3566,38 +3566,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>398.9</v>
+        <v>464.7</v>
       </c>
       <c r="AJ16">
-        <v>408.85</v>
+        <v>472.4</v>
       </c>
       <c r="AK16">
-        <v>395.1</v>
+        <v>458.5</v>
       </c>
       <c r="AL16">
-        <v>403.7</v>
+        <v>470.45</v>
       </c>
       <c r="AM16">
-        <v>2.5999999999999659</v>
+        <v>10.099999999999969</v>
       </c>
       <c r="AN16">
-        <v>0.64821740214409518</v>
+        <v>2.1939828391441218</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="21"/>
-        <v>1.203309100025072</v>
+        <v>1.2373574349042393</v>
       </c>
       <c r="AP16" s="9">
         <f t="shared" si="22"/>
-        <v>1.203309100025072</v>
+        <v>1.2373574349042393</v>
       </c>
       <c r="AQ16" s="9">
         <f t="shared" si="23"/>
-        <v>1.2756997770621834</v>
+        <v>0.41449675842278427</v>
       </c>
       <c r="AR16" s="9">
         <f t="shared" si="24"/>
-        <v>0.95261970418650155</v>
+        <v>1.3341941037228295</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="AV16" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW16" t="str">
         <f t="shared" si="29"/>
@@ -3629,38 +3629,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>1014.5</v>
+        <v>1207</v>
       </c>
       <c r="C17">
-        <v>1043.6500000000001</v>
+        <v>1276</v>
       </c>
       <c r="D17">
-        <v>1002.2</v>
+        <v>1197.5</v>
       </c>
       <c r="E17">
-        <v>1033.45</v>
+        <v>1246.5</v>
       </c>
       <c r="F17">
-        <v>16.100000000000019</v>
+        <v>47.900000000000091</v>
       </c>
       <c r="G17">
-        <v>1.582542881014402</v>
+        <v>3.9963290505589941</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
-        <v>1.8679152291769392</v>
+        <v>3.272576636288318</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="1"/>
-        <v>1.8679152291769392</v>
+        <v>3.272576636288318</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="2"/>
-        <v>0.9869853403648019</v>
+        <v>2.3666265543521861</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="3"/>
-        <v>1.2124199112863434</v>
+        <v>0.78707539353769684</v>
       </c>
       <c r="L17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3691,38 +3691,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>1033</v>
+        <v>1192.8</v>
       </c>
       <c r="T17">
-        <v>1045.0999999999999</v>
+        <v>1214.25</v>
       </c>
       <c r="U17">
-        <v>1005.4</v>
+        <v>1182</v>
       </c>
       <c r="V17">
-        <v>1017.35</v>
+        <v>1198.5999999999999</v>
       </c>
       <c r="W17">
-        <v>-13.600000000000019</v>
+        <v>5.1499999999998636</v>
       </c>
       <c r="X17">
-        <v>-1.3191716378097891</v>
+        <v>0.43152205789935588</v>
       </c>
       <c r="Y17" s="9">
         <f t="shared" si="11"/>
-        <v>-1.515004840271053</v>
+        <v>0.48625083836351063</v>
       </c>
       <c r="Z17" s="9">
         <f t="shared" si="12"/>
-        <v>1.515004840271053</v>
+        <v>0.48625083836351063</v>
       </c>
       <c r="AA17" s="9">
         <f t="shared" si="13"/>
-        <v>1.1713455953533312</v>
+        <v>1.3056899716335801</v>
       </c>
       <c r="AB17" s="9">
         <f t="shared" si="14"/>
-        <v>1.1746203371504444</v>
+        <v>0.9054325955734368</v>
       </c>
       <c r="AC17" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3749,38 +3749,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>988</v>
+        <v>1208.9000000000001</v>
       </c>
       <c r="AJ17">
-        <v>1036.6500000000001</v>
+        <v>1230</v>
       </c>
       <c r="AK17">
-        <v>978.8</v>
+        <v>1161</v>
       </c>
       <c r="AL17">
-        <v>1030.95</v>
+        <v>1193.45</v>
       </c>
       <c r="AM17">
-        <v>43.200000000000053</v>
+        <v>-12.349999999999911</v>
       </c>
       <c r="AN17">
-        <v>4.3735763097949931</v>
+        <v>-1.0242162879416079</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="21"/>
-        <v>4.3471659919028385</v>
+        <v>-1.278021341715613</v>
       </c>
       <c r="AP17" s="9">
         <f t="shared" si="22"/>
-        <v>4.3471659919028385</v>
+        <v>1.278021341715613</v>
       </c>
       <c r="AQ17" s="9">
         <f t="shared" si="23"/>
-        <v>0.55288811290557693</v>
+        <v>1.7453883695921837</v>
       </c>
       <c r="AR17" s="9">
         <f t="shared" si="24"/>
-        <v>0.93117408906883048</v>
+        <v>2.7190079182202895</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3812,38 +3812,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>148.80000000000001</v>
+        <v>156.65</v>
       </c>
       <c r="C18">
-        <v>148.80000000000001</v>
+        <v>162.4</v>
       </c>
       <c r="D18">
-        <v>145.80000000000001</v>
+        <v>156.4</v>
       </c>
       <c r="E18">
-        <v>147.25</v>
+        <v>160.25</v>
       </c>
       <c r="F18">
-        <v>-1.6500000000000059</v>
+        <v>4.5999999999999943</v>
       </c>
       <c r="G18">
-        <v>-1.108126259234389</v>
+        <v>2.9553485383874039</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="0"/>
-        <v>-1.0416666666666743</v>
+        <v>2.298116820938394</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="1"/>
-        <v>1.0416666666666743</v>
+        <v>2.298116820938394</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.3416536661466494</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="3"/>
-        <v>0.98471986417656288</v>
+        <v>0.15959144589849983</v>
       </c>
       <c r="L18" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3874,38 +3874,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>151.19999999999999</v>
+        <v>156.9</v>
       </c>
       <c r="T18">
-        <v>152.15</v>
+        <v>157.94999999999999</v>
       </c>
       <c r="U18">
-        <v>148.5</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="V18">
-        <v>148.9</v>
+        <v>155.65</v>
       </c>
       <c r="W18">
-        <v>-1.1999999999999891</v>
+        <v>-0.54999999999998295</v>
       </c>
       <c r="X18">
-        <v>-0.79946702198533548</v>
+        <v>-0.35211267605632712</v>
       </c>
       <c r="Y18" s="9">
         <f t="shared" si="11"/>
-        <v>-1.5211640211640101</v>
+        <v>-0.79668578712555771</v>
       </c>
       <c r="Z18" s="9">
         <f t="shared" si="12"/>
-        <v>1.5211640211640101</v>
+        <v>0.79668578712555771</v>
       </c>
       <c r="AA18" s="9">
         <f t="shared" si="13"/>
-        <v>0.62830687830688958</v>
+        <v>0.66921606118545751</v>
       </c>
       <c r="AB18" s="9">
         <f t="shared" si="14"/>
-        <v>0.26863666890530941</v>
+        <v>0.86733054930934417</v>
       </c>
       <c r="AC18" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3932,38 +3932,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>149</v>
+        <v>156.25</v>
       </c>
       <c r="AJ18">
-        <v>151.25</v>
+        <v>159.44999999999999</v>
       </c>
       <c r="AK18">
-        <v>147.25</v>
+        <v>154.4</v>
       </c>
       <c r="AL18">
-        <v>150.1</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="AM18">
-        <v>0.54999999999998295</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="AN18">
-        <v>0.36776997659644461</v>
+        <v>0.28892455858747262</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="21"/>
-        <v>0.73825503355704314</v>
+        <v>-3.200000000000728E-2</v>
       </c>
       <c r="AP18" s="9">
         <f t="shared" si="22"/>
-        <v>0.73825503355704314</v>
+        <v>3.200000000000728E-2</v>
       </c>
       <c r="AQ18" s="9">
         <f t="shared" si="23"/>
-        <v>0.76615589606929091</v>
+        <v>2.0479999999999929</v>
       </c>
       <c r="AR18" s="9">
         <f t="shared" si="24"/>
-        <v>1.174496644295302</v>
+        <v>1.1523687580025499</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3995,38 +3995,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>52.95</v>
+        <v>52.4</v>
       </c>
       <c r="C19">
-        <v>52.95</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>51.25</v>
+        <v>52.3</v>
       </c>
       <c r="E19">
-        <v>51.55</v>
+        <v>53.35</v>
       </c>
       <c r="F19">
-        <v>-1.9000000000000059</v>
+        <v>1.550000000000004</v>
       </c>
       <c r="G19">
-        <v>-3.554724041159973</v>
+        <v>2.9922779922780012</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
-        <v>-2.6440037771482636</v>
+        <v>1.8129770992366467</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="1"/>
-        <v>2.6440037771482636</v>
+        <v>1.8129770992366467</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.0927835051546366</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="3"/>
-        <v>0.58195926285159483</v>
+        <v>0.19083969465649128</v>
       </c>
       <c r="L19" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="O19" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P19" s="9" t="str">
         <f t="shared" si="8"/>
@@ -4057,38 +4057,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>53.25</v>
+        <v>51.4</v>
       </c>
       <c r="T19">
-        <v>54.95</v>
+        <v>52.15</v>
       </c>
       <c r="U19">
-        <v>52.8</v>
+        <v>50.85</v>
       </c>
       <c r="V19">
-        <v>53.45</v>
+        <v>51.8</v>
       </c>
       <c r="W19">
-        <v>1.25</v>
+        <v>0.54999999999999716</v>
       </c>
       <c r="X19">
-        <v>2.3946360153256698</v>
+        <v>1.073170731707312</v>
       </c>
       <c r="Y19" s="9">
         <f t="shared" si="11"/>
-        <v>0.37558685446009921</v>
+        <v>0.77821011673151474</v>
       </c>
       <c r="Z19" s="9">
         <f t="shared" si="12"/>
-        <v>0.37558685446009921</v>
+        <v>0.77821011673151474</v>
       </c>
       <c r="AA19" s="9">
         <f t="shared" si="13"/>
-        <v>2.8063610851262863</v>
+        <v>0.67567567567567854</v>
       </c>
       <c r="AB19" s="9">
         <f t="shared" si="14"/>
-        <v>0.84507042253521658</v>
+        <v>1.070038910505831</v>
       </c>
       <c r="AC19" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4115,38 +4115,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>53</v>
+        <v>52.1</v>
       </c>
       <c r="AJ19">
-        <v>53.75</v>
+        <v>52.5</v>
       </c>
       <c r="AK19">
-        <v>51.1</v>
+        <v>50.6</v>
       </c>
       <c r="AL19">
-        <v>52.2</v>
+        <v>51.25</v>
       </c>
       <c r="AM19">
-        <v>-1.0499999999999969</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="AN19">
-        <v>-1.9718309859154881</v>
+        <v>-9.7465886939565621E-2</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="21"/>
-        <v>-1.5094339622641455</v>
+        <v>-1.6314779270633424</v>
       </c>
       <c r="AP19" s="9">
         <f t="shared" si="22"/>
-        <v>1.5094339622641455</v>
+        <v>1.6314779270633424</v>
       </c>
       <c r="AQ19" s="9">
         <f t="shared" si="23"/>
-        <v>1.4150943396226416</v>
+        <v>0.76775431861803956</v>
       </c>
       <c r="AR19" s="9">
         <f t="shared" si="24"/>
-        <v>2.1072796934865927</v>
+        <v>1.2682926829268266</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4178,38 +4178,38 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>474.9</v>
+        <v>487</v>
       </c>
       <c r="C20">
-        <v>484.7</v>
+        <v>492.2</v>
       </c>
       <c r="D20">
-        <v>465.1</v>
+        <v>476</v>
       </c>
       <c r="E20">
-        <v>467.8</v>
+        <v>482.85</v>
       </c>
       <c r="F20">
-        <v>1.100000000000023</v>
+        <v>-2.299999999999955</v>
       </c>
       <c r="G20">
-        <v>0.23569745018213481</v>
+        <v>-0.47408018138719049</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="0"/>
-        <v>-1.4950515898083736</v>
+        <v>-0.8521560574948619</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="1"/>
-        <v>1.4950515898083736</v>
+        <v>0.8521560574948619</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" si="2"/>
-        <v>2.0635923352284715</v>
+        <v>1.0677618069815173</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="3"/>
-        <v>0.57716973065412325</v>
+        <v>1.4186600393496991</v>
       </c>
       <c r="L20" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4240,38 +4240,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>465</v>
+        <v>470.8</v>
       </c>
       <c r="T20">
-        <v>477.75</v>
+        <v>487.7</v>
       </c>
       <c r="U20">
-        <v>461.55</v>
+        <v>468.25</v>
       </c>
       <c r="V20">
-        <v>466.7</v>
+        <v>485.15</v>
       </c>
       <c r="W20">
-        <v>8.5999999999999659</v>
+        <v>14.349999999999969</v>
       </c>
       <c r="X20">
-        <v>1.877319362584581</v>
+        <v>3.0480033984706809</v>
       </c>
       <c r="Y20" s="9">
         <f t="shared" si="11"/>
-        <v>0.36559139784945993</v>
+        <v>3.0480033984706809</v>
       </c>
       <c r="Z20" s="9">
         <f t="shared" si="12"/>
-        <v>0.36559139784945993</v>
+        <v>3.0480033984706809</v>
       </c>
       <c r="AA20" s="9">
         <f t="shared" si="13"/>
-        <v>2.367688022284125</v>
+        <v>0.52561063588581092</v>
       </c>
       <c r="AB20" s="9">
         <f t="shared" si="14"/>
-        <v>0.74193548387096531</v>
+        <v>0.54163126593033373</v>
       </c>
       <c r="AC20" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4298,38 +4298,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>450</v>
+        <v>473.7</v>
       </c>
       <c r="AJ20">
-        <v>469.9</v>
+        <v>478.35</v>
       </c>
       <c r="AK20">
-        <v>434</v>
+        <v>464.6</v>
       </c>
       <c r="AL20">
-        <v>458.1</v>
+        <v>470.8</v>
       </c>
       <c r="AM20">
-        <v>-1.0999999999999659</v>
+        <v>1.1999999999999891</v>
       </c>
       <c r="AN20">
-        <v>-0.2395470383275187</v>
+        <v>0.25553662691652218</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="21"/>
-        <v>1.8000000000000052</v>
+        <v>-0.61220181549503427</v>
       </c>
       <c r="AP20" s="9">
         <f t="shared" si="22"/>
-        <v>1.8000000000000052</v>
+        <v>0.61220181549503427</v>
       </c>
       <c r="AQ20" s="9">
         <f t="shared" si="23"/>
-        <v>2.5758567998253556</v>
+        <v>0.98163394553515604</v>
       </c>
       <c r="AR20" s="9">
         <f t="shared" si="24"/>
-        <v>3.5555555555555554</v>
+        <v>1.3169073916737444</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4361,38 +4361,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>20.350000000000001</v>
+        <v>23.65</v>
       </c>
       <c r="C21">
-        <v>20.65</v>
+        <v>24.25</v>
       </c>
       <c r="D21">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="E21">
-        <v>20.05</v>
+        <v>23.7</v>
       </c>
       <c r="F21">
-        <v>-0.34999999999999792</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="G21">
-        <v>-1.7156862745097941</v>
+        <v>1.282051282051285</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
-        <v>-1.4742014742014775</v>
+        <v>0.21141649048626093</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="1"/>
-        <v>1.4742014742014775</v>
+        <v>0.21141649048626093</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="2"/>
-        <v>1.4742014742014602</v>
+        <v>2.3206751054852353</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="3"/>
-        <v>0.7481296758104844</v>
+        <v>0.63424947145876776</v>
       </c>
       <c r="L21" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="N21" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O21" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4423,38 +4423,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>20.75</v>
+        <v>23.1</v>
       </c>
       <c r="T21">
-        <v>20.8</v>
+        <v>23.55</v>
       </c>
       <c r="U21">
-        <v>20.350000000000001</v>
+        <v>22.9</v>
       </c>
       <c r="V21">
-        <v>20.399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="W21">
-        <v>-5.0000000000000711E-2</v>
+        <v>0.29999999999999721</v>
       </c>
       <c r="X21">
-        <v>-0.2444987775061159</v>
+        <v>1.298701298701286</v>
       </c>
       <c r="Y21" s="9">
         <f t="shared" si="11"/>
-        <v>-1.6867469879518142</v>
+        <v>1.2987012987012863</v>
       </c>
       <c r="Z21" s="9">
         <f t="shared" si="12"/>
-        <v>1.6867469879518142</v>
+        <v>1.2987012987012863</v>
       </c>
       <c r="AA21" s="9">
         <f t="shared" si="13"/>
-        <v>0.24096385542169016</v>
+        <v>0.64102564102565018</v>
       </c>
       <c r="AB21" s="9">
         <f t="shared" si="14"/>
-        <v>0.24509803921567236</v>
+        <v>0.86580086580087812</v>
       </c>
       <c r="AC21" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4481,38 +4481,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>20.45</v>
+        <v>23.25</v>
       </c>
       <c r="AJ21">
-        <v>20.95</v>
+        <v>23.75</v>
       </c>
       <c r="AK21">
-        <v>20.350000000000001</v>
+        <v>22.7</v>
       </c>
       <c r="AL21">
-        <v>20.45</v>
+        <v>23.1</v>
       </c>
       <c r="AM21">
-        <v>-0.19999999999999929</v>
+        <v>-9.9999999999997868E-2</v>
       </c>
       <c r="AN21">
-        <v>-0.96852300242130407</v>
+        <v>-0.4310344827586115</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-0.64516129032257452</v>
       </c>
       <c r="AP21" s="9">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.64516129032257452</v>
       </c>
       <c r="AQ21" s="9">
         <f t="shared" si="23"/>
-        <v>2.4449877750611249</v>
+        <v>2.1505376344086025</v>
       </c>
       <c r="AR21" s="9">
         <f t="shared" si="24"/>
-        <v>0.48899755501221454</v>
+        <v>1.7316017316017407</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4544,38 +4544,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>328.95</v>
+        <v>420.7</v>
       </c>
       <c r="C22">
-        <v>337.9</v>
+        <v>429.6</v>
       </c>
       <c r="D22">
-        <v>325.10000000000002</v>
+        <v>409.5</v>
       </c>
       <c r="E22">
-        <v>332.65</v>
+        <v>424.95</v>
       </c>
       <c r="F22">
-        <v>5.6999999999999886</v>
+        <v>7.75</v>
       </c>
       <c r="G22">
-        <v>1.743385838813271</v>
+        <v>1.8576222435282841</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="0"/>
-        <v>1.1247910016719831</v>
+        <v>1.0102210601378656</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="1"/>
-        <v>1.1247910016719831</v>
+        <v>1.0102210601378656</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="2"/>
-        <v>1.5782353825341953</v>
+        <v>1.0942463819272936</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="3"/>
-        <v>1.1703906368748946</v>
+        <v>2.6622296173044897</v>
       </c>
       <c r="L22" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="6"/>
@@ -4606,38 +4606,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>326</v>
+        <v>420.05</v>
       </c>
       <c r="T22">
-        <v>329.8</v>
+        <v>429.55</v>
       </c>
       <c r="U22">
-        <v>322.35000000000002</v>
+        <v>406.4</v>
       </c>
       <c r="V22">
-        <v>326.95</v>
+        <v>417.2</v>
       </c>
       <c r="W22">
-        <v>2.9499999999999891</v>
+        <v>-6.6500000000000341</v>
       </c>
       <c r="X22">
-        <v>0.91049382716049032</v>
+        <v>-1.5689512799339469</v>
       </c>
       <c r="Y22" s="9">
         <f t="shared" si="11"/>
-        <v>0.29141104294478176</v>
+        <v>-0.67849065587430613</v>
       </c>
       <c r="Z22" s="9">
         <f t="shared" si="12"/>
-        <v>0.29141104294478176</v>
+        <v>0.67849065587430613</v>
       </c>
       <c r="AA22" s="9">
         <f t="shared" si="13"/>
-        <v>0.87169291940664395</v>
+        <v>2.2616355195810023</v>
       </c>
       <c r="AB22" s="9">
         <f t="shared" si="14"/>
-        <v>1.1196319018404839</v>
+        <v>2.5886864813039336</v>
       </c>
       <c r="AC22" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4664,38 +4664,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>321.05</v>
+        <v>422.05</v>
       </c>
       <c r="AJ22">
-        <v>325.8</v>
+        <v>433</v>
       </c>
       <c r="AK22">
-        <v>318.55</v>
+        <v>416.1</v>
       </c>
       <c r="AL22">
-        <v>324</v>
+        <v>423.85</v>
       </c>
       <c r="AM22">
-        <v>2.8500000000000232</v>
+        <v>2.200000000000045</v>
       </c>
       <c r="AN22">
-        <v>0.88743577767399129</v>
+        <v>0.52175975334994551</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="21"/>
-        <v>0.91885999065565749</v>
+        <v>0.42648975239900755</v>
       </c>
       <c r="AP22" s="9">
         <f t="shared" si="22"/>
-        <v>0.91885999065565749</v>
+        <v>0.42648975239900755</v>
       </c>
       <c r="AQ22" s="9">
         <f t="shared" si="23"/>
-        <v>0.55555555555555902</v>
+        <v>2.1587825881797751</v>
       </c>
       <c r="AR22" s="9">
         <f t="shared" si="24"/>
-        <v>0.778694907335306</v>
+        <v>1.409785570430041</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4727,38 +4727,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>26.8</v>
+        <v>31.4</v>
       </c>
       <c r="C23">
-        <v>26.85</v>
+        <v>31.7</v>
       </c>
       <c r="D23">
-        <v>25.55</v>
+        <v>30.65</v>
       </c>
       <c r="E23">
-        <v>25.95</v>
+        <v>31.05</v>
       </c>
       <c r="F23">
-        <v>-0.85000000000000142</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>-3.1716417910447809</v>
+        <v>0</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="0"/>
-        <v>-3.1716417910447809</v>
+        <v>-1.1146496815286557</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="1"/>
-        <v>3.1716417910447809</v>
+        <v>1.1146496815286557</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="2"/>
-        <v>0.18656716417910713</v>
+        <v>0.95541401273885584</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="3"/>
-        <v>1.5414258188824608</v>
+        <v>1.2882447665056429</v>
       </c>
       <c r="L23" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4789,38 +4789,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>27.4</v>
+        <v>30.8</v>
       </c>
       <c r="T23">
-        <v>27.7</v>
+        <v>31.2</v>
       </c>
       <c r="U23">
-        <v>26.65</v>
+        <v>30.4</v>
       </c>
       <c r="V23">
-        <v>26.8</v>
+        <v>31.05</v>
       </c>
       <c r="W23">
-        <v>-0.19999999999999929</v>
+        <v>0.40000000000000208</v>
       </c>
       <c r="X23">
-        <v>-0.74074074074073804</v>
+        <v>1.305057096247968</v>
       </c>
       <c r="Y23" s="9">
         <f t="shared" si="11"/>
-        <v>-2.1897810218978027</v>
+        <v>0.81168831168831157</v>
       </c>
       <c r="Z23" s="9">
         <f t="shared" si="12"/>
-        <v>2.1897810218978027</v>
+        <v>0.81168831168831157</v>
       </c>
       <c r="AA23" s="9">
         <f t="shared" si="13"/>
-        <v>1.0948905109489078</v>
+        <v>0.4830917874396089</v>
       </c>
       <c r="AB23" s="9">
         <f t="shared" si="14"/>
-        <v>0.55970149253732138</v>
+        <v>1.2987012987013056</v>
       </c>
       <c r="AC23" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4847,38 +4847,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>27.05</v>
+        <v>29.75</v>
       </c>
       <c r="AJ23">
-        <v>27.8</v>
+        <v>30.9</v>
       </c>
       <c r="AK23">
-        <v>26.8</v>
+        <v>29.7</v>
       </c>
       <c r="AL23">
-        <v>27</v>
+        <v>30.65</v>
       </c>
       <c r="AM23">
-        <v>-0.55000000000000071</v>
+        <v>1.25</v>
       </c>
       <c r="AN23">
-        <v>-1.9963702359346669</v>
+        <v>4.2517006802721076</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="21"/>
-        <v>-0.18484288354898598</v>
+        <v>3.0252100840336085</v>
       </c>
       <c r="AP23" s="9">
         <f t="shared" si="22"/>
-        <v>0.18484288354898598</v>
+        <v>3.0252100840336085</v>
       </c>
       <c r="AQ23" s="9">
         <f t="shared" si="23"/>
-        <v>2.7726432532347505</v>
+        <v>0.81566068515497558</v>
       </c>
       <c r="AR23" s="9">
         <f t="shared" si="24"/>
-        <v>0.74074074074073804</v>
+        <v>0.1680672268907587</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4910,38 +4910,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>441.65</v>
+        <v>405.1</v>
       </c>
       <c r="C24">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="D24">
-        <v>437</v>
+        <v>402.8</v>
       </c>
       <c r="E24">
-        <v>444.45</v>
+        <v>408.8</v>
       </c>
       <c r="F24">
-        <v>2.3499999999999659</v>
+        <v>5.6500000000000341</v>
       </c>
       <c r="G24">
-        <v>0.53155394707079073</v>
+        <v>1.401463475133333</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>0.6339861881580463</v>
+        <v>0.91335472722784206</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="1"/>
-        <v>0.6339861881580463</v>
+        <v>0.91335472722784206</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="2"/>
-        <v>0.79874001574980569</v>
+        <v>1.2720156555772966</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="3"/>
-        <v>1.0528699196196032</v>
+        <v>0.5677610466551497</v>
       </c>
       <c r="L24" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4972,38 +4972,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>448.9</v>
+        <v>390</v>
       </c>
       <c r="T24">
-        <v>450.8</v>
+        <v>405</v>
       </c>
       <c r="U24">
-        <v>439.2</v>
+        <v>389</v>
       </c>
       <c r="V24">
-        <v>442.1</v>
+        <v>403.15</v>
       </c>
       <c r="W24">
-        <v>-3.049999999999955</v>
+        <v>14.849999999999969</v>
       </c>
       <c r="X24">
-        <v>-0.68516230484105467</v>
+        <v>3.824362606232286</v>
       </c>
       <c r="Y24" s="9">
         <f t="shared" si="11"/>
-        <v>-1.5148139897527189</v>
+        <v>3.3717948717948656</v>
       </c>
       <c r="Z24" s="9">
         <f t="shared" si="12"/>
-        <v>1.5148139897527189</v>
+        <v>3.3717948717948656</v>
       </c>
       <c r="AA24" s="9">
         <f t="shared" si="13"/>
-        <v>0.42325685007797598</v>
+        <v>0.45888627061888199</v>
       </c>
       <c r="AB24" s="9">
         <f t="shared" si="14"/>
-        <v>0.65596019000226957</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="AC24" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5030,38 +5030,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>443.75</v>
+        <v>393.5</v>
       </c>
       <c r="AJ24">
-        <v>447.55</v>
+        <v>399</v>
       </c>
       <c r="AK24">
-        <v>428.65</v>
+        <v>383.6</v>
       </c>
       <c r="AL24">
-        <v>445.15</v>
+        <v>388.3</v>
       </c>
       <c r="AM24">
-        <v>1.5999999999999659</v>
+        <v>-3.1999999999999891</v>
       </c>
       <c r="AN24">
-        <v>0.36072596099649779</v>
+        <v>-0.81736909323115936</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="21"/>
-        <v>0.31549295774647373</v>
+        <v>-1.321473951715372</v>
       </c>
       <c r="AP24" s="9">
         <f t="shared" si="22"/>
-        <v>0.31549295774647373</v>
+        <v>1.321473951715372</v>
       </c>
       <c r="AQ24" s="9">
         <f t="shared" si="23"/>
-        <v>0.53914410872740293</v>
+        <v>1.3977128335451081</v>
       </c>
       <c r="AR24" s="9">
         <f t="shared" si="24"/>
-        <v>3.4028169014084555</v>
+        <v>1.2104043265516324</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5093,38 +5093,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="C25">
-        <v>158.05000000000001</v>
+        <v>211.35</v>
       </c>
       <c r="D25">
-        <v>148.75</v>
+        <v>206.5</v>
       </c>
       <c r="E25">
-        <v>153.05000000000001</v>
+        <v>209.65</v>
       </c>
       <c r="F25">
-        <v>-0.14999999999997729</v>
+        <v>7.8000000000000114</v>
       </c>
       <c r="G25">
-        <v>-9.7911227154032152E-2</v>
+        <v>3.8642556353728081</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="0"/>
-        <v>0.69078947368421795</v>
+        <v>-0.63981042654028164</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="1"/>
-        <v>0.69078947368421795</v>
+        <v>0.63981042654028164</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="2"/>
-        <v>3.2669062397909174</v>
+        <v>0.16587677725118213</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="3"/>
-        <v>2.138157894736842</v>
+        <v>1.5025041736227072</v>
       </c>
       <c r="L25" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="P25" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q25" s="9" t="str">
         <f t="shared" si="9"/>
@@ -5155,38 +5155,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>151.30000000000001</v>
+        <v>196.5</v>
       </c>
       <c r="T25">
-        <v>157.5</v>
+        <v>202.7</v>
       </c>
       <c r="U25">
-        <v>151</v>
+        <v>195.3</v>
       </c>
       <c r="V25">
-        <v>153.19999999999999</v>
+        <v>201.85</v>
       </c>
       <c r="W25">
-        <v>3.3999999999999768</v>
+        <v>5.9499999999999886</v>
       </c>
       <c r="X25">
-        <v>2.269692923898516</v>
+        <v>3.0372639101582379</v>
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="11"/>
-        <v>1.255783212161254</v>
+        <v>2.7226463104325673</v>
       </c>
       <c r="Z25" s="9">
         <f t="shared" si="12"/>
-        <v>1.255783212161254</v>
+        <v>2.7226463104325673</v>
       </c>
       <c r="AA25" s="9">
         <f t="shared" si="13"/>
-        <v>2.806788511749355</v>
+        <v>0.4211047807778025</v>
       </c>
       <c r="AB25" s="9">
         <f t="shared" si="14"/>
-        <v>0.19828155981494472</v>
+        <v>0.61068702290075749</v>
       </c>
       <c r="AC25" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5213,38 +5213,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>146</v>
+        <v>196.5</v>
       </c>
       <c r="AJ25">
-        <v>151.80000000000001</v>
+        <v>200.6</v>
       </c>
       <c r="AK25">
-        <v>144.25</v>
+        <v>192.3</v>
       </c>
       <c r="AL25">
-        <v>149.80000000000001</v>
+        <v>195.9</v>
       </c>
       <c r="AM25">
-        <v>1.350000000000023</v>
+        <v>2.0999999999999939</v>
       </c>
       <c r="AN25">
-        <v>0.90939710340183411</v>
+        <v>1.083591331269347</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="21"/>
-        <v>2.602739726027405</v>
+        <v>-0.30534351145037875</v>
       </c>
       <c r="AP25" s="9">
         <f t="shared" si="22"/>
-        <v>2.602739726027405</v>
+        <v>0.30534351145037875</v>
       </c>
       <c r="AQ25" s="9">
         <f t="shared" si="23"/>
-        <v>1.3351134846461947</v>
+        <v>2.0865139949109386</v>
       </c>
       <c r="AR25" s="9">
         <f t="shared" si="24"/>
-        <v>1.1986301369863013</v>
+        <v>1.8376722817764135</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5276,38 +5276,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>1759.85</v>
+        <v>2357.9499999999998</v>
       </c>
       <c r="C26">
-        <v>1767.95</v>
+        <v>2368</v>
       </c>
       <c r="D26">
-        <v>1741.2</v>
+        <v>2324.0500000000002</v>
       </c>
       <c r="E26">
-        <v>1749.1</v>
+        <v>2347.35</v>
       </c>
       <c r="F26">
-        <v>-20.75</v>
+        <v>20.049999999999731</v>
       </c>
       <c r="G26">
-        <v>-1.1724157414470151</v>
+        <v>0.86151334164051596</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="0"/>
-        <v>-0.61084751541324545</v>
+        <v>-0.44954303526367861</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="1"/>
-        <v>0.61084751541324545</v>
+        <v>0.44954303526367861</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="2"/>
-        <v>0.46026649998580205</v>
+        <v>0.42621768909434815</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="3"/>
-        <v>0.45166085415355689</v>
+        <v>0.99260868639102517</v>
       </c>
       <c r="L26" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5338,38 +5338,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>1786.95</v>
+        <v>2267.4</v>
       </c>
       <c r="T26">
-        <v>1801.55</v>
+        <v>2377.9</v>
       </c>
       <c r="U26">
-        <v>1751.05</v>
+        <v>2267</v>
       </c>
       <c r="V26">
-        <v>1769.85</v>
+        <v>2327.3000000000002</v>
       </c>
       <c r="W26">
-        <v>-13.10000000000014</v>
+        <v>62.200000000000273</v>
       </c>
       <c r="X26">
-        <v>-0.73473737345411461</v>
+        <v>2.7460156284490869</v>
       </c>
       <c r="Y26" s="9">
         <f t="shared" si="11"/>
-        <v>-0.95693779904306975</v>
+        <v>2.641792361294879</v>
       </c>
       <c r="Z26" s="9">
         <f t="shared" si="12"/>
-        <v>0.95693779904306975</v>
+        <v>2.641792361294879</v>
       </c>
       <c r="AA26" s="9">
         <f t="shared" si="13"/>
-        <v>0.8170346120484574</v>
+        <v>2.1741932711725993</v>
       </c>
       <c r="AB26" s="9">
         <f t="shared" si="14"/>
-        <v>1.0622369127327149</v>
+        <v>1.7641351327515698E-2</v>
       </c>
       <c r="AC26" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5396,38 +5396,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>1745</v>
+        <v>2255.8000000000002</v>
       </c>
       <c r="AJ26">
-        <v>1805.4</v>
+        <v>2309</v>
       </c>
       <c r="AK26">
-        <v>1737.7</v>
+        <v>2240.9499999999998</v>
       </c>
       <c r="AL26">
-        <v>1782.95</v>
+        <v>2265.1</v>
       </c>
       <c r="AM26">
-        <v>15.299999999999949</v>
+        <v>39.25</v>
       </c>
       <c r="AN26">
-        <v>0.8655559641331686</v>
+        <v>1.7633712963586941</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="21"/>
-        <v>2.1747851002865355</v>
+        <v>0.41227059136447047</v>
       </c>
       <c r="AP26" s="9">
         <f t="shared" si="22"/>
-        <v>2.1747851002865355</v>
+        <v>0.41227059136447047</v>
       </c>
       <c r="AQ26" s="9">
         <f t="shared" si="23"/>
-        <v>1.2591491629041782</v>
+        <v>1.9381042779568272</v>
       </c>
       <c r="AR26" s="9">
         <f t="shared" si="24"/>
-        <v>0.41833810888251882</v>
+        <v>0.65830304104975446</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5459,38 +5459,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>269.64999999999998</v>
+        <v>300</v>
       </c>
       <c r="C27">
-        <v>271.35000000000002</v>
+        <v>306.64999999999998</v>
       </c>
       <c r="D27">
-        <v>259.7</v>
+        <v>297.25</v>
       </c>
       <c r="E27">
-        <v>264.55</v>
+        <v>302.64999999999998</v>
       </c>
       <c r="F27">
-        <v>-6.3499999999999659</v>
+        <v>6.1499999999999773</v>
       </c>
       <c r="G27">
-        <v>-2.344038390550006</v>
+        <v>2.074198988195608</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="0"/>
-        <v>-1.8913406267383521</v>
+        <v>0.88333333333332575</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="1"/>
-        <v>1.8913406267383521</v>
+        <v>0.88333333333332575</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="2"/>
-        <v>0.63044687557947177</v>
+        <v>1.3216586816454652</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="3"/>
-        <v>1.8333018333018418</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="L27" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5521,38 +5521,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>271</v>
+        <v>296.25</v>
       </c>
       <c r="T27">
-        <v>278.2</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="U27">
-        <v>270.14999999999998</v>
+        <v>292.60000000000002</v>
       </c>
       <c r="V27">
-        <v>270.89999999999998</v>
+        <v>296.5</v>
       </c>
       <c r="W27">
-        <v>2.5</v>
+        <v>0.80000000000001137</v>
       </c>
       <c r="X27">
-        <v>0.93144560357675132</v>
+        <v>0.27054447074738303</v>
       </c>
       <c r="Y27" s="9">
         <f t="shared" si="11"/>
-        <v>-3.6900369003698426E-2</v>
+        <v>8.4388185654008435E-2</v>
       </c>
       <c r="Z27" s="9">
         <f t="shared" si="12"/>
-        <v>3.6900369003698426E-2</v>
+        <v>8.4388185654008435E-2</v>
       </c>
       <c r="AA27" s="9">
         <f t="shared" si="13"/>
-        <v>2.6568265682656786</v>
+        <v>0.70826306913997394</v>
       </c>
       <c r="AB27" s="9">
         <f t="shared" si="14"/>
-        <v>0.27685492801771872</v>
+        <v>1.2320675105485155</v>
       </c>
       <c r="AC27" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5579,38 +5579,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>268</v>
+        <v>290.14999999999998</v>
       </c>
       <c r="AJ27">
-        <v>271.8</v>
+        <v>298.2</v>
       </c>
       <c r="AK27">
-        <v>265.10000000000002</v>
+        <v>289.14999999999998</v>
       </c>
       <c r="AL27">
-        <v>268.39999999999998</v>
+        <v>295.7</v>
       </c>
       <c r="AM27">
-        <v>-2</v>
+        <v>8.9499999999999886</v>
       </c>
       <c r="AN27">
-        <v>-0.73964497041420119</v>
+        <v>3.1211857018308589</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="21"/>
-        <v>0.1492537313432751</v>
+        <v>1.9128037222126526</v>
       </c>
       <c r="AP27" s="9">
         <f t="shared" si="22"/>
-        <v>0.1492537313432751</v>
+        <v>1.9128037222126526</v>
       </c>
       <c r="AQ27" s="9">
         <f t="shared" si="23"/>
-        <v>1.2667660208643943</v>
+        <v>0.84545147108555962</v>
       </c>
       <c r="AR27" s="9">
         <f t="shared" si="24"/>
-        <v>1.0820895522387974</v>
+        <v>0.34464931931759435</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="AV27" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW27" t="str">
         <f t="shared" si="29"/>
@@ -5642,38 +5642,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>176.45</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="C28">
-        <v>176.8</v>
+        <v>135.44999999999999</v>
       </c>
       <c r="D28">
-        <v>166.6</v>
+        <v>131.1</v>
       </c>
       <c r="E28">
-        <v>168.8</v>
+        <v>133.44999999999999</v>
       </c>
       <c r="F28">
-        <v>-8.0999999999999943</v>
+        <v>2.5999999999999939</v>
       </c>
       <c r="G28">
-        <v>-4.5788581119276399</v>
+        <v>1.9870080244554791</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="0"/>
-        <v>-4.335505809011039</v>
+        <v>1.328777524677297</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="1"/>
-        <v>4.335505809011039</v>
+        <v>1.328777524677297</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="2"/>
-        <v>0.19835647492208713</v>
+        <v>1.4986886474334957</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="3"/>
-        <v>1.3033175355450337</v>
+        <v>0.45558086560364036</v>
       </c>
       <c r="L28" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5704,38 +5704,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>182.45</v>
+        <v>131.1</v>
       </c>
       <c r="T28">
-        <v>185.5</v>
+        <v>132</v>
       </c>
       <c r="U28">
-        <v>175.05</v>
+        <v>129.35</v>
       </c>
       <c r="V28">
-        <v>176.9</v>
+        <v>130.85</v>
       </c>
       <c r="W28">
-        <v>-2.3499999999999939</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="X28">
-        <v>-1.3110181311018101</v>
+        <v>0.34509202453986859</v>
       </c>
       <c r="Y28" s="9">
         <f t="shared" si="11"/>
-        <v>-3.0419292956974422</v>
+        <v>-0.1906941266209001</v>
       </c>
       <c r="Z28" s="9">
         <f t="shared" si="12"/>
-        <v>3.0419292956974422</v>
+        <v>0.1906941266209001</v>
       </c>
       <c r="AA28" s="9">
         <f t="shared" si="13"/>
-        <v>1.6716908742121193</v>
+        <v>0.68649885583524461</v>
       </c>
       <c r="AB28" s="9">
         <f t="shared" si="14"/>
-        <v>1.0457885811192731</v>
+        <v>1.146350783339702</v>
       </c>
       <c r="AC28" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5762,38 +5762,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>178</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="AJ28">
-        <v>182.95</v>
+        <v>133.85</v>
       </c>
       <c r="AK28">
-        <v>173.65</v>
+        <v>128.55000000000001</v>
       </c>
       <c r="AL28">
-        <v>179.25</v>
+        <v>130.4</v>
       </c>
       <c r="AM28">
-        <v>0.55000000000001137</v>
+        <v>0.30000000000001142</v>
       </c>
       <c r="AN28">
-        <v>0.30777839955232872</v>
+        <v>0.23059185242122321</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="21"/>
-        <v>0.70224719101123589</v>
+        <v>-0.98709187547455046</v>
       </c>
       <c r="AP28" s="9">
         <f t="shared" si="22"/>
-        <v>0.70224719101123589</v>
+        <v>0.98709187547455046</v>
       </c>
       <c r="AQ28" s="9">
         <f t="shared" si="23"/>
-        <v>2.0641562064156145</v>
+        <v>1.6324981017463978</v>
       </c>
       <c r="AR28" s="9">
         <f t="shared" si="24"/>
-        <v>2.4438202247190977</v>
+        <v>1.4187116564417135</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5825,38 +5825,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>154.94999999999999</v>
+        <v>158.5</v>
       </c>
       <c r="C29">
-        <v>156.9</v>
+        <v>162.9</v>
       </c>
       <c r="D29">
-        <v>151.5</v>
+        <v>158</v>
       </c>
       <c r="E29">
-        <v>152.75</v>
+        <v>158.75</v>
       </c>
       <c r="F29">
-        <v>-3.6999999999999891</v>
+        <v>1.5</v>
       </c>
       <c r="G29">
-        <v>-2.364972834771486</v>
+        <v>0.95389507154213027</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="0"/>
-        <v>-1.4198128428525258</v>
+        <v>0.15772870662460567</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="1"/>
-        <v>1.4198128428525258</v>
+        <v>0.15772870662460567</v>
       </c>
       <c r="J29" s="9">
         <f t="shared" si="2"/>
-        <v>1.2584704743465744</v>
+        <v>2.6141732283464605</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="3"/>
-        <v>0.81833060556464821</v>
+        <v>0.31545741324921134</v>
       </c>
       <c r="L29" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="N29" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O29" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5887,38 +5887,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
+        <v>147</v>
+      </c>
+      <c r="T29">
         <v>158</v>
       </c>
-      <c r="T29">
-        <v>161.19999999999999</v>
-      </c>
       <c r="U29">
-        <v>155.15</v>
+        <v>146.05000000000001</v>
       </c>
       <c r="V29">
-        <v>156.44999999999999</v>
+        <v>157.25</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>9.9499999999999886</v>
       </c>
       <c r="X29">
-        <v>-0.63512226103524938</v>
+        <v>6.7549219280380086</v>
       </c>
       <c r="Y29" s="9">
         <f t="shared" si="11"/>
-        <v>-0.98101265822785522</v>
+        <v>6.9727891156462576</v>
       </c>
       <c r="Z29" s="9">
         <f t="shared" si="12"/>
-        <v>0.98101265822785522</v>
+        <v>6.9727891156462576</v>
       </c>
       <c r="AA29" s="9">
         <f t="shared" si="13"/>
-        <v>2.0253164556961951</v>
+        <v>0.47694753577106513</v>
       </c>
       <c r="AB29" s="9">
         <f t="shared" si="14"/>
-        <v>0.83093640140618918</v>
+        <v>0.64625850340135282</v>
       </c>
       <c r="AC29" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5945,38 +5945,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>149.5</v>
+        <v>146.5</v>
       </c>
       <c r="AJ29">
-        <v>159</v>
+        <v>148.15</v>
       </c>
       <c r="AK29">
-        <v>148.19999999999999</v>
+        <v>144.5</v>
       </c>
       <c r="AL29">
-        <v>157.44999999999999</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="AM29">
-        <v>6.5</v>
+        <v>3.7000000000000171</v>
       </c>
       <c r="AN29">
-        <v>4.306061609804571</v>
+        <v>2.5766016713092039</v>
       </c>
       <c r="AO29" s="9">
         <f t="shared" si="21"/>
-        <v>5.3177257525083537</v>
+        <v>0.54607508532423976</v>
       </c>
       <c r="AP29" s="9">
         <f t="shared" si="22"/>
-        <v>5.3177257525083537</v>
+        <v>0.54607508532423976</v>
       </c>
       <c r="AQ29" s="9">
         <f t="shared" si="23"/>
-        <v>0.98443950460464369</v>
+        <v>0.57705363204344484</v>
       </c>
       <c r="AR29" s="9">
         <f t="shared" si="24"/>
-        <v>0.86956521739131198</v>
+        <v>1.3651877133105803</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -6008,42 +6008,42 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>515.54999999999995</v>
+        <v>605</v>
       </c>
       <c r="C30">
-        <v>522.25</v>
+        <v>631.9</v>
       </c>
       <c r="D30">
-        <v>496.3</v>
+        <v>605</v>
       </c>
       <c r="E30">
-        <v>516.29999999999995</v>
+        <v>620.29999999999995</v>
       </c>
       <c r="F30">
-        <v>0.75</v>
+        <v>22.449999999999928</v>
       </c>
       <c r="G30">
-        <v>0.14547570555717201</v>
+        <v>3.755122522371821</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="0"/>
-        <v>0.14547570555717196</v>
+        <v>2.5289256198347032</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="1"/>
-        <v>0.14547570555717196</v>
+        <v>2.5289256198347032</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" si="2"/>
-        <v>1.1524307573116495</v>
+        <v>1.8700628728034858</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="3"/>
-        <v>3.7338764426340694</v>
+        <v>0</v>
       </c>
       <c r="L30" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="5"/>
@@ -6070,38 +6070,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="T30">
-        <v>533</v>
+        <v>600.9</v>
       </c>
       <c r="U30">
-        <v>511.15</v>
+        <v>580.54999999999995</v>
       </c>
       <c r="V30">
-        <v>515.54999999999995</v>
+        <v>597.85</v>
       </c>
       <c r="W30">
-        <v>-20.450000000000049</v>
+        <v>8.7000000000000455</v>
       </c>
       <c r="X30">
-        <v>-3.8152985074626948</v>
+        <v>1.4767037257065341</v>
       </c>
       <c r="Y30" s="9">
         <f t="shared" si="11"/>
-        <v>-2.7264150943396315</v>
+        <v>1.330508474576275</v>
       </c>
       <c r="Z30" s="9">
         <f t="shared" si="12"/>
-        <v>2.7264150943396315</v>
+        <v>1.330508474576275</v>
       </c>
       <c r="AA30" s="9">
         <f t="shared" si="13"/>
-        <v>0.56603773584905659</v>
+        <v>0.51016141172534157</v>
       </c>
       <c r="AB30" s="9">
         <f t="shared" si="14"/>
-        <v>0.85345747260207117</v>
+        <v>1.601694915254245</v>
       </c>
       <c r="AC30" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6128,38 +6128,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>504</v>
+        <v>594.45000000000005</v>
       </c>
       <c r="AJ30">
-        <v>548</v>
+        <v>600.6</v>
       </c>
       <c r="AK30">
-        <v>499.1</v>
+        <v>580.20000000000005</v>
       </c>
       <c r="AL30">
-        <v>536</v>
+        <v>589.15</v>
       </c>
       <c r="AM30">
-        <v>29.350000000000019</v>
+        <v>-4.7000000000000446</v>
       </c>
       <c r="AN30">
-        <v>5.7929537155827537</v>
+        <v>-0.79144565125874289</v>
       </c>
       <c r="AO30" s="9">
         <f t="shared" si="21"/>
-        <v>6.3492063492063489</v>
+        <v>-0.89158045251914675</v>
       </c>
       <c r="AP30" s="9">
         <f t="shared" si="22"/>
-        <v>6.3492063492063489</v>
+        <v>0.89158045251914675</v>
       </c>
       <c r="AQ30" s="9">
         <f t="shared" si="23"/>
-        <v>2.2388059701492535</v>
+        <v>1.034569770375974</v>
       </c>
       <c r="AR30" s="9">
         <f t="shared" si="24"/>
-        <v>0.97222222222221777</v>
+        <v>1.5191377408130242</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6191,38 +6191,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>1080</v>
+        <v>911</v>
       </c>
       <c r="C31">
-        <v>1087</v>
+        <v>949</v>
       </c>
       <c r="D31">
-        <v>1039</v>
+        <v>911</v>
       </c>
       <c r="E31">
-        <v>1043.6500000000001</v>
+        <v>929.75</v>
       </c>
       <c r="F31">
-        <v>-33.5</v>
+        <v>23.649999999999981</v>
       </c>
       <c r="G31">
-        <v>-3.1100589518637141</v>
+        <v>2.6100871868447171</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="0"/>
-        <v>-3.3657407407407325</v>
+        <v>2.0581778265642154</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="1"/>
-        <v>3.3657407407407325</v>
+        <v>2.0581778265642154</v>
       </c>
       <c r="J31" s="9">
         <f t="shared" si="2"/>
-        <v>0.64814814814814814</v>
+        <v>2.0704490454423232</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="3"/>
-        <v>0.44555166962105019</v>
+        <v>0</v>
       </c>
       <c r="L31" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6253,38 +6253,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>1084</v>
+        <v>898.9</v>
       </c>
       <c r="T31">
-        <v>1092.2</v>
+        <v>909.8</v>
       </c>
       <c r="U31">
-        <v>1071</v>
+        <v>895.1</v>
       </c>
       <c r="V31">
-        <v>1077.1500000000001</v>
+        <v>906.1</v>
       </c>
       <c r="W31">
-        <v>7.5500000000001819</v>
+        <v>9.7000000000000455</v>
       </c>
       <c r="X31">
-        <v>0.70587135377712995</v>
+        <v>1.0821062025881349</v>
       </c>
       <c r="Y31" s="9">
         <f t="shared" si="11"/>
-        <v>-0.63191881918818349</v>
+        <v>0.80097897430192966</v>
       </c>
       <c r="Z31" s="9">
         <f t="shared" si="12"/>
-        <v>0.63191881918818349</v>
+        <v>0.80097897430192966</v>
       </c>
       <c r="AA31" s="9">
         <f t="shared" si="13"/>
-        <v>0.75645756457564994</v>
+        <v>0.40834344995032906</v>
       </c>
       <c r="AB31" s="9">
         <f t="shared" si="14"/>
-        <v>0.57095112101379475</v>
+        <v>0.42273890310378848</v>
       </c>
       <c r="AC31" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6311,38 +6311,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>1060.9000000000001</v>
+        <v>900</v>
       </c>
       <c r="AJ31">
-        <v>1073.9000000000001</v>
+        <v>909.45</v>
       </c>
       <c r="AK31">
-        <v>1035</v>
+        <v>885</v>
       </c>
       <c r="AL31">
-        <v>1069.5999999999999</v>
+        <v>896.4</v>
       </c>
       <c r="AM31">
-        <v>6.6499999999998636</v>
+        <v>2.1499999999999768</v>
       </c>
       <c r="AN31">
-        <v>0.62561738557786006</v>
+        <v>0.2404249370981244</v>
       </c>
       <c r="AO31" s="9">
         <f t="shared" si="21"/>
-        <v>0.82005844094634917</v>
+        <v>-0.40000000000000252</v>
       </c>
       <c r="AP31" s="9">
         <f t="shared" si="22"/>
-        <v>0.82005844094634917</v>
+        <v>0.40000000000000252</v>
       </c>
       <c r="AQ31" s="9">
         <f t="shared" si="23"/>
-        <v>0.40201944652208138</v>
+        <v>1.0500000000000052</v>
       </c>
       <c r="AR31" s="9">
         <f t="shared" si="24"/>
-        <v>2.4413234046564321</v>
+        <v>1.271753681392233</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6374,38 +6374,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>950</v>
+        <v>1195</v>
       </c>
       <c r="C32">
-        <v>969.25</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="D32">
-        <v>927.45</v>
+        <v>1195</v>
       </c>
       <c r="E32">
-        <v>930.7</v>
+        <v>1221.7</v>
       </c>
       <c r="F32">
-        <v>-18.399999999999981</v>
+        <v>37.900000000000091</v>
       </c>
       <c r="G32">
-        <v>-1.9386787482878489</v>
+        <v>3.2015543166075431</v>
       </c>
       <c r="H32" s="9">
         <f t="shared" si="0"/>
-        <v>-2.0315789473684163</v>
+        <v>2.2343096234309661</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="1"/>
-        <v>2.0315789473684163</v>
+        <v>2.2343096234309661</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>2.0263157894736841</v>
+        <v>1.3874109846934637</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="3"/>
-        <v>0.34919952723756309</v>
+        <v>0</v>
       </c>
       <c r="L32" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6436,38 +6436,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>917.25</v>
+        <v>1181.75</v>
       </c>
       <c r="T32">
-        <v>982.95</v>
+        <v>1217</v>
       </c>
       <c r="U32">
-        <v>917.25</v>
+        <v>1172.8499999999999</v>
       </c>
       <c r="V32">
-        <v>949.1</v>
+        <v>1183.8</v>
       </c>
       <c r="W32">
-        <v>32.399999999999977</v>
+        <v>8.0999999999999091</v>
       </c>
       <c r="X32">
-        <v>3.5344169302934421</v>
+        <v>0.68895126307730792</v>
       </c>
       <c r="Y32" s="9">
         <f t="shared" si="11"/>
-        <v>3.4723357863178004</v>
+        <v>0.17347154643536741</v>
       </c>
       <c r="Z32" s="9">
         <f t="shared" si="12"/>
-        <v>3.4723357863178004</v>
+        <v>0.17347154643536741</v>
       </c>
       <c r="AA32" s="9">
         <f t="shared" si="13"/>
-        <v>3.5665367189969466</v>
+        <v>2.8045277918567364</v>
       </c>
       <c r="AB32" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.7531203723291805</v>
       </c>
       <c r="AC32" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6494,38 +6494,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>924.2</v>
+        <v>1180</v>
       </c>
       <c r="AJ32">
-        <v>930.75</v>
+        <v>1188</v>
       </c>
       <c r="AK32">
-        <v>911.1</v>
+        <v>1165.55</v>
       </c>
       <c r="AL32">
-        <v>916.7</v>
+        <v>1175.7</v>
       </c>
       <c r="AM32">
-        <v>-7.6999999999999318</v>
+        <v>3.200000000000045</v>
       </c>
       <c r="AN32">
-        <v>-0.83297273907398661</v>
+        <v>0.27292110874200809</v>
       </c>
       <c r="AO32" s="9">
         <f t="shared" si="21"/>
-        <v>-0.81151265959748964</v>
+        <v>-0.36440677966101309</v>
       </c>
       <c r="AP32" s="9">
         <f t="shared" si="22"/>
-        <v>0.81151265959748964</v>
+        <v>0.36440677966101309</v>
       </c>
       <c r="AQ32" s="9">
         <f t="shared" si="23"/>
-        <v>0.70872105604846947</v>
+        <v>0.67796610169491522</v>
       </c>
       <c r="AR32" s="9">
         <f t="shared" si="24"/>
-        <v>0.61088687684084464</v>
+        <v>0.86331547163392786</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6557,38 +6557,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>66400</v>
+        <v>59230.05</v>
       </c>
       <c r="C33">
-        <v>66800.800000000003</v>
+        <v>59800</v>
       </c>
       <c r="D33">
-        <v>64830.05</v>
+        <v>58199.85</v>
       </c>
       <c r="E33">
-        <v>65196.9</v>
+        <v>58519.85</v>
       </c>
       <c r="F33">
-        <v>-1260.7999999999961</v>
+        <v>-706.84999999999854</v>
       </c>
       <c r="G33">
-        <v>-1.8971466060366149</v>
+        <v>-1.1934651094860911</v>
       </c>
       <c r="H33" s="9">
         <f t="shared" si="0"/>
-        <v>-1.8118975903614436</v>
+        <v>-1.1990535209745803</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="1"/>
-        <v>1.8118975903614436</v>
+        <v>1.1990535209745803</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>0.60361445783132972</v>
+        <v>0.9622649313988374</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="3"/>
-        <v>0.56268012742936946</v>
+        <v>0.54682300108424742</v>
       </c>
       <c r="L33" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6619,38 +6619,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>65009.65</v>
+        <v>59100</v>
       </c>
       <c r="T33">
-        <v>67000</v>
+        <v>59400</v>
       </c>
       <c r="U33">
-        <v>65009.65</v>
+        <v>58445.9</v>
       </c>
       <c r="V33">
-        <v>66457.7</v>
+        <v>59226.7</v>
       </c>
       <c r="W33">
-        <v>1648.0499999999961</v>
+        <v>92.649999999994179</v>
       </c>
       <c r="X33">
-        <v>2.542908347753762</v>
+        <v>0.15667792075799669</v>
       </c>
       <c r="Y33" s="9">
         <f t="shared" si="11"/>
-        <v>2.2274385418164773</v>
+        <v>0.21438240270727091</v>
       </c>
       <c r="Z33" s="9">
         <f t="shared" si="12"/>
-        <v>2.2274385418164773</v>
+        <v>0.21438240270727091</v>
       </c>
       <c r="AA33" s="9">
         <f t="shared" si="13"/>
-        <v>0.81600777637505195</v>
+        <v>0.29260451789480579</v>
       </c>
       <c r="AB33" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1067681895093038</v>
       </c>
       <c r="AC33" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6677,38 +6677,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>64160</v>
+        <v>58865</v>
       </c>
       <c r="AJ33">
-        <v>65500</v>
+        <v>59399</v>
       </c>
       <c r="AK33">
-        <v>63870</v>
+        <v>58700</v>
       </c>
       <c r="AL33">
-        <v>64809.65</v>
+        <v>59134.05</v>
       </c>
       <c r="AM33">
-        <v>681.55000000000291</v>
+        <v>370.5</v>
       </c>
       <c r="AN33">
-        <v>1.0627946251331359</v>
+        <v>0.63049288206719978</v>
       </c>
       <c r="AO33" s="9">
         <f t="shared" si="21"/>
-        <v>1.0125467581047403</v>
+        <v>0.4570627707466286</v>
       </c>
       <c r="AP33" s="9">
         <f t="shared" si="22"/>
-        <v>1.0125467581047403</v>
+        <v>0.4570627707466286</v>
       </c>
       <c r="AQ33" s="9">
         <f t="shared" si="23"/>
-        <v>1.0651963095002033</v>
+        <v>0.44804981224860652</v>
       </c>
       <c r="AR33" s="9">
         <f t="shared" si="24"/>
-        <v>0.45199501246882795</v>
+        <v>0.2803023868172938</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="AV33" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW33" t="str">
         <f t="shared" si="29"/>
@@ -6740,38 +6740,38 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>1088</v>
+        <v>1138</v>
       </c>
       <c r="C34">
-        <v>1112</v>
+        <v>1146.8499999999999</v>
       </c>
       <c r="D34">
-        <v>1071</v>
+        <v>1113.4000000000001</v>
       </c>
       <c r="E34">
-        <v>1085.05</v>
+        <v>1123.45</v>
       </c>
       <c r="F34">
-        <v>-4.9500000000000446</v>
+        <v>-5.0499999999999554</v>
       </c>
       <c r="G34">
-        <v>-0.45412844036697658</v>
+        <v>-0.44749667700486973</v>
       </c>
       <c r="H34" s="9">
         <f t="shared" ref="H34:H50" si="31">(E34-B34)/B34*100</f>
-        <v>-0.27113970588235714</v>
+        <v>-1.2785588752196797</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>0.27113970588235714</v>
+        <v>1.2785588752196797</v>
       </c>
       <c r="J34" s="9">
         <f t="shared" ref="J34:J50" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>2.2058823529411766</v>
+        <v>0.77768014059753154</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" ref="K34:K50" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>1.2948712040919732</v>
+        <v>0.89456584627708879</v>
       </c>
       <c r="L34" s="9" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
@@ -6802,38 +6802,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>1094.8</v>
+        <v>1088</v>
       </c>
       <c r="T34">
-        <v>1139.8499999999999</v>
+        <v>1134</v>
       </c>
       <c r="U34">
-        <v>1080.55</v>
+        <v>1088</v>
       </c>
       <c r="V34">
-        <v>1090</v>
+        <v>1128.5</v>
       </c>
       <c r="W34">
-        <v>-14.799999999999949</v>
+        <v>29</v>
       </c>
       <c r="X34">
-        <v>-1.33960897900072</v>
+        <v>2.6375625284220101</v>
       </c>
       <c r="Y34" s="9">
         <f t="shared" ref="Y34:Y50" si="41">(V34-S34)/S34*100</f>
-        <v>-0.43843624406283838</v>
+        <v>3.7224264705882351</v>
       </c>
       <c r="Z34" s="9">
         <f t="shared" ref="Z34:Z65" si="42">ABS(Y34)</f>
-        <v>0.43843624406283838</v>
+        <v>3.7224264705882351</v>
       </c>
       <c r="AA34" s="9">
         <f t="shared" ref="AA34:AA50" si="43">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>4.114906832298133</v>
+        <v>0.48737261852015945</v>
       </c>
       <c r="AB34" s="9">
         <f t="shared" ref="AB34:AB50" si="44">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>0.86697247706422431</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="9" t="str">
         <f t="shared" ref="AC34:AC50" si="45">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6860,38 +6860,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AJ34">
-        <v>1124.95</v>
+        <v>1113</v>
       </c>
       <c r="AK34">
-        <v>1092.2</v>
+        <v>1080.3499999999999</v>
       </c>
       <c r="AL34">
-        <v>1104.8</v>
+        <v>1099.5</v>
       </c>
       <c r="AM34">
-        <v>-7.9500000000000446</v>
+        <v>6.0499999999999554</v>
       </c>
       <c r="AN34">
-        <v>-0.7144461918670002</v>
+        <v>0.55329461795234847</v>
       </c>
       <c r="AO34" s="9">
         <f t="shared" ref="AO34:AO50" si="51">(AL34-AI34)/AI34*100</f>
-        <v>-0.55805580558056211</v>
+        <v>-0.94594594594594605</v>
       </c>
       <c r="AP34" s="9">
         <f t="shared" ref="AP34:AP65" si="52">ABS(AO34)</f>
-        <v>0.55805580558056211</v>
+        <v>0.94594594594594605</v>
       </c>
       <c r="AQ34" s="9">
         <f t="shared" ref="AQ34:AQ50" si="53">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>1.2556255625562598</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="AR34" s="9">
         <f t="shared" ref="AR34:AR50" si="54">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>1.1404779145546624</v>
+        <v>1.7417007730786804</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS50" si="55">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6923,38 +6923,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>33.6</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C35">
-        <v>33.65</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="D35">
-        <v>31.35</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E35">
-        <v>31.9</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F35">
-        <v>-1.600000000000001</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="G35">
-        <v>-4.7761194029850786</v>
+        <v>1.149425287356338</v>
       </c>
       <c r="H35" s="9">
         <f t="shared" si="31"/>
-        <v>-5.0595238095238182</v>
+        <v>-0.28328611898015388</v>
       </c>
       <c r="I35" s="9">
         <f t="shared" si="32"/>
-        <v>5.0595238095238182</v>
+        <v>0.28328611898015388</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="33"/>
-        <v>0.14880952380951534</v>
+        <v>3.2577903682719711</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="34"/>
-        <v>1.724137931034474</v>
+        <v>1.1363636363636525</v>
       </c>
       <c r="L35" s="9" t="str">
         <f t="shared" si="35"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="N35" t="str">
         <f t="shared" si="37"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O35" s="9" t="str">
         <f t="shared" si="38"/>
@@ -6985,38 +6985,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
+        <v>34.6</v>
+      </c>
+      <c r="T35">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="U35">
         <v>34.200000000000003</v>
       </c>
-      <c r="T35">
-        <v>34.9</v>
-      </c>
-      <c r="U35">
-        <v>33.1</v>
-      </c>
       <c r="V35">
-        <v>33.5</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="W35">
-        <v>-0.60000000000000142</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="X35">
-        <v>-1.7595307917888601</v>
+        <v>1.1627906976744149</v>
       </c>
       <c r="Y35" s="9">
         <f t="shared" si="41"/>
-        <v>-2.0467836257310026</v>
+        <v>0.57803468208091247</v>
       </c>
       <c r="Z35" s="9">
         <f t="shared" si="42"/>
-        <v>2.0467836257310026</v>
+        <v>0.57803468208091247</v>
       </c>
       <c r="AA35" s="9">
         <f t="shared" si="43"/>
-        <v>2.0467836257309817</v>
+        <v>0.43103448275863709</v>
       </c>
       <c r="AB35" s="9">
         <f t="shared" si="44"/>
-        <v>1.1940298507462643</v>
+        <v>1.1560693641618456</v>
       </c>
       <c r="AC35" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7043,38 +7043,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>31.5</v>
+        <v>34.35</v>
       </c>
       <c r="AJ35">
-        <v>34.75</v>
+        <v>34.85</v>
       </c>
       <c r="AK35">
-        <v>31.5</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="AL35">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="AM35">
-        <v>1.850000000000001</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="AN35">
-        <v>5.7364341085271358</v>
+        <v>1.775147928994087</v>
       </c>
       <c r="AO35" s="9">
         <f t="shared" si="51"/>
-        <v>8.2539682539682584</v>
+        <v>0.14556040756913291</v>
       </c>
       <c r="AP35" s="9">
         <f t="shared" si="52"/>
-        <v>8.2539682539682584</v>
+        <v>0.14556040756913291</v>
       </c>
       <c r="AQ35" s="9">
         <f t="shared" si="53"/>
-        <v>1.9061583577712569</v>
+        <v>1.3081395348837292</v>
       </c>
       <c r="AR35" s="9">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1.8922852983988312</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="55"/>
@@ -7106,38 +7106,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>2736.75</v>
+        <v>3384.85</v>
       </c>
       <c r="C36">
-        <v>2779.15</v>
+        <v>3455</v>
       </c>
       <c r="D36">
-        <v>2736.75</v>
+        <v>3381</v>
       </c>
       <c r="E36">
-        <v>2764.35</v>
+        <v>3434.1</v>
       </c>
       <c r="F36">
-        <v>8.0499999999997272</v>
+        <v>49.25</v>
       </c>
       <c r="G36">
-        <v>0.2920581939556553</v>
+        <v>1.4550127775233761</v>
       </c>
       <c r="H36" s="9">
         <f t="shared" si="31"/>
-        <v>1.0084954782132056</v>
+        <v>1.4550127775233763</v>
       </c>
       <c r="I36" s="9">
         <f t="shared" si="32"/>
-        <v>1.0084954782132056</v>
+        <v>1.4550127775233763</v>
       </c>
       <c r="J36" s="9">
         <f t="shared" si="33"/>
-        <v>0.53538806591061849</v>
+        <v>0.60860196266853306</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.11374211560334754</v>
       </c>
       <c r="L36" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7168,38 +7168,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>2738</v>
+        <v>3420</v>
       </c>
       <c r="T36">
-        <v>2812</v>
+        <v>3434.8</v>
       </c>
       <c r="U36">
-        <v>2735.8</v>
+        <v>3343.05</v>
       </c>
       <c r="V36">
-        <v>2756.3</v>
+        <v>3384.85</v>
       </c>
       <c r="W36">
-        <v>8.6500000000000909</v>
+        <v>-1.8499999999999091</v>
       </c>
       <c r="X36">
-        <v>0.31481447782650962</v>
+        <v>-5.4625446599932348E-2</v>
       </c>
       <c r="Y36" s="9">
         <f t="shared" si="41"/>
-        <v>0.66837107377648586</v>
+        <v>-1.0277777777777803</v>
       </c>
       <c r="Z36" s="9">
         <f t="shared" si="42"/>
-        <v>0.66837107377648586</v>
+        <v>1.0277777777777803</v>
       </c>
       <c r="AA36" s="9">
         <f t="shared" si="43"/>
-        <v>2.0208250190472667</v>
+        <v>0.43274853801170121</v>
       </c>
       <c r="AB36" s="9">
         <f t="shared" si="44"/>
-        <v>8.0350620891154786E-2</v>
+        <v>1.234914397979223</v>
       </c>
       <c r="AC36" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7226,38 +7226,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>2712.05</v>
+        <v>3293</v>
       </c>
       <c r="AJ36">
-        <v>2818</v>
+        <v>3430</v>
       </c>
       <c r="AK36">
-        <v>2660</v>
+        <v>3240.25</v>
       </c>
       <c r="AL36">
-        <v>2747.65</v>
+        <v>3386.7</v>
       </c>
       <c r="AM36">
-        <v>35.599999999999909</v>
+        <v>107</v>
       </c>
       <c r="AN36">
-        <v>1.3126601648199669</v>
+        <v>3.262493520748849</v>
       </c>
       <c r="AO36" s="9">
         <f t="shared" si="51"/>
-        <v>1.3126601648199667</v>
+        <v>2.8454296993622781</v>
       </c>
       <c r="AP36" s="9">
         <f t="shared" si="52"/>
-        <v>1.3126601648199667</v>
+        <v>2.8454296993622781</v>
       </c>
       <c r="AQ36" s="9">
         <f t="shared" si="53"/>
-        <v>2.5603697705311781</v>
+        <v>1.2785307231228094</v>
       </c>
       <c r="AR36" s="9">
         <f t="shared" si="54"/>
-        <v>1.9192124039011147</v>
+        <v>1.6018827816580625</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="55"/>
@@ -7289,38 +7289,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>23.8</v>
+        <v>26.5</v>
       </c>
       <c r="C37">
-        <v>23.95</v>
+        <v>27.75</v>
       </c>
       <c r="D37">
-        <v>23.15</v>
+        <v>26.45</v>
       </c>
       <c r="E37">
-        <v>23.4</v>
+        <v>27.25</v>
       </c>
       <c r="F37">
-        <v>-0.40000000000000208</v>
+        <v>1.1999999999999991</v>
       </c>
       <c r="G37">
-        <v>-1.6806722689075719</v>
+        <v>4.6065259117082507</v>
       </c>
       <c r="H37" s="9">
         <f t="shared" si="31"/>
-        <v>-1.6806722689075719</v>
+        <v>2.8301886792452833</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" si="32"/>
-        <v>1.6806722689075719</v>
+        <v>2.8301886792452833</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" si="33"/>
-        <v>0.63025210084033012</v>
+        <v>1.834862385321101</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="34"/>
-        <v>1.0683760683760684</v>
+        <v>0.18867924528302155</v>
       </c>
       <c r="L37" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7351,38 +7351,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>24</v>
+        <v>26.45</v>
       </c>
       <c r="T37">
-        <v>24.25</v>
+        <v>26.6</v>
       </c>
       <c r="U37">
-        <v>23.65</v>
+        <v>25.65</v>
       </c>
       <c r="V37">
-        <v>23.8</v>
+        <v>26.05</v>
       </c>
       <c r="W37">
-        <v>0.10000000000000139</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="X37">
-        <v>0.42194092827004831</v>
+        <v>-0.7619047619047592</v>
       </c>
       <c r="Y37" s="9">
         <f t="shared" si="41"/>
-        <v>-0.83333333333333037</v>
+        <v>-1.5122873345935675</v>
       </c>
       <c r="Z37" s="9">
         <f t="shared" si="42"/>
-        <v>0.83333333333333037</v>
+        <v>1.5122873345935675</v>
       </c>
       <c r="AA37" s="9">
         <f t="shared" si="43"/>
-        <v>1.0416666666666665</v>
+        <v>0.56710775047259787</v>
       </c>
       <c r="AB37" s="9">
         <f t="shared" si="44"/>
-        <v>0.63025210084034511</v>
+        <v>1.5355086372360927</v>
       </c>
       <c r="AC37" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7409,38 +7409,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>24.1</v>
+        <v>26</v>
       </c>
       <c r="AJ37">
-        <v>24.4</v>
+        <v>26.55</v>
       </c>
       <c r="AK37">
-        <v>23.55</v>
+        <v>26</v>
       </c>
       <c r="AL37">
-        <v>23.7</v>
+        <v>26.25</v>
       </c>
       <c r="AM37">
-        <v>-0.55000000000000071</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="AN37">
-        <v>-2.2680412371134051</v>
+        <v>1.156069364161852</v>
       </c>
       <c r="AO37" s="9">
         <f t="shared" si="51"/>
-        <v>-1.6597510373444071</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="AP37" s="9">
         <f t="shared" si="52"/>
-        <v>1.6597510373444071</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="AQ37" s="9">
         <f t="shared" si="53"/>
-        <v>1.2448132780082868</v>
+        <v>1.1428571428571457</v>
       </c>
       <c r="AR37" s="9">
         <f t="shared" si="54"/>
-        <v>0.63291139240505734</v>
+        <v>0</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="55"/>
@@ -7472,38 +7472,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>96.4</v>
+        <v>95.2</v>
       </c>
       <c r="C38">
-        <v>97.8</v>
+        <v>96</v>
       </c>
       <c r="D38">
-        <v>93.5</v>
+        <v>94.15</v>
       </c>
       <c r="E38">
-        <v>95.65</v>
+        <v>95.35</v>
       </c>
       <c r="F38">
-        <v>1.2000000000000031</v>
+        <v>0.89999999999999147</v>
       </c>
       <c r="G38">
-        <v>1.2705134992059319</v>
+        <v>0.95288512440443784</v>
       </c>
       <c r="H38" s="9">
         <f t="shared" si="31"/>
-        <v>-0.77800829875518662</v>
+        <v>0.15756302521007509</v>
       </c>
       <c r="I38" s="9">
         <f t="shared" si="32"/>
-        <v>0.77800829875518662</v>
+        <v>0.15756302521007509</v>
       </c>
       <c r="J38" s="9">
         <f t="shared" si="33"/>
-        <v>1.4522821576763396</v>
+        <v>0.68169900367069292</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="34"/>
-        <v>2.2477783585990649</v>
+        <v>1.1029411764705852</v>
       </c>
       <c r="L38" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7534,38 +7534,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>95.95</v>
+        <v>93.95</v>
       </c>
       <c r="T38">
-        <v>95.95</v>
+        <v>95.8</v>
       </c>
       <c r="U38">
-        <v>93.2</v>
+        <v>93.8</v>
       </c>
       <c r="V38">
         <v>94.45</v>
       </c>
       <c r="W38">
-        <v>3.5499999999999972</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
-        <v>3.9053905390539021</v>
+        <v>0.53219797764768495</v>
       </c>
       <c r="Y38" s="9">
         <f t="shared" si="41"/>
-        <v>-1.5633142261594579</v>
+        <v>0.53219797764768495</v>
       </c>
       <c r="Z38" s="9">
         <f t="shared" si="42"/>
-        <v>1.5633142261594579</v>
+        <v>0.53219797764768495</v>
       </c>
       <c r="AA38" s="9">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1.429327686606664</v>
       </c>
       <c r="AB38" s="9">
         <f t="shared" si="44"/>
-        <v>1.3234515616728428</v>
+        <v>0.15965939329431153</v>
       </c>
       <c r="AC38" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7592,38 +7592,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>99.7</v>
+        <v>93.7</v>
       </c>
       <c r="AJ38">
-        <v>100.5</v>
+        <v>94.4</v>
       </c>
       <c r="AK38">
-        <v>83.2</v>
+        <v>93.1</v>
       </c>
       <c r="AL38">
-        <v>90.9</v>
+        <v>93.95</v>
       </c>
       <c r="AM38">
-        <v>-9.6499999999999915</v>
+        <v>0.54999999999999716</v>
       </c>
       <c r="AN38">
-        <v>-9.5972153157632931</v>
+        <v>0.58886509635973994</v>
       </c>
       <c r="AO38" s="9">
         <f t="shared" si="51"/>
-        <v>-8.8264794383149425</v>
+        <v>0.26680896478121663</v>
       </c>
       <c r="AP38" s="9">
         <f t="shared" si="52"/>
-        <v>8.8264794383149425</v>
+        <v>0.26680896478121663</v>
       </c>
       <c r="AQ38" s="9">
         <f t="shared" si="53"/>
-        <v>0.80240722166499201</v>
+        <v>0.47897817988291946</v>
       </c>
       <c r="AR38" s="9">
         <f t="shared" si="54"/>
-        <v>8.4708470847084723</v>
+        <v>0.64034151547492901</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="55"/>
@@ -7655,38 +7655,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>643.70000000000005</v>
+        <v>706</v>
       </c>
       <c r="C39">
-        <v>643.70000000000005</v>
+        <v>726.4</v>
       </c>
       <c r="D39">
-        <v>622</v>
+        <v>705</v>
       </c>
       <c r="E39">
-        <v>635.4</v>
+        <v>722.45</v>
       </c>
       <c r="F39">
-        <v>-7.8000000000000682</v>
+        <v>19.450000000000049</v>
       </c>
       <c r="G39">
-        <v>-1.21268656716419</v>
+        <v>2.766714082503563</v>
       </c>
       <c r="H39" s="9">
         <f t="shared" si="31"/>
-        <v>-1.2894205375174876</v>
+        <v>2.3300283286119043</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="32"/>
-        <v>1.2894205375174876</v>
+        <v>2.3300283286119043</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.54675064018270214</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="34"/>
-        <v>2.108907774630151</v>
+        <v>0.14164305949008499</v>
       </c>
       <c r="L39" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" si="36"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="37"/>
@@ -7717,38 +7717,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>635</v>
+        <v>702.35</v>
       </c>
       <c r="T39">
-        <v>649.5</v>
+        <v>713</v>
       </c>
       <c r="U39">
-        <v>633</v>
+        <v>691</v>
       </c>
       <c r="V39">
-        <v>643.20000000000005</v>
+        <v>703</v>
       </c>
       <c r="W39">
-        <v>10.600000000000019</v>
+        <v>4.1499999999999773</v>
       </c>
       <c r="X39">
-        <v>1.6756244072083499</v>
+        <v>0.59383272519138264</v>
       </c>
       <c r="Y39" s="9">
         <f t="shared" si="41"/>
-        <v>1.2913385826771726</v>
+        <v>9.2546451199541149E-2</v>
       </c>
       <c r="Z39" s="9">
         <f t="shared" si="42"/>
-        <v>1.2913385826771726</v>
+        <v>9.2546451199541149E-2</v>
       </c>
       <c r="AA39" s="9">
         <f t="shared" si="43"/>
-        <v>0.97947761194029148</v>
+        <v>1.4224751066856329</v>
       </c>
       <c r="AB39" s="9">
         <f t="shared" si="44"/>
-        <v>0.31496062992125984</v>
+        <v>1.6160034170997397</v>
       </c>
       <c r="AC39" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7775,38 +7775,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>620.70000000000005</v>
+        <v>693.3</v>
       </c>
       <c r="AJ39">
-        <v>636.5</v>
+        <v>706</v>
       </c>
       <c r="AK39">
-        <v>600</v>
+        <v>683.5</v>
       </c>
       <c r="AL39">
-        <v>632.6</v>
+        <v>698.85</v>
       </c>
       <c r="AM39">
-        <v>14.200000000000051</v>
+        <v>9</v>
       </c>
       <c r="AN39">
-        <v>2.2962483829236811</v>
+        <v>1.3046314416177429</v>
       </c>
       <c r="AO39" s="9">
         <f t="shared" si="51"/>
-        <v>1.9171902690510674</v>
+        <v>0.80051925573345861</v>
       </c>
       <c r="AP39" s="9">
         <f t="shared" si="52"/>
-        <v>1.9171902690510674</v>
+        <v>0.80051925573345861</v>
       </c>
       <c r="AQ39" s="9">
         <f t="shared" si="53"/>
-        <v>0.616503319633256</v>
+        <v>1.0231093940044325</v>
       </c>
       <c r="AR39" s="9">
         <f t="shared" si="54"/>
-        <v>3.3349444175930469</v>
+        <v>1.4135294966104075</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="55"/>
@@ -7838,38 +7838,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40">
-        <v>187.95</v>
+        <v>187.5</v>
       </c>
       <c r="D40">
-        <v>177.3</v>
+        <v>180</v>
       </c>
       <c r="E40">
-        <v>179.65</v>
+        <v>181.05</v>
       </c>
       <c r="F40">
-        <v>-11</v>
+        <v>-1.5999999999999941</v>
       </c>
       <c r="G40">
-        <v>-5.7697351167060056</v>
+        <v>-0.87599233506706498</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="31"/>
-        <v>-3.4139784946236524</v>
+        <v>-2.1351351351351289</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="32"/>
-        <v>3.4139784946236524</v>
+        <v>2.1351351351351289</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="33"/>
-        <v>1.0483870967741873</v>
+        <v>1.3513513513513513</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="34"/>
-        <v>1.30809908154745</v>
+        <v>0.5799502899751513</v>
       </c>
       <c r="L40" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7900,38 +7900,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>193.3</v>
+        <v>180.5</v>
       </c>
       <c r="T40">
-        <v>198.3</v>
+        <v>184.2</v>
       </c>
       <c r="U40">
-        <v>189</v>
+        <v>178.75</v>
       </c>
       <c r="V40">
-        <v>190.65</v>
+        <v>182.65</v>
       </c>
       <c r="W40">
-        <v>0.75</v>
+        <v>2.1500000000000061</v>
       </c>
       <c r="X40">
-        <v>0.39494470774091622</v>
+        <v>1.191135734072025</v>
       </c>
       <c r="Y40" s="9">
         <f t="shared" si="41"/>
-        <v>-1.3709260217278869</v>
+        <v>1.1911357340720252</v>
       </c>
       <c r="Z40" s="9">
         <f t="shared" si="42"/>
-        <v>1.3709260217278869</v>
+        <v>1.1911357340720252</v>
       </c>
       <c r="AA40" s="9">
         <f t="shared" si="43"/>
-        <v>2.586652871184687</v>
+        <v>0.8486175745962129</v>
       </c>
       <c r="AB40" s="9">
         <f t="shared" si="44"/>
-        <v>0.86546026750590388</v>
+        <v>0.96952908587257614</v>
       </c>
       <c r="AC40" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7958,38 +7958,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>181.9</v>
+        <v>177.5</v>
       </c>
       <c r="AJ40">
-        <v>192.2</v>
+        <v>183.85</v>
       </c>
       <c r="AK40">
-        <v>179.4</v>
+        <v>177.5</v>
       </c>
       <c r="AL40">
-        <v>189.9</v>
+        <v>180.5</v>
       </c>
       <c r="AM40">
-        <v>4.1500000000000057</v>
+        <v>4.9000000000000057</v>
       </c>
       <c r="AN40">
-        <v>2.2341857335127888</v>
+        <v>2.7904328018223268</v>
       </c>
       <c r="AO40" s="9">
         <f t="shared" si="51"/>
-        <v>4.3980208905992306</v>
+        <v>1.6901408450704223</v>
       </c>
       <c r="AP40" s="9">
         <f t="shared" si="52"/>
-        <v>4.3980208905992306</v>
+        <v>1.6901408450704223</v>
       </c>
       <c r="AQ40" s="9">
         <f t="shared" si="53"/>
-        <v>1.2111637704054676</v>
+        <v>1.8559556786703568</v>
       </c>
       <c r="AR40" s="9">
         <f t="shared" si="54"/>
-        <v>1.3743815283122593</v>
+        <v>0</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="55"/>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="AV40" t="str">
         <f t="shared" si="58"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW40" t="str">
         <f t="shared" si="59"/>
@@ -8021,38 +8021,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>112.65</v>
+        <v>108.9</v>
       </c>
       <c r="C41">
-        <v>112.85</v>
+        <v>110.05</v>
       </c>
       <c r="D41">
-        <v>108</v>
+        <v>106.8</v>
       </c>
       <c r="E41">
-        <v>109.7</v>
+        <v>107.25</v>
       </c>
       <c r="F41">
-        <v>-2.9500000000000028</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="G41">
-        <v>-2.6187305814469619</v>
+        <v>-9.3153237074983075E-2</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="31"/>
-        <v>-2.6187305814469619</v>
+        <v>-1.5151515151515202</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="32"/>
-        <v>2.6187305814469619</v>
+        <v>1.5151515151515202</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="33"/>
-        <v>0.17754105636927528</v>
+        <v>1.0560146923783209</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="34"/>
-        <v>1.5496809480401119</v>
+        <v>0.41958041958042225</v>
       </c>
       <c r="L41" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8083,38 +8083,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>115.4</v>
+        <v>107.25</v>
       </c>
       <c r="T41">
-        <v>116</v>
+        <v>108.4</v>
       </c>
       <c r="U41">
-        <v>112.1</v>
+        <v>105.85</v>
       </c>
       <c r="V41">
-        <v>112.65</v>
+        <v>107.35</v>
       </c>
       <c r="W41">
-        <v>-1.899999999999991</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="X41">
-        <v>-1.6586643387167099</v>
+        <v>9.3240093240087932E-2</v>
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="41"/>
-        <v>-2.3830155979202772</v>
+        <v>9.3240093240087932E-2</v>
       </c>
       <c r="Z41" s="9">
         <f t="shared" si="42"/>
-        <v>2.3830155979202772</v>
+        <v>9.3240093240087932E-2</v>
       </c>
       <c r="AA41" s="9">
         <f t="shared" si="43"/>
-        <v>0.51993067590987374</v>
+        <v>0.97810898928738843</v>
       </c>
       <c r="AB41" s="9">
         <f t="shared" si="44"/>
-        <v>0.48823790501554493</v>
+        <v>1.3053613053613107</v>
       </c>
       <c r="AC41" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8141,38 +8141,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>112.75</v>
+        <v>107</v>
       </c>
       <c r="AJ41">
-        <v>117.4</v>
+        <v>108.55</v>
       </c>
       <c r="AK41">
-        <v>112.25</v>
+        <v>105.5</v>
       </c>
       <c r="AL41">
-        <v>114.55</v>
+        <v>107.25</v>
       </c>
       <c r="AM41">
-        <v>1.649999999999991</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AN41">
-        <v>1.461470327723642</v>
+        <v>0.75152653828088034</v>
       </c>
       <c r="AO41" s="9">
         <f t="shared" si="51"/>
-        <v>1.5964523281596428</v>
+        <v>0.23364485981308408</v>
       </c>
       <c r="AP41" s="9">
         <f t="shared" si="52"/>
-        <v>1.5964523281596428</v>
+        <v>0.23364485981308408</v>
       </c>
       <c r="AQ41" s="9">
         <f t="shared" si="53"/>
-        <v>2.4879965080750841</v>
+        <v>1.2121212121212095</v>
       </c>
       <c r="AR41" s="9">
         <f t="shared" si="54"/>
-        <v>0.44345898004434592</v>
+        <v>1.4018691588785046</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="55"/>
@@ -8204,38 +8204,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>30.65</v>
+        <v>39.35</v>
       </c>
       <c r="C42">
-        <v>30.7</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D42">
-        <v>29.2</v>
+        <v>39.1</v>
       </c>
       <c r="E42">
-        <v>29.55</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="F42">
-        <v>-0.94999999999999929</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="G42">
-        <v>-3.114754098360653</v>
+        <v>1.6709511568123361</v>
       </c>
       <c r="H42" s="9">
         <f t="shared" si="31"/>
-        <v>-3.5889070146818858</v>
+        <v>0.50825921219821024</v>
       </c>
       <c r="I42" s="9">
         <f t="shared" si="32"/>
-        <v>3.5889070146818858</v>
+        <v>0.50825921219821024</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="33"/>
-        <v>0.16313213703099744</v>
+        <v>1.6434892541087376</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="34"/>
-        <v>1.1844331641286003</v>
+        <v>0.63532401524777637</v>
       </c>
       <c r="L42" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8266,38 +8266,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>31.55</v>
+        <v>38.5</v>
       </c>
       <c r="T42">
-        <v>31.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="U42">
-        <v>30.3</v>
+        <v>38</v>
       </c>
       <c r="V42">
-        <v>30.5</v>
+        <v>38.9</v>
       </c>
       <c r="W42">
-        <v>-0.35000000000000142</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="X42">
-        <v>-1.134521880064834</v>
+        <v>1.0389610389610351</v>
       </c>
       <c r="Y42" s="9">
         <f t="shared" si="41"/>
-        <v>-3.328050713153726</v>
+        <v>1.0389610389610353</v>
       </c>
       <c r="Z42" s="9">
         <f t="shared" si="42"/>
-        <v>3.328050713153726</v>
+        <v>1.0389610389610353</v>
       </c>
       <c r="AA42" s="9">
         <f t="shared" si="43"/>
-        <v>0.15847860538827482</v>
+        <v>0.77120822622109064</v>
       </c>
       <c r="AB42" s="9">
         <f t="shared" si="44"/>
-        <v>0.65573770491803041</v>
+        <v>1.2987012987012987</v>
       </c>
       <c r="AC42" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8324,38 +8324,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>30.8</v>
+        <v>39.65</v>
       </c>
       <c r="AJ42">
-        <v>31.65</v>
+        <v>39.9</v>
       </c>
       <c r="AK42">
-        <v>30.5</v>
+        <v>37.75</v>
       </c>
       <c r="AL42">
-        <v>30.85</v>
+        <v>38.5</v>
       </c>
       <c r="AM42">
-        <v>0</v>
+        <v>-0.85000000000000142</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>-2.1601016518424432</v>
       </c>
       <c r="AO42" s="9">
         <f t="shared" si="51"/>
-        <v>0.16233766233766464</v>
+        <v>-2.9003783102143723</v>
       </c>
       <c r="AP42" s="9">
         <f t="shared" si="52"/>
-        <v>0.16233766233766464</v>
+        <v>2.9003783102143723</v>
       </c>
       <c r="AQ42" s="9">
         <f t="shared" si="53"/>
-        <v>2.5931928687196013</v>
+        <v>0.63051702395964693</v>
       </c>
       <c r="AR42" s="9">
         <f t="shared" si="54"/>
-        <v>0.97402597402597624</v>
+        <v>1.948051948051948</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="55"/>
@@ -8387,38 +8387,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>3600</v>
+        <v>4234.45</v>
       </c>
       <c r="C43">
-        <v>3639.95</v>
+        <v>4369.95</v>
       </c>
       <c r="D43">
-        <v>3584.05</v>
+        <v>4223</v>
       </c>
       <c r="E43">
-        <v>3603.5</v>
+        <v>4330.3</v>
       </c>
       <c r="F43">
-        <v>1.5</v>
+        <v>124.25</v>
       </c>
       <c r="G43">
-        <v>4.1643531371460298E-2</v>
+        <v>2.9540780542314051</v>
       </c>
       <c r="H43" s="9">
         <f t="shared" si="31"/>
-        <v>9.7222222222222224E-2</v>
+        <v>2.2635761433007917</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" si="32"/>
-        <v>9.7222222222222224E-2</v>
+        <v>2.2635761433007917</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="33"/>
-        <v>1.0115165811017017</v>
+        <v>0.91564094866405632</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="34"/>
-        <v>0.44305555555555054</v>
+        <v>0.27040111466659938</v>
       </c>
       <c r="L43" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8449,38 +8449,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>3640</v>
+        <v>4140.8</v>
       </c>
       <c r="T43">
-        <v>3664.95</v>
+        <v>4219</v>
       </c>
       <c r="U43">
-        <v>3586.55</v>
+        <v>4115</v>
       </c>
       <c r="V43">
-        <v>3602</v>
+        <v>4206.05</v>
       </c>
       <c r="W43">
-        <v>-13.150000000000089</v>
+        <v>88.050000000000182</v>
       </c>
       <c r="X43">
-        <v>-0.36374700911442381</v>
+        <v>2.138173870811078</v>
       </c>
       <c r="Y43" s="9">
         <f t="shared" si="41"/>
-        <v>-1.0439560439560438</v>
+        <v>1.5757824574961359</v>
       </c>
       <c r="Z43" s="9">
         <f t="shared" si="42"/>
-        <v>1.0439560439560438</v>
+        <v>1.5757824574961359</v>
       </c>
       <c r="AA43" s="9">
         <f t="shared" si="43"/>
-        <v>0.68543956043955545</v>
+        <v>0.30788982537059278</v>
       </c>
       <c r="AB43" s="9">
         <f t="shared" si="44"/>
-        <v>0.42892837312603599</v>
+        <v>0.62306800618238456</v>
       </c>
       <c r="AC43" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8507,38 +8507,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>3601.35</v>
+        <v>4160</v>
       </c>
       <c r="AJ43">
-        <v>3644.85</v>
+        <v>4220</v>
       </c>
       <c r="AK43">
-        <v>3562</v>
+        <v>4093.05</v>
       </c>
       <c r="AL43">
-        <v>3615.15</v>
+        <v>4118</v>
       </c>
       <c r="AM43">
-        <v>13.80000000000018</v>
+        <v>-5.5500000000001819</v>
       </c>
       <c r="AN43">
-        <v>0.38318963721938121</v>
+        <v>-0.13459276594197189</v>
       </c>
       <c r="AO43" s="9">
         <f t="shared" si="51"/>
-        <v>0.38318963721938115</v>
+        <v>-1.0096153846153846</v>
       </c>
       <c r="AP43" s="9">
         <f t="shared" si="52"/>
-        <v>0.38318963721938115</v>
+        <v>1.0096153846153846</v>
       </c>
       <c r="AQ43" s="9">
         <f t="shared" si="53"/>
-        <v>0.82154267457781338</v>
+        <v>1.4423076923076923</v>
       </c>
       <c r="AR43" s="9">
         <f t="shared" si="54"/>
-        <v>1.0926458133755372</v>
+        <v>0.60587663914521173</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="55"/>
@@ -8570,38 +8570,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>402.1</v>
+        <v>489</v>
       </c>
       <c r="C44">
-        <v>420</v>
+        <v>508.25</v>
       </c>
       <c r="D44">
-        <v>394.3</v>
+        <v>489</v>
       </c>
       <c r="E44">
-        <v>397.4</v>
+        <v>499.35</v>
       </c>
       <c r="F44">
-        <v>-23.800000000000011</v>
+        <v>12.450000000000051</v>
       </c>
       <c r="G44">
-        <v>-5.6505223171889867</v>
+        <v>2.5569932224276131</v>
       </c>
       <c r="H44" s="9">
         <f t="shared" si="31"/>
-        <v>-1.1688634667993147</v>
+        <v>2.1165644171779188</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="32"/>
-        <v>1.1688634667993147</v>
+        <v>2.1165644171779188</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="33"/>
-        <v>4.4516289480228739</v>
+        <v>1.7823170121157459</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="34"/>
-        <v>0.78007045797684094</v>
+        <v>0</v>
       </c>
       <c r="L44" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="O44" s="9" t="str">
         <f t="shared" si="38"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P44" s="9" t="str">
         <f t="shared" si="39"/>
@@ -8632,38 +8632,38 @@
         <v>#REF!</v>
       </c>
       <c r="S44">
-        <v>419.7</v>
+        <v>479</v>
       </c>
       <c r="T44">
-        <v>427</v>
+        <v>492.4</v>
       </c>
       <c r="U44">
-        <v>409.3</v>
+        <v>475.9</v>
       </c>
       <c r="V44">
-        <v>421.2</v>
+        <v>486.9</v>
       </c>
       <c r="W44">
-        <v>7.5</v>
+        <v>6.3499999999999659</v>
       </c>
       <c r="X44">
-        <v>1.812907904278463</v>
+        <v>1.321402559567155</v>
       </c>
       <c r="Y44" s="9">
         <f t="shared" si="41"/>
-        <v>0.35739814152966404</v>
+        <v>1.6492693110647134</v>
       </c>
       <c r="Z44" s="9">
         <f t="shared" si="42"/>
-        <v>0.35739814152966404</v>
+        <v>1.6492693110647134</v>
       </c>
       <c r="AA44" s="9">
         <f t="shared" si="43"/>
-        <v>1.377018043684713</v>
+        <v>1.1295953994660095</v>
       </c>
       <c r="AB44" s="9">
         <f t="shared" si="44"/>
-        <v>2.4779604479389987</v>
+        <v>0.64718162839248905</v>
       </c>
       <c r="AC44" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8690,38 +8690,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>393.8</v>
+        <v>470.85</v>
       </c>
       <c r="AJ44">
-        <v>416.8</v>
+        <v>501.7</v>
       </c>
       <c r="AK44">
-        <v>386.8</v>
+        <v>469</v>
       </c>
       <c r="AL44">
-        <v>413.7</v>
+        <v>480.55</v>
       </c>
       <c r="AM44">
-        <v>16.75</v>
+        <v>16.100000000000019</v>
       </c>
       <c r="AN44">
-        <v>4.2196750220430781</v>
+        <v>3.466465712132635</v>
       </c>
       <c r="AO44" s="9">
         <f t="shared" si="51"/>
-        <v>5.0533265617064442</v>
+        <v>2.060104067112666</v>
       </c>
       <c r="AP44" s="9">
         <f t="shared" si="52"/>
-        <v>5.0533265617064442</v>
+        <v>2.060104067112666</v>
       </c>
       <c r="AQ44" s="9">
         <f t="shared" si="53"/>
-        <v>0.74933526710177001</v>
+        <v>4.4012069503693638</v>
       </c>
       <c r="AR44" s="9">
         <f t="shared" si="54"/>
-        <v>1.7775520568816656</v>
+        <v>0.39290644578953438</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="55"/>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="AV44" t="str">
         <f t="shared" si="58"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW44" t="str">
         <f t="shared" si="59"/>
@@ -8753,38 +8753,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>46.45</v>
+        <v>56.9</v>
       </c>
       <c r="C45">
-        <v>47.25</v>
+        <v>58.4</v>
       </c>
       <c r="D45">
-        <v>44.45</v>
+        <v>56.45</v>
       </c>
       <c r="E45">
-        <v>44.85</v>
+        <v>57.1</v>
       </c>
       <c r="F45">
-        <v>-1.5</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="G45">
-        <v>-3.2362459546925559</v>
+        <v>0.70546737213403621</v>
       </c>
       <c r="H45" s="9">
         <f t="shared" si="31"/>
-        <v>-3.4445640473627588</v>
+        <v>0.35149384885765</v>
       </c>
       <c r="I45" s="9">
         <f t="shared" si="32"/>
-        <v>3.4445640473627588</v>
+        <v>0.35149384885765</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" si="33"/>
-        <v>1.7222820236813718</v>
+        <v>2.2767075306479807</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="34"/>
-        <v>0.89186176142697571</v>
+        <v>0.79086115992969375</v>
       </c>
       <c r="L45" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8815,38 +8815,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>44.45</v>
+        <v>55</v>
       </c>
       <c r="T45">
-        <v>47.4</v>
+        <v>57.15</v>
       </c>
       <c r="U45">
-        <v>44.3</v>
+        <v>54.8</v>
       </c>
       <c r="V45">
-        <v>46.35</v>
+        <v>56.7</v>
       </c>
       <c r="W45">
-        <v>2.350000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="X45">
-        <v>5.3409090909090944</v>
+        <v>2.254283137962128</v>
       </c>
       <c r="Y45" s="9">
         <f t="shared" si="41"/>
-        <v>4.2744656917885235</v>
+        <v>3.0909090909090962</v>
       </c>
       <c r="Z45" s="9">
         <f t="shared" si="42"/>
-        <v>4.2744656917885235</v>
+        <v>3.0909090909090962</v>
       </c>
       <c r="AA45" s="9">
         <f t="shared" si="43"/>
-        <v>2.2653721682847836</v>
+        <v>0.79365079365078617</v>
       </c>
       <c r="AB45" s="9">
         <f t="shared" si="44"/>
-        <v>0.33745781777279116</v>
+        <v>0.36363636363636881</v>
       </c>
       <c r="AC45" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8870,41 +8870,41 @@
       </c>
       <c r="AH45" s="9" t="str">
         <f t="shared" si="50"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AI45">
-        <v>43.15</v>
+        <v>56.45</v>
       </c>
       <c r="AJ45">
-        <v>44.6</v>
+        <v>57.2</v>
       </c>
       <c r="AK45">
-        <v>43.1</v>
+        <v>54.7</v>
       </c>
       <c r="AL45">
-        <v>44</v>
+        <v>55.45</v>
       </c>
       <c r="AM45">
-        <v>0.75</v>
+        <v>-0.19999999999999571</v>
       </c>
       <c r="AN45">
-        <v>1.7341040462427739</v>
+        <v>-0.35938903863431398</v>
       </c>
       <c r="AO45" s="9">
         <f t="shared" si="51"/>
-        <v>1.9698725376593313</v>
+        <v>-1.7714791851195746</v>
       </c>
       <c r="AP45" s="9">
         <f t="shared" si="52"/>
-        <v>1.9698725376593313</v>
+        <v>1.7714791851195746</v>
       </c>
       <c r="AQ45" s="9">
         <f t="shared" si="53"/>
-        <v>1.3636363636363669</v>
+        <v>1.328609388839681</v>
       </c>
       <c r="AR45" s="9">
         <f t="shared" si="54"/>
-        <v>0.11587485515642446</v>
+        <v>1.3525698827772767</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="55"/>
@@ -8936,38 +8936,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>2480.4</v>
+        <v>2846</v>
       </c>
       <c r="C46">
-        <v>2510</v>
+        <v>2858.85</v>
       </c>
       <c r="D46">
-        <v>2426.25</v>
+        <v>2781.15</v>
       </c>
       <c r="E46">
-        <v>2437.75</v>
+        <v>2797.55</v>
       </c>
       <c r="F46">
-        <v>-33.400000000000091</v>
+        <v>-39.649999999999643</v>
       </c>
       <c r="G46">
-        <v>-1.351597434392898</v>
+        <v>-1.3975045819822229</v>
       </c>
       <c r="H46" s="9">
         <f t="shared" si="31"/>
-        <v>-1.7194807289146949</v>
+        <v>-1.7023893183415257</v>
       </c>
       <c r="I46" s="9">
         <f t="shared" si="32"/>
-        <v>1.7194807289146949</v>
+        <v>1.7023893183415257</v>
       </c>
       <c r="J46" s="9">
         <f t="shared" si="33"/>
-        <v>1.1933559103370386</v>
+        <v>0.45151089248067144</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="34"/>
-        <v>0.47174648753973952</v>
+        <v>0.58622723454451531</v>
       </c>
       <c r="L46" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8998,38 +8998,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>2512.65</v>
+        <v>2815</v>
       </c>
       <c r="T46">
-        <v>2521.15</v>
+        <v>2841.95</v>
       </c>
       <c r="U46">
-        <v>2450</v>
+        <v>2811</v>
       </c>
       <c r="V46">
-        <v>2471.15</v>
+        <v>2837.2</v>
       </c>
       <c r="W46">
-        <v>-28.949999999999822</v>
+        <v>22.64999999999964</v>
       </c>
       <c r="X46">
-        <v>-1.157953681852719</v>
+        <v>0.80474676235986697</v>
       </c>
       <c r="Y46" s="9">
         <f t="shared" si="41"/>
-        <v>-1.6516426879987265</v>
+        <v>0.78863232682059736</v>
       </c>
       <c r="Z46" s="9">
         <f t="shared" si="42"/>
-        <v>1.6516426879987265</v>
+        <v>0.78863232682059736</v>
       </c>
       <c r="AA46" s="9">
         <f t="shared" si="43"/>
-        <v>0.33828826139732954</v>
+        <v>0.16741858170026788</v>
       </c>
       <c r="AB46" s="9">
         <f t="shared" si="44"/>
-        <v>0.85587681848532415</v>
+        <v>0.14209591474245115</v>
       </c>
       <c r="AC46" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="AF46" s="9" t="str">
         <f t="shared" si="48"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG46" s="9" t="str">
         <f t="shared" si="49"/>
@@ -9056,38 +9056,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>2474.8000000000002</v>
+        <v>2850</v>
       </c>
       <c r="AJ46">
-        <v>2529</v>
+        <v>2852.95</v>
       </c>
       <c r="AK46">
-        <v>2460</v>
+        <v>2796.05</v>
       </c>
       <c r="AL46">
-        <v>2500.1</v>
+        <v>2814.55</v>
       </c>
       <c r="AM46">
-        <v>38.049999999999727</v>
+        <v>6.75</v>
       </c>
       <c r="AN46">
-        <v>1.5454600840762669</v>
+        <v>0.24040173801552811</v>
       </c>
       <c r="AO46" s="9">
         <f t="shared" si="51"/>
-        <v>1.0223048327137436</v>
+        <v>-1.2438596491228007</v>
       </c>
       <c r="AP46" s="9">
         <f t="shared" si="52"/>
-        <v>1.0223048327137436</v>
+        <v>1.2438596491228007</v>
       </c>
       <c r="AQ46" s="9">
         <f t="shared" si="53"/>
-        <v>1.1559537618495297</v>
+        <v>0.10350877192981818</v>
       </c>
       <c r="AR46" s="9">
         <f t="shared" si="54"/>
-        <v>0.59802812348473333</v>
+        <v>0.65729868007319103</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="55"/>
@@ -9119,38 +9119,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>324.85000000000002</v>
+        <v>325.35000000000002</v>
       </c>
       <c r="C47">
-        <v>327.8</v>
+        <v>331.65</v>
       </c>
       <c r="D47">
-        <v>318.55</v>
+        <v>323.10000000000002</v>
       </c>
       <c r="E47">
-        <v>320.64999999999998</v>
+        <v>326.55</v>
       </c>
       <c r="F47">
-        <v>-4.75</v>
+        <v>1.75</v>
       </c>
       <c r="G47">
-        <v>-1.459741856177013</v>
+        <v>0.5387931034482758</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="31"/>
-        <v>-1.2929044174234401</v>
+        <v>0.36883356385430721</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="32"/>
-        <v>1.2929044174234401</v>
+        <v>0.36883356385430721</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="33"/>
-        <v>0.90811143604740285</v>
+        <v>1.5617822691777572</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="34"/>
-        <v>0.65491969437079867</v>
+        <v>0.69156293222683263</v>
       </c>
       <c r="L47" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9181,38 +9181,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>329.6</v>
+        <v>325.75</v>
       </c>
       <c r="T47">
-        <v>330</v>
+        <v>326.3</v>
       </c>
       <c r="U47">
-        <v>323</v>
+        <v>322.75</v>
       </c>
       <c r="V47">
-        <v>325.39999999999998</v>
+        <v>324.8</v>
       </c>
       <c r="W47">
-        <v>-0.75</v>
+        <v>-0.94999999999998863</v>
       </c>
       <c r="X47">
-        <v>-0.22995554192856049</v>
+        <v>-0.29163468917881458</v>
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="41"/>
-        <v>-1.2742718446602079</v>
+        <v>-0.29163468917881463</v>
       </c>
       <c r="Z47" s="9">
         <f t="shared" si="42"/>
-        <v>1.2742718446602079</v>
+        <v>0.29163468917881463</v>
       </c>
       <c r="AA47" s="9">
         <f t="shared" si="43"/>
-        <v>0.12135922330096396</v>
+        <v>0.16884113584037186</v>
       </c>
       <c r="AB47" s="9">
         <f t="shared" si="44"/>
-        <v>0.73755377996311533</v>
+        <v>0.63115763546798376</v>
       </c>
       <c r="AC47" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9239,38 +9239,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>324.8</v>
+        <v>327</v>
       </c>
       <c r="AJ47">
-        <v>332.25</v>
+        <v>329</v>
       </c>
       <c r="AK47">
-        <v>324</v>
+        <v>322.5</v>
       </c>
       <c r="AL47">
-        <v>326.14999999999998</v>
+        <v>325.75</v>
       </c>
       <c r="AM47">
-        <v>2.5</v>
+        <v>0.30000000000001142</v>
       </c>
       <c r="AN47">
-        <v>0.77243936350996456</v>
+        <v>9.2180058380707128E-2</v>
       </c>
       <c r="AO47" s="9">
         <f t="shared" si="51"/>
-        <v>0.41564039408865949</v>
+        <v>-0.38226299694189603</v>
       </c>
       <c r="AP47" s="9">
         <f t="shared" si="52"/>
-        <v>0.41564039408865949</v>
+        <v>0.38226299694189603</v>
       </c>
       <c r="AQ47" s="9">
         <f t="shared" si="53"/>
-        <v>1.8703050743522989</v>
+        <v>0.6116207951070336</v>
       </c>
       <c r="AR47" s="9">
         <f t="shared" si="54"/>
-        <v>0.2463054187192153</v>
+        <v>0.9976976208749041</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="55"/>
@@ -9302,38 +9302,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>380.9</v>
+        <v>448.2</v>
       </c>
       <c r="C48">
-        <v>383.65</v>
+        <v>458.9</v>
       </c>
       <c r="D48">
-        <v>374</v>
+        <v>446.25</v>
       </c>
       <c r="E48">
-        <v>378.3</v>
+        <v>456.6</v>
       </c>
       <c r="F48">
-        <v>-3.3499999999999659</v>
+        <v>12.350000000000019</v>
       </c>
       <c r="G48">
-        <v>-0.87776758810427513</v>
+        <v>2.779966235227918</v>
       </c>
       <c r="H48" s="9">
         <f t="shared" si="31"/>
-        <v>-0.68259385665528116</v>
+        <v>1.8741633199464602</v>
       </c>
       <c r="I48" s="9">
         <f t="shared" si="32"/>
-        <v>0.68259385665528116</v>
+        <v>1.8741633199464602</v>
       </c>
       <c r="J48" s="9">
         <f t="shared" si="33"/>
-        <v>0.72197427146232607</v>
+        <v>0.5037231712658683</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="34"/>
-        <v>1.1366640232619643</v>
+        <v>0.43507362784470971</v>
       </c>
       <c r="L48" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9364,38 +9364,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>387.9</v>
+        <v>435</v>
       </c>
       <c r="T48">
-        <v>387.9</v>
+        <v>446.95</v>
       </c>
       <c r="U48">
-        <v>379.05</v>
+        <v>435</v>
       </c>
       <c r="V48">
-        <v>381.65</v>
+        <v>444.25</v>
       </c>
       <c r="W48">
-        <v>-1.6500000000000341</v>
+        <v>6.3500000000000227</v>
       </c>
       <c r="X48">
-        <v>-0.43047221497522409</v>
+        <v>1.450102763187948</v>
       </c>
       <c r="Y48" s="9">
         <f t="shared" si="41"/>
-        <v>-1.6112400103119362</v>
+        <v>2.1264367816091956</v>
       </c>
       <c r="Z48" s="9">
         <f t="shared" si="42"/>
-        <v>1.6112400103119362</v>
+        <v>2.1264367816091956</v>
       </c>
       <c r="AA48" s="9">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.60776589758018873</v>
       </c>
       <c r="AB48" s="9">
         <f t="shared" si="44"/>
-        <v>0.6812524564391369</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9422,38 +9422,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>376.1</v>
+        <v>445.7</v>
       </c>
       <c r="AJ48">
-        <v>392.8</v>
+        <v>445.7</v>
       </c>
       <c r="AK48">
-        <v>375.1</v>
+        <v>430.2</v>
       </c>
       <c r="AL48">
-        <v>383.3</v>
+        <v>437.9</v>
       </c>
       <c r="AM48">
-        <v>2.6999999999999891</v>
+        <v>-0.25</v>
       </c>
       <c r="AN48">
-        <v>0.70940620073567751</v>
+        <v>-5.7058085130663017E-2</v>
       </c>
       <c r="AO48" s="9">
         <f t="shared" si="51"/>
-        <v>1.9143844722148335</v>
+        <v>-1.7500560915413983</v>
       </c>
       <c r="AP48" s="9">
         <f t="shared" si="52"/>
-        <v>1.9143844722148335</v>
+        <v>1.7500560915413983</v>
       </c>
       <c r="AQ48" s="9">
         <f t="shared" si="53"/>
-        <v>2.4784763892512394</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="9">
         <f t="shared" si="54"/>
-        <v>0.26588673225206061</v>
+        <v>1.7583923270152977</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="55"/>
@@ -9485,38 +9485,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>33.549999999999997</v>
+        <v>28.7</v>
       </c>
       <c r="C49">
-        <v>33.549999999999997</v>
+        <v>28.95</v>
       </c>
       <c r="D49">
-        <v>32.35</v>
+        <v>28.5</v>
       </c>
       <c r="E49">
-        <v>32.75</v>
+        <v>28.6</v>
       </c>
       <c r="F49">
-        <v>-1.100000000000001</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="G49">
-        <v>-3.2496307237813919</v>
+        <v>-0.17452006980801801</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="31"/>
-        <v>-2.3845007451564744</v>
+        <v>-0.34843205574912151</v>
       </c>
       <c r="I49" s="9">
         <f t="shared" si="32"/>
-        <v>2.3845007451564744</v>
+        <v>0.34843205574912151</v>
       </c>
       <c r="J49" s="9">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.87108013937282225</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="34"/>
-        <v>1.2213740458015223</v>
+        <v>0.34965034965035457</v>
       </c>
       <c r="L49" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9547,38 +9547,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>33.799999999999997</v>
+        <v>28.8</v>
       </c>
       <c r="T49">
-        <v>35.4</v>
+        <v>29.15</v>
       </c>
       <c r="U49">
-        <v>33.25</v>
+        <v>28.4</v>
       </c>
       <c r="V49">
-        <v>33.85</v>
+        <v>28.65</v>
       </c>
       <c r="W49">
-        <v>0.55000000000000426</v>
+        <v>-0.1500000000000021</v>
       </c>
       <c r="X49">
-        <v>1.6516516516516651</v>
+        <v>-0.52083333333334081</v>
       </c>
       <c r="Y49" s="9">
         <f t="shared" si="41"/>
-        <v>0.14792899408285284</v>
+        <v>-0.52083333333334081</v>
       </c>
       <c r="Z49" s="9">
         <f t="shared" si="42"/>
-        <v>0.14792899408285284</v>
+        <v>0.52083333333334081</v>
       </c>
       <c r="AA49" s="9">
         <f t="shared" si="43"/>
-        <v>4.5790251107828572</v>
+        <v>1.2152777777777704</v>
       </c>
       <c r="AB49" s="9">
         <f t="shared" si="44"/>
-        <v>1.6272189349112343</v>
+        <v>0.87260034904013961</v>
       </c>
       <c r="AC49" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9605,38 +9605,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>32.65</v>
+        <v>28.35</v>
       </c>
       <c r="AJ49">
-        <v>33.5</v>
+        <v>29.15</v>
       </c>
       <c r="AK49">
-        <v>31.8</v>
+        <v>28.35</v>
       </c>
       <c r="AL49">
-        <v>33.299999999999997</v>
+        <v>28.8</v>
       </c>
       <c r="AM49">
-        <v>0.39999999999999858</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="AN49">
-        <v>1.215805471124616</v>
+        <v>1.946902654867259</v>
       </c>
       <c r="AO49" s="9">
         <f t="shared" si="51"/>
-        <v>1.9908116385911137</v>
+        <v>1.5873015873015848</v>
       </c>
       <c r="AP49" s="9">
         <f t="shared" si="52"/>
-        <v>1.9908116385911137</v>
+        <v>1.5873015873015848</v>
       </c>
       <c r="AQ49" s="9">
         <f t="shared" si="53"/>
-        <v>0.60060060060060916</v>
+        <v>1.2152777777777704</v>
       </c>
       <c r="AR49" s="9">
         <f t="shared" si="54"/>
-        <v>2.6033690658499169</v>
+        <v>0</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="55"/>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="AV49" t="str">
         <f t="shared" si="58"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW49" t="str">
         <f t="shared" si="59"/>
@@ -9668,38 +9668,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>547</v>
+        <v>662.4</v>
       </c>
       <c r="C50">
-        <v>547</v>
+        <v>699.6</v>
       </c>
       <c r="D50">
-        <v>534.65</v>
+        <v>662.4</v>
       </c>
       <c r="E50">
-        <v>536.70000000000005</v>
+        <v>685.6</v>
       </c>
       <c r="F50">
-        <v>-8.6999999999999318</v>
+        <v>29.149999999999981</v>
       </c>
       <c r="G50">
-        <v>-1.595159515951583</v>
+        <v>4.4405514509863622</v>
       </c>
       <c r="H50" s="9">
         <f t="shared" si="31"/>
-        <v>-1.8829981718464266</v>
+        <v>3.5024154589372052</v>
       </c>
       <c r="I50" s="9">
         <f t="shared" si="32"/>
-        <v>1.8829981718464266</v>
+        <v>3.5024154589372052</v>
       </c>
       <c r="J50" s="9">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2.0420070011668612</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="34"/>
-        <v>0.38196385317683401</v>
+        <v>0</v>
       </c>
       <c r="L50" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9730,38 +9730,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>554</v>
+        <v>645</v>
       </c>
       <c r="T50">
-        <v>557.25</v>
+        <v>662</v>
       </c>
       <c r="U50">
-        <v>542.04999999999995</v>
+        <v>643.65</v>
       </c>
       <c r="V50">
-        <v>545.4</v>
+        <v>656.45</v>
       </c>
       <c r="W50">
-        <v>-6.7000000000000446</v>
+        <v>7.3000000000000682</v>
       </c>
       <c r="X50">
-        <v>-1.2135482702409071</v>
+        <v>1.1245474851729289</v>
       </c>
       <c r="Y50" s="9">
         <f t="shared" si="41"/>
-        <v>-1.552346570397116</v>
+        <v>1.7751937984496196</v>
       </c>
       <c r="Z50" s="9">
         <f t="shared" si="42"/>
-        <v>1.552346570397116</v>
+        <v>1.7751937984496196</v>
       </c>
       <c r="AA50" s="9">
         <f t="shared" si="43"/>
-        <v>0.58664259927797835</v>
+        <v>0.84545662274353783</v>
       </c>
       <c r="AB50" s="9">
         <f t="shared" si="44"/>
-        <v>0.61422808947561836</v>
+        <v>0.20930232558139888</v>
       </c>
       <c r="AC50" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9788,38 +9788,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>537</v>
+        <v>654.9</v>
       </c>
       <c r="AJ50">
-        <v>554.95000000000005</v>
+        <v>658.25</v>
       </c>
       <c r="AK50">
-        <v>533.95000000000005</v>
+        <v>643.5</v>
       </c>
       <c r="AL50">
-        <v>552.1</v>
+        <v>649.15</v>
       </c>
       <c r="AM50">
-        <v>14.149999999999981</v>
+        <v>-1.149999999999977</v>
       </c>
       <c r="AN50">
-        <v>2.6303559810391248</v>
+        <v>-0.17684145778870941</v>
       </c>
       <c r="AO50" s="9">
         <f t="shared" si="51"/>
-        <v>2.8119180633147156</v>
+        <v>-0.87799664070850514</v>
       </c>
       <c r="AP50" s="9">
         <f t="shared" si="52"/>
-        <v>2.8119180633147156</v>
+        <v>0.87799664070850514</v>
       </c>
       <c r="AQ50" s="9">
         <f t="shared" si="53"/>
-        <v>0.51621083137113255</v>
+        <v>0.51152847763017606</v>
       </c>
       <c r="AR50" s="9">
         <f t="shared" si="54"/>
-        <v>0.56797020484170468</v>
+        <v>0.87036894400369358</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="55"/>

--- a/techniqo/candlepattern/midcap_50.xlsx
+++ b/techniqo/candlepattern/midcap_50.xlsx
@@ -691,7 +691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,45 +884,45 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>37.700000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C2">
-        <v>37.799999999999997</v>
+        <v>37.4</v>
       </c>
       <c r="D2">
         <v>37.1</v>
       </c>
       <c r="E2">
-        <v>37.25</v>
+        <v>37.15</v>
       </c>
       <c r="F2">
-        <v>-0.14999999999999861</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-0.40106951871657381</v>
+        <v>0</v>
       </c>
       <c r="H2" s="9">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>-1.1936339522546493</v>
+        <v>-0.13440860215054909</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>1.1936339522546493</v>
+        <v>0.13440860215054909</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>0.2652519893899053</v>
+        <v>0.53763440860213907</v>
       </c>
       <c r="K2" s="9">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0.40268456375838546</v>
+        <v>0.13458950201883488</v>
       </c>
       <c r="L2" s="9" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M33" si="5">IF(AND((K2-J2)&gt;1.5,I2&lt;2,I2&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="M2:M33" si="5">IF(AND((K2-J2)&gt;1.5,I2&lt;2,I2&gt;0.5,H2&gt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="N2" t="str">
@@ -930,7 +930,7 @@
         <v>NO</v>
       </c>
       <c r="O2" s="9" t="str">
-        <f t="shared" ref="O2:O33" si="7">IF(AND((J2-K2)&gt;1.5,I2&lt;2,I2&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="O2:O33" si="7">IF(AND((J2-K2)&gt;1.5,I2&lt;2,I2&gt;0.5,H2&lt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="P2" s="9" t="str">
@@ -946,38 +946,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>37.9</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="T2">
-        <v>37.9</v>
+        <v>37.6</v>
       </c>
       <c r="U2">
-        <v>37.200000000000003</v>
+        <v>37.1</v>
       </c>
       <c r="V2">
-        <v>37.4</v>
+        <v>37.15</v>
       </c>
       <c r="W2">
-        <v>-0.25</v>
+        <v>-0.10000000000000139</v>
       </c>
       <c r="X2">
-        <v>-0.66401062416998669</v>
+        <v>-0.26845637583893001</v>
       </c>
       <c r="Y2" s="9">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>-1.3192612137203166</v>
+        <v>-0.40214477211795868</v>
       </c>
       <c r="Z2" s="9">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>1.3192612137203166</v>
+        <v>0.40214477211795868</v>
       </c>
       <c r="AA2" s="9">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0</v>
+        <v>0.80428954423593635</v>
       </c>
       <c r="AB2" s="9">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>0.53475935828875865</v>
+        <v>0.13458950201883488</v>
       </c>
       <c r="AC2" s="9" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -1004,38 +1004,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>37.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="AJ2">
-        <v>38.15</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AK2">
+        <v>37.1</v>
+      </c>
+      <c r="AL2">
         <v>37.25</v>
       </c>
-      <c r="AL2">
-        <v>37.65</v>
-      </c>
       <c r="AM2">
-        <v>0.54999999999999716</v>
+        <v>-0.14999999999999861</v>
       </c>
       <c r="AN2">
-        <v>1.4824797843665689</v>
+        <v>-0.40106951871657381</v>
       </c>
       <c r="AO2" s="9">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>0.39999999999999619</v>
+        <v>-1.1936339522546493</v>
       </c>
       <c r="AP2" s="9">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>0.39999999999999619</v>
+        <v>1.1936339522546493</v>
       </c>
       <c r="AQ2" s="9">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>1.3280212483399734</v>
+        <v>0.2652519893899053</v>
       </c>
       <c r="AR2" s="9">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0.66666666666666674</v>
+        <v>0.40268456375838546</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1067,38 +1067,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>752</v>
+        <v>780.4</v>
       </c>
       <c r="C3">
-        <v>783</v>
+        <v>793.6</v>
       </c>
       <c r="D3">
-        <v>749.55</v>
+        <v>771.3</v>
       </c>
       <c r="E3">
-        <v>761.5</v>
+        <v>776.9</v>
       </c>
       <c r="F3">
-        <v>14.600000000000019</v>
+        <v>-5.8000000000000682</v>
       </c>
       <c r="G3">
-        <v>1.9547462846431951</v>
+        <v>-0.74102465823432573</v>
       </c>
       <c r="H3" s="9">
         <f t="shared" si="0"/>
-        <v>1.2632978723404253</v>
+        <v>-0.44848795489492571</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" si="1"/>
-        <v>1.2632978723404253</v>
+        <v>0.44848795489492571</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" si="2"/>
-        <v>2.8233749179251477</v>
+        <v>1.6914402870322969</v>
       </c>
       <c r="K3" s="9">
         <f t="shared" si="3"/>
-        <v>0.32579787234043162</v>
+        <v>0.72081348950959234</v>
       </c>
       <c r="L3" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="O3" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P3" s="9" t="str">
         <f t="shared" si="8"/>
@@ -1129,38 +1129,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>745.55</v>
+        <v>769.45</v>
       </c>
       <c r="T3">
-        <v>752.1</v>
+        <v>784.95</v>
       </c>
       <c r="U3">
-        <v>738.15</v>
+        <v>762</v>
       </c>
       <c r="V3">
-        <v>746.9</v>
+        <v>782.7</v>
       </c>
       <c r="W3">
-        <v>5.3999999999999773</v>
+        <v>21.200000000000049</v>
       </c>
       <c r="X3">
-        <v>0.72825354012137256</v>
+        <v>2.7839789888378261</v>
       </c>
       <c r="Y3" s="9">
         <f t="shared" si="11"/>
-        <v>0.18107437462276479</v>
+        <v>1.7220092273701995</v>
       </c>
       <c r="Z3" s="9">
         <f t="shared" si="12"/>
-        <v>0.18107437462276479</v>
+        <v>1.7220092273701995</v>
       </c>
       <c r="AA3" s="9">
         <f t="shared" si="13"/>
-        <v>0.6962110054893621</v>
+        <v>0.28746646224607125</v>
       </c>
       <c r="AB3" s="9">
         <f t="shared" si="14"/>
-        <v>0.99255583126550573</v>
+        <v>0.96822405614400486</v>
       </c>
       <c r="AC3" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1187,38 +1187,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="AJ3">
-        <v>747.5</v>
+        <v>783</v>
       </c>
       <c r="AK3">
-        <v>728.3</v>
+        <v>749.55</v>
       </c>
       <c r="AL3">
-        <v>741.5</v>
+        <v>761.5</v>
       </c>
       <c r="AM3">
-        <v>0.75</v>
+        <v>14.600000000000019</v>
       </c>
       <c r="AN3">
-        <v>0.10124873439082011</v>
+        <v>1.9547462846431951</v>
       </c>
       <c r="AO3" s="9">
         <f t="shared" si="21"/>
-        <v>-0.20188425302826379</v>
+        <v>1.2632978723404253</v>
       </c>
       <c r="AP3" s="9">
         <f t="shared" si="22"/>
-        <v>0.20188425302826379</v>
+        <v>1.2632978723404253</v>
       </c>
       <c r="AQ3" s="9">
         <f t="shared" si="23"/>
-        <v>0.60565275908479144</v>
+        <v>2.8233749179251477</v>
       </c>
       <c r="AR3" s="9">
         <f t="shared" si="24"/>
-        <v>1.7801753202967021</v>
+        <v>0.32579787234043162</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="AV3" t="str">
         <f t="shared" si="28"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AW3" t="str">
         <f t="shared" si="29"/>
@@ -1250,38 +1250,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>1637.9</v>
+        <v>1692.95</v>
       </c>
       <c r="C4">
-        <v>1653.2</v>
+        <v>1738.4</v>
       </c>
       <c r="D4">
-        <v>1590.15</v>
+        <v>1678.05</v>
       </c>
       <c r="E4">
-        <v>1623.7</v>
+        <v>1688.9</v>
       </c>
       <c r="F4">
-        <v>11.900000000000089</v>
+        <v>16.050000000000178</v>
       </c>
       <c r="G4">
-        <v>0.73830500062043003</v>
+        <v>0.9594404758346643</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>-0.86696379510348887</v>
+        <v>-0.23922738415192144</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="1"/>
-        <v>0.86696379510348887</v>
+        <v>0.23922738415192144</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="2"/>
-        <v>0.93412296232980963</v>
+        <v>2.6846628665938179</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="3"/>
-        <v>2.0662683993348496</v>
+        <v>0.64242998401327112</v>
       </c>
       <c r="L4" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O4" s="9" t="str">
         <f t="shared" si="7"/>
@@ -1312,38 +1312,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>1614</v>
+        <v>1601.05</v>
       </c>
       <c r="T4">
-        <v>1648.65</v>
+        <v>1698.55</v>
       </c>
       <c r="U4">
-        <v>1595.05</v>
+        <v>1601.05</v>
       </c>
       <c r="V4">
-        <v>1611.8</v>
+        <v>1672.85</v>
       </c>
       <c r="W4">
-        <v>2.899999999999864</v>
+        <v>49.149999999999856</v>
       </c>
       <c r="X4">
-        <v>0.18024737398221541</v>
+        <v>3.027037014226758</v>
       </c>
       <c r="Y4" s="9">
         <f t="shared" si="11"/>
-        <v>-0.13630731102850344</v>
+        <v>4.484557009462538</v>
       </c>
       <c r="Z4" s="9">
         <f t="shared" si="12"/>
-        <v>0.13630731102850344</v>
+        <v>4.484557009462538</v>
       </c>
       <c r="AA4" s="9">
         <f t="shared" si="13"/>
-        <v>2.1468401486988906</v>
+        <v>1.536300325791317</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="14"/>
-        <v>1.0392108202010175</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1370,38 +1370,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>1600</v>
+        <v>1637.9</v>
       </c>
       <c r="AJ4">
-        <v>1615</v>
+        <v>1653.2</v>
       </c>
       <c r="AK4">
-        <v>1585.05</v>
+        <v>1590.15</v>
       </c>
       <c r="AL4">
-        <v>1608.9</v>
+        <v>1623.7</v>
       </c>
       <c r="AM4">
-        <v>2.450000000000045</v>
+        <v>11.900000000000089</v>
       </c>
       <c r="AN4">
-        <v>0.1525101932833294</v>
+        <v>0.73830500062043003</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="21"/>
-        <v>0.55625000000000568</v>
+        <v>-0.86696379510348887</v>
       </c>
       <c r="AP4" s="9">
         <f t="shared" si="22"/>
-        <v>0.55625000000000568</v>
+        <v>0.86696379510348887</v>
       </c>
       <c r="AQ4" s="9">
         <f t="shared" si="23"/>
-        <v>0.37914102803156868</v>
+        <v>0.93412296232980963</v>
       </c>
       <c r="AR4" s="9">
         <f t="shared" si="24"/>
-        <v>0.93437500000000295</v>
+        <v>2.0662683993348496</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1433,38 +1433,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>116.8</v>
+        <v>127.8</v>
       </c>
       <c r="C5">
-        <v>126.5</v>
+        <v>129.1</v>
       </c>
       <c r="D5">
-        <v>116.8</v>
+        <v>126</v>
       </c>
       <c r="E5">
-        <v>125.55</v>
+        <v>128.6</v>
       </c>
       <c r="F5">
-        <v>9.3499999999999943</v>
+        <v>0.84999999999999432</v>
       </c>
       <c r="G5">
-        <v>8.0464716006884629</v>
+        <v>0.66536203522504445</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>7.4914383561643847</v>
+        <v>0.62597809076682087</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>7.4914383561643847</v>
+        <v>0.62597809076682087</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="2"/>
-        <v>0.75667064914376969</v>
+        <v>0.38880248833592534</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4084507042253498</v>
       </c>
       <c r="L5" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1495,38 +1495,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>116.55</v>
+        <v>125.55</v>
       </c>
       <c r="T5">
-        <v>117.55</v>
+        <v>130.44999999999999</v>
       </c>
       <c r="U5">
-        <v>115</v>
+        <v>124.25</v>
       </c>
       <c r="V5">
-        <v>116.2</v>
+        <v>127.75</v>
       </c>
       <c r="W5">
-        <v>-4.9999999999997158E-2</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="X5">
-        <v>-4.3010752688169597E-2</v>
+        <v>1.752289924332938</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="11"/>
-        <v>-0.30030030030029542</v>
+        <v>1.7522899243329375</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="12"/>
-        <v>0.30030030030029542</v>
+        <v>1.7522899243329375</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="13"/>
-        <v>0.8580008580008579</v>
+        <v>2.1135029354207346</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="14"/>
-        <v>1.0327022375215171</v>
+        <v>1.0354440461967322</v>
       </c>
       <c r="AC5" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1553,38 +1553,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>115</v>
+        <v>116.8</v>
       </c>
       <c r="AJ5">
-        <v>117.45</v>
+        <v>126.5</v>
       </c>
       <c r="AK5">
-        <v>113.3</v>
+        <v>116.8</v>
       </c>
       <c r="AL5">
-        <v>116.25</v>
+        <v>125.55</v>
       </c>
       <c r="AM5">
-        <v>2.8499999999999939</v>
+        <v>9.3499999999999943</v>
       </c>
       <c r="AN5">
-        <v>2.5132275132275081</v>
+        <v>8.0464716006884629</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="21"/>
-        <v>1.0869565217391304</v>
+        <v>7.4914383561643847</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" si="22"/>
-        <v>1.0869565217391304</v>
+        <v>7.4914383561643847</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" si="23"/>
-        <v>1.0322580645161314</v>
+        <v>0.75667064914376969</v>
       </c>
       <c r="AR5" s="9">
         <f t="shared" si="24"/>
-        <v>1.4782608695652197</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1616,38 +1616,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>1312.95</v>
+        <v>1391.95</v>
       </c>
       <c r="C6">
-        <v>1378.45</v>
+        <v>1411.6</v>
       </c>
       <c r="D6">
-        <v>1304.2</v>
+        <v>1348.1</v>
       </c>
       <c r="E6">
-        <v>1370.75</v>
+        <v>1365.85</v>
       </c>
       <c r="F6">
-        <v>68.450000000000045</v>
+        <v>-13.80000000000018</v>
       </c>
       <c r="G6">
-        <v>5.2560853873915416</v>
+        <v>-1.000253687529459</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>4.4023001637533765</v>
+        <v>-1.8750673515571779</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>4.4023001637533765</v>
+        <v>1.8750673515571779</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="2"/>
-        <v>0.5617362757614478</v>
+        <v>1.4116886382413063</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="3"/>
-        <v>0.66643817357858259</v>
+        <v>1.2995570523849618</v>
       </c>
       <c r="L6" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1678,38 +1678,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>1258</v>
+        <v>1380</v>
       </c>
       <c r="T6">
-        <v>1309</v>
+        <v>1396.85</v>
       </c>
       <c r="U6">
-        <v>1250.05</v>
+        <v>1366.9</v>
       </c>
       <c r="V6">
-        <v>1302.3</v>
+        <v>1379.65</v>
       </c>
       <c r="W6">
-        <v>43.899999999999856</v>
+        <v>8.9000000000000909</v>
       </c>
       <c r="X6">
-        <v>3.4885568976477961</v>
+        <v>0.64927959146453329</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="11"/>
-        <v>3.5214626391096946</v>
+        <v>-2.536231884057312E-2</v>
       </c>
       <c r="Z6" s="9">
         <f t="shared" si="12"/>
-        <v>3.5214626391096946</v>
+        <v>2.536231884057312E-2</v>
       </c>
       <c r="AA6" s="9">
         <f t="shared" si="13"/>
-        <v>0.51447439146126439</v>
+        <v>1.2210144927536166</v>
       </c>
       <c r="AB6" s="9">
         <f t="shared" si="14"/>
-        <v>0.63195548489666498</v>
+        <v>0.92414742869568367</v>
       </c>
       <c r="AC6" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1736,38 +1736,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>1270</v>
+        <v>1312.95</v>
       </c>
       <c r="AJ6">
-        <v>1280</v>
+        <v>1378.45</v>
       </c>
       <c r="AK6">
-        <v>1251.05</v>
+        <v>1304.2</v>
       </c>
       <c r="AL6">
-        <v>1258.4000000000001</v>
+        <v>1370.75</v>
       </c>
       <c r="AM6">
-        <v>-4.75</v>
+        <v>68.450000000000045</v>
       </c>
       <c r="AN6">
-        <v>-0.37604401694177247</v>
+        <v>5.2560853873915416</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="21"/>
-        <v>-0.91338582677164637</v>
+        <v>4.4023001637533765</v>
       </c>
       <c r="AP6" s="9">
         <f t="shared" si="22"/>
-        <v>0.91338582677164637</v>
+        <v>4.4023001637533765</v>
       </c>
       <c r="AQ6" s="9">
         <f t="shared" si="23"/>
-        <v>0.78740157480314954</v>
+        <v>0.5617362757614478</v>
       </c>
       <c r="AR6" s="9">
         <f t="shared" si="24"/>
-        <v>0.58407501589320854</v>
+        <v>0.66643817357858259</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1799,38 +1799,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>47.75</v>
+        <v>46.6</v>
       </c>
       <c r="C7">
-        <v>48.3</v>
+        <v>47.2</v>
       </c>
       <c r="D7">
-        <v>46.7</v>
+        <v>45.3</v>
       </c>
       <c r="E7">
-        <v>47.25</v>
+        <v>46.1</v>
       </c>
       <c r="F7">
-        <v>-0.39999999999999858</v>
+        <v>-0.44999999999999568</v>
       </c>
       <c r="G7">
-        <v>-0.83945435466946194</v>
+        <v>-0.96670247046185998</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>-1.0471204188481675</v>
+        <v>-1.0729613733905579</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>1.0471204188481675</v>
+        <v>1.0729613733905579</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="2"/>
-        <v>1.1518324607329784</v>
+        <v>1.2875536480686725</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
-        <v>1.164021164021158</v>
+        <v>1.7353579175705081</v>
       </c>
       <c r="L7" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1861,30 +1861,30 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>49</v>
+        <v>47.75</v>
       </c>
       <c r="T7">
-        <v>49</v>
+        <v>47.75</v>
       </c>
       <c r="U7">
-        <v>47.05</v>
+        <v>46.2</v>
       </c>
       <c r="V7">
-        <v>47.65</v>
+        <v>46.55</v>
       </c>
       <c r="W7">
-        <v>-1.25</v>
+        <v>-0.70000000000000284</v>
       </c>
       <c r="X7">
-        <v>-2.556237218813906</v>
+        <v>-1.481481481481487</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="11"/>
-        <v>-2.7551020408163294</v>
+        <v>-2.5130890052356083</v>
       </c>
       <c r="Z7" s="9">
         <f t="shared" si="12"/>
-        <v>2.7551020408163294</v>
+        <v>2.5130890052356083</v>
       </c>
       <c r="AA7" s="9">
         <f t="shared" si="13"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="AB7" s="9">
         <f t="shared" si="14"/>
-        <v>1.2591815320042004</v>
+        <v>0.75187969924810816</v>
       </c>
       <c r="AC7" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1919,38 +1919,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>45.8</v>
+        <v>47.75</v>
       </c>
       <c r="AJ7">
-        <v>49.5</v>
+        <v>48.3</v>
       </c>
       <c r="AK7">
-        <v>45.7</v>
+        <v>46.7</v>
       </c>
       <c r="AL7">
-        <v>48.9</v>
+        <v>47.25</v>
       </c>
       <c r="AM7">
-        <v>3.600000000000001</v>
+        <v>-0.39999999999999858</v>
       </c>
       <c r="AN7">
-        <v>7.9470198675496722</v>
+        <v>-0.83945435466946194</v>
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="21"/>
-        <v>6.7685589519650691</v>
+        <v>-1.0471204188481675</v>
       </c>
       <c r="AP7" s="9">
         <f t="shared" si="22"/>
-        <v>6.7685589519650691</v>
+        <v>1.0471204188481675</v>
       </c>
       <c r="AQ7" s="9">
         <f t="shared" si="23"/>
-        <v>1.2269938650306778</v>
+        <v>1.1518324607329784</v>
       </c>
       <c r="AR7" s="9">
         <f t="shared" si="24"/>
-        <v>0.21834061135369937</v>
+        <v>1.164021164021158</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1982,38 +1982,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>1280</v>
+        <v>1340</v>
       </c>
       <c r="C8">
-        <v>1342.8</v>
+        <v>1347.05</v>
       </c>
       <c r="D8">
-        <v>1270.05</v>
+        <v>1320</v>
       </c>
       <c r="E8">
-        <v>1330.65</v>
+        <v>1329.05</v>
       </c>
       <c r="F8">
-        <v>66.050000000000182</v>
+        <v>-14.799999999999949</v>
       </c>
       <c r="G8">
-        <v>5.2229954135695227</v>
+        <v>-1.1013133906313921</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>3.9570312500000071</v>
+        <v>-0.81716417910448103</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>3.9570312500000071</v>
+        <v>0.81716417910448103</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="2"/>
-        <v>0.91308758877239415</v>
+        <v>0.52611940298507121</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="3"/>
-        <v>0.77734375000000355</v>
+        <v>0.6809375117565144</v>
       </c>
       <c r="L8" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2044,38 +2044,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>1270</v>
+        <v>1340</v>
       </c>
       <c r="T8">
-        <v>1291</v>
+        <v>1358</v>
       </c>
       <c r="U8">
-        <v>1260.05</v>
+        <v>1319.4</v>
       </c>
       <c r="V8">
-        <v>1264.5999999999999</v>
+        <v>1343.85</v>
       </c>
       <c r="W8">
-        <v>-0.5500000000001819</v>
+        <v>13.19999999999982</v>
       </c>
       <c r="X8">
-        <v>-4.3473105955829892E-2</v>
+        <v>0.99199639274037632</v>
       </c>
       <c r="Y8" s="9">
         <f t="shared" si="11"/>
-        <v>-0.42519685039370797</v>
+        <v>0.28731343283581406</v>
       </c>
       <c r="Z8" s="9">
         <f t="shared" si="12"/>
-        <v>0.42519685039370797</v>
+        <v>0.28731343283581406</v>
       </c>
       <c r="AA8" s="9">
         <f t="shared" si="13"/>
-        <v>1.6535433070866141</v>
+        <v>1.0529448971239417</v>
       </c>
       <c r="AB8" s="9">
         <f t="shared" si="14"/>
-        <v>0.35979756444725247</v>
+        <v>1.537313432835814</v>
       </c>
       <c r="AC8" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2102,38 +2102,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="AJ8">
-        <v>1304.8499999999999</v>
+        <v>1342.8</v>
       </c>
       <c r="AK8">
-        <v>1257.45</v>
+        <v>1270.05</v>
       </c>
       <c r="AL8">
-        <v>1265.1500000000001</v>
+        <v>1330.65</v>
       </c>
       <c r="AM8">
-        <v>-17.049999999999951</v>
+        <v>66.050000000000182</v>
       </c>
       <c r="AN8">
-        <v>-1.3297457494930549</v>
+        <v>5.2229954135695227</v>
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="21"/>
-        <v>-1.9263565891472798</v>
+        <v>3.9570312500000071</v>
       </c>
       <c r="AP8" s="9">
         <f t="shared" si="22"/>
-        <v>1.9263565891472798</v>
+        <v>3.9570312500000071</v>
       </c>
       <c r="AQ8" s="9">
         <f t="shared" si="23"/>
-        <v>1.1511627906976674</v>
+        <v>0.91308758877239415</v>
       </c>
       <c r="AR8" s="9">
         <f t="shared" si="24"/>
-        <v>0.6086234833814208</v>
+        <v>0.77734375000000355</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="AV8" t="str">
         <f t="shared" si="28"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AW8" t="str">
         <f t="shared" si="29"/>
@@ -2165,38 +2165,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9">
-        <v>109.65</v>
+        <v>105.5</v>
       </c>
       <c r="D9">
-        <v>104.4</v>
+        <v>102.3</v>
       </c>
       <c r="E9">
-        <v>107.05</v>
+        <v>103.45</v>
       </c>
       <c r="F9">
-        <v>4.7999999999999972</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="G9">
-        <v>4.6943765281173571</v>
+        <v>-1.2881679389312919</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>0.99056603773584639</v>
+        <v>-1.4761904761904734</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>0.99056603773584639</v>
+        <v>1.4761904761904734</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="2"/>
-        <v>2.4287716020551224</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
-        <v>1.5094339622641455</v>
+        <v>1.1116481391976856</v>
       </c>
       <c r="L9" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="P9" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q9" s="9" t="str">
         <f t="shared" si="9"/>
@@ -2227,38 +2227,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>102</v>
+        <v>106.05</v>
       </c>
       <c r="T9">
-        <v>102.75</v>
+        <v>107</v>
       </c>
       <c r="U9">
-        <v>101.3</v>
+        <v>103.95</v>
       </c>
       <c r="V9">
-        <v>102.25</v>
+        <v>104.8</v>
       </c>
       <c r="W9">
-        <v>0.65000000000000568</v>
+        <v>-2.25</v>
       </c>
       <c r="X9">
-        <v>0.63976377952756469</v>
+        <v>-2.101821578701542</v>
       </c>
       <c r="Y9" s="9">
         <f t="shared" si="11"/>
-        <v>0.24509803921568626</v>
+        <v>-1.1786892975011787</v>
       </c>
       <c r="Z9" s="9">
         <f t="shared" si="12"/>
-        <v>0.24509803921568626</v>
+        <v>1.1786892975011787</v>
       </c>
       <c r="AA9" s="9">
         <f t="shared" si="13"/>
-        <v>0.48899755501222492</v>
+        <v>0.89580386610089846</v>
       </c>
       <c r="AB9" s="9">
         <f t="shared" si="14"/>
-        <v>0.68627450980392435</v>
+        <v>0.81106870229007089</v>
       </c>
       <c r="AC9" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2285,38 +2285,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>101.65</v>
+        <v>106</v>
       </c>
       <c r="AJ9">
-        <v>102.7</v>
+        <v>109.65</v>
       </c>
       <c r="AK9">
-        <v>99</v>
+        <v>104.4</v>
       </c>
       <c r="AL9">
-        <v>101.6</v>
+        <v>107.05</v>
       </c>
       <c r="AM9">
-        <v>0.54999999999999716</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="AN9">
-        <v>0.54428500742206543</v>
+        <v>4.6943765281173571</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="21"/>
-        <v>-4.9188391539607842E-2</v>
+        <v>0.99056603773584639</v>
       </c>
       <c r="AP9" s="9">
         <f t="shared" si="22"/>
-        <v>4.9188391539607842E-2</v>
+        <v>0.99056603773584639</v>
       </c>
       <c r="AQ9" s="9">
         <f t="shared" si="23"/>
-        <v>1.032956222331527</v>
+        <v>2.4287716020551224</v>
       </c>
       <c r="AR9" s="9">
         <f t="shared" si="24"/>
-        <v>2.5590551181102308</v>
+        <v>1.5094339622641455</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2348,38 +2348,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>465.25</v>
+        <v>476.7</v>
       </c>
       <c r="C10">
-        <v>481.85</v>
+        <v>487.55</v>
       </c>
       <c r="D10">
-        <v>465</v>
+        <v>475.05</v>
       </c>
       <c r="E10">
-        <v>475.6</v>
+        <v>480.65</v>
       </c>
       <c r="F10">
-        <v>12.200000000000051</v>
+        <v>3.9499999999999891</v>
       </c>
       <c r="G10">
-        <v>2.6327147173068721</v>
+        <v>0.82861338367946069</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>2.2246104245029605</v>
+        <v>0.82861338367946069</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>2.2246104245029605</v>
+        <v>0.82861338367946069</v>
       </c>
       <c r="J10" s="9">
         <f t="shared" si="2"/>
-        <v>1.3141295206055508</v>
+        <v>1.4355560178924445</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
-        <v>5.3734551316496508E-2</v>
+        <v>0.34612964128382157</v>
       </c>
       <c r="L10" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2410,38 +2410,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>459.5</v>
+        <v>478.5</v>
       </c>
       <c r="T10">
-        <v>466.5</v>
+        <v>481.4</v>
       </c>
       <c r="U10">
-        <v>456.3</v>
+        <v>471.75</v>
       </c>
       <c r="V10">
-        <v>463.4</v>
+        <v>476.7</v>
       </c>
       <c r="W10">
-        <v>1.9499999999999891</v>
+        <v>1.0999999999999659</v>
       </c>
       <c r="X10">
-        <v>0.42258099469064658</v>
+        <v>0.23128679562656981</v>
       </c>
       <c r="Y10" s="9">
         <f t="shared" si="11"/>
-        <v>0.84874863982589277</v>
+        <v>-0.3761755485893441</v>
       </c>
       <c r="Z10" s="9">
         <f t="shared" si="12"/>
-        <v>0.84874863982589277</v>
+        <v>0.3761755485893441</v>
       </c>
       <c r="AA10" s="9">
         <f t="shared" si="13"/>
-        <v>0.66896849374191258</v>
+        <v>0.6060606060606013</v>
       </c>
       <c r="AB10" s="9">
         <f t="shared" si="14"/>
-        <v>0.69640914036996482</v>
+        <v>1.0383889238514765</v>
       </c>
       <c r="AC10" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2468,38 +2468,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>470</v>
+        <v>465.25</v>
       </c>
       <c r="AJ10">
-        <v>472</v>
+        <v>481.85</v>
       </c>
       <c r="AK10">
-        <v>454.35</v>
+        <v>465</v>
       </c>
       <c r="AL10">
-        <v>461.45</v>
+        <v>475.6</v>
       </c>
       <c r="AM10">
-        <v>-4.5</v>
+        <v>12.200000000000051</v>
       </c>
       <c r="AN10">
-        <v>-0.9657688593196696</v>
+        <v>2.6327147173068721</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="21"/>
-        <v>-1.8191489361702153</v>
+        <v>2.2246104245029605</v>
       </c>
       <c r="AP10" s="9">
         <f t="shared" si="22"/>
-        <v>1.8191489361702153</v>
+        <v>2.2246104245029605</v>
       </c>
       <c r="AQ10" s="9">
         <f t="shared" si="23"/>
-        <v>0.42553191489361702</v>
+        <v>1.3141295206055508</v>
       </c>
       <c r="AR10" s="9">
         <f t="shared" si="24"/>
-        <v>1.5386282370787661</v>
+        <v>5.3734551316496508E-2</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2531,38 +2531,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>36.200000000000003</v>
+        <v>36.15</v>
       </c>
       <c r="C11">
-        <v>37.450000000000003</v>
+        <v>36.15</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="E11">
-        <v>36.25</v>
+        <v>35.65</v>
       </c>
       <c r="F11">
-        <v>-0.85000000000000142</v>
+        <v>-0.30000000000000432</v>
       </c>
       <c r="G11">
-        <v>-2.2911051212938038</v>
+        <v>-0.83449235048679904</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13812154696131812</v>
+        <v>-1.3831258644536655</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="1"/>
-        <v>0.13812154696131812</v>
+        <v>1.3831258644536655</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>3.3103448275862144</v>
+        <v>0</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="3"/>
-        <v>0.55248618784531167</v>
+        <v>0.28050490883590862</v>
       </c>
       <c r="L11" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O11" s="9" t="str">
         <f t="shared" si="7"/>
@@ -2593,38 +2593,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>37.35</v>
+        <v>36.65</v>
       </c>
       <c r="T11">
-        <v>37.85</v>
+        <v>36.65</v>
       </c>
       <c r="U11">
-        <v>37</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="V11">
-        <v>37.1</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="W11">
-        <v>5.0000000000004263E-2</v>
+        <v>-0.29999999999999721</v>
       </c>
       <c r="X11">
-        <v>0.13495276653172539</v>
+        <v>-0.82758620689654394</v>
       </c>
       <c r="Y11" s="9">
         <f t="shared" si="11"/>
-        <v>-0.66934404283801874</v>
+        <v>-1.9099590723055819</v>
       </c>
       <c r="Z11" s="9">
         <f t="shared" si="12"/>
-        <v>0.66934404283801874</v>
+        <v>1.9099590723055819</v>
       </c>
       <c r="AA11" s="9">
         <f t="shared" si="13"/>
-        <v>1.3386880856760375</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="9">
         <f t="shared" si="14"/>
-        <v>0.26954177897574505</v>
+        <v>0.69541029207232263</v>
       </c>
       <c r="AC11" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2651,38 +2651,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>37</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="AJ11">
-        <v>37.299999999999997</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="AK11">
-        <v>36.35</v>
+        <v>36</v>
       </c>
       <c r="AL11">
-        <v>37.049999999999997</v>
+        <v>36.25</v>
       </c>
       <c r="AM11">
-        <v>0.54999999999999716</v>
+        <v>-0.85000000000000142</v>
       </c>
       <c r="AN11">
-        <v>1.506849315068485</v>
+        <v>-2.2911051212938038</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="21"/>
-        <v>0.13513513513512745</v>
+        <v>0.13812154696131812</v>
       </c>
       <c r="AP11" s="9">
         <f t="shared" si="22"/>
-        <v>0.13513513513512745</v>
+        <v>0.13812154696131812</v>
       </c>
       <c r="AQ11" s="9">
         <f t="shared" si="23"/>
-        <v>0.67476383265856954</v>
+        <v>3.3103448275862144</v>
       </c>
       <c r="AR11" s="9">
         <f t="shared" si="24"/>
-        <v>1.756756756756753</v>
+        <v>0.55248618784531167</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2714,38 +2714,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>100.95</v>
       </c>
       <c r="C12">
-        <v>102.9</v>
+        <v>101.2</v>
       </c>
       <c r="D12">
-        <v>99.85</v>
+        <v>99.8</v>
       </c>
       <c r="E12">
-        <v>100.4</v>
+        <v>100.25</v>
       </c>
       <c r="F12">
-        <v>-0.44999999999998858</v>
+        <v>-0.29999999999999721</v>
       </c>
       <c r="G12">
-        <v>-0.44620723847296839</v>
+        <v>-0.29835902536051429</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>-1.5686274509803866</v>
+        <v>-0.69341258048539167</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="1"/>
-        <v>1.5686274509803866</v>
+        <v>0.69341258048539167</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="2"/>
-        <v>0.88235294117647611</v>
+        <v>0.24764735017335313</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>0.54780876494025033</v>
+        <v>0.44887780548628708</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2776,38 +2776,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>100.6</v>
+        <v>100.95</v>
       </c>
       <c r="T12">
-        <v>102.75</v>
+        <v>101.5</v>
       </c>
       <c r="U12">
-        <v>98.3</v>
+        <v>99.75</v>
       </c>
       <c r="V12">
-        <v>100.85</v>
+        <v>100.55</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
+        <v>0.1499999999999915</v>
       </c>
       <c r="X12">
-        <v>0.49825610363726958</v>
+        <v>0.1494023904382385</v>
       </c>
       <c r="Y12" s="9">
         <f t="shared" si="11"/>
-        <v>0.2485089463220676</v>
+        <v>-0.39623576027737067</v>
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="12"/>
-        <v>0.2485089463220676</v>
+        <v>0.39623576027737067</v>
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="13"/>
-        <v>1.883986117997031</v>
+        <v>0.5448241703813741</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="14"/>
-        <v>2.2862823061630193</v>
+        <v>0.79562406762804294</v>
       </c>
       <c r="AC12" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2834,38 +2834,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>98.65</v>
+        <v>102</v>
       </c>
       <c r="AJ12">
-        <v>100.9</v>
+        <v>102.9</v>
       </c>
       <c r="AK12">
-        <v>98.15</v>
+        <v>99.85</v>
       </c>
       <c r="AL12">
-        <v>100.35</v>
+        <v>100.4</v>
       </c>
       <c r="AM12">
-        <v>2.6999999999999891</v>
+        <v>-0.44999999999998858</v>
       </c>
       <c r="AN12">
-        <v>2.7649769585253341</v>
+        <v>-0.44620723847296839</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="21"/>
-        <v>1.723264064875812</v>
+        <v>-1.5686274509803866</v>
       </c>
       <c r="AP12" s="9">
         <f t="shared" si="22"/>
-        <v>1.723264064875812</v>
+        <v>1.5686274509803866</v>
       </c>
       <c r="AQ12" s="9">
         <f t="shared" si="23"/>
-        <v>0.54808171400100791</v>
+        <v>0.88235294117647611</v>
       </c>
       <c r="AR12" s="9">
         <f t="shared" si="24"/>
-        <v>0.50684237202230109</v>
+        <v>0.54780876494025033</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2897,38 +2897,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>120.5</v>
+        <v>119</v>
       </c>
       <c r="C13">
-        <v>124.5</v>
+        <v>120.3</v>
       </c>
       <c r="D13">
-        <v>119.55</v>
+        <v>117</v>
       </c>
       <c r="E13">
-        <v>120.2</v>
+        <v>117.7</v>
       </c>
       <c r="F13">
-        <v>0.35000000000000853</v>
+        <v>-2.4500000000000028</v>
       </c>
       <c r="G13">
-        <v>0.29203170629954822</v>
+        <v>-2.039117769454851</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>-0.2489626556016574</v>
+        <v>-1.0924369747899136</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="1"/>
-        <v>0.2489626556016574</v>
+        <v>1.0924369747899136</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="2"/>
-        <v>3.3195020746887969</v>
+        <v>1.0924369747899136</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
-        <v>0.54076539101497978</v>
+        <v>0.5947323704333074</v>
       </c>
       <c r="L13" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O13" s="9" t="str">
         <f t="shared" si="7"/>
@@ -2959,38 +2959,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>119.15</v>
+        <v>120.9</v>
       </c>
       <c r="T13">
-        <v>120.85</v>
+        <v>121.5</v>
       </c>
       <c r="U13">
-        <v>118.5</v>
+        <v>119.7</v>
       </c>
       <c r="V13">
-        <v>119.85</v>
+        <v>120.15</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="X13">
-        <v>0.84139671855279763</v>
+        <v>-4.1597337770380327E-2</v>
       </c>
       <c r="Y13" s="9">
         <f t="shared" si="11"/>
-        <v>0.58749475451111088</v>
+        <v>-0.6203473945409429</v>
       </c>
       <c r="Z13" s="9">
         <f t="shared" si="12"/>
-        <v>0.58749475451111088</v>
+        <v>0.6203473945409429</v>
       </c>
       <c r="AA13" s="9">
         <f t="shared" si="13"/>
-        <v>0.83437630371297455</v>
+        <v>0.49627791563274964</v>
       </c>
       <c r="AB13" s="9">
         <f t="shared" si="14"/>
-        <v>0.54553084347461656</v>
+        <v>0.37453183520599487</v>
       </c>
       <c r="AC13" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3017,38 +3017,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>120.4</v>
+        <v>120.5</v>
       </c>
       <c r="AJ13">
-        <v>120.5</v>
+        <v>124.5</v>
       </c>
       <c r="AK13">
-        <v>118.4</v>
+        <v>119.55</v>
       </c>
       <c r="AL13">
-        <v>118.85</v>
+        <v>120.2</v>
       </c>
       <c r="AM13">
-        <v>-1</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="AN13">
-        <v>-0.83437630371297455</v>
+        <v>0.29203170629954822</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="21"/>
-        <v>-1.2873754152824013</v>
+        <v>-0.2489626556016574</v>
       </c>
       <c r="AP13" s="9">
         <f t="shared" si="22"/>
-        <v>1.2873754152824013</v>
+        <v>0.2489626556016574</v>
       </c>
       <c r="AQ13" s="9">
         <f t="shared" si="23"/>
-        <v>8.3056478405310885E-2</v>
+        <v>3.3195020746887969</v>
       </c>
       <c r="AR13" s="9">
         <f t="shared" si="24"/>
-        <v>0.37862852334874941</v>
+        <v>0.54076539101497978</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3080,38 +3080,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>630.79999999999995</v>
+        <v>683.5</v>
       </c>
       <c r="C14">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="D14">
-        <v>630.5</v>
+        <v>669.05</v>
       </c>
       <c r="E14">
-        <v>652.70000000000005</v>
+        <v>673.95</v>
       </c>
       <c r="F14">
-        <v>26.25</v>
+        <v>5.2000000000000446</v>
       </c>
       <c r="G14">
-        <v>4.1902785537552871</v>
+        <v>0.77757009345795081</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>3.471781864299317</v>
+        <v>-1.3972201901975061</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="1"/>
-        <v>3.471781864299317</v>
+        <v>1.3972201901975061</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="2"/>
-        <v>0.50559215566109306</v>
+        <v>0.65837600585223111</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
-        <v>4.7558655675325703E-2</v>
+        <v>0.72705690333112105</v>
       </c>
       <c r="L14" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3142,38 +3142,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>630</v>
+        <v>658.9</v>
       </c>
       <c r="T14">
-        <v>644.35</v>
+        <v>686.9</v>
       </c>
       <c r="U14">
-        <v>613.35</v>
+        <v>653.29999999999995</v>
       </c>
       <c r="V14">
-        <v>626.45000000000005</v>
+        <v>668.75</v>
       </c>
       <c r="W14">
-        <v>-3.549999999999955</v>
+        <v>16.049999999999951</v>
       </c>
       <c r="X14">
-        <v>-0.56349206349205627</v>
+        <v>2.4590163934426159</v>
       </c>
       <c r="Y14" s="9">
         <f t="shared" si="11"/>
-        <v>-0.56349206349205627</v>
+        <v>1.4949157687054218</v>
       </c>
       <c r="Z14" s="9">
         <f t="shared" si="12"/>
-        <v>0.56349206349205627</v>
+        <v>1.4949157687054218</v>
       </c>
       <c r="AA14" s="9">
         <f t="shared" si="13"/>
-        <v>2.2777777777777812</v>
+        <v>2.7140186915887816</v>
       </c>
       <c r="AB14" s="9">
         <f t="shared" si="14"/>
-        <v>2.0911485353978807</v>
+        <v>0.84990135073607864</v>
       </c>
       <c r="AC14" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3200,38 +3200,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>619.5</v>
+        <v>630.79999999999995</v>
       </c>
       <c r="AJ14">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="AK14">
-        <v>619.5</v>
+        <v>630.5</v>
       </c>
       <c r="AL14">
-        <v>630</v>
+        <v>652.70000000000005</v>
       </c>
       <c r="AM14">
-        <v>16.600000000000019</v>
+        <v>26.25</v>
       </c>
       <c r="AN14">
-        <v>2.706227583958269</v>
+        <v>4.1902785537552871</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="21"/>
-        <v>1.6949152542372881</v>
+        <v>3.471781864299317</v>
       </c>
       <c r="AP14" s="9">
         <f t="shared" si="22"/>
-        <v>1.6949152542372881</v>
+        <v>3.471781864299317</v>
       </c>
       <c r="AQ14" s="9">
         <f t="shared" si="23"/>
-        <v>0.79365079365079361</v>
+        <v>0.50559215566109306</v>
       </c>
       <c r="AR14" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4.7558655675325703E-2</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3263,38 +3263,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>230</v>
+        <v>234.7</v>
       </c>
       <c r="C15">
-        <v>236.2</v>
+        <v>239.4</v>
       </c>
       <c r="D15">
-        <v>226.5</v>
+        <v>232.7</v>
       </c>
       <c r="E15">
-        <v>232.1</v>
+        <v>238.6</v>
       </c>
       <c r="F15">
-        <v>7.6500000000000057</v>
+        <v>5.6999999999999886</v>
       </c>
       <c r="G15">
-        <v>3.4083314769436428</v>
+        <v>2.4474023185916649</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="0"/>
-        <v>0.91304347826086707</v>
+        <v>1.6616957818491718</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="1"/>
-        <v>0.91304347826086707</v>
+        <v>1.6616957818491718</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" si="2"/>
-        <v>1.766479965532096</v>
+        <v>0.3352891869237265</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="3"/>
-        <v>1.5217391304347827</v>
+        <v>0.852151682999574</v>
       </c>
       <c r="L15" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="P15" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q15" s="9" t="str">
         <f t="shared" si="9"/>
@@ -3325,38 +3325,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>222.6</v>
+        <v>234.5</v>
       </c>
       <c r="T15">
-        <v>226.45</v>
+        <v>235.2</v>
       </c>
       <c r="U15">
-        <v>221.35</v>
+        <v>229.75</v>
       </c>
       <c r="V15">
-        <v>224.45</v>
+        <v>232.9</v>
       </c>
       <c r="W15">
-        <v>3.1999999999999891</v>
+        <v>0.80000000000001137</v>
       </c>
       <c r="X15">
-        <v>1.4463276836158141</v>
+        <v>0.34467901766480458</v>
       </c>
       <c r="Y15" s="9">
         <f t="shared" si="11"/>
-        <v>0.83108715184186632</v>
+        <v>-0.68230277185500821</v>
       </c>
       <c r="Z15" s="9">
         <f t="shared" si="12"/>
-        <v>0.83108715184186632</v>
+        <v>0.68230277185500821</v>
       </c>
       <c r="AA15" s="9">
         <f t="shared" si="13"/>
-        <v>0.89106705279572296</v>
+        <v>0.29850746268656231</v>
       </c>
       <c r="AB15" s="9">
         <f t="shared" si="14"/>
-        <v>0.5615453728661276</v>
+        <v>1.3525118076427676</v>
       </c>
       <c r="AC15" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3383,38 +3383,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AJ15">
-        <v>225.85</v>
+        <v>236.2</v>
       </c>
       <c r="AK15">
-        <v>217.05</v>
+        <v>226.5</v>
       </c>
       <c r="AL15">
-        <v>221.25</v>
+        <v>232.1</v>
       </c>
       <c r="AM15">
-        <v>0.69999999999998863</v>
+        <v>7.6500000000000057</v>
       </c>
       <c r="AN15">
-        <v>0.31738834731352922</v>
+        <v>3.4083314769436428</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="21"/>
-        <v>-0.33783783783783783</v>
+        <v>0.91304347826086707</v>
       </c>
       <c r="AP15" s="9">
         <f t="shared" si="22"/>
-        <v>0.33783783783783783</v>
+        <v>0.91304347826086707</v>
       </c>
       <c r="AQ15" s="9">
         <f t="shared" si="23"/>
-        <v>1.7342342342342318</v>
+        <v>1.766479965532096</v>
       </c>
       <c r="AR15" s="9">
         <f t="shared" si="24"/>
-        <v>1.8983050847457574</v>
+        <v>1.5217391304347827</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3446,38 +3446,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>456.85</v>
+        <v>493.95</v>
       </c>
       <c r="C16">
-        <v>487.75</v>
+        <v>494</v>
       </c>
       <c r="D16">
-        <v>456.1</v>
+        <v>475.2</v>
       </c>
       <c r="E16">
-        <v>471.55</v>
+        <v>484</v>
       </c>
       <c r="F16">
-        <v>15.150000000000031</v>
+        <v>-5.0000000000011369E-2</v>
       </c>
       <c r="G16">
-        <v>3.3194566170026372</v>
+        <v>-1.0329511414112459E-2</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
-        <v>3.2176863303053493</v>
+        <v>-2.0143739244862817</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="1"/>
-        <v>3.2176863303053493</v>
+        <v>2.0143739244862817</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="2"/>
-        <v>3.4354787403244593</v>
+        <v>1.0122482032596693E-2</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="3"/>
-        <v>0.16416766991353837</v>
+        <v>1.8181818181818206</v>
       </c>
       <c r="L16" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3508,38 +3508,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>465</v>
+        <v>474.1</v>
       </c>
       <c r="T16">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="U16">
-        <v>452.5</v>
+        <v>468</v>
       </c>
       <c r="V16">
-        <v>456.4</v>
+        <v>484.05</v>
       </c>
       <c r="W16">
-        <v>-14.05000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="X16">
-        <v>-2.9865022850462348</v>
+        <v>2.6508323613614668</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="11"/>
-        <v>-1.8494623655914026</v>
+        <v>2.0987133516135814</v>
       </c>
       <c r="Z16" s="9">
         <f t="shared" si="12"/>
-        <v>1.8494623655914026</v>
+        <v>2.0987133516135814</v>
       </c>
       <c r="AA16" s="9">
         <f t="shared" si="13"/>
-        <v>0.86021505376344087</v>
+        <v>2.0555727714079102</v>
       </c>
       <c r="AB16" s="9">
         <f t="shared" si="14"/>
-        <v>0.85451358457492943</v>
+        <v>1.2866483864163727</v>
       </c>
       <c r="AC16" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3566,38 +3566,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>464.7</v>
+        <v>456.85</v>
       </c>
       <c r="AJ16">
-        <v>472.4</v>
+        <v>487.75</v>
       </c>
       <c r="AK16">
-        <v>458.5</v>
+        <v>456.1</v>
       </c>
       <c r="AL16">
-        <v>470.45</v>
+        <v>471.55</v>
       </c>
       <c r="AM16">
-        <v>10.099999999999969</v>
+        <v>15.150000000000031</v>
       </c>
       <c r="AN16">
-        <v>2.1939828391441218</v>
+        <v>3.3194566170026372</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="21"/>
-        <v>1.2373574349042393</v>
+        <v>3.2176863303053493</v>
       </c>
       <c r="AP16" s="9">
         <f t="shared" si="22"/>
-        <v>1.2373574349042393</v>
+        <v>3.2176863303053493</v>
       </c>
       <c r="AQ16" s="9">
         <f t="shared" si="23"/>
-        <v>0.41449675842278427</v>
+        <v>3.4354787403244593</v>
       </c>
       <c r="AR16" s="9">
         <f t="shared" si="24"/>
-        <v>1.3341941037228295</v>
+        <v>0.16416766991353837</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3629,38 +3629,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>1207</v>
+        <v>1231</v>
       </c>
       <c r="C17">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D17">
-        <v>1197.5</v>
+        <v>1231</v>
       </c>
       <c r="E17">
-        <v>1246.5</v>
+        <v>1254.95</v>
       </c>
       <c r="F17">
-        <v>47.900000000000091</v>
+        <v>25.150000000000091</v>
       </c>
       <c r="G17">
-        <v>3.9963290505589941</v>
+        <v>2.0450479752805411</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
-        <v>3.272576636288318</v>
+        <v>1.945572705117794</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="1"/>
-        <v>3.272576636288318</v>
+        <v>1.945572705117794</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="2"/>
-        <v>2.3666265543521861</v>
+        <v>1.3586198653332766</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="3"/>
-        <v>0.78707539353769684</v>
+        <v>0</v>
       </c>
       <c r="L17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3691,38 +3691,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>1192.8</v>
+        <v>1242.5</v>
       </c>
       <c r="T17">
-        <v>1214.25</v>
+        <v>1256.8499999999999</v>
       </c>
       <c r="U17">
-        <v>1182</v>
+        <v>1214</v>
       </c>
       <c r="V17">
-        <v>1198.5999999999999</v>
+        <v>1229.8</v>
       </c>
       <c r="W17">
-        <v>5.1499999999998636</v>
+        <v>-16.700000000000049</v>
       </c>
       <c r="X17">
-        <v>0.43152205789935588</v>
+        <v>-1.339751303650224</v>
       </c>
       <c r="Y17" s="9">
         <f t="shared" si="11"/>
-        <v>0.48625083836351063</v>
+        <v>-1.0221327967806877</v>
       </c>
       <c r="Z17" s="9">
         <f t="shared" si="12"/>
-        <v>0.48625083836351063</v>
+        <v>1.0221327967806877</v>
       </c>
       <c r="AA17" s="9">
         <f t="shared" si="13"/>
-        <v>1.3056899716335801</v>
+        <v>1.1549295774647814</v>
       </c>
       <c r="AB17" s="9">
         <f t="shared" si="14"/>
-        <v>0.9054325955734368</v>
+        <v>1.2847617498780253</v>
       </c>
       <c r="AC17" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3749,38 +3749,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>1208.9000000000001</v>
+        <v>1207</v>
       </c>
       <c r="AJ17">
-        <v>1230</v>
+        <v>1276</v>
       </c>
       <c r="AK17">
-        <v>1161</v>
+        <v>1197.5</v>
       </c>
       <c r="AL17">
-        <v>1193.45</v>
+        <v>1246.5</v>
       </c>
       <c r="AM17">
-        <v>-12.349999999999911</v>
+        <v>47.900000000000091</v>
       </c>
       <c r="AN17">
-        <v>-1.0242162879416079</v>
+        <v>3.9963290505589941</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="21"/>
-        <v>-1.278021341715613</v>
+        <v>3.272576636288318</v>
       </c>
       <c r="AP17" s="9">
         <f t="shared" si="22"/>
-        <v>1.278021341715613</v>
+        <v>3.272576636288318</v>
       </c>
       <c r="AQ17" s="9">
         <f t="shared" si="23"/>
-        <v>1.7453883695921837</v>
+        <v>2.3666265543521861</v>
       </c>
       <c r="AR17" s="9">
         <f t="shared" si="24"/>
-        <v>2.7190079182202895</v>
+        <v>0.78707539353769684</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3812,38 +3812,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>156.65</v>
+        <v>163.35</v>
       </c>
       <c r="C18">
-        <v>162.4</v>
+        <v>167.4</v>
       </c>
       <c r="D18">
-        <v>156.4</v>
+        <v>162.55000000000001</v>
       </c>
       <c r="E18">
-        <v>160.25</v>
+        <v>166.1</v>
       </c>
       <c r="F18">
-        <v>4.5999999999999943</v>
+        <v>2.9499999999999891</v>
       </c>
       <c r="G18">
-        <v>2.9553485383874039</v>
+        <v>1.808152007355188</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="0"/>
-        <v>2.298116820938394</v>
+        <v>1.6835016835016834</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="1"/>
-        <v>2.298116820938394</v>
+        <v>1.6835016835016834</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="2"/>
-        <v>1.3416536661466494</v>
+        <v>0.78266104756171662</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="3"/>
-        <v>0.15959144589849983</v>
+        <v>0.4897459442913884</v>
       </c>
       <c r="L18" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3874,38 +3874,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>156.9</v>
+        <v>161.94999999999999</v>
       </c>
       <c r="T18">
-        <v>157.94999999999999</v>
+        <v>163.6</v>
       </c>
       <c r="U18">
-        <v>154.30000000000001</v>
+        <v>160.35</v>
       </c>
       <c r="V18">
-        <v>155.65</v>
+        <v>163.15</v>
       </c>
       <c r="W18">
-        <v>-0.54999999999998295</v>
+        <v>2.9000000000000061</v>
       </c>
       <c r="X18">
-        <v>-0.35211267605632712</v>
+        <v>1.8096723868954789</v>
       </c>
       <c r="Y18" s="9">
         <f t="shared" si="11"/>
-        <v>-0.79668578712555771</v>
+        <v>0.74096943501081636</v>
       </c>
       <c r="Z18" s="9">
         <f t="shared" si="12"/>
-        <v>0.79668578712555771</v>
+        <v>0.74096943501081636</v>
       </c>
       <c r="AA18" s="9">
         <f t="shared" si="13"/>
-        <v>0.66921606118545751</v>
+        <v>0.27581979773214133</v>
       </c>
       <c r="AB18" s="9">
         <f t="shared" si="14"/>
-        <v>0.86733054930934417</v>
+        <v>0.98795924668107094</v>
       </c>
       <c r="AC18" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3932,38 +3932,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>156.25</v>
+        <v>156.65</v>
       </c>
       <c r="AJ18">
-        <v>159.44999999999999</v>
+        <v>162.4</v>
       </c>
       <c r="AK18">
-        <v>154.4</v>
+        <v>156.4</v>
       </c>
       <c r="AL18">
-        <v>156.19999999999999</v>
+        <v>160.25</v>
       </c>
       <c r="AM18">
-        <v>0.44999999999998858</v>
+        <v>4.5999999999999943</v>
       </c>
       <c r="AN18">
-        <v>0.28892455858747262</v>
+        <v>2.9553485383874039</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="21"/>
-        <v>-3.200000000000728E-2</v>
+        <v>2.298116820938394</v>
       </c>
       <c r="AP18" s="9">
         <f t="shared" si="22"/>
-        <v>3.200000000000728E-2</v>
+        <v>2.298116820938394</v>
       </c>
       <c r="AQ18" s="9">
         <f t="shared" si="23"/>
-        <v>2.0479999999999929</v>
+        <v>1.3416536661466494</v>
       </c>
       <c r="AR18" s="9">
         <f t="shared" si="24"/>
-        <v>1.1523687580025499</v>
+        <v>0.15959144589849983</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3995,38 +3995,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>52.4</v>
+        <v>54.35</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>54.35</v>
       </c>
       <c r="D19">
-        <v>52.3</v>
+        <v>52.9</v>
       </c>
       <c r="E19">
-        <v>53.35</v>
+        <v>53.55</v>
       </c>
       <c r="F19">
-        <v>1.550000000000004</v>
+        <v>-0.70000000000000284</v>
       </c>
       <c r="G19">
-        <v>2.9922779922780012</v>
+        <v>-1.290322580645167</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
-        <v>1.8129770992366467</v>
+        <v>-1.4719411223551135</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="1"/>
-        <v>1.8129770992366467</v>
+        <v>1.4719411223551135</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="2"/>
-        <v>3.0927835051546366</v>
+        <v>0</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="3"/>
-        <v>0.19083969465649128</v>
+        <v>1.2138188608776819</v>
       </c>
       <c r="L19" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="O19" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P19" s="9" t="str">
         <f t="shared" si="8"/>
@@ -4057,38 +4057,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>51.4</v>
+        <v>53.95</v>
       </c>
       <c r="T19">
-        <v>52.15</v>
+        <v>54.45</v>
       </c>
       <c r="U19">
-        <v>50.85</v>
+        <v>52.85</v>
       </c>
       <c r="V19">
-        <v>51.8</v>
+        <v>54.25</v>
       </c>
       <c r="W19">
-        <v>0.54999999999999716</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="X19">
-        <v>1.073170731707312</v>
+        <v>1.6869728209934369</v>
       </c>
       <c r="Y19" s="9">
         <f t="shared" si="11"/>
-        <v>0.77821011673151474</v>
+        <v>0.55607043558850255</v>
       </c>
       <c r="Z19" s="9">
         <f t="shared" si="12"/>
-        <v>0.77821011673151474</v>
+        <v>0.55607043558850255</v>
       </c>
       <c r="AA19" s="9">
         <f t="shared" si="13"/>
-        <v>0.67567567567567854</v>
+        <v>0.36866359447005131</v>
       </c>
       <c r="AB19" s="9">
         <f t="shared" si="14"/>
-        <v>1.070038910505831</v>
+        <v>2.0389249304911981</v>
       </c>
       <c r="AC19" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4115,38 +4115,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>52.1</v>
+        <v>52.4</v>
       </c>
       <c r="AJ19">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="AK19">
-        <v>50.6</v>
+        <v>52.3</v>
       </c>
       <c r="AL19">
-        <v>51.25</v>
+        <v>53.35</v>
       </c>
       <c r="AM19">
-        <v>-4.9999999999997158E-2</v>
+        <v>1.550000000000004</v>
       </c>
       <c r="AN19">
-        <v>-9.7465886939565621E-2</v>
+        <v>2.9922779922780012</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="21"/>
-        <v>-1.6314779270633424</v>
+        <v>1.8129770992366467</v>
       </c>
       <c r="AP19" s="9">
         <f t="shared" si="22"/>
-        <v>1.6314779270633424</v>
+        <v>1.8129770992366467</v>
       </c>
       <c r="AQ19" s="9">
         <f t="shared" si="23"/>
-        <v>0.76775431861803956</v>
+        <v>3.0927835051546366</v>
       </c>
       <c r="AR19" s="9">
         <f t="shared" si="24"/>
-        <v>1.2682926829268266</v>
+        <v>0.19083969465649128</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4178,38 +4178,38 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C20">
-        <v>492.2</v>
+        <v>503.8</v>
       </c>
       <c r="D20">
-        <v>476</v>
+        <v>488.35</v>
       </c>
       <c r="E20">
-        <v>482.85</v>
+        <v>499.8</v>
       </c>
       <c r="F20">
-        <v>-2.299999999999955</v>
+        <v>6.1999999999999886</v>
       </c>
       <c r="G20">
-        <v>-0.47408018138719049</v>
+        <v>1.2560777957860589</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="0"/>
-        <v>-0.8521560574948619</v>
+        <v>0.96969696969697194</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="1"/>
-        <v>0.8521560574948619</v>
+        <v>0.96969696969697194</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" si="2"/>
-        <v>1.0677618069815173</v>
+        <v>0.80032012805122055</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="3"/>
-        <v>1.4186600393496991</v>
+        <v>1.343434343434339</v>
       </c>
       <c r="L20" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4240,38 +4240,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>470.8</v>
+        <v>485.1</v>
       </c>
       <c r="T20">
-        <v>487.7</v>
+        <v>499.75</v>
       </c>
       <c r="U20">
-        <v>468.25</v>
+        <v>483</v>
       </c>
       <c r="V20">
-        <v>485.15</v>
+        <v>493.6</v>
       </c>
       <c r="W20">
-        <v>14.349999999999969</v>
+        <v>10.75</v>
       </c>
       <c r="X20">
-        <v>3.0480033984706809</v>
+        <v>2.2263642953298119</v>
       </c>
       <c r="Y20" s="9">
         <f t="shared" si="11"/>
-        <v>3.0480033984706809</v>
+        <v>1.7522160379303235</v>
       </c>
       <c r="Z20" s="9">
         <f t="shared" si="12"/>
-        <v>3.0480033984706809</v>
+        <v>1.7522160379303235</v>
       </c>
       <c r="AA20" s="9">
         <f t="shared" si="13"/>
-        <v>0.52561063588581092</v>
+        <v>1.245948136142621</v>
       </c>
       <c r="AB20" s="9">
         <f t="shared" si="14"/>
-        <v>0.54163126593033373</v>
+        <v>0.43290043290043756</v>
       </c>
       <c r="AC20" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4298,38 +4298,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>473.7</v>
+        <v>487</v>
       </c>
       <c r="AJ20">
-        <v>478.35</v>
+        <v>492.2</v>
       </c>
       <c r="AK20">
-        <v>464.6</v>
+        <v>476</v>
       </c>
       <c r="AL20">
-        <v>470.8</v>
+        <v>482.85</v>
       </c>
       <c r="AM20">
-        <v>1.1999999999999891</v>
+        <v>-2.299999999999955</v>
       </c>
       <c r="AN20">
-        <v>0.25553662691652218</v>
+        <v>-0.47408018138719049</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="21"/>
-        <v>-0.61220181549503427</v>
+        <v>-0.8521560574948619</v>
       </c>
       <c r="AP20" s="9">
         <f t="shared" si="22"/>
-        <v>0.61220181549503427</v>
+        <v>0.8521560574948619</v>
       </c>
       <c r="AQ20" s="9">
         <f t="shared" si="23"/>
-        <v>0.98163394553515604</v>
+        <v>1.0677618069815173</v>
       </c>
       <c r="AR20" s="9">
         <f t="shared" si="24"/>
-        <v>1.3169073916737444</v>
+        <v>1.4186600393496991</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4361,38 +4361,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>23.65</v>
+        <v>23.85</v>
       </c>
       <c r="C21">
-        <v>24.25</v>
+        <v>24.1</v>
       </c>
       <c r="D21">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E21">
-        <v>23.7</v>
+        <v>23.85</v>
       </c>
       <c r="F21">
-        <v>0.30000000000000071</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="G21">
-        <v>1.282051282051285</v>
+        <v>-0.2092050209204902</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
-        <v>0.21141649048626093</v>
+        <v>0</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="1"/>
-        <v>0.21141649048626093</v>
+        <v>0</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="2"/>
-        <v>2.3206751054852353</v>
+        <v>1.0482180293501047</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="3"/>
-        <v>0.63424947145876776</v>
+        <v>1.0482180293501047</v>
       </c>
       <c r="L21" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="N21" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O21" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4423,38 +4423,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="T21">
-        <v>23.55</v>
+        <v>24.2</v>
       </c>
       <c r="U21">
-        <v>22.9</v>
+        <v>23.45</v>
       </c>
       <c r="V21">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="W21">
-        <v>0.29999999999999721</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="X21">
-        <v>1.298701298701286</v>
+        <v>0.84388185654008141</v>
       </c>
       <c r="Y21" s="9">
         <f t="shared" si="11"/>
-        <v>1.2987012987012863</v>
+        <v>0.84388185654008141</v>
       </c>
       <c r="Z21" s="9">
         <f t="shared" si="12"/>
-        <v>1.2987012987012863</v>
+        <v>0.84388185654008141</v>
       </c>
       <c r="AA21" s="9">
         <f t="shared" si="13"/>
-        <v>0.64102564102565018</v>
+        <v>1.2552301255230156</v>
       </c>
       <c r="AB21" s="9">
         <f t="shared" si="14"/>
-        <v>0.86580086580087812</v>
+        <v>1.0548523206751055</v>
       </c>
       <c r="AC21" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4481,38 +4481,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>23.25</v>
+        <v>23.65</v>
       </c>
       <c r="AJ21">
-        <v>23.75</v>
+        <v>24.25</v>
       </c>
       <c r="AK21">
-        <v>22.7</v>
+        <v>23.5</v>
       </c>
       <c r="AL21">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="AM21">
-        <v>-9.9999999999997868E-2</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="AN21">
-        <v>-0.4310344827586115</v>
+        <v>1.282051282051285</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="21"/>
-        <v>-0.64516129032257452</v>
+        <v>0.21141649048626093</v>
       </c>
       <c r="AP21" s="9">
         <f t="shared" si="22"/>
-        <v>0.64516129032257452</v>
+        <v>0.21141649048626093</v>
       </c>
       <c r="AQ21" s="9">
         <f t="shared" si="23"/>
-        <v>2.1505376344086025</v>
+        <v>2.3206751054852353</v>
       </c>
       <c r="AR21" s="9">
         <f t="shared" si="24"/>
-        <v>1.7316017316017407</v>
+        <v>0.63424947145876776</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4544,38 +4544,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>420.7</v>
+        <v>457</v>
       </c>
       <c r="C22">
-        <v>429.6</v>
+        <v>463</v>
       </c>
       <c r="D22">
-        <v>409.5</v>
+        <v>453</v>
       </c>
       <c r="E22">
-        <v>424.95</v>
+        <v>456.55</v>
       </c>
       <c r="F22">
-        <v>7.75</v>
+        <v>4.9000000000000341</v>
       </c>
       <c r="G22">
-        <v>1.8576222435282841</v>
+        <v>1.084910882320389</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="0"/>
-        <v>1.0102210601378656</v>
+        <v>-9.8468271334789637E-2</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="1"/>
-        <v>1.0102210601378656</v>
+        <v>9.8468271334789637E-2</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="2"/>
-        <v>1.0942463819272936</v>
+        <v>1.3129102844638949</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="3"/>
-        <v>2.6622296173044897</v>
+        <v>0.77757091227686148</v>
       </c>
       <c r="L22" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="6"/>
@@ -4606,38 +4606,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>420.05</v>
+        <v>425</v>
       </c>
       <c r="T22">
-        <v>429.55</v>
+        <v>455.9</v>
       </c>
       <c r="U22">
-        <v>406.4</v>
+        <v>420.8</v>
       </c>
       <c r="V22">
-        <v>417.2</v>
+        <v>451.65</v>
       </c>
       <c r="W22">
-        <v>-6.6500000000000341</v>
+        <v>26.699999999999989</v>
       </c>
       <c r="X22">
-        <v>-1.5689512799339469</v>
+        <v>6.2830921284857011</v>
       </c>
       <c r="Y22" s="9">
         <f t="shared" si="11"/>
-        <v>-0.67849065587430613</v>
+        <v>6.2705882352941122</v>
       </c>
       <c r="Z22" s="9">
         <f t="shared" si="12"/>
-        <v>0.67849065587430613</v>
+        <v>6.2705882352941122</v>
       </c>
       <c r="AA22" s="9">
         <f t="shared" si="13"/>
-        <v>2.2616355195810023</v>
+        <v>0.94099413262482023</v>
       </c>
       <c r="AB22" s="9">
         <f t="shared" si="14"/>
-        <v>2.5886864813039336</v>
+        <v>0.98823529411764444</v>
       </c>
       <c r="AC22" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4664,38 +4664,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>422.05</v>
+        <v>420.7</v>
       </c>
       <c r="AJ22">
-        <v>433</v>
+        <v>429.6</v>
       </c>
       <c r="AK22">
-        <v>416.1</v>
+        <v>409.5</v>
       </c>
       <c r="AL22">
-        <v>423.85</v>
+        <v>424.95</v>
       </c>
       <c r="AM22">
-        <v>2.200000000000045</v>
+        <v>7.75</v>
       </c>
       <c r="AN22">
-        <v>0.52175975334994551</v>
+        <v>1.8576222435282841</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="21"/>
-        <v>0.42648975239900755</v>
+        <v>1.0102210601378656</v>
       </c>
       <c r="AP22" s="9">
         <f t="shared" si="22"/>
-        <v>0.42648975239900755</v>
+        <v>1.0102210601378656</v>
       </c>
       <c r="AQ22" s="9">
         <f t="shared" si="23"/>
-        <v>2.1587825881797751</v>
+        <v>1.0942463819272936</v>
       </c>
       <c r="AR22" s="9">
         <f t="shared" si="24"/>
-        <v>1.409785570430041</v>
+        <v>2.6622296173044897</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4727,38 +4727,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>31.4</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C23">
-        <v>31.7</v>
+        <v>32.35</v>
       </c>
       <c r="D23">
-        <v>30.65</v>
+        <v>31.55</v>
       </c>
       <c r="E23">
-        <v>31.05</v>
+        <v>32.1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>-0.15552099533436131</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="0"/>
-        <v>-1.1146496815286557</v>
+        <v>-0.61919504643961532</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="1"/>
-        <v>1.1146496815286557</v>
+        <v>0.61919504643961532</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="2"/>
-        <v>0.95541401273885584</v>
+        <v>0.15479876160992034</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="3"/>
-        <v>1.2882447665056429</v>
+        <v>1.7133956386292857</v>
       </c>
       <c r="L23" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4789,38 +4789,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="T23">
-        <v>31.2</v>
+        <v>32.4</v>
       </c>
       <c r="U23">
-        <v>30.4</v>
+        <v>30.65</v>
       </c>
       <c r="V23">
-        <v>31.05</v>
+        <v>32.15</v>
       </c>
       <c r="W23">
-        <v>0.40000000000000208</v>
+        <v>1.0999999999999981</v>
       </c>
       <c r="X23">
-        <v>1.305057096247968</v>
+        <v>3.5426731078904918</v>
       </c>
       <c r="Y23" s="9">
         <f t="shared" si="11"/>
-        <v>0.81168831168831157</v>
+        <v>2.7156549520766706</v>
       </c>
       <c r="Z23" s="9">
         <f t="shared" si="12"/>
-        <v>0.81168831168831157</v>
+        <v>2.7156549520766706</v>
       </c>
       <c r="AA23" s="9">
         <f t="shared" si="13"/>
-        <v>0.4830917874396089</v>
+        <v>0.77760497667185069</v>
       </c>
       <c r="AB23" s="9">
         <f t="shared" si="14"/>
-        <v>1.2987012987013056</v>
+        <v>2.0766773162939365</v>
       </c>
       <c r="AC23" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4847,38 +4847,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>29.75</v>
+        <v>31.4</v>
       </c>
       <c r="AJ23">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="AK23">
-        <v>29.7</v>
+        <v>30.65</v>
       </c>
       <c r="AL23">
-        <v>30.65</v>
+        <v>31.05</v>
       </c>
       <c r="AM23">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AN23">
-        <v>4.2517006802721076</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="21"/>
-        <v>3.0252100840336085</v>
+        <v>-1.1146496815286557</v>
       </c>
       <c r="AP23" s="9">
         <f t="shared" si="22"/>
-        <v>3.0252100840336085</v>
+        <v>1.1146496815286557</v>
       </c>
       <c r="AQ23" s="9">
         <f t="shared" si="23"/>
-        <v>0.81566068515497558</v>
+        <v>0.95541401273885584</v>
       </c>
       <c r="AR23" s="9">
         <f t="shared" si="24"/>
-        <v>0.1680672268907587</v>
+        <v>1.2882447665056429</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4910,38 +4910,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>405.1</v>
+        <v>420</v>
       </c>
       <c r="C24">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D24">
-        <v>402.8</v>
+        <v>408.85</v>
       </c>
       <c r="E24">
-        <v>408.8</v>
+        <v>413.2</v>
       </c>
       <c r="F24">
-        <v>5.6500000000000341</v>
+        <v>-6.6500000000000341</v>
       </c>
       <c r="G24">
-        <v>1.401463475133333</v>
+        <v>-1.5838990115517531</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>0.91335472722784206</v>
+        <v>-1.6190476190476217</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="1"/>
-        <v>0.91335472722784206</v>
+        <v>1.6190476190476217</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="2"/>
-        <v>1.2720156555772966</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="3"/>
-        <v>0.5677610466551497</v>
+        <v>1.0527589545014437</v>
       </c>
       <c r="L24" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4972,38 +4972,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>390</v>
+        <v>410.9</v>
       </c>
       <c r="T24">
-        <v>405</v>
+        <v>421.7</v>
       </c>
       <c r="U24">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="V24">
-        <v>403.15</v>
+        <v>419.85</v>
       </c>
       <c r="W24">
-        <v>14.849999999999969</v>
+        <v>11.05000000000001</v>
       </c>
       <c r="X24">
-        <v>3.824362606232286</v>
+        <v>2.7030332681017639</v>
       </c>
       <c r="Y24" s="9">
         <f t="shared" si="11"/>
-        <v>3.3717948717948656</v>
+        <v>2.1781455341932454</v>
       </c>
       <c r="Z24" s="9">
         <f t="shared" si="12"/>
-        <v>3.3717948717948656</v>
+        <v>2.1781455341932454</v>
       </c>
       <c r="AA24" s="9">
         <f t="shared" si="13"/>
-        <v>0.45888627061888199</v>
+        <v>0.44063355960461253</v>
       </c>
       <c r="AB24" s="9">
         <f t="shared" si="14"/>
-        <v>0.25641025641025639</v>
+        <v>0.2190313944998728</v>
       </c>
       <c r="AC24" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5030,38 +5030,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>393.5</v>
+        <v>405.1</v>
       </c>
       <c r="AJ24">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="AK24">
-        <v>383.6</v>
+        <v>402.8</v>
       </c>
       <c r="AL24">
-        <v>388.3</v>
+        <v>408.8</v>
       </c>
       <c r="AM24">
-        <v>-3.1999999999999891</v>
+        <v>5.6500000000000341</v>
       </c>
       <c r="AN24">
-        <v>-0.81736909323115936</v>
+        <v>1.401463475133333</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="21"/>
-        <v>-1.321473951715372</v>
+        <v>0.91335472722784206</v>
       </c>
       <c r="AP24" s="9">
         <f t="shared" si="22"/>
-        <v>1.321473951715372</v>
+        <v>0.91335472722784206</v>
       </c>
       <c r="AQ24" s="9">
         <f t="shared" si="23"/>
-        <v>1.3977128335451081</v>
+        <v>1.2720156555772966</v>
       </c>
       <c r="AR24" s="9">
         <f t="shared" si="24"/>
-        <v>1.2104043265516324</v>
+        <v>0.5677610466551497</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5093,38 +5093,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C25">
-        <v>211.35</v>
+        <v>209.8</v>
       </c>
       <c r="D25">
-        <v>206.5</v>
+        <v>202.15</v>
       </c>
       <c r="E25">
-        <v>209.65</v>
+        <v>204.15</v>
       </c>
       <c r="F25">
-        <v>7.8000000000000114</v>
+        <v>-2.0499999999999829</v>
       </c>
       <c r="G25">
-        <v>3.8642556353728081</v>
+        <v>-0.99418040737147584</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="0"/>
-        <v>-0.63981042654028164</v>
+        <v>-1.8509615384615357</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="1"/>
-        <v>0.63981042654028164</v>
+        <v>1.8509615384615357</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="2"/>
-        <v>0.16587677725118213</v>
+        <v>0.86538461538462086</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="3"/>
-        <v>1.5025041736227072</v>
+        <v>0.97967180994366887</v>
       </c>
       <c r="L25" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5155,38 +5155,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>196.5</v>
+        <v>209.65</v>
       </c>
       <c r="T25">
-        <v>202.7</v>
+        <v>211.5</v>
       </c>
       <c r="U25">
-        <v>195.3</v>
+        <v>202.55</v>
       </c>
       <c r="V25">
-        <v>201.85</v>
+        <v>206.2</v>
       </c>
       <c r="W25">
-        <v>5.9499999999999886</v>
+        <v>-3.4500000000000171</v>
       </c>
       <c r="X25">
-        <v>3.0372639101582379</v>
+        <v>-1.645599809205827</v>
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="11"/>
-        <v>2.7226463104325673</v>
+        <v>-1.6455998092058273</v>
       </c>
       <c r="Z25" s="9">
         <f t="shared" si="12"/>
-        <v>2.7226463104325673</v>
+        <v>1.6455998092058273</v>
       </c>
       <c r="AA25" s="9">
         <f t="shared" si="13"/>
-        <v>0.4211047807778025</v>
+        <v>0.88242308609587128</v>
       </c>
       <c r="AB25" s="9">
         <f t="shared" si="14"/>
-        <v>0.61068702290075749</v>
+        <v>1.7701260911736068</v>
       </c>
       <c r="AC25" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5213,38 +5213,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>196.5</v>
+        <v>211</v>
       </c>
       <c r="AJ25">
-        <v>200.6</v>
+        <v>211.35</v>
       </c>
       <c r="AK25">
-        <v>192.3</v>
+        <v>206.5</v>
       </c>
       <c r="AL25">
-        <v>195.9</v>
+        <v>209.65</v>
       </c>
       <c r="AM25">
-        <v>2.0999999999999939</v>
+        <v>7.8000000000000114</v>
       </c>
       <c r="AN25">
-        <v>1.083591331269347</v>
+        <v>3.8642556353728081</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="21"/>
-        <v>-0.30534351145037875</v>
+        <v>-0.63981042654028164</v>
       </c>
       <c r="AP25" s="9">
         <f t="shared" si="22"/>
-        <v>0.30534351145037875</v>
+        <v>0.63981042654028164</v>
       </c>
       <c r="AQ25" s="9">
         <f t="shared" si="23"/>
-        <v>2.0865139949109386</v>
+        <v>0.16587677725118213</v>
       </c>
       <c r="AR25" s="9">
         <f t="shared" si="24"/>
-        <v>1.8376722817764135</v>
+        <v>1.5025041736227072</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5276,38 +5276,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>2357.9499999999998</v>
+        <v>2363.35</v>
       </c>
       <c r="C26">
-        <v>2368</v>
+        <v>2389.5</v>
       </c>
       <c r="D26">
-        <v>2324.0500000000002</v>
+        <v>2345.1</v>
       </c>
       <c r="E26">
-        <v>2347.35</v>
+        <v>2382.6999999999998</v>
       </c>
       <c r="F26">
-        <v>20.049999999999731</v>
+        <v>19.349999999999909</v>
       </c>
       <c r="G26">
-        <v>0.86151334164051596</v>
+        <v>0.81875304123383807</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="0"/>
-        <v>-0.44954303526367861</v>
+        <v>0.81875304123383807</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="1"/>
-        <v>0.44954303526367861</v>
+        <v>0.81875304123383807</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="2"/>
-        <v>0.42621768909434815</v>
+        <v>0.28539052335586446</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="3"/>
-        <v>0.99260868639102517</v>
+        <v>0.7722089406985847</v>
       </c>
       <c r="L26" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5338,38 +5338,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>2267.4</v>
+        <v>2353</v>
       </c>
       <c r="T26">
-        <v>2377.9</v>
+        <v>2394.4</v>
       </c>
       <c r="U26">
-        <v>2267</v>
+        <v>2348</v>
       </c>
       <c r="V26">
-        <v>2327.3000000000002</v>
+        <v>2363.35</v>
       </c>
       <c r="W26">
-        <v>62.200000000000273</v>
+        <v>16</v>
       </c>
       <c r="X26">
-        <v>2.7460156284490869</v>
+        <v>0.68161969880929563</v>
       </c>
       <c r="Y26" s="9">
         <f t="shared" si="11"/>
-        <v>2.641792361294879</v>
+        <v>0.43986400339991116</v>
       </c>
       <c r="Z26" s="9">
         <f t="shared" si="12"/>
-        <v>2.641792361294879</v>
+        <v>0.43986400339991116</v>
       </c>
       <c r="AA26" s="9">
         <f t="shared" si="13"/>
-        <v>2.1741932711725993</v>
+        <v>1.3138130196543121</v>
       </c>
       <c r="AB26" s="9">
         <f t="shared" si="14"/>
-        <v>1.7641351327515698E-2</v>
+        <v>0.21249468763280915</v>
       </c>
       <c r="AC26" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5396,38 +5396,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>2255.8000000000002</v>
+        <v>2357.9499999999998</v>
       </c>
       <c r="AJ26">
-        <v>2309</v>
+        <v>2368</v>
       </c>
       <c r="AK26">
-        <v>2240.9499999999998</v>
+        <v>2324.0500000000002</v>
       </c>
       <c r="AL26">
-        <v>2265.1</v>
+        <v>2347.35</v>
       </c>
       <c r="AM26">
-        <v>39.25</v>
+        <v>20.049999999999731</v>
       </c>
       <c r="AN26">
-        <v>1.7633712963586941</v>
+        <v>0.86151334164051596</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="21"/>
-        <v>0.41227059136447047</v>
+        <v>-0.44954303526367861</v>
       </c>
       <c r="AP26" s="9">
         <f t="shared" si="22"/>
-        <v>0.41227059136447047</v>
+        <v>0.44954303526367861</v>
       </c>
       <c r="AQ26" s="9">
         <f t="shared" si="23"/>
-        <v>1.9381042779568272</v>
+        <v>0.42621768909434815</v>
       </c>
       <c r="AR26" s="9">
         <f t="shared" si="24"/>
-        <v>0.65830304104975446</v>
+        <v>0.99260868639102517</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5459,38 +5459,38 @@
         <v>75</v>
       </c>
       <c r="B27">
+        <v>302.8</v>
+      </c>
+      <c r="C27">
+        <v>311.7</v>
+      </c>
+      <c r="D27">
         <v>300</v>
       </c>
-      <c r="C27">
-        <v>306.64999999999998</v>
-      </c>
-      <c r="D27">
-        <v>297.25</v>
-      </c>
       <c r="E27">
-        <v>302.64999999999998</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="F27">
-        <v>6.1499999999999773</v>
+        <v>7.1500000000000341</v>
       </c>
       <c r="G27">
-        <v>2.074198988195608</v>
+        <v>2.364027111919337</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="0"/>
-        <v>0.88333333333332575</v>
+        <v>2.2457067371202148</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="1"/>
-        <v>0.88333333333332575</v>
+        <v>2.2457067371202148</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="2"/>
-        <v>1.3216586816454652</v>
+        <v>0.67829457364339985</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="3"/>
-        <v>0.91666666666666663</v>
+        <v>0.92470277410832602</v>
       </c>
       <c r="L27" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5521,38 +5521,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>296.25</v>
+        <v>306</v>
       </c>
       <c r="T27">
-        <v>298.60000000000002</v>
+        <v>306.75</v>
       </c>
       <c r="U27">
-        <v>292.60000000000002</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="V27">
-        <v>296.5</v>
+        <v>302.45</v>
       </c>
       <c r="W27">
-        <v>0.80000000000001137</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="X27">
-        <v>0.27054447074738303</v>
+        <v>-6.6082934082269493E-2</v>
       </c>
       <c r="Y27" s="9">
         <f t="shared" si="11"/>
-        <v>8.4388185654008435E-2</v>
+        <v>-1.160130718954252</v>
       </c>
       <c r="Z27" s="9">
         <f t="shared" si="12"/>
-        <v>8.4388185654008435E-2</v>
+        <v>1.160130718954252</v>
       </c>
       <c r="AA27" s="9">
         <f t="shared" si="13"/>
-        <v>0.70826306913997394</v>
+        <v>0.24509803921568626</v>
       </c>
       <c r="AB27" s="9">
         <f t="shared" si="14"/>
-        <v>1.2320675105485155</v>
+        <v>1.0084311456439119</v>
       </c>
       <c r="AC27" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5579,38 +5579,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>290.14999999999998</v>
+        <v>300</v>
       </c>
       <c r="AJ27">
-        <v>298.2</v>
+        <v>306.64999999999998</v>
       </c>
       <c r="AK27">
-        <v>289.14999999999998</v>
+        <v>297.25</v>
       </c>
       <c r="AL27">
-        <v>295.7</v>
+        <v>302.64999999999998</v>
       </c>
       <c r="AM27">
-        <v>8.9499999999999886</v>
+        <v>6.1499999999999773</v>
       </c>
       <c r="AN27">
-        <v>3.1211857018308589</v>
+        <v>2.074198988195608</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="21"/>
-        <v>1.9128037222126526</v>
+        <v>0.88333333333332575</v>
       </c>
       <c r="AP27" s="9">
         <f t="shared" si="22"/>
-        <v>1.9128037222126526</v>
+        <v>0.88333333333332575</v>
       </c>
       <c r="AQ27" s="9">
         <f t="shared" si="23"/>
-        <v>0.84545147108555962</v>
+        <v>1.3216586816454652</v>
       </c>
       <c r="AR27" s="9">
         <f t="shared" si="24"/>
-        <v>0.34464931931759435</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5642,38 +5642,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>131.69999999999999</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="C28">
-        <v>135.44999999999999</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="D28">
-        <v>131.1</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="E28">
-        <v>133.44999999999999</v>
+        <v>137.25</v>
       </c>
       <c r="F28">
-        <v>2.5999999999999939</v>
+        <v>-0.84999999999999432</v>
       </c>
       <c r="G28">
-        <v>1.9870080244554791</v>
+        <v>-0.61549601737870696</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="0"/>
-        <v>1.328777524677297</v>
+        <v>-0.3991291727140866</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="1"/>
-        <v>1.328777524677297</v>
+        <v>0.3991291727140866</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="2"/>
-        <v>1.4986886474334957</v>
+        <v>2.6487663280115941</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="3"/>
-        <v>0.45558086560364036</v>
+        <v>0.69216757741347079</v>
       </c>
       <c r="L28" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="N28" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O28" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5704,38 +5704,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>131.1</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="T28">
-        <v>132</v>
+        <v>138.75</v>
       </c>
       <c r="U28">
-        <v>129.35</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="V28">
-        <v>130.85</v>
+        <v>138.1</v>
       </c>
       <c r="W28">
-        <v>0.44999999999998858</v>
+        <v>4.6500000000000057</v>
       </c>
       <c r="X28">
-        <v>0.34509202453986859</v>
+        <v>3.4844511052828819</v>
       </c>
       <c r="Y28" s="9">
         <f t="shared" si="11"/>
-        <v>-0.1906941266209001</v>
+        <v>2.5241276911655572</v>
       </c>
       <c r="Z28" s="9">
         <f t="shared" si="12"/>
-        <v>0.1906941266209001</v>
+        <v>2.5241276911655572</v>
       </c>
       <c r="AA28" s="9">
         <f t="shared" si="13"/>
-        <v>0.68649885583524461</v>
+        <v>0.47067342505431259</v>
       </c>
       <c r="AB28" s="9">
         <f t="shared" si="14"/>
-        <v>1.146350783339702</v>
+        <v>0.66815144766145307</v>
       </c>
       <c r="AC28" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5765,35 +5765,35 @@
         <v>131.69999999999999</v>
       </c>
       <c r="AJ28">
-        <v>133.85</v>
+        <v>135.44999999999999</v>
       </c>
       <c r="AK28">
-        <v>128.55000000000001</v>
+        <v>131.1</v>
       </c>
       <c r="AL28">
-        <v>130.4</v>
+        <v>133.44999999999999</v>
       </c>
       <c r="AM28">
-        <v>0.30000000000001142</v>
+        <v>2.5999999999999939</v>
       </c>
       <c r="AN28">
-        <v>0.23059185242122321</v>
+        <v>1.9870080244554791</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="21"/>
-        <v>-0.98709187547455046</v>
+        <v>1.328777524677297</v>
       </c>
       <c r="AP28" s="9">
         <f t="shared" si="22"/>
-        <v>0.98709187547455046</v>
+        <v>1.328777524677297</v>
       </c>
       <c r="AQ28" s="9">
         <f t="shared" si="23"/>
-        <v>1.6324981017463978</v>
+        <v>1.4986886474334957</v>
       </c>
       <c r="AR28" s="9">
         <f t="shared" si="24"/>
-        <v>1.4187116564417135</v>
+        <v>0.45558086560364036</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="AV28" t="str">
         <f t="shared" si="28"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AW28" t="str">
         <f t="shared" si="29"/>
@@ -5825,38 +5825,38 @@
         <v>77</v>
       </c>
       <c r="B29">
+        <v>159.6</v>
+      </c>
+      <c r="C29">
+        <v>162.65</v>
+      </c>
+      <c r="D29">
         <v>158.5</v>
       </c>
-      <c r="C29">
-        <v>162.9</v>
-      </c>
-      <c r="D29">
-        <v>158</v>
-      </c>
       <c r="E29">
-        <v>158.75</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="F29">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
-        <v>0.95389507154213027</v>
+        <v>0.31210986267166052</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="0"/>
-        <v>0.15772870662460567</v>
+        <v>0.68922305764410674</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="1"/>
-        <v>0.15772870662460567</v>
+        <v>0.68922305764410674</v>
       </c>
       <c r="J29" s="9">
         <f t="shared" si="2"/>
-        <v>2.6141732283464605</v>
+        <v>1.2134411947728794</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="3"/>
-        <v>0.31545741324921134</v>
+        <v>0.68922305764410674</v>
       </c>
       <c r="L29" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="N29" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O29" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5887,38 +5887,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>147</v>
+        <v>162.1</v>
       </c>
       <c r="T29">
-        <v>158</v>
+        <v>162.1</v>
       </c>
       <c r="U29">
-        <v>146.05000000000001</v>
+        <v>155.5</v>
       </c>
       <c r="V29">
-        <v>157.25</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="W29">
-        <v>9.9499999999999886</v>
+        <v>1.4499999999999891</v>
       </c>
       <c r="X29">
-        <v>6.7549219280380086</v>
+        <v>0.91338582677164637</v>
       </c>
       <c r="Y29" s="9">
         <f t="shared" si="11"/>
-        <v>6.9727891156462576</v>
+        <v>-1.1721159777914902</v>
       </c>
       <c r="Z29" s="9">
         <f t="shared" si="12"/>
-        <v>6.9727891156462576</v>
+        <v>1.1721159777914902</v>
       </c>
       <c r="AA29" s="9">
         <f t="shared" si="13"/>
-        <v>0.47694753577106513</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="9">
         <f t="shared" si="14"/>
-        <v>0.64625850340135282</v>
+        <v>2.9338327091136009</v>
       </c>
       <c r="AC29" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5945,38 +5945,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>146.5</v>
+        <v>158.5</v>
       </c>
       <c r="AJ29">
-        <v>148.15</v>
+        <v>162.9</v>
       </c>
       <c r="AK29">
-        <v>144.5</v>
+        <v>158</v>
       </c>
       <c r="AL29">
-        <v>147.30000000000001</v>
+        <v>158.75</v>
       </c>
       <c r="AM29">
-        <v>3.7000000000000171</v>
+        <v>1.5</v>
       </c>
       <c r="AN29">
-        <v>2.5766016713092039</v>
+        <v>0.95389507154213027</v>
       </c>
       <c r="AO29" s="9">
         <f t="shared" si="21"/>
-        <v>0.54607508532423976</v>
+        <v>0.15772870662460567</v>
       </c>
       <c r="AP29" s="9">
         <f t="shared" si="22"/>
-        <v>0.54607508532423976</v>
+        <v>0.15772870662460567</v>
       </c>
       <c r="AQ29" s="9">
         <f t="shared" si="23"/>
-        <v>0.57705363204344484</v>
+        <v>2.6141732283464605</v>
       </c>
       <c r="AR29" s="9">
         <f t="shared" si="24"/>
-        <v>1.3651877133105803</v>
+        <v>0.31545741324921134</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -6008,38 +6008,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>605</v>
+        <v>619.95000000000005</v>
       </c>
       <c r="C30">
-        <v>631.9</v>
+        <v>629.25</v>
       </c>
       <c r="D30">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="E30">
-        <v>620.29999999999995</v>
+        <v>620.85</v>
       </c>
       <c r="F30">
-        <v>22.449999999999928</v>
+        <v>2.200000000000045</v>
       </c>
       <c r="G30">
-        <v>3.755122522371821</v>
+        <v>0.3556130283682285</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="0"/>
-        <v>2.5289256198347032</v>
+        <v>0.14517299782240137</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="1"/>
-        <v>2.5289256198347032</v>
+        <v>0.14517299782240137</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" si="2"/>
-        <v>1.8700628728034858</v>
+        <v>1.3529838125150966</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.79845148802323507</v>
       </c>
       <c r="L30" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6070,38 +6070,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="T30">
-        <v>600.9</v>
+        <v>632.79999999999995</v>
       </c>
       <c r="U30">
-        <v>580.54999999999995</v>
+        <v>611.25</v>
       </c>
       <c r="V30">
-        <v>597.85</v>
+        <v>618.65</v>
       </c>
       <c r="W30">
-        <v>8.7000000000000455</v>
+        <v>-1.649999999999977</v>
       </c>
       <c r="X30">
-        <v>1.4767037257065341</v>
+        <v>-0.26600032242462962</v>
       </c>
       <c r="Y30" s="9">
         <f t="shared" si="11"/>
-        <v>1.330508474576275</v>
+        <v>-0.37842190016103427</v>
       </c>
       <c r="Z30" s="9">
         <f t="shared" si="12"/>
-        <v>1.330508474576275</v>
+        <v>0.37842190016103427</v>
       </c>
       <c r="AA30" s="9">
         <f t="shared" si="13"/>
-        <v>0.51016141172534157</v>
+        <v>1.9001610305958059</v>
       </c>
       <c r="AB30" s="9">
         <f t="shared" si="14"/>
-        <v>1.601694915254245</v>
+        <v>1.1961529136021947</v>
       </c>
       <c r="AC30" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6128,38 +6128,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>594.45000000000005</v>
+        <v>605</v>
       </c>
       <c r="AJ30">
-        <v>600.6</v>
+        <v>631.9</v>
       </c>
       <c r="AK30">
-        <v>580.20000000000005</v>
+        <v>605</v>
       </c>
       <c r="AL30">
-        <v>589.15</v>
+        <v>620.29999999999995</v>
       </c>
       <c r="AM30">
-        <v>-4.7000000000000446</v>
+        <v>22.449999999999928</v>
       </c>
       <c r="AN30">
-        <v>-0.79144565125874289</v>
+        <v>3.755122522371821</v>
       </c>
       <c r="AO30" s="9">
         <f t="shared" si="21"/>
-        <v>-0.89158045251914675</v>
+        <v>2.5289256198347032</v>
       </c>
       <c r="AP30" s="9">
         <f t="shared" si="22"/>
-        <v>0.89158045251914675</v>
+        <v>2.5289256198347032</v>
       </c>
       <c r="AQ30" s="9">
         <f t="shared" si="23"/>
-        <v>1.034569770375974</v>
+        <v>1.8700628728034858</v>
       </c>
       <c r="AR30" s="9">
         <f t="shared" si="24"/>
-        <v>1.5191377408130242</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6191,38 +6191,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="C31">
-        <v>949</v>
+        <v>920</v>
       </c>
       <c r="D31">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E31">
-        <v>929.75</v>
+        <v>909.3</v>
       </c>
       <c r="F31">
-        <v>23.649999999999981</v>
+        <v>-27.25</v>
       </c>
       <c r="G31">
-        <v>2.6100871868447171</v>
+        <v>-2.9096150766109661</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="0"/>
-        <v>2.0581778265642154</v>
+        <v>-0.83969465648855457</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="1"/>
-        <v>2.0581778265642154</v>
+        <v>0.83969465648855457</v>
       </c>
       <c r="J31" s="9">
         <f t="shared" si="2"/>
-        <v>2.0704490454423232</v>
+        <v>0.32715376226826609</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.47289123501594138</v>
       </c>
       <c r="L31" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6253,38 +6253,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>898.9</v>
+        <v>939.45</v>
       </c>
       <c r="T31">
-        <v>909.8</v>
+        <v>941</v>
       </c>
       <c r="U31">
-        <v>895.1</v>
+        <v>917.5</v>
       </c>
       <c r="V31">
-        <v>906.1</v>
+        <v>936.55</v>
       </c>
       <c r="W31">
-        <v>9.7000000000000455</v>
+        <v>6.7999999999999554</v>
       </c>
       <c r="X31">
-        <v>1.0821062025881349</v>
+        <v>0.73137940306533522</v>
       </c>
       <c r="Y31" s="9">
         <f t="shared" si="11"/>
-        <v>0.80097897430192966</v>
+        <v>-0.30869125552185755</v>
       </c>
       <c r="Z31" s="9">
         <f t="shared" si="12"/>
-        <v>0.80097897430192966</v>
+        <v>0.30869125552185755</v>
       </c>
       <c r="AA31" s="9">
         <f t="shared" si="13"/>
-        <v>0.40834344995032906</v>
+        <v>0.1649901538133966</v>
       </c>
       <c r="AB31" s="9">
         <f t="shared" si="14"/>
-        <v>0.42273890310378848</v>
+        <v>2.0340611819977528</v>
       </c>
       <c r="AC31" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6311,38 +6311,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="AJ31">
-        <v>909.45</v>
+        <v>949</v>
       </c>
       <c r="AK31">
-        <v>885</v>
+        <v>911</v>
       </c>
       <c r="AL31">
-        <v>896.4</v>
+        <v>929.75</v>
       </c>
       <c r="AM31">
-        <v>2.1499999999999768</v>
+        <v>23.649999999999981</v>
       </c>
       <c r="AN31">
-        <v>0.2404249370981244</v>
+        <v>2.6100871868447171</v>
       </c>
       <c r="AO31" s="9">
         <f t="shared" si="21"/>
-        <v>-0.40000000000000252</v>
+        <v>2.0581778265642154</v>
       </c>
       <c r="AP31" s="9">
         <f t="shared" si="22"/>
-        <v>0.40000000000000252</v>
+        <v>2.0581778265642154</v>
       </c>
       <c r="AQ31" s="9">
         <f t="shared" si="23"/>
-        <v>1.0500000000000052</v>
+        <v>2.0704490454423232</v>
       </c>
       <c r="AR31" s="9">
         <f t="shared" si="24"/>
-        <v>1.271753681392233</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="AV31" t="str">
         <f t="shared" si="28"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AW31" t="str">
         <f t="shared" si="29"/>
@@ -6374,38 +6374,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>1195</v>
+        <v>1255</v>
       </c>
       <c r="C32">
-        <v>1238.6500000000001</v>
+        <v>1265.8</v>
       </c>
       <c r="D32">
-        <v>1195</v>
+        <v>1244.55</v>
       </c>
       <c r="E32">
-        <v>1221.7</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="F32">
-        <v>37.900000000000091</v>
+        <v>8.8999999999998636</v>
       </c>
       <c r="G32">
-        <v>3.2015543166075431</v>
+        <v>0.71103299512661688</v>
       </c>
       <c r="H32" s="9">
         <f t="shared" si="0"/>
-        <v>2.2343096234309661</v>
+        <v>0.4462151394422238</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="1"/>
-        <v>2.2343096234309661</v>
+        <v>0.4462151394422238</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>1.3874109846934637</v>
+        <v>0.41250198318261511</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.83266932270916694</v>
       </c>
       <c r="L32" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6436,38 +6436,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>1181.75</v>
+        <v>1226.5</v>
       </c>
       <c r="T32">
-        <v>1217</v>
+        <v>1256</v>
       </c>
       <c r="U32">
-        <v>1172.8499999999999</v>
+        <v>1217.7</v>
       </c>
       <c r="V32">
-        <v>1183.8</v>
+        <v>1251.7</v>
       </c>
       <c r="W32">
-        <v>8.0999999999999091</v>
+        <v>30</v>
       </c>
       <c r="X32">
-        <v>0.68895126307730792</v>
+        <v>2.4555946631742649</v>
       </c>
       <c r="Y32" s="9">
         <f t="shared" si="11"/>
-        <v>0.17347154643536741</v>
+        <v>2.054626987362417</v>
       </c>
       <c r="Z32" s="9">
         <f t="shared" si="12"/>
-        <v>0.17347154643536741</v>
+        <v>2.054626987362417</v>
       </c>
       <c r="AA32" s="9">
         <f t="shared" si="13"/>
-        <v>2.8045277918567364</v>
+        <v>0.34353279539825471</v>
       </c>
       <c r="AB32" s="9">
         <f t="shared" si="14"/>
-        <v>0.7531203723291805</v>
+        <v>0.71748878923766446</v>
       </c>
       <c r="AC32" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6494,38 +6494,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>1180</v>
+        <v>1195</v>
       </c>
       <c r="AJ32">
-        <v>1188</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AK32">
-        <v>1165.55</v>
+        <v>1195</v>
       </c>
       <c r="AL32">
-        <v>1175.7</v>
+        <v>1221.7</v>
       </c>
       <c r="AM32">
-        <v>3.200000000000045</v>
+        <v>37.900000000000091</v>
       </c>
       <c r="AN32">
-        <v>0.27292110874200809</v>
+        <v>3.2015543166075431</v>
       </c>
       <c r="AO32" s="9">
         <f t="shared" si="21"/>
-        <v>-0.36440677966101309</v>
+        <v>2.2343096234309661</v>
       </c>
       <c r="AP32" s="9">
         <f t="shared" si="22"/>
-        <v>0.36440677966101309</v>
+        <v>2.2343096234309661</v>
       </c>
       <c r="AQ32" s="9">
         <f t="shared" si="23"/>
-        <v>0.67796610169491522</v>
+        <v>1.3874109846934637</v>
       </c>
       <c r="AR32" s="9">
         <f t="shared" si="24"/>
-        <v>0.86331547163392786</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6557,38 +6557,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>59230.05</v>
+        <v>58600</v>
       </c>
       <c r="C33">
-        <v>59800</v>
+        <v>59850</v>
       </c>
       <c r="D33">
-        <v>58199.85</v>
+        <v>58508.45</v>
       </c>
       <c r="E33">
-        <v>58519.85</v>
+        <v>59573.95</v>
       </c>
       <c r="F33">
-        <v>-706.84999999999854</v>
+        <v>1165.5</v>
       </c>
       <c r="G33">
-        <v>-1.1934651094860911</v>
+        <v>1.9954304556960509</v>
       </c>
       <c r="H33" s="9">
         <f t="shared" si="0"/>
-        <v>-1.1990535209745803</v>
+        <v>1.6620307167235444</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="1"/>
-        <v>1.1990535209745803</v>
+        <v>1.6620307167235444</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>0.9622649313988374</v>
+        <v>0.46337367255319301</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="3"/>
-        <v>0.54682300108424742</v>
+        <v>0.15622866894198451</v>
       </c>
       <c r="L33" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6619,38 +6619,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>59100</v>
+        <v>58600</v>
       </c>
       <c r="T33">
         <v>59400</v>
       </c>
       <c r="U33">
-        <v>58445.9</v>
+        <v>58200</v>
       </c>
       <c r="V33">
-        <v>59226.7</v>
+        <v>58408.45</v>
       </c>
       <c r="W33">
-        <v>92.649999999994179</v>
+        <v>-111.4000000000015</v>
       </c>
       <c r="X33">
-        <v>0.15667792075799669</v>
+        <v>-0.19036275725245611</v>
       </c>
       <c r="Y33" s="9">
         <f t="shared" si="11"/>
-        <v>0.21438240270727091</v>
+        <v>-0.32687713310580702</v>
       </c>
       <c r="Z33" s="9">
         <f t="shared" si="12"/>
-        <v>0.21438240270727091</v>
+        <v>0.32687713310580702</v>
       </c>
       <c r="AA33" s="9">
         <f t="shared" si="13"/>
-        <v>0.29260451789480579</v>
+        <v>1.3651877133105803</v>
       </c>
       <c r="AB33" s="9">
         <f t="shared" si="14"/>
-        <v>1.1067681895093038</v>
+        <v>0.35688329342757275</v>
       </c>
       <c r="AC33" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6677,38 +6677,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>58865</v>
+        <v>59230.05</v>
       </c>
       <c r="AJ33">
-        <v>59399</v>
+        <v>59800</v>
       </c>
       <c r="AK33">
-        <v>58700</v>
+        <v>58199.85</v>
       </c>
       <c r="AL33">
-        <v>59134.05</v>
+        <v>58519.85</v>
       </c>
       <c r="AM33">
-        <v>370.5</v>
+        <v>-706.84999999999854</v>
       </c>
       <c r="AN33">
-        <v>0.63049288206719978</v>
+        <v>-1.1934651094860911</v>
       </c>
       <c r="AO33" s="9">
         <f t="shared" si="21"/>
-        <v>0.4570627707466286</v>
+        <v>-1.1990535209745803</v>
       </c>
       <c r="AP33" s="9">
         <f t="shared" si="22"/>
-        <v>0.4570627707466286</v>
+        <v>1.1990535209745803</v>
       </c>
       <c r="AQ33" s="9">
         <f t="shared" si="23"/>
-        <v>0.44804981224860652</v>
+        <v>0.9622649313988374</v>
       </c>
       <c r="AR33" s="9">
         <f t="shared" si="24"/>
-        <v>0.2803023868172938</v>
+        <v>0.54682300108424742</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6740,45 +6740,45 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C34">
-        <v>1146.8499999999999</v>
+        <v>1173</v>
       </c>
       <c r="D34">
-        <v>1113.4000000000001</v>
+        <v>1128.1500000000001</v>
       </c>
       <c r="E34">
-        <v>1123.45</v>
+        <v>1144.45</v>
       </c>
       <c r="F34">
-        <v>-5.0499999999999554</v>
+        <v>13.400000000000089</v>
       </c>
       <c r="G34">
-        <v>-0.44749667700486973</v>
+        <v>1.184739843508253</v>
       </c>
       <c r="H34" s="9">
         <f t="shared" ref="H34:H50" si="31">(E34-B34)/B34*100</f>
-        <v>-1.2785588752196797</v>
+        <v>0.83259911894273531</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>1.2785588752196797</v>
+        <v>0.83259911894273531</v>
       </c>
       <c r="J34" s="9">
         <f t="shared" ref="J34:J50" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>0.77768014059753154</v>
+        <v>2.4946480842325967</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" ref="K34:K50" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>0.89456584627708879</v>
+        <v>0.6035242290748819</v>
       </c>
       <c r="L34" s="9" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ref="M34:M50" si="36">IF(AND((K34-J34)&gt;1.5,I34&lt;2,I34&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="M34:M50" si="36">IF(AND((K34-J34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&gt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="N34" t="str">
@@ -6786,7 +6786,7 @@
         <v>NO</v>
       </c>
       <c r="O34" s="9" t="str">
-        <f t="shared" ref="O34:O50" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="O34:O50" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&lt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="P34" s="9" t="str">
@@ -6802,38 +6802,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>1088</v>
+        <v>1128</v>
       </c>
       <c r="T34">
-        <v>1134</v>
+        <v>1141.8499999999999</v>
       </c>
       <c r="U34">
-        <v>1088</v>
+        <v>1116</v>
       </c>
       <c r="V34">
-        <v>1128.5</v>
+        <v>1131.05</v>
       </c>
       <c r="W34">
-        <v>29</v>
+        <v>7.5999999999999091</v>
       </c>
       <c r="X34">
-        <v>2.6375625284220101</v>
+        <v>0.67648760514485806</v>
       </c>
       <c r="Y34" s="9">
         <f t="shared" ref="Y34:Y50" si="41">(V34-S34)/S34*100</f>
-        <v>3.7224264705882351</v>
+        <v>0.27039007092198181</v>
       </c>
       <c r="Z34" s="9">
         <f t="shared" ref="Z34:Z65" si="42">ABS(Y34)</f>
-        <v>3.7224264705882351</v>
+        <v>0.27039007092198181</v>
       </c>
       <c r="AA34" s="9">
         <f t="shared" ref="AA34:AA50" si="43">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>0.48737261852015945</v>
+        <v>0.95486494849917825</v>
       </c>
       <c r="AB34" s="9">
         <f t="shared" ref="AB34:AB50" si="44">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>0</v>
+        <v>1.0638297872340425</v>
       </c>
       <c r="AC34" s="9" t="str">
         <f t="shared" ref="AC34:AC50" si="45">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6860,38 +6860,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>1110</v>
+        <v>1138</v>
       </c>
       <c r="AJ34">
-        <v>1113</v>
+        <v>1146.8499999999999</v>
       </c>
       <c r="AK34">
-        <v>1080.3499999999999</v>
+        <v>1113.4000000000001</v>
       </c>
       <c r="AL34">
-        <v>1099.5</v>
+        <v>1123.45</v>
       </c>
       <c r="AM34">
-        <v>6.0499999999999554</v>
+        <v>-5.0499999999999554</v>
       </c>
       <c r="AN34">
-        <v>0.55329461795234847</v>
+        <v>-0.44749667700486973</v>
       </c>
       <c r="AO34" s="9">
         <f t="shared" ref="AO34:AO50" si="51">(AL34-AI34)/AI34*100</f>
-        <v>-0.94594594594594605</v>
+        <v>-1.2785588752196797</v>
       </c>
       <c r="AP34" s="9">
         <f t="shared" ref="AP34:AP65" si="52">ABS(AO34)</f>
-        <v>0.94594594594594605</v>
+        <v>1.2785588752196797</v>
       </c>
       <c r="AQ34" s="9">
         <f t="shared" ref="AQ34:AQ50" si="53">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>0.27027027027027029</v>
+        <v>0.77768014059753154</v>
       </c>
       <c r="AR34" s="9">
         <f t="shared" ref="AR34:AR50" si="54">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>1.7417007730786804</v>
+        <v>0.89456584627708879</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS50" si="55">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6923,38 +6923,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>35.299999999999997</v>
+        <v>34.15</v>
       </c>
       <c r="C35">
-        <v>36.450000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D35">
-        <v>34.799999999999997</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E35">
-        <v>35.200000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="F35">
-        <v>0.40000000000000568</v>
+        <v>0.20000000000000279</v>
       </c>
       <c r="G35">
-        <v>1.149425287356338</v>
+        <v>0.58309037900875471</v>
       </c>
       <c r="H35" s="9">
         <f t="shared" si="31"/>
-        <v>-0.28328611898015388</v>
+        <v>1.0248901903367538</v>
       </c>
       <c r="I35" s="9">
         <f t="shared" si="32"/>
-        <v>0.28328611898015388</v>
+        <v>1.0248901903367538</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="33"/>
-        <v>3.2577903682719711</v>
+        <v>0.57971014492754447</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="34"/>
-        <v>1.1363636363636525</v>
+        <v>1.3177159590043799</v>
       </c>
       <c r="L35" s="9" t="str">
         <f t="shared" si="35"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="N35" t="str">
         <f t="shared" si="37"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O35" s="9" t="str">
         <f t="shared" si="38"/>
@@ -6985,38 +6985,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>34.6</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="T35">
-        <v>34.950000000000003</v>
+        <v>35.4</v>
       </c>
       <c r="U35">
-        <v>34.200000000000003</v>
+        <v>34.15</v>
       </c>
       <c r="V35">
-        <v>34.799999999999997</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="W35">
-        <v>0.39999999999999858</v>
+        <v>-0.90000000000000568</v>
       </c>
       <c r="X35">
-        <v>1.1627906976744149</v>
+        <v>-2.5568181818181981</v>
       </c>
       <c r="Y35" s="9">
         <f t="shared" si="41"/>
-        <v>0.57803468208091247</v>
+        <v>-2.8328611898017</v>
       </c>
       <c r="Z35" s="9">
         <f t="shared" si="42"/>
-        <v>0.57803468208091247</v>
+        <v>2.8328611898017</v>
       </c>
       <c r="AA35" s="9">
         <f t="shared" si="43"/>
-        <v>0.43103448275863709</v>
+        <v>0.28328611898017403</v>
       </c>
       <c r="AB35" s="9">
         <f t="shared" si="44"/>
-        <v>1.1560693641618456</v>
+        <v>0.4373177842565556</v>
       </c>
       <c r="AC35" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7043,38 +7043,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>34.35</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="AJ35">
-        <v>34.85</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="AK35">
-        <v>33.700000000000003</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="AL35">
-        <v>34.4</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AM35">
-        <v>0.60000000000000142</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="AN35">
-        <v>1.775147928994087</v>
+        <v>1.149425287356338</v>
       </c>
       <c r="AO35" s="9">
         <f t="shared" si="51"/>
-        <v>0.14556040756913291</v>
+        <v>-0.28328611898015388</v>
       </c>
       <c r="AP35" s="9">
         <f t="shared" si="52"/>
-        <v>0.14556040756913291</v>
+        <v>0.28328611898015388</v>
       </c>
       <c r="AQ35" s="9">
         <f t="shared" si="53"/>
-        <v>1.3081395348837292</v>
+        <v>3.2577903682719711</v>
       </c>
       <c r="AR35" s="9">
         <f t="shared" si="54"/>
-        <v>1.8922852983988312</v>
+        <v>1.1363636363636525</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="55"/>
@@ -7106,38 +7106,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>3384.85</v>
+        <v>3560.7</v>
       </c>
       <c r="C36">
-        <v>3455</v>
+        <v>3581.7</v>
       </c>
       <c r="D36">
-        <v>3381</v>
+        <v>3505</v>
       </c>
       <c r="E36">
-        <v>3434.1</v>
+        <v>3539.8</v>
       </c>
       <c r="F36">
-        <v>49.25</v>
+        <v>6.25</v>
       </c>
       <c r="G36">
-        <v>1.4550127775233761</v>
+        <v>0.17687594628631259</v>
       </c>
       <c r="H36" s="9">
         <f t="shared" si="31"/>
-        <v>1.4550127775233763</v>
+        <v>-0.58696323756563706</v>
       </c>
       <c r="I36" s="9">
         <f t="shared" si="32"/>
-        <v>1.4550127775233763</v>
+        <v>0.58696323756563706</v>
       </c>
       <c r="J36" s="9">
         <f t="shared" si="33"/>
-        <v>0.60860196266853306</v>
+        <v>0.58977167410902354</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="34"/>
-        <v>0.11374211560334754</v>
+        <v>0.98310639019154133</v>
       </c>
       <c r="L36" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7168,38 +7168,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>3420</v>
+        <v>3450</v>
       </c>
       <c r="T36">
-        <v>3434.8</v>
+        <v>3559.2</v>
       </c>
       <c r="U36">
-        <v>3343.05</v>
+        <v>3410.3</v>
       </c>
       <c r="V36">
-        <v>3384.85</v>
+        <v>3533.55</v>
       </c>
       <c r="W36">
-        <v>-1.8499999999999091</v>
+        <v>99.450000000000273</v>
       </c>
       <c r="X36">
-        <v>-5.4625446599932348E-2</v>
+        <v>2.8959552721237092</v>
       </c>
       <c r="Y36" s="9">
         <f t="shared" si="41"/>
-        <v>-1.0277777777777803</v>
+        <v>2.4217391304347879</v>
       </c>
       <c r="Z36" s="9">
         <f t="shared" si="42"/>
-        <v>1.0277777777777803</v>
+        <v>2.4217391304347879</v>
       </c>
       <c r="AA36" s="9">
         <f t="shared" si="43"/>
-        <v>0.43274853801170121</v>
+        <v>0.72589888355901677</v>
       </c>
       <c r="AB36" s="9">
         <f t="shared" si="44"/>
-        <v>1.234914397979223</v>
+        <v>1.1507246376811542</v>
       </c>
       <c r="AC36" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7226,38 +7226,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>3293</v>
+        <v>3384.85</v>
       </c>
       <c r="AJ36">
-        <v>3430</v>
+        <v>3455</v>
       </c>
       <c r="AK36">
-        <v>3240.25</v>
+        <v>3381</v>
       </c>
       <c r="AL36">
-        <v>3386.7</v>
+        <v>3434.1</v>
       </c>
       <c r="AM36">
-        <v>107</v>
+        <v>49.25</v>
       </c>
       <c r="AN36">
-        <v>3.262493520748849</v>
+        <v>1.4550127775233761</v>
       </c>
       <c r="AO36" s="9">
         <f t="shared" si="51"/>
-        <v>2.8454296993622781</v>
+        <v>1.4550127775233763</v>
       </c>
       <c r="AP36" s="9">
         <f t="shared" si="52"/>
-        <v>2.8454296993622781</v>
+        <v>1.4550127775233763</v>
       </c>
       <c r="AQ36" s="9">
         <f t="shared" si="53"/>
-        <v>1.2785307231228094</v>
+        <v>0.60860196266853306</v>
       </c>
       <c r="AR36" s="9">
         <f t="shared" si="54"/>
-        <v>1.6018827816580625</v>
+        <v>0.11374211560334754</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="55"/>
@@ -7289,38 +7289,38 @@
         <v>85</v>
       </c>
       <c r="B37">
+        <v>26.45</v>
+      </c>
+      <c r="C37">
+        <v>26.7</v>
+      </c>
+      <c r="D37">
+        <v>26.2</v>
+      </c>
+      <c r="E37">
         <v>26.5</v>
       </c>
-      <c r="C37">
-        <v>27.75</v>
-      </c>
-      <c r="D37">
-        <v>26.45</v>
-      </c>
-      <c r="E37">
-        <v>27.25</v>
-      </c>
       <c r="F37">
-        <v>1.1999999999999991</v>
+        <v>-5.0000000000000711E-2</v>
       </c>
       <c r="G37">
-        <v>4.6065259117082507</v>
+        <v>-0.18832391713747909</v>
       </c>
       <c r="H37" s="9">
         <f t="shared" si="31"/>
-        <v>2.8301886792452833</v>
+        <v>0.18903591682419929</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" si="32"/>
-        <v>2.8301886792452833</v>
+        <v>0.18903591682419929</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" si="33"/>
-        <v>1.834862385321101</v>
+        <v>0.75471698113207275</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="34"/>
-        <v>0.18867924528302155</v>
+        <v>0.94517958412098302</v>
       </c>
       <c r="L37" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7351,38 +7351,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>26.45</v>
+        <v>27</v>
       </c>
       <c r="T37">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="U37">
-        <v>25.65</v>
+        <v>26.05</v>
       </c>
       <c r="V37">
-        <v>26.05</v>
+        <v>26.55</v>
       </c>
       <c r="W37">
-        <v>-0.19999999999999929</v>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="X37">
-        <v>-0.7619047619047592</v>
+        <v>-2.5688073394495392</v>
       </c>
       <c r="Y37" s="9">
         <f t="shared" si="41"/>
-        <v>-1.5122873345935675</v>
+        <v>-1.6666666666666639</v>
       </c>
       <c r="Z37" s="9">
         <f t="shared" si="42"/>
-        <v>1.5122873345935675</v>
+        <v>1.6666666666666639</v>
       </c>
       <c r="AA37" s="9">
         <f t="shared" si="43"/>
-        <v>0.56710775047259787</v>
+        <v>0.37037037037037562</v>
       </c>
       <c r="AB37" s="9">
         <f t="shared" si="44"/>
-        <v>1.5355086372360927</v>
+        <v>1.8832391713747645</v>
       </c>
       <c r="AC37" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7409,38 +7409,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="AJ37">
-        <v>26.55</v>
+        <v>27.75</v>
       </c>
       <c r="AK37">
-        <v>26</v>
+        <v>26.45</v>
       </c>
       <c r="AL37">
-        <v>26.25</v>
+        <v>27.25</v>
       </c>
       <c r="AM37">
-        <v>0.30000000000000071</v>
+        <v>1.1999999999999991</v>
       </c>
       <c r="AN37">
-        <v>1.156069364161852</v>
+        <v>4.6065259117082507</v>
       </c>
       <c r="AO37" s="9">
         <f t="shared" si="51"/>
-        <v>0.96153846153846156</v>
+        <v>2.8301886792452833</v>
       </c>
       <c r="AP37" s="9">
         <f t="shared" si="52"/>
-        <v>0.96153846153846156</v>
+        <v>2.8301886792452833</v>
       </c>
       <c r="AQ37" s="9">
         <f t="shared" si="53"/>
-        <v>1.1428571428571457</v>
+        <v>1.834862385321101</v>
       </c>
       <c r="AR37" s="9">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.18867924528302155</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="55"/>
@@ -7472,38 +7472,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>95.2</v>
+        <v>95.85</v>
       </c>
       <c r="C38">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="D38">
-        <v>94.15</v>
+        <v>93.75</v>
       </c>
       <c r="E38">
-        <v>95.35</v>
+        <v>93.9</v>
       </c>
       <c r="F38">
-        <v>0.89999999999999147</v>
+        <v>-1.9499999999999891</v>
       </c>
       <c r="G38">
-        <v>0.95288512440443784</v>
+        <v>-2.0344287949921638</v>
       </c>
       <c r="H38" s="9">
         <f t="shared" si="31"/>
-        <v>0.15756302521007509</v>
+        <v>-2.0344287949921638</v>
       </c>
       <c r="I38" s="9">
         <f t="shared" si="32"/>
-        <v>0.15756302521007509</v>
+        <v>2.0344287949921638</v>
       </c>
       <c r="J38" s="9">
         <f t="shared" si="33"/>
-        <v>0.68169900367069292</v>
+        <v>0.36515388628065576</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="34"/>
-        <v>1.1029411764705852</v>
+        <v>0.15974440894569295</v>
       </c>
       <c r="L38" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7534,38 +7534,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>93.95</v>
+        <v>96</v>
       </c>
       <c r="T38">
-        <v>95.8</v>
+        <v>96.2</v>
       </c>
       <c r="U38">
-        <v>93.8</v>
+        <v>95.2</v>
       </c>
       <c r="V38">
-        <v>94.45</v>
+        <v>95.85</v>
       </c>
       <c r="W38">
         <v>0.5</v>
       </c>
       <c r="X38">
-        <v>0.53219797764768495</v>
+        <v>0.52438384897745149</v>
       </c>
       <c r="Y38" s="9">
         <f t="shared" si="41"/>
-        <v>0.53219797764768495</v>
+        <v>-0.15625000000000594</v>
       </c>
       <c r="Z38" s="9">
         <f t="shared" si="42"/>
-        <v>0.53219797764768495</v>
+        <v>0.15625000000000594</v>
       </c>
       <c r="AA38" s="9">
         <f t="shared" si="43"/>
-        <v>1.429327686606664</v>
+        <v>0.20833333333333628</v>
       </c>
       <c r="AB38" s="9">
         <f t="shared" si="44"/>
-        <v>0.15965939329431153</v>
+        <v>0.67814293166404949</v>
       </c>
       <c r="AC38" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7592,38 +7592,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>93.7</v>
+        <v>95.2</v>
       </c>
       <c r="AJ38">
-        <v>94.4</v>
+        <v>96</v>
       </c>
       <c r="AK38">
-        <v>93.1</v>
+        <v>94.15</v>
       </c>
       <c r="AL38">
-        <v>93.95</v>
+        <v>95.35</v>
       </c>
       <c r="AM38">
-        <v>0.54999999999999716</v>
+        <v>0.89999999999999147</v>
       </c>
       <c r="AN38">
-        <v>0.58886509635973994</v>
+        <v>0.95288512440443784</v>
       </c>
       <c r="AO38" s="9">
         <f t="shared" si="51"/>
-        <v>0.26680896478121663</v>
+        <v>0.15756302521007509</v>
       </c>
       <c r="AP38" s="9">
         <f t="shared" si="52"/>
-        <v>0.26680896478121663</v>
+        <v>0.15756302521007509</v>
       </c>
       <c r="AQ38" s="9">
         <f t="shared" si="53"/>
-        <v>0.47897817988291946</v>
+        <v>0.68169900367069292</v>
       </c>
       <c r="AR38" s="9">
         <f t="shared" si="54"/>
-        <v>0.64034151547492901</v>
+        <v>1.1029411764705852</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="55"/>
@@ -7655,38 +7655,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>706</v>
+        <v>735.15</v>
       </c>
       <c r="C39">
-        <v>726.4</v>
+        <v>773.15</v>
       </c>
       <c r="D39">
-        <v>705</v>
+        <v>732.55</v>
       </c>
       <c r="E39">
-        <v>722.45</v>
+        <v>768.15</v>
       </c>
       <c r="F39">
-        <v>19.450000000000049</v>
+        <v>37.799999999999947</v>
       </c>
       <c r="G39">
-        <v>2.766714082503563</v>
+        <v>5.1756007393715278</v>
       </c>
       <c r="H39" s="9">
         <f t="shared" si="31"/>
-        <v>2.3300283286119043</v>
+        <v>4.488879820444807</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="32"/>
-        <v>2.3300283286119043</v>
+        <v>4.488879820444807</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" si="33"/>
-        <v>0.54675064018270214</v>
+        <v>0.65091453492156481</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="34"/>
-        <v>0.14164305949008499</v>
+        <v>0.35366931918656369</v>
       </c>
       <c r="L39" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7717,38 +7717,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>702.35</v>
+        <v>728</v>
       </c>
       <c r="T39">
-        <v>713</v>
+        <v>734.9</v>
       </c>
       <c r="U39">
-        <v>691</v>
+        <v>724</v>
       </c>
       <c r="V39">
-        <v>703</v>
+        <v>730.35</v>
       </c>
       <c r="W39">
-        <v>4.1499999999999773</v>
+        <v>7.8999999999999773</v>
       </c>
       <c r="X39">
-        <v>0.59383272519138264</v>
+        <v>1.09350128036542</v>
       </c>
       <c r="Y39" s="9">
         <f t="shared" si="41"/>
-        <v>9.2546451199541149E-2</v>
+        <v>0.32280219780220093</v>
       </c>
       <c r="Z39" s="9">
         <f t="shared" si="42"/>
-        <v>9.2546451199541149E-2</v>
+        <v>0.32280219780220093</v>
       </c>
       <c r="AA39" s="9">
         <f t="shared" si="43"/>
-        <v>1.4224751066856329</v>
+        <v>0.622988977887308</v>
       </c>
       <c r="AB39" s="9">
         <f t="shared" si="44"/>
-        <v>1.6160034170997397</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="AC39" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7775,38 +7775,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>693.3</v>
+        <v>706</v>
       </c>
       <c r="AJ39">
-        <v>706</v>
+        <v>726.4</v>
       </c>
       <c r="AK39">
-        <v>683.5</v>
+        <v>705</v>
       </c>
       <c r="AL39">
-        <v>698.85</v>
+        <v>722.45</v>
       </c>
       <c r="AM39">
-        <v>9</v>
+        <v>19.450000000000049</v>
       </c>
       <c r="AN39">
-        <v>1.3046314416177429</v>
+        <v>2.766714082503563</v>
       </c>
       <c r="AO39" s="9">
         <f t="shared" si="51"/>
-        <v>0.80051925573345861</v>
+        <v>2.3300283286119043</v>
       </c>
       <c r="AP39" s="9">
         <f t="shared" si="52"/>
-        <v>0.80051925573345861</v>
+        <v>2.3300283286119043</v>
       </c>
       <c r="AQ39" s="9">
         <f t="shared" si="53"/>
-        <v>1.0231093940044325</v>
+        <v>0.54675064018270214</v>
       </c>
       <c r="AR39" s="9">
         <f t="shared" si="54"/>
-        <v>1.4135294966104075</v>
+        <v>0.14164305949008499</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="55"/>
@@ -7838,38 +7838,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40">
-        <v>187.5</v>
+        <v>187.15</v>
       </c>
       <c r="D40">
-        <v>180</v>
+        <v>182.15</v>
       </c>
       <c r="E40">
-        <v>181.05</v>
+        <v>185.7</v>
       </c>
       <c r="F40">
-        <v>-1.5999999999999941</v>
+        <v>1.75</v>
       </c>
       <c r="G40">
-        <v>-0.87599233506706498</v>
+        <v>0.95134547431367233</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="31"/>
-        <v>-2.1351351351351289</v>
+        <v>0.92391304347825465</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="32"/>
-        <v>2.1351351351351289</v>
+        <v>0.92391304347825465</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="33"/>
-        <v>1.3513513513513513</v>
+        <v>0.78082929456112926</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="34"/>
-        <v>0.5799502899751513</v>
+        <v>1.0054347826086927</v>
       </c>
       <c r="L40" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7900,38 +7900,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>180.5</v>
+        <v>182</v>
       </c>
       <c r="T40">
-        <v>184.2</v>
+        <v>184.65</v>
       </c>
       <c r="U40">
-        <v>178.75</v>
+        <v>179.5</v>
       </c>
       <c r="V40">
-        <v>182.65</v>
+        <v>183.95</v>
       </c>
       <c r="W40">
-        <v>2.1500000000000061</v>
+        <v>2.8999999999999768</v>
       </c>
       <c r="X40">
-        <v>1.191135734072025</v>
+        <v>1.6017674675503879</v>
       </c>
       <c r="Y40" s="9">
         <f t="shared" si="41"/>
-        <v>1.1911357340720252</v>
+        <v>1.0714285714285652</v>
       </c>
       <c r="Z40" s="9">
         <f t="shared" si="42"/>
-        <v>1.1911357340720252</v>
+        <v>1.0714285714285652</v>
       </c>
       <c r="AA40" s="9">
         <f t="shared" si="43"/>
-        <v>0.8486175745962129</v>
+        <v>0.3805381897254782</v>
       </c>
       <c r="AB40" s="9">
         <f t="shared" si="44"/>
-        <v>0.96952908587257614</v>
+        <v>1.3736263736263736</v>
       </c>
       <c r="AC40" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7958,38 +7958,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>177.5</v>
+        <v>185</v>
       </c>
       <c r="AJ40">
-        <v>183.85</v>
+        <v>187.5</v>
       </c>
       <c r="AK40">
-        <v>177.5</v>
+        <v>180</v>
       </c>
       <c r="AL40">
-        <v>180.5</v>
+        <v>181.05</v>
       </c>
       <c r="AM40">
-        <v>4.9000000000000057</v>
+        <v>-1.5999999999999941</v>
       </c>
       <c r="AN40">
-        <v>2.7904328018223268</v>
+        <v>-0.87599233506706498</v>
       </c>
       <c r="AO40" s="9">
         <f t="shared" si="51"/>
-        <v>1.6901408450704223</v>
+        <v>-2.1351351351351289</v>
       </c>
       <c r="AP40" s="9">
         <f t="shared" si="52"/>
-        <v>1.6901408450704223</v>
+        <v>2.1351351351351289</v>
       </c>
       <c r="AQ40" s="9">
         <f t="shared" si="53"/>
-        <v>1.8559556786703568</v>
+        <v>1.3513513513513513</v>
       </c>
       <c r="AR40" s="9">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.5799502899751513</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="55"/>
@@ -8021,38 +8021,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>108.9</v>
+        <v>109.3</v>
       </c>
       <c r="C41">
-        <v>110.05</v>
+        <v>110.75</v>
       </c>
       <c r="D41">
-        <v>106.8</v>
+        <v>107.9</v>
       </c>
       <c r="E41">
-        <v>107.25</v>
+        <v>108.85</v>
       </c>
       <c r="F41">
-        <v>-9.9999999999994316E-2</v>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="G41">
-        <v>-9.3153237074983075E-2</v>
+        <v>4.5955882352938557E-2</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="31"/>
-        <v>-1.5151515151515202</v>
+        <v>-0.4117108874656934</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="32"/>
-        <v>1.5151515151515202</v>
+        <v>0.4117108874656934</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="33"/>
-        <v>1.0560146923783209</v>
+        <v>1.326623970722784</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="34"/>
-        <v>0.41958041958042225</v>
+        <v>0.87276067983462435</v>
       </c>
       <c r="L41" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8083,38 +8083,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>107.25</v>
+        <v>107.7</v>
       </c>
       <c r="T41">
-        <v>108.4</v>
+        <v>109.4</v>
       </c>
       <c r="U41">
-        <v>105.85</v>
+        <v>106.5</v>
       </c>
       <c r="V41">
-        <v>107.35</v>
+        <v>108.8</v>
       </c>
       <c r="W41">
-        <v>9.9999999999994316E-2</v>
+        <v>1.5499999999999969</v>
       </c>
       <c r="X41">
-        <v>9.3240093240087932E-2</v>
+        <v>1.445221445221442</v>
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="41"/>
-        <v>9.3240093240087932E-2</v>
+        <v>1.0213556174558907</v>
       </c>
       <c r="Z41" s="9">
         <f t="shared" si="42"/>
-        <v>9.3240093240087932E-2</v>
+        <v>1.0213556174558907</v>
       </c>
       <c r="AA41" s="9">
         <f t="shared" si="43"/>
-        <v>0.97810898928738843</v>
+        <v>0.55147058823530193</v>
       </c>
       <c r="AB41" s="9">
         <f t="shared" si="44"/>
-        <v>1.3053613053613107</v>
+        <v>1.1142061281337075</v>
       </c>
       <c r="AC41" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8141,38 +8141,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>107</v>
+        <v>108.9</v>
       </c>
       <c r="AJ41">
-        <v>108.55</v>
+        <v>110.05</v>
       </c>
       <c r="AK41">
-        <v>105.5</v>
+        <v>106.8</v>
       </c>
       <c r="AL41">
         <v>107.25</v>
       </c>
       <c r="AM41">
-        <v>0.79999999999999716</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="AN41">
-        <v>0.75152653828088034</v>
+        <v>-9.3153237074983075E-2</v>
       </c>
       <c r="AO41" s="9">
         <f t="shared" si="51"/>
-        <v>0.23364485981308408</v>
+        <v>-1.5151515151515202</v>
       </c>
       <c r="AP41" s="9">
         <f t="shared" si="52"/>
-        <v>0.23364485981308408</v>
+        <v>1.5151515151515202</v>
       </c>
       <c r="AQ41" s="9">
         <f t="shared" si="53"/>
-        <v>1.2121212121212095</v>
+        <v>1.0560146923783209</v>
       </c>
       <c r="AR41" s="9">
         <f t="shared" si="54"/>
-        <v>1.4018691588785046</v>
+        <v>0.41958041958042225</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="55"/>
@@ -8204,38 +8204,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>39.35</v>
+        <v>39.1</v>
       </c>
       <c r="C42">
-        <v>40.200000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D42">
-        <v>39.1</v>
+        <v>37.9</v>
       </c>
       <c r="E42">
-        <v>39.549999999999997</v>
+        <v>38</v>
       </c>
       <c r="F42">
-        <v>0.64999999999999858</v>
+        <v>-1.4500000000000031</v>
       </c>
       <c r="G42">
-        <v>1.6709511568123361</v>
+        <v>-3.675538656527257</v>
       </c>
       <c r="H42" s="9">
         <f t="shared" si="31"/>
-        <v>0.50825921219821024</v>
+        <v>-2.8132992327365764</v>
       </c>
       <c r="I42" s="9">
         <f t="shared" si="32"/>
-        <v>0.50825921219821024</v>
+        <v>2.8132992327365764</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="33"/>
-        <v>1.6434892541087376</v>
+        <v>1.5345268542199524</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="34"/>
-        <v>0.63532401524777637</v>
+        <v>0.26315789473684581</v>
       </c>
       <c r="L42" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8266,38 +8266,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
       <c r="T42">
-        <v>39.200000000000003</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="U42">
-        <v>38</v>
+        <v>38.25</v>
       </c>
       <c r="V42">
-        <v>38.9</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="W42">
-        <v>0.39999999999999858</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="X42">
-        <v>1.0389610389610351</v>
+        <v>-0.2528445006320969</v>
       </c>
       <c r="Y42" s="9">
         <f t="shared" si="41"/>
-        <v>1.0389610389610353</v>
+        <v>-0.12658227848100545</v>
       </c>
       <c r="Z42" s="9">
         <f t="shared" si="42"/>
-        <v>1.0389610389610353</v>
+        <v>0.12658227848100545</v>
       </c>
       <c r="AA42" s="9">
         <f t="shared" si="43"/>
-        <v>0.77120822622109064</v>
+        <v>1.1392405063291211</v>
       </c>
       <c r="AB42" s="9">
         <f t="shared" si="44"/>
-        <v>1.2987012987012987</v>
+        <v>3.0418250950570411</v>
       </c>
       <c r="AC42" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8324,38 +8324,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>39.65</v>
+        <v>39.35</v>
       </c>
       <c r="AJ42">
-        <v>39.9</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="AK42">
-        <v>37.75</v>
+        <v>39.1</v>
       </c>
       <c r="AL42">
-        <v>38.5</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="AM42">
-        <v>-0.85000000000000142</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="AN42">
-        <v>-2.1601016518424432</v>
+        <v>1.6709511568123361</v>
       </c>
       <c r="AO42" s="9">
         <f t="shared" si="51"/>
-        <v>-2.9003783102143723</v>
+        <v>0.50825921219821024</v>
       </c>
       <c r="AP42" s="9">
         <f t="shared" si="52"/>
-        <v>2.9003783102143723</v>
+        <v>0.50825921219821024</v>
       </c>
       <c r="AQ42" s="9">
         <f t="shared" si="53"/>
-        <v>0.63051702395964693</v>
+        <v>1.6434892541087376</v>
       </c>
       <c r="AR42" s="9">
         <f t="shared" si="54"/>
-        <v>1.948051948051948</v>
+        <v>0.63532401524777637</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="55"/>
@@ -8387,38 +8387,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>4234.45</v>
+        <v>4348</v>
       </c>
       <c r="C43">
-        <v>4369.95</v>
+        <v>4384</v>
       </c>
       <c r="D43">
-        <v>4223</v>
+        <v>4320.1499999999996</v>
       </c>
       <c r="E43">
-        <v>4330.3</v>
+        <v>4346.75</v>
       </c>
       <c r="F43">
-        <v>124.25</v>
+        <v>30.300000000000178</v>
       </c>
       <c r="G43">
-        <v>2.9540780542314051</v>
+        <v>0.70196573573191356</v>
       </c>
       <c r="H43" s="9">
         <f t="shared" si="31"/>
-        <v>2.2635761433007917</v>
+        <v>-2.874885004599816E-2</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" si="32"/>
-        <v>2.2635761433007917</v>
+        <v>2.874885004599816E-2</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="33"/>
-        <v>0.91564094866405632</v>
+        <v>0.82796688132474694</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="34"/>
-        <v>0.27040111466659938</v>
+        <v>0.61195145798585993</v>
       </c>
       <c r="L43" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8449,38 +8449,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>4140.8</v>
+        <v>4384</v>
       </c>
       <c r="T43">
-        <v>4219</v>
+        <v>4384</v>
       </c>
       <c r="U43">
-        <v>4115</v>
+        <v>4278</v>
       </c>
       <c r="V43">
-        <v>4206.05</v>
+        <v>4316.45</v>
       </c>
       <c r="W43">
-        <v>88.050000000000182</v>
+        <v>-13.85000000000036</v>
       </c>
       <c r="X43">
-        <v>2.138173870811078</v>
+        <v>-0.3198392721058671</v>
       </c>
       <c r="Y43" s="9">
         <f t="shared" si="41"/>
-        <v>1.5757824574961359</v>
+        <v>-1.540830291970807</v>
       </c>
       <c r="Z43" s="9">
         <f t="shared" si="42"/>
-        <v>1.5757824574961359</v>
+        <v>1.540830291970807</v>
       </c>
       <c r="AA43" s="9">
         <f t="shared" si="43"/>
-        <v>0.30788982537059278</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="9">
         <f t="shared" si="44"/>
-        <v>0.62306800618238456</v>
+        <v>0.8907783016135904</v>
       </c>
       <c r="AC43" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8507,38 +8507,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>4160</v>
+        <v>4234.45</v>
       </c>
       <c r="AJ43">
-        <v>4220</v>
+        <v>4369.95</v>
       </c>
       <c r="AK43">
-        <v>4093.05</v>
+        <v>4223</v>
       </c>
       <c r="AL43">
-        <v>4118</v>
+        <v>4330.3</v>
       </c>
       <c r="AM43">
-        <v>-5.5500000000001819</v>
+        <v>124.25</v>
       </c>
       <c r="AN43">
-        <v>-0.13459276594197189</v>
+        <v>2.9540780542314051</v>
       </c>
       <c r="AO43" s="9">
         <f t="shared" si="51"/>
-        <v>-1.0096153846153846</v>
+        <v>2.2635761433007917</v>
       </c>
       <c r="AP43" s="9">
         <f t="shared" si="52"/>
-        <v>1.0096153846153846</v>
+        <v>2.2635761433007917</v>
       </c>
       <c r="AQ43" s="9">
         <f t="shared" si="53"/>
-        <v>1.4423076923076923</v>
+        <v>0.91564094866405632</v>
       </c>
       <c r="AR43" s="9">
         <f t="shared" si="54"/>
-        <v>0.60587663914521173</v>
+        <v>0.27040111466659938</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="55"/>
@@ -8570,38 +8570,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>489</v>
+        <v>496.5</v>
       </c>
       <c r="C44">
-        <v>508.25</v>
+        <v>497.8</v>
       </c>
       <c r="D44">
-        <v>489</v>
+        <v>462.2</v>
       </c>
       <c r="E44">
-        <v>499.35</v>
+        <v>479.05</v>
       </c>
       <c r="F44">
-        <v>12.450000000000051</v>
+        <v>-16.800000000000011</v>
       </c>
       <c r="G44">
-        <v>2.5569932224276131</v>
+        <v>-3.3881214076837769</v>
       </c>
       <c r="H44" s="9">
         <f t="shared" si="31"/>
-        <v>2.1165644171779188</v>
+        <v>-3.5146022155085577</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="32"/>
-        <v>2.1165644171779188</v>
+        <v>3.5146022155085577</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="33"/>
-        <v>1.7823170121157459</v>
+        <v>0.2618328298086629</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3.5173781442438203</v>
       </c>
       <c r="L44" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8632,38 +8632,38 @@
         <v>#REF!</v>
       </c>
       <c r="S44">
-        <v>479</v>
+        <v>502.95</v>
       </c>
       <c r="T44">
-        <v>492.4</v>
+        <v>505.95</v>
       </c>
       <c r="U44">
-        <v>475.9</v>
+        <v>494.65</v>
       </c>
       <c r="V44">
-        <v>486.9</v>
+        <v>495.85</v>
       </c>
       <c r="W44">
-        <v>6.3499999999999659</v>
+        <v>-3.5</v>
       </c>
       <c r="X44">
-        <v>1.321402559567155</v>
+        <v>-0.70091118453990187</v>
       </c>
       <c r="Y44" s="9">
         <f t="shared" si="41"/>
-        <v>1.6492693110647134</v>
+        <v>-1.4116711402723863</v>
       </c>
       <c r="Z44" s="9">
         <f t="shared" si="42"/>
-        <v>1.6492693110647134</v>
+        <v>1.4116711402723863</v>
       </c>
       <c r="AA44" s="9">
         <f t="shared" si="43"/>
-        <v>1.1295953994660095</v>
+        <v>0.59648076349537726</v>
       </c>
       <c r="AB44" s="9">
         <f t="shared" si="44"/>
-        <v>0.64718162839248905</v>
+        <v>0.24200867197742168</v>
       </c>
       <c r="AC44" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8690,38 +8690,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>470.85</v>
+        <v>489</v>
       </c>
       <c r="AJ44">
-        <v>501.7</v>
+        <v>508.25</v>
       </c>
       <c r="AK44">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="AL44">
-        <v>480.55</v>
+        <v>499.35</v>
       </c>
       <c r="AM44">
-        <v>16.100000000000019</v>
+        <v>12.450000000000051</v>
       </c>
       <c r="AN44">
-        <v>3.466465712132635</v>
+        <v>2.5569932224276131</v>
       </c>
       <c r="AO44" s="9">
         <f t="shared" si="51"/>
-        <v>2.060104067112666</v>
+        <v>2.1165644171779188</v>
       </c>
       <c r="AP44" s="9">
         <f t="shared" si="52"/>
-        <v>2.060104067112666</v>
+        <v>2.1165644171779188</v>
       </c>
       <c r="AQ44" s="9">
         <f t="shared" si="53"/>
-        <v>4.4012069503693638</v>
+        <v>1.7823170121157459</v>
       </c>
       <c r="AR44" s="9">
         <f t="shared" si="54"/>
-        <v>0.39290644578953438</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="55"/>
@@ -8753,38 +8753,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>56.9</v>
+        <v>58.05</v>
       </c>
       <c r="C45">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="D45">
-        <v>56.45</v>
+        <v>56.55</v>
       </c>
       <c r="E45">
-        <v>57.1</v>
+        <v>56.8</v>
       </c>
       <c r="F45">
-        <v>0.39999999999999858</v>
+        <v>-0.95000000000000284</v>
       </c>
       <c r="G45">
-        <v>0.70546737213403621</v>
+        <v>-1.6450216450216499</v>
       </c>
       <c r="H45" s="9">
         <f t="shared" si="31"/>
-        <v>0.35149384885765</v>
+        <v>-2.1533161068044793</v>
       </c>
       <c r="I45" s="9">
         <f t="shared" si="32"/>
-        <v>0.35149384885765</v>
+        <v>2.1533161068044793</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" si="33"/>
-        <v>2.2767075306479807</v>
+        <v>0.4306632213608958</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="34"/>
-        <v>0.79086115992969375</v>
+        <v>0.44014084507042256</v>
       </c>
       <c r="L45" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8815,38 +8815,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>55</v>
+        <v>57.45</v>
       </c>
       <c r="T45">
-        <v>57.15</v>
+        <v>58.75</v>
       </c>
       <c r="U45">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="V45">
-        <v>56.7</v>
+        <v>57.75</v>
       </c>
       <c r="W45">
-        <v>1.25</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="X45">
-        <v>2.254283137962128</v>
+        <v>1.1383537653239899</v>
       </c>
       <c r="Y45" s="9">
         <f t="shared" si="41"/>
-        <v>3.0909090909090962</v>
+        <v>0.52219321148824571</v>
       </c>
       <c r="Z45" s="9">
         <f t="shared" si="42"/>
-        <v>3.0909090909090962</v>
+        <v>0.52219321148824571</v>
       </c>
       <c r="AA45" s="9">
         <f t="shared" si="43"/>
-        <v>0.79365079365078617</v>
+        <v>1.7316017316017316</v>
       </c>
       <c r="AB45" s="9">
         <f t="shared" si="44"/>
-        <v>0.36363636363636881</v>
+        <v>0.60922541340296155</v>
       </c>
       <c r="AC45" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8873,38 +8873,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
+        <v>56.9</v>
+      </c>
+      <c r="AJ45">
+        <v>58.4</v>
+      </c>
+      <c r="AK45">
         <v>56.45</v>
       </c>
-      <c r="AJ45">
-        <v>57.2</v>
-      </c>
-      <c r="AK45">
-        <v>54.7</v>
-      </c>
       <c r="AL45">
-        <v>55.45</v>
+        <v>57.1</v>
       </c>
       <c r="AM45">
-        <v>-0.19999999999999571</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="AN45">
-        <v>-0.35938903863431398</v>
+        <v>0.70546737213403621</v>
       </c>
       <c r="AO45" s="9">
         <f t="shared" si="51"/>
-        <v>-1.7714791851195746</v>
+        <v>0.35149384885765</v>
       </c>
       <c r="AP45" s="9">
         <f t="shared" si="52"/>
-        <v>1.7714791851195746</v>
+        <v>0.35149384885765</v>
       </c>
       <c r="AQ45" s="9">
         <f t="shared" si="53"/>
-        <v>1.328609388839681</v>
+        <v>2.2767075306479807</v>
       </c>
       <c r="AR45" s="9">
         <f t="shared" si="54"/>
-        <v>1.3525698827772767</v>
+        <v>0.79086115992969375</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="55"/>
@@ -8936,38 +8936,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>2846</v>
+        <v>2822.55</v>
       </c>
       <c r="C46">
-        <v>2858.85</v>
+        <v>2864.8</v>
       </c>
       <c r="D46">
-        <v>2781.15</v>
+        <v>2817.35</v>
       </c>
       <c r="E46">
-        <v>2797.55</v>
+        <v>2843.05</v>
       </c>
       <c r="F46">
-        <v>-39.649999999999643</v>
+        <v>-7.4499999999998181</v>
       </c>
       <c r="G46">
-        <v>-1.3975045819822229</v>
+        <v>-0.2613576565514758</v>
       </c>
       <c r="H46" s="9">
         <f t="shared" si="31"/>
-        <v>-1.7023893183415257</v>
+        <v>0.72629359975908303</v>
       </c>
       <c r="I46" s="9">
         <f t="shared" si="32"/>
-        <v>1.7023893183415257</v>
+        <v>0.72629359975908303</v>
       </c>
       <c r="J46" s="9">
         <f t="shared" si="33"/>
-        <v>0.45151089248067144</v>
+        <v>0.76502347830674799</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="34"/>
-        <v>0.58622723454451531</v>
+        <v>0.18423057164621609</v>
       </c>
       <c r="L46" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8998,38 +8998,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="T46">
-        <v>2841.95</v>
+        <v>2887.9</v>
       </c>
       <c r="U46">
-        <v>2811</v>
+        <v>2800</v>
       </c>
       <c r="V46">
-        <v>2837.2</v>
+        <v>2850.5</v>
       </c>
       <c r="W46">
-        <v>22.64999999999964</v>
+        <v>52.949999999999818</v>
       </c>
       <c r="X46">
-        <v>0.80474676235986697</v>
+        <v>1.8927275651909641</v>
       </c>
       <c r="Y46" s="9">
         <f t="shared" si="41"/>
-        <v>0.78863232682059736</v>
+        <v>1.8035714285714286</v>
       </c>
       <c r="Z46" s="9">
         <f t="shared" si="42"/>
-        <v>0.78863232682059736</v>
+        <v>1.8035714285714286</v>
       </c>
       <c r="AA46" s="9">
         <f t="shared" si="43"/>
-        <v>0.16741858170026788</v>
+        <v>1.3120505174530817</v>
       </c>
       <c r="AB46" s="9">
         <f t="shared" si="44"/>
-        <v>0.14209591474245115</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="AF46" s="9" t="str">
         <f t="shared" si="48"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AG46" s="9" t="str">
         <f t="shared" si="49"/>
@@ -9056,38 +9056,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="AJ46">
-        <v>2852.95</v>
+        <v>2858.85</v>
       </c>
       <c r="AK46">
-        <v>2796.05</v>
+        <v>2781.15</v>
       </c>
       <c r="AL46">
-        <v>2814.55</v>
+        <v>2797.55</v>
       </c>
       <c r="AM46">
-        <v>6.75</v>
+        <v>-39.649999999999643</v>
       </c>
       <c r="AN46">
-        <v>0.24040173801552811</v>
+        <v>-1.3975045819822229</v>
       </c>
       <c r="AO46" s="9">
         <f t="shared" si="51"/>
-        <v>-1.2438596491228007</v>
+        <v>-1.7023893183415257</v>
       </c>
       <c r="AP46" s="9">
         <f t="shared" si="52"/>
-        <v>1.2438596491228007</v>
+        <v>1.7023893183415257</v>
       </c>
       <c r="AQ46" s="9">
         <f t="shared" si="53"/>
-        <v>0.10350877192981818</v>
+        <v>0.45151089248067144</v>
       </c>
       <c r="AR46" s="9">
         <f t="shared" si="54"/>
-        <v>0.65729868007319103</v>
+        <v>0.58622723454451531</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="55"/>
@@ -9119,38 +9119,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>325.35000000000002</v>
+        <v>334.8</v>
       </c>
       <c r="C47">
-        <v>331.65</v>
+        <v>338</v>
       </c>
       <c r="D47">
-        <v>323.10000000000002</v>
+        <v>326.5</v>
       </c>
       <c r="E47">
-        <v>326.55</v>
+        <v>327.55</v>
       </c>
       <c r="F47">
-        <v>1.75</v>
+        <v>-4.6999999999999886</v>
       </c>
       <c r="G47">
-        <v>0.5387931034482758</v>
+        <v>-1.4145974416854741</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="31"/>
-        <v>0.36883356385430721</v>
+        <v>-2.1654719235364399</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="32"/>
-        <v>0.36883356385430721</v>
+        <v>2.1654719235364399</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="33"/>
-        <v>1.5617822691777572</v>
+        <v>0.95579450418159762</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="34"/>
-        <v>0.69156293222683263</v>
+        <v>0.32056174629827855</v>
       </c>
       <c r="L47" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9181,38 +9181,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>325.75</v>
+        <v>328.1</v>
       </c>
       <c r="T47">
-        <v>326.3</v>
+        <v>335.5</v>
       </c>
       <c r="U47">
-        <v>322.75</v>
+        <v>328</v>
       </c>
       <c r="V47">
-        <v>324.8</v>
+        <v>332.25</v>
       </c>
       <c r="W47">
-        <v>-0.94999999999998863</v>
+        <v>5.6999999999999886</v>
       </c>
       <c r="X47">
-        <v>-0.29163468917881458</v>
+        <v>1.745521359669266</v>
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="41"/>
-        <v>-0.29163468917881463</v>
+        <v>1.2648582749161772</v>
       </c>
       <c r="Z47" s="9">
         <f t="shared" si="42"/>
-        <v>0.29163468917881463</v>
+        <v>1.2648582749161772</v>
       </c>
       <c r="AA47" s="9">
         <f t="shared" si="43"/>
-        <v>0.16884113584037186</v>
+        <v>0.97817908201655379</v>
       </c>
       <c r="AB47" s="9">
         <f t="shared" si="44"/>
-        <v>0.63115763546798376</v>
+        <v>3.0478512648589674E-2</v>
       </c>
       <c r="AC47" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9239,38 +9239,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>327</v>
+        <v>325.35000000000002</v>
       </c>
       <c r="AJ47">
-        <v>329</v>
+        <v>331.65</v>
       </c>
       <c r="AK47">
-        <v>322.5</v>
+        <v>323.10000000000002</v>
       </c>
       <c r="AL47">
-        <v>325.75</v>
+        <v>326.55</v>
       </c>
       <c r="AM47">
-        <v>0.30000000000001142</v>
+        <v>1.75</v>
       </c>
       <c r="AN47">
-        <v>9.2180058380707128E-2</v>
+        <v>0.5387931034482758</v>
       </c>
       <c r="AO47" s="9">
         <f t="shared" si="51"/>
-        <v>-0.38226299694189603</v>
+        <v>0.36883356385430721</v>
       </c>
       <c r="AP47" s="9">
         <f t="shared" si="52"/>
-        <v>0.38226299694189603</v>
+        <v>0.36883356385430721</v>
       </c>
       <c r="AQ47" s="9">
         <f t="shared" si="53"/>
-        <v>0.6116207951070336</v>
+        <v>1.5617822691777572</v>
       </c>
       <c r="AR47" s="9">
         <f t="shared" si="54"/>
-        <v>0.9976976208749041</v>
+        <v>0.69156293222683263</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="55"/>
@@ -9302,38 +9302,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>448.2</v>
+        <v>455.45</v>
       </c>
       <c r="C48">
-        <v>458.9</v>
+        <v>472</v>
       </c>
       <c r="D48">
-        <v>446.25</v>
+        <v>453.8</v>
       </c>
       <c r="E48">
-        <v>456.6</v>
+        <v>462.15</v>
       </c>
       <c r="F48">
-        <v>12.350000000000019</v>
+        <v>6.6999999999999886</v>
       </c>
       <c r="G48">
-        <v>2.779966235227918</v>
+        <v>1.471072565594465</v>
       </c>
       <c r="H48" s="9">
         <f t="shared" si="31"/>
-        <v>1.8741633199464602</v>
+        <v>1.4710725655944645</v>
       </c>
       <c r="I48" s="9">
         <f t="shared" si="32"/>
-        <v>1.8741633199464602</v>
+        <v>1.4710725655944645</v>
       </c>
       <c r="J48" s="9">
         <f t="shared" si="33"/>
-        <v>0.5037231712658683</v>
+        <v>2.1313426376717568</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="34"/>
-        <v>0.43507362784470971</v>
+        <v>0.36227906466131898</v>
       </c>
       <c r="L48" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9364,38 +9364,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="T48">
-        <v>446.95</v>
+        <v>460</v>
       </c>
       <c r="U48">
-        <v>435</v>
+        <v>447.65</v>
       </c>
       <c r="V48">
-        <v>444.25</v>
+        <v>455.45</v>
       </c>
       <c r="W48">
-        <v>6.3500000000000227</v>
+        <v>-1.1500000000000341</v>
       </c>
       <c r="X48">
-        <v>1.450102763187948</v>
+        <v>-0.25186158563294658</v>
       </c>
       <c r="Y48" s="9">
         <f t="shared" si="41"/>
-        <v>2.1264367816091956</v>
+        <v>-0.55676855895196753</v>
       </c>
       <c r="Z48" s="9">
         <f t="shared" si="42"/>
-        <v>2.1264367816091956</v>
+        <v>0.55676855895196753</v>
       </c>
       <c r="AA48" s="9">
         <f t="shared" si="43"/>
-        <v>0.60776589758018873</v>
+        <v>0.43668122270742354</v>
       </c>
       <c r="AB48" s="9">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1.7125919420353524</v>
       </c>
       <c r="AC48" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9422,38 +9422,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>445.7</v>
+        <v>448.2</v>
       </c>
       <c r="AJ48">
-        <v>445.7</v>
+        <v>458.9</v>
       </c>
       <c r="AK48">
-        <v>430.2</v>
+        <v>446.25</v>
       </c>
       <c r="AL48">
-        <v>437.9</v>
+        <v>456.6</v>
       </c>
       <c r="AM48">
-        <v>-0.25</v>
+        <v>12.350000000000019</v>
       </c>
       <c r="AN48">
-        <v>-5.7058085130663017E-2</v>
+        <v>2.779966235227918</v>
       </c>
       <c r="AO48" s="9">
         <f t="shared" si="51"/>
-        <v>-1.7500560915413983</v>
+        <v>1.8741633199464602</v>
       </c>
       <c r="AP48" s="9">
         <f t="shared" si="52"/>
-        <v>1.7500560915413983</v>
+        <v>1.8741633199464602</v>
       </c>
       <c r="AQ48" s="9">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.5037231712658683</v>
       </c>
       <c r="AR48" s="9">
         <f t="shared" si="54"/>
-        <v>1.7583923270152977</v>
+        <v>0.43507362784470971</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="55"/>
@@ -9485,38 +9485,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
       <c r="C49">
-        <v>28.95</v>
+        <v>28.35</v>
       </c>
       <c r="D49">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="E49">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="F49">
-        <v>-4.9999999999997158E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="G49">
-        <v>-0.17452006980801801</v>
+        <v>-0.88809946714031984</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="31"/>
-        <v>-0.34843205574912151</v>
+        <v>-1.0638297872340452</v>
       </c>
       <c r="I49" s="9">
         <f t="shared" si="32"/>
-        <v>0.34843205574912151</v>
+        <v>1.0638297872340452</v>
       </c>
       <c r="J49" s="9">
         <f t="shared" si="33"/>
-        <v>0.87108013937282225</v>
+        <v>0.53191489361702882</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="34"/>
-        <v>0.34965034965035457</v>
+        <v>2.1505376344085949</v>
       </c>
       <c r="L49" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9547,38 +9547,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T49">
-        <v>29.15</v>
+        <v>28.9</v>
       </c>
       <c r="U49">
-        <v>28.4</v>
+        <v>27.8</v>
       </c>
       <c r="V49">
-        <v>28.65</v>
+        <v>28.15</v>
       </c>
       <c r="W49">
-        <v>-0.1500000000000021</v>
+        <v>-0.45000000000000279</v>
       </c>
       <c r="X49">
-        <v>-0.52083333333334081</v>
+        <v>-1.5734265734265831</v>
       </c>
       <c r="Y49" s="9">
         <f t="shared" si="41"/>
-        <v>-0.52083333333334081</v>
+        <v>-2.5951557093425608</v>
       </c>
       <c r="Z49" s="9">
         <f t="shared" si="42"/>
-        <v>0.52083333333334081</v>
+        <v>2.5951557093425608</v>
       </c>
       <c r="AA49" s="9">
         <f t="shared" si="43"/>
-        <v>1.2152777777777704</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="9">
         <f t="shared" si="44"/>
-        <v>0.87260034904013961</v>
+        <v>1.2433392539964401</v>
       </c>
       <c r="AC49" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9605,38 +9605,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>28.35</v>
+        <v>28.7</v>
       </c>
       <c r="AJ49">
-        <v>29.15</v>
+        <v>28.95</v>
       </c>
       <c r="AK49">
-        <v>28.35</v>
+        <v>28.5</v>
       </c>
       <c r="AL49">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="AM49">
-        <v>0.55000000000000071</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="AN49">
-        <v>1.946902654867259</v>
+        <v>-0.17452006980801801</v>
       </c>
       <c r="AO49" s="9">
         <f t="shared" si="51"/>
-        <v>1.5873015873015848</v>
+        <v>-0.34843205574912151</v>
       </c>
       <c r="AP49" s="9">
         <f t="shared" si="52"/>
-        <v>1.5873015873015848</v>
+        <v>0.34843205574912151</v>
       </c>
       <c r="AQ49" s="9">
         <f t="shared" si="53"/>
-        <v>1.2152777777777704</v>
+        <v>0.87108013937282225</v>
       </c>
       <c r="AR49" s="9">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.34965034965035457</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="55"/>
@@ -9668,38 +9668,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>662.4</v>
+        <v>682</v>
       </c>
       <c r="C50">
-        <v>699.6</v>
+        <v>694.7</v>
       </c>
       <c r="D50">
-        <v>662.4</v>
+        <v>680.95</v>
       </c>
       <c r="E50">
-        <v>685.6</v>
+        <v>686.8</v>
       </c>
       <c r="F50">
-        <v>29.149999999999981</v>
+        <v>7.4499999999999318</v>
       </c>
       <c r="G50">
-        <v>4.4405514509863622</v>
+        <v>1.0966364907632189</v>
       </c>
       <c r="H50" s="9">
         <f t="shared" si="31"/>
-        <v>3.5024154589372052</v>
+        <v>0.70381231671553579</v>
       </c>
       <c r="I50" s="9">
         <f t="shared" si="32"/>
-        <v>3.5024154589372052</v>
+        <v>0.70381231671553579</v>
       </c>
       <c r="J50" s="9">
         <f t="shared" si="33"/>
-        <v>2.0420070011668612</v>
+        <v>1.150262085032046</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.15395894428151827</v>
       </c>
       <c r="L50" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9730,42 +9730,42 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>645</v>
+        <v>692.45</v>
       </c>
       <c r="T50">
-        <v>662</v>
+        <v>692.5</v>
       </c>
       <c r="U50">
-        <v>643.65</v>
+        <v>678</v>
       </c>
       <c r="V50">
-        <v>656.45</v>
+        <v>679.35</v>
       </c>
       <c r="W50">
-        <v>7.3000000000000682</v>
+        <v>-6.25</v>
       </c>
       <c r="X50">
-        <v>1.1245474851729289</v>
+        <v>-0.91161026837806303</v>
       </c>
       <c r="Y50" s="9">
         <f t="shared" si="41"/>
-        <v>1.7751937984496196</v>
+        <v>-1.8918333453678997</v>
       </c>
       <c r="Z50" s="9">
         <f t="shared" si="42"/>
-        <v>1.7751937984496196</v>
+        <v>1.8918333453678997</v>
       </c>
       <c r="AA50" s="9">
         <f t="shared" si="43"/>
-        <v>0.84545662274353783</v>
+        <v>7.2207379594128847E-3</v>
       </c>
       <c r="AB50" s="9">
         <f t="shared" si="44"/>
-        <v>0.20930232558139888</v>
+        <v>0.19871936409803825</v>
       </c>
       <c r="AC50" s="9" t="str">
         <f t="shared" si="45"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AD50" s="9" t="str">
         <f t="shared" si="46"/>
@@ -9788,38 +9788,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>654.9</v>
+        <v>662.4</v>
       </c>
       <c r="AJ50">
-        <v>658.25</v>
+        <v>699.6</v>
       </c>
       <c r="AK50">
-        <v>643.5</v>
+        <v>662.4</v>
       </c>
       <c r="AL50">
-        <v>649.15</v>
+        <v>685.6</v>
       </c>
       <c r="AM50">
-        <v>-1.149999999999977</v>
+        <v>29.149999999999981</v>
       </c>
       <c r="AN50">
-        <v>-0.17684145778870941</v>
+        <v>4.4405514509863622</v>
       </c>
       <c r="AO50" s="9">
         <f t="shared" si="51"/>
-        <v>-0.87799664070850514</v>
+        <v>3.5024154589372052</v>
       </c>
       <c r="AP50" s="9">
         <f t="shared" si="52"/>
-        <v>0.87799664070850514</v>
+        <v>3.5024154589372052</v>
       </c>
       <c r="AQ50" s="9">
         <f t="shared" si="53"/>
-        <v>0.51152847763017606</v>
+        <v>2.0420070011668612</v>
       </c>
       <c r="AR50" s="9">
         <f t="shared" si="54"/>
-        <v>0.87036894400369358</v>
+        <v>0</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="55"/>

--- a/techniqo/candlepattern/midcap_50.xlsx
+++ b/techniqo/candlepattern/midcap_50.xlsx
@@ -691,7 +691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,38 +884,38 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>37.200000000000003</v>
+        <v>37</v>
       </c>
       <c r="C2">
+        <v>37.75</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
         <v>37.4</v>
       </c>
-      <c r="D2">
-        <v>37.1</v>
-      </c>
-      <c r="E2">
-        <v>37.15</v>
-      </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.0810810810810769</v>
       </c>
       <c r="H2" s="9">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>-0.13440860215054909</v>
+        <v>1.0810810810810774</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>0.13440860215054909</v>
+        <v>1.0810810810810774</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>0.53763440860213907</v>
+        <v>0.93582887700535156</v>
       </c>
       <c r="K2" s="9">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0.13458950201883488</v>
+        <v>0</v>
       </c>
       <c r="L2" s="9" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
@@ -946,38 +946,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
+        <v>37.1</v>
+      </c>
+      <c r="T2">
         <v>37.299999999999997</v>
       </c>
-      <c r="T2">
-        <v>37.6</v>
-      </c>
       <c r="U2">
-        <v>37.1</v>
+        <v>36.85</v>
       </c>
       <c r="V2">
-        <v>37.15</v>
+        <v>37</v>
       </c>
       <c r="W2">
-        <v>-0.10000000000000139</v>
+        <v>-0.14999999999999861</v>
       </c>
       <c r="X2">
-        <v>-0.26845637583893001</v>
+        <v>-0.40376850605652381</v>
       </c>
       <c r="Y2" s="9">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>-0.40214477211795868</v>
+        <v>-0.26954177897574505</v>
       </c>
       <c r="Z2" s="9">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>0.40214477211795868</v>
+        <v>0.26954177897574505</v>
       </c>
       <c r="AA2" s="9">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.80428954423593635</v>
+        <v>0.539083557951471</v>
       </c>
       <c r="AB2" s="9">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>0.13458950201883488</v>
+        <v>0.40540540540540154</v>
       </c>
       <c r="AC2" s="9" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -1004,38 +1004,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>37.700000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AJ2">
-        <v>37.799999999999997</v>
+        <v>37.4</v>
       </c>
       <c r="AK2">
         <v>37.1</v>
       </c>
       <c r="AL2">
-        <v>37.25</v>
+        <v>37.15</v>
       </c>
       <c r="AM2">
-        <v>-0.14999999999999861</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-0.40106951871657381</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="9">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>-1.1936339522546493</v>
+        <v>-0.13440860215054909</v>
       </c>
       <c r="AP2" s="9">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>1.1936339522546493</v>
+        <v>0.13440860215054909</v>
       </c>
       <c r="AQ2" s="9">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>0.2652519893899053</v>
+        <v>0.53763440860213907</v>
       </c>
       <c r="AR2" s="9">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0.40268456375838546</v>
+        <v>0.13458950201883488</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1067,38 +1067,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>780.4</v>
+        <v>780.95</v>
       </c>
       <c r="C3">
-        <v>793.6</v>
+        <v>786.45</v>
       </c>
       <c r="D3">
-        <v>771.3</v>
+        <v>756.6</v>
       </c>
       <c r="E3">
-        <v>776.9</v>
+        <v>762.6</v>
       </c>
       <c r="F3">
-        <v>-5.8000000000000682</v>
+        <v>-12.600000000000019</v>
       </c>
       <c r="G3">
-        <v>-0.74102465823432573</v>
+        <v>-1.625386996904028</v>
       </c>
       <c r="H3" s="9">
         <f t="shared" si="0"/>
-        <v>-0.44848795489492571</v>
+        <v>-2.349702285677703</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" si="1"/>
-        <v>0.44848795489492571</v>
+        <v>2.349702285677703</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" si="2"/>
-        <v>1.6914402870322969</v>
+        <v>0.70427043984890192</v>
       </c>
       <c r="K3" s="9">
         <f t="shared" si="3"/>
-        <v>0.72081348950959234</v>
+        <v>0.78678206136900075</v>
       </c>
       <c r="L3" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1129,38 +1129,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>769.45</v>
+        <v>770</v>
       </c>
       <c r="T3">
-        <v>784.95</v>
+        <v>780.65</v>
       </c>
       <c r="U3">
-        <v>762</v>
+        <v>762.35</v>
       </c>
       <c r="V3">
-        <v>782.7</v>
+        <v>775.2</v>
       </c>
       <c r="W3">
-        <v>21.200000000000049</v>
+        <v>-1.699999999999932</v>
       </c>
       <c r="X3">
-        <v>2.7839789888378261</v>
+        <v>-0.21881838074397369</v>
       </c>
       <c r="Y3" s="9">
         <f t="shared" si="11"/>
-        <v>1.7220092273701995</v>
+        <v>0.67532467532468121</v>
       </c>
       <c r="Z3" s="9">
         <f t="shared" si="12"/>
-        <v>1.7220092273701995</v>
+        <v>0.67532467532468121</v>
       </c>
       <c r="AA3" s="9">
         <f t="shared" si="13"/>
-        <v>0.28746646224607125</v>
+        <v>0.70304437564498601</v>
       </c>
       <c r="AB3" s="9">
         <f t="shared" si="14"/>
-        <v>0.96822405614400486</v>
+        <v>0.99350649350649056</v>
       </c>
       <c r="AC3" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="AF3" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG3" s="9" t="str">
         <f t="shared" si="19"/>
@@ -1187,38 +1187,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>752</v>
+        <v>780.4</v>
       </c>
       <c r="AJ3">
-        <v>783</v>
+        <v>793.6</v>
       </c>
       <c r="AK3">
-        <v>749.55</v>
+        <v>771.3</v>
       </c>
       <c r="AL3">
-        <v>761.5</v>
+        <v>776.9</v>
       </c>
       <c r="AM3">
-        <v>14.600000000000019</v>
+        <v>-5.8000000000000682</v>
       </c>
       <c r="AN3">
-        <v>1.9547462846431951</v>
+        <v>-0.74102465823432573</v>
       </c>
       <c r="AO3" s="9">
         <f t="shared" si="21"/>
-        <v>1.2632978723404253</v>
+        <v>-0.44848795489492571</v>
       </c>
       <c r="AP3" s="9">
         <f t="shared" si="22"/>
-        <v>1.2632978723404253</v>
+        <v>0.44848795489492571</v>
       </c>
       <c r="AQ3" s="9">
         <f t="shared" si="23"/>
-        <v>2.8233749179251477</v>
+        <v>1.6914402870322969</v>
       </c>
       <c r="AR3" s="9">
         <f t="shared" si="24"/>
-        <v>0.32579787234043162</v>
+        <v>0.72081348950959234</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="AV3" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW3" t="str">
         <f t="shared" si="29"/>
@@ -1250,38 +1250,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>1692.95</v>
+        <v>1777.1</v>
       </c>
       <c r="C4">
-        <v>1738.4</v>
+        <v>1871.95</v>
       </c>
       <c r="D4">
-        <v>1678.05</v>
+        <v>1774.05</v>
       </c>
       <c r="E4">
-        <v>1688.9</v>
+        <v>1828.45</v>
       </c>
       <c r="F4">
-        <v>16.050000000000178</v>
+        <v>51.350000000000144</v>
       </c>
       <c r="G4">
-        <v>0.9594404758346643</v>
+        <v>2.889539136795912</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>-0.23922738415192144</v>
+        <v>2.8895391367959116</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="1"/>
-        <v>0.23922738415192144</v>
+        <v>2.8895391367959116</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="2"/>
-        <v>2.6846628665938179</v>
+        <v>2.3790642347343378</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="3"/>
-        <v>0.64242998401327112</v>
+        <v>0.17162793314951069</v>
       </c>
       <c r="L4" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O4" s="9" t="str">
         <f t="shared" si="7"/>
@@ -1312,38 +1312,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>1601.05</v>
+        <v>1695.25</v>
       </c>
       <c r="T4">
-        <v>1698.55</v>
+        <v>1787</v>
       </c>
       <c r="U4">
-        <v>1601.05</v>
+        <v>1683.4</v>
       </c>
       <c r="V4">
-        <v>1672.85</v>
+        <v>1777.1</v>
       </c>
       <c r="W4">
-        <v>49.149999999999856</v>
+        <v>88.199999999999818</v>
       </c>
       <c r="X4">
-        <v>3.027037014226758</v>
+        <v>5.222334063591676</v>
       </c>
       <c r="Y4" s="9">
         <f t="shared" si="11"/>
-        <v>4.484557009462538</v>
+        <v>4.8281964312048311</v>
       </c>
       <c r="Z4" s="9">
         <f t="shared" si="12"/>
-        <v>4.484557009462538</v>
+        <v>4.8281964312048311</v>
       </c>
       <c r="AA4" s="9">
         <f t="shared" si="13"/>
-        <v>1.536300325791317</v>
+        <v>0.55708738956727766</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.69901194514082932</v>
       </c>
       <c r="AC4" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1370,38 +1370,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>1637.9</v>
+        <v>1692.95</v>
       </c>
       <c r="AJ4">
-        <v>1653.2</v>
+        <v>1738.4</v>
       </c>
       <c r="AK4">
-        <v>1590.15</v>
+        <v>1678.05</v>
       </c>
       <c r="AL4">
-        <v>1623.7</v>
+        <v>1688.9</v>
       </c>
       <c r="AM4">
-        <v>11.900000000000089</v>
+        <v>16.050000000000178</v>
       </c>
       <c r="AN4">
-        <v>0.73830500062043003</v>
+        <v>0.9594404758346643</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="21"/>
-        <v>-0.86696379510348887</v>
+        <v>-0.23922738415192144</v>
       </c>
       <c r="AP4" s="9">
         <f t="shared" si="22"/>
-        <v>0.86696379510348887</v>
+        <v>0.23922738415192144</v>
       </c>
       <c r="AQ4" s="9">
         <f t="shared" si="23"/>
-        <v>0.93412296232980963</v>
+        <v>2.6846628665938179</v>
       </c>
       <c r="AR4" s="9">
         <f t="shared" si="24"/>
-        <v>2.0662683993348496</v>
+        <v>0.64242998401327112</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1433,38 +1433,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>127.8</v>
+        <v>134.85</v>
       </c>
       <c r="C5">
-        <v>129.1</v>
+        <v>135.55000000000001</v>
       </c>
       <c r="D5">
-        <v>126</v>
+        <v>129.75</v>
       </c>
       <c r="E5">
-        <v>128.6</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="F5">
-        <v>0.84999999999999432</v>
+        <v>-3.8500000000000232</v>
       </c>
       <c r="G5">
-        <v>0.66536203522504445</v>
+        <v>-2.861389817911574</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>0.62597809076682087</v>
+        <v>-3.0774935113088659</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>0.62597809076682087</v>
+        <v>3.0774935113088659</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="2"/>
-        <v>0.38880248833592534</v>
+        <v>0.51909529106415797</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="3"/>
-        <v>1.4084507042253498</v>
+        <v>0.72685539403212607</v>
       </c>
       <c r="L5" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1495,38 +1495,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>125.55</v>
+        <v>127.2</v>
       </c>
       <c r="T5">
-        <v>130.44999999999999</v>
+        <v>135.35</v>
       </c>
       <c r="U5">
-        <v>124.25</v>
+        <v>126.9</v>
       </c>
       <c r="V5">
-        <v>127.75</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="W5">
-        <v>2.2000000000000028</v>
+        <v>5.9500000000000171</v>
       </c>
       <c r="X5">
-        <v>1.752289924332938</v>
+        <v>4.6267496111975257</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="11"/>
-        <v>1.7522899243329375</v>
+        <v>5.7783018867924589</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="12"/>
-        <v>1.7522899243329375</v>
+        <v>5.7783018867924589</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="13"/>
-        <v>2.1135029354207346</v>
+        <v>0.59457450761797315</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="14"/>
-        <v>1.0354440461967322</v>
+        <v>0.23584905660377137</v>
       </c>
       <c r="AC5" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1550,41 +1550,41 @@
       </c>
       <c r="AH5" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AI5">
-        <v>116.8</v>
+        <v>127.8</v>
       </c>
       <c r="AJ5">
-        <v>126.5</v>
+        <v>129.1</v>
       </c>
       <c r="AK5">
-        <v>116.8</v>
+        <v>126</v>
       </c>
       <c r="AL5">
-        <v>125.55</v>
+        <v>128.6</v>
       </c>
       <c r="AM5">
-        <v>9.3499999999999943</v>
+        <v>0.84999999999999432</v>
       </c>
       <c r="AN5">
-        <v>8.0464716006884629</v>
+        <v>0.66536203522504445</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="21"/>
-        <v>7.4914383561643847</v>
+        <v>0.62597809076682087</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" si="22"/>
-        <v>7.4914383561643847</v>
+        <v>0.62597809076682087</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" si="23"/>
-        <v>0.75667064914376969</v>
+        <v>0.38880248833592534</v>
       </c>
       <c r="AR5" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.4084507042253498</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1616,38 +1616,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>1391.95</v>
+        <v>1390.1</v>
       </c>
       <c r="C6">
-        <v>1411.6</v>
+        <v>1407.95</v>
       </c>
       <c r="D6">
-        <v>1348.1</v>
+        <v>1371.1</v>
       </c>
       <c r="E6">
-        <v>1365.85</v>
+        <v>1394.45</v>
       </c>
       <c r="F6">
-        <v>-13.80000000000018</v>
+        <v>13.25</v>
       </c>
       <c r="G6">
-        <v>-1.000253687529459</v>
+        <v>0.9593107442803358</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>-1.8750673515571779</v>
+        <v>0.3129271275447908</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>1.8750673515571779</v>
+        <v>0.3129271275447908</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="2"/>
-        <v>1.4116886382413063</v>
+        <v>0.96812363297357384</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="3"/>
-        <v>1.2995570523849618</v>
+        <v>1.3668081432990433</v>
       </c>
       <c r="L6" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1678,38 +1678,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="T6">
-        <v>1396.85</v>
+        <v>1389.65</v>
       </c>
       <c r="U6">
-        <v>1366.9</v>
+        <v>1358.2</v>
       </c>
       <c r="V6">
-        <v>1379.65</v>
+        <v>1381.2</v>
       </c>
       <c r="W6">
-        <v>8.9000000000000909</v>
+        <v>15.35000000000014</v>
       </c>
       <c r="X6">
-        <v>0.64927959146453329</v>
+        <v>1.12384229600616</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="11"/>
-        <v>-2.536231884057312E-2</v>
+        <v>0.96491228070175772</v>
       </c>
       <c r="Z6" s="9">
         <f t="shared" si="12"/>
-        <v>2.536231884057312E-2</v>
+        <v>0.96491228070175772</v>
       </c>
       <c r="AA6" s="9">
         <f t="shared" si="13"/>
-        <v>1.2210144927536166</v>
+        <v>0.61178685201274574</v>
       </c>
       <c r="AB6" s="9">
         <f t="shared" si="14"/>
-        <v>0.92414742869568367</v>
+        <v>0.71637426900584456</v>
       </c>
       <c r="AC6" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1736,38 +1736,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>1312.95</v>
+        <v>1391.95</v>
       </c>
       <c r="AJ6">
-        <v>1378.45</v>
+        <v>1411.6</v>
       </c>
       <c r="AK6">
-        <v>1304.2</v>
+        <v>1348.1</v>
       </c>
       <c r="AL6">
-        <v>1370.75</v>
+        <v>1365.85</v>
       </c>
       <c r="AM6">
-        <v>68.450000000000045</v>
+        <v>-13.80000000000018</v>
       </c>
       <c r="AN6">
-        <v>5.2560853873915416</v>
+        <v>-1.000253687529459</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="21"/>
-        <v>4.4023001637533765</v>
+        <v>-1.8750673515571779</v>
       </c>
       <c r="AP6" s="9">
         <f t="shared" si="22"/>
-        <v>4.4023001637533765</v>
+        <v>1.8750673515571779</v>
       </c>
       <c r="AQ6" s="9">
         <f t="shared" si="23"/>
-        <v>0.5617362757614478</v>
+        <v>1.4116886382413063</v>
       </c>
       <c r="AR6" s="9">
         <f t="shared" si="24"/>
-        <v>0.66643817357858259</v>
+        <v>1.2995570523849618</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1799,38 +1799,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>46.6</v>
+        <v>45.5</v>
       </c>
       <c r="C7">
-        <v>47.2</v>
+        <v>45.8</v>
       </c>
       <c r="D7">
-        <v>45.3</v>
+        <v>44.1</v>
       </c>
       <c r="E7">
-        <v>46.1</v>
+        <v>44.3</v>
       </c>
       <c r="F7">
-        <v>-0.44999999999999568</v>
+        <v>-1.050000000000004</v>
       </c>
       <c r="G7">
-        <v>-0.96670247046185998</v>
+        <v>-2.3153252480705722</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>-1.0729613733905579</v>
+        <v>-2.6373626373626435</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>1.0729613733905579</v>
+        <v>2.6373626373626435</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="2"/>
-        <v>1.2875536480686725</v>
+        <v>0.65934065934065311</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
-        <v>1.7353579175705081</v>
+        <v>0.45146726862301523</v>
       </c>
       <c r="L7" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1861,38 +1861,38 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>47.75</v>
+        <v>45.8</v>
       </c>
       <c r="T7">
-        <v>47.75</v>
+        <v>46.4</v>
       </c>
       <c r="U7">
-        <v>46.2</v>
+        <v>45</v>
       </c>
       <c r="V7">
-        <v>46.55</v>
+        <v>45.35</v>
       </c>
       <c r="W7">
-        <v>-0.70000000000000284</v>
+        <v>-0.75</v>
       </c>
       <c r="X7">
-        <v>-1.481481481481487</v>
+        <v>-1.6268980477223429</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="11"/>
-        <v>-2.5130890052356083</v>
+        <v>-0.98253275109169369</v>
       </c>
       <c r="Z7" s="9">
         <f t="shared" si="12"/>
-        <v>2.5130890052356083</v>
+        <v>0.98253275109169369</v>
       </c>
       <c r="AA7" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.310043668122274</v>
       </c>
       <c r="AB7" s="9">
         <f t="shared" si="14"/>
-        <v>0.75187969924810816</v>
+        <v>0.77177508269019057</v>
       </c>
       <c r="AC7" s="9" t="str">
         <f t="shared" si="15"/>
@@ -1919,38 +1919,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>47.75</v>
+        <v>46.6</v>
       </c>
       <c r="AJ7">
-        <v>48.3</v>
+        <v>47.2</v>
       </c>
       <c r="AK7">
-        <v>46.7</v>
+        <v>45.3</v>
       </c>
       <c r="AL7">
-        <v>47.25</v>
+        <v>46.1</v>
       </c>
       <c r="AM7">
-        <v>-0.39999999999999858</v>
+        <v>-0.44999999999999568</v>
       </c>
       <c r="AN7">
-        <v>-0.83945435466946194</v>
+        <v>-0.96670247046185998</v>
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="21"/>
-        <v>-1.0471204188481675</v>
+        <v>-1.0729613733905579</v>
       </c>
       <c r="AP7" s="9">
         <f t="shared" si="22"/>
-        <v>1.0471204188481675</v>
+        <v>1.0729613733905579</v>
       </c>
       <c r="AQ7" s="9">
         <f t="shared" si="23"/>
-        <v>1.1518324607329784</v>
+        <v>1.2875536480686725</v>
       </c>
       <c r="AR7" s="9">
         <f t="shared" si="24"/>
-        <v>1.164021164021158</v>
+        <v>1.7353579175705081</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1982,38 +1982,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C8">
-        <v>1347.05</v>
+        <v>1355</v>
       </c>
       <c r="D8">
-        <v>1320</v>
+        <v>1326.1</v>
       </c>
       <c r="E8">
-        <v>1329.05</v>
+        <v>1334.7</v>
       </c>
       <c r="F8">
-        <v>-14.799999999999949</v>
+        <v>4.5499999999999554</v>
       </c>
       <c r="G8">
-        <v>-1.1013133906313921</v>
+        <v>0.34206668420854452</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>-0.81716417910448103</v>
+        <v>-0.24663677130044503</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>0.81716417910448103</v>
+        <v>0.24663677130044503</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="2"/>
-        <v>0.52611940298507121</v>
+        <v>1.2705530642750373</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="3"/>
-        <v>0.6809375117565144</v>
+        <v>0.64433955195925197</v>
       </c>
       <c r="L8" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2044,38 +2044,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="T8">
-        <v>1358</v>
+        <v>1348.45</v>
       </c>
       <c r="U8">
-        <v>1319.4</v>
+        <v>1316.05</v>
       </c>
       <c r="V8">
-        <v>1343.85</v>
+        <v>1330.15</v>
       </c>
       <c r="W8">
-        <v>13.19999999999982</v>
+        <v>1.100000000000136</v>
       </c>
       <c r="X8">
-        <v>0.99199639274037632</v>
+        <v>8.2765885406879833E-2</v>
       </c>
       <c r="Y8" s="9">
         <f t="shared" si="11"/>
-        <v>0.28731343283581406</v>
+        <v>0.38867924528302572</v>
       </c>
       <c r="Z8" s="9">
         <f t="shared" si="12"/>
-        <v>0.28731343283581406</v>
+        <v>0.38867924528302572</v>
       </c>
       <c r="AA8" s="9">
         <f t="shared" si="13"/>
-        <v>1.0529448971239417</v>
+        <v>1.3757846859376728</v>
       </c>
       <c r="AB8" s="9">
         <f t="shared" si="14"/>
-        <v>1.537313432835814</v>
+        <v>0.67547169811321095</v>
       </c>
       <c r="AC8" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2102,38 +2102,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>1280</v>
+        <v>1340</v>
       </c>
       <c r="AJ8">
-        <v>1342.8</v>
+        <v>1347.05</v>
       </c>
       <c r="AK8">
-        <v>1270.05</v>
+        <v>1320</v>
       </c>
       <c r="AL8">
-        <v>1330.65</v>
+        <v>1329.05</v>
       </c>
       <c r="AM8">
-        <v>66.050000000000182</v>
+        <v>-14.799999999999949</v>
       </c>
       <c r="AN8">
-        <v>5.2229954135695227</v>
+        <v>-1.1013133906313921</v>
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="21"/>
-        <v>3.9570312500000071</v>
+        <v>-0.81716417910448103</v>
       </c>
       <c r="AP8" s="9">
         <f t="shared" si="22"/>
-        <v>3.9570312500000071</v>
+        <v>0.81716417910448103</v>
       </c>
       <c r="AQ8" s="9">
         <f t="shared" si="23"/>
-        <v>0.91308758877239415</v>
+        <v>0.52611940298507121</v>
       </c>
       <c r="AR8" s="9">
         <f t="shared" si="24"/>
-        <v>0.77734375000000355</v>
+        <v>0.6809375117565144</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="AV8" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW8" t="str">
         <f t="shared" si="29"/>
@@ -2165,38 +2165,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9">
-        <v>105.5</v>
+        <v>104.6</v>
       </c>
       <c r="D9">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="E9">
-        <v>103.45</v>
+        <v>103.9</v>
       </c>
       <c r="F9">
-        <v>-1.3499999999999941</v>
+        <v>0.35000000000000853</v>
       </c>
       <c r="G9">
-        <v>-1.2881679389312919</v>
+        <v>0.33800096571705313</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>-1.4761904761904734</v>
+        <v>-9.6153846153840677E-2</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>1.4761904761904734</v>
+        <v>9.6153846153840677E-2</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="2"/>
-        <v>0.47619047619047622</v>
+        <v>0.57692307692307154</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
-        <v>1.1116481391976856</v>
+        <v>1.6361886429258929</v>
       </c>
       <c r="L9" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2227,38 +2227,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>106.05</v>
+        <v>102.5</v>
       </c>
       <c r="T9">
-        <v>107</v>
+        <v>104.9</v>
       </c>
       <c r="U9">
-        <v>103.95</v>
+        <v>102.4</v>
       </c>
       <c r="V9">
-        <v>104.8</v>
+        <v>103.55</v>
       </c>
       <c r="W9">
-        <v>-2.25</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="X9">
-        <v>-2.101821578701542</v>
+        <v>9.666505558240146E-2</v>
       </c>
       <c r="Y9" s="9">
         <f t="shared" si="11"/>
-        <v>-1.1786892975011787</v>
+        <v>1.0243902439024364</v>
       </c>
       <c r="Z9" s="9">
         <f t="shared" si="12"/>
-        <v>1.1786892975011787</v>
+        <v>1.0243902439024364</v>
       </c>
       <c r="AA9" s="9">
         <f t="shared" si="13"/>
-        <v>0.89580386610089846</v>
+        <v>1.3037180106228956</v>
       </c>
       <c r="AB9" s="9">
         <f t="shared" si="14"/>
-        <v>0.81106870229007089</v>
+        <v>9.7560975609750564E-2</v>
       </c>
       <c r="AC9" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2285,38 +2285,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ9">
-        <v>109.65</v>
+        <v>105.5</v>
       </c>
       <c r="AK9">
-        <v>104.4</v>
+        <v>102.3</v>
       </c>
       <c r="AL9">
-        <v>107.05</v>
+        <v>103.45</v>
       </c>
       <c r="AM9">
-        <v>4.7999999999999972</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="AN9">
-        <v>4.6943765281173571</v>
+        <v>-1.2881679389312919</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="21"/>
-        <v>0.99056603773584639</v>
+        <v>-1.4761904761904734</v>
       </c>
       <c r="AP9" s="9">
         <f t="shared" si="22"/>
-        <v>0.99056603773584639</v>
+        <v>1.4761904761904734</v>
       </c>
       <c r="AQ9" s="9">
         <f t="shared" si="23"/>
-        <v>2.4287716020551224</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="AR9" s="9">
         <f t="shared" si="24"/>
-        <v>1.5094339622641455</v>
+        <v>1.1116481391976856</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2348,38 +2348,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>476.7</v>
+        <v>481</v>
       </c>
       <c r="C10">
-        <v>487.55</v>
+        <v>487.4</v>
       </c>
       <c r="D10">
-        <v>475.05</v>
+        <v>476.6</v>
       </c>
       <c r="E10">
-        <v>480.65</v>
+        <v>479.35</v>
       </c>
       <c r="F10">
-        <v>3.9499999999999891</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="G10">
-        <v>0.82861338367946069</v>
+        <v>0.1462446464013466</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>0.82861338367946069</v>
+        <v>-0.34303534303533834</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>0.82861338367946069</v>
+        <v>0.34303534303533834</v>
       </c>
       <c r="J10" s="9">
         <f t="shared" si="2"/>
-        <v>1.4355560178924445</v>
+        <v>1.3305613305613258</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
-        <v>0.34612964128382157</v>
+        <v>0.57369354333993949</v>
       </c>
       <c r="L10" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2410,38 +2410,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>478.5</v>
+        <v>474</v>
       </c>
       <c r="T10">
-        <v>481.4</v>
+        <v>483.6</v>
       </c>
       <c r="U10">
-        <v>471.75</v>
+        <v>469.05</v>
       </c>
       <c r="V10">
-        <v>476.7</v>
+        <v>478.65</v>
       </c>
       <c r="W10">
-        <v>1.0999999999999659</v>
+        <v>-2</v>
       </c>
       <c r="X10">
-        <v>0.23128679562656981</v>
+        <v>-0.41610319359201092</v>
       </c>
       <c r="Y10" s="9">
         <f t="shared" si="11"/>
-        <v>-0.3761755485893441</v>
+        <v>0.98101265822784323</v>
       </c>
       <c r="Z10" s="9">
         <f t="shared" si="12"/>
-        <v>0.3761755485893441</v>
+        <v>0.98101265822784323</v>
       </c>
       <c r="AA10" s="9">
         <f t="shared" si="13"/>
-        <v>0.6060606060606013</v>
+        <v>1.0341585709808931</v>
       </c>
       <c r="AB10" s="9">
         <f t="shared" si="14"/>
-        <v>1.0383889238514765</v>
+        <v>1.044303797468352</v>
       </c>
       <c r="AC10" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2468,38 +2468,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>465.25</v>
+        <v>476.7</v>
       </c>
       <c r="AJ10">
-        <v>481.85</v>
+        <v>487.55</v>
       </c>
       <c r="AK10">
-        <v>465</v>
+        <v>475.05</v>
       </c>
       <c r="AL10">
-        <v>475.6</v>
+        <v>480.65</v>
       </c>
       <c r="AM10">
-        <v>12.200000000000051</v>
+        <v>3.9499999999999891</v>
       </c>
       <c r="AN10">
-        <v>2.6327147173068721</v>
+        <v>0.82861338367946069</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="21"/>
-        <v>2.2246104245029605</v>
+        <v>0.82861338367946069</v>
       </c>
       <c r="AP10" s="9">
         <f t="shared" si="22"/>
-        <v>2.2246104245029605</v>
+        <v>0.82861338367946069</v>
       </c>
       <c r="AQ10" s="9">
         <f t="shared" si="23"/>
-        <v>1.3141295206055508</v>
+        <v>1.4355560178924445</v>
       </c>
       <c r="AR10" s="9">
         <f t="shared" si="24"/>
-        <v>5.3734551316496508E-2</v>
+        <v>0.34612964128382157</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2531,38 +2531,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>36.15</v>
+        <v>35.5</v>
       </c>
       <c r="C11">
-        <v>36.15</v>
+        <v>35.75</v>
       </c>
       <c r="D11">
-        <v>35.549999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="E11">
-        <v>35.65</v>
+        <v>34.65</v>
       </c>
       <c r="F11">
-        <v>-0.30000000000000432</v>
+        <v>-0.5</v>
       </c>
       <c r="G11">
-        <v>-0.83449235048679904</v>
+        <v>-1.4224751066856329</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>-1.3831258644536655</v>
+        <v>-2.3943661971831025</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="1"/>
-        <v>1.3831258644536655</v>
+        <v>2.3943661971831025</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.70422535211267612</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="3"/>
-        <v>0.28050490883590862</v>
+        <v>0.43290043290042884</v>
       </c>
       <c r="L11" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2593,38 +2593,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>36.65</v>
+        <v>35.65</v>
       </c>
       <c r="T11">
-        <v>36.65</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="U11">
-        <v>35.700000000000003</v>
+        <v>35</v>
       </c>
       <c r="V11">
-        <v>35.950000000000003</v>
+        <v>35.15</v>
       </c>
       <c r="W11">
-        <v>-0.29999999999999721</v>
+        <v>-0.5</v>
       </c>
       <c r="X11">
-        <v>-0.82758620689654394</v>
+        <v>-1.4025245441795231</v>
       </c>
       <c r="Y11" s="9">
         <f t="shared" si="11"/>
-        <v>-1.9099590723055819</v>
+        <v>-1.4025245441795233</v>
       </c>
       <c r="Z11" s="9">
         <f t="shared" si="12"/>
-        <v>1.9099590723055819</v>
+        <v>1.4025245441795233</v>
       </c>
       <c r="AA11" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.14025245441796427</v>
       </c>
       <c r="AB11" s="9">
         <f t="shared" si="14"/>
-        <v>0.69541029207232263</v>
+        <v>0.42674253200568585</v>
       </c>
       <c r="AC11" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2651,38 +2651,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>36.200000000000003</v>
+        <v>36.15</v>
       </c>
       <c r="AJ11">
-        <v>37.450000000000003</v>
+        <v>36.15</v>
       </c>
       <c r="AK11">
-        <v>36</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="AL11">
-        <v>36.25</v>
+        <v>35.65</v>
       </c>
       <c r="AM11">
-        <v>-0.85000000000000142</v>
+        <v>-0.30000000000000432</v>
       </c>
       <c r="AN11">
-        <v>-2.2911051212938038</v>
+        <v>-0.83449235048679904</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="21"/>
-        <v>0.13812154696131812</v>
+        <v>-1.3831258644536655</v>
       </c>
       <c r="AP11" s="9">
         <f t="shared" si="22"/>
-        <v>0.13812154696131812</v>
+        <v>1.3831258644536655</v>
       </c>
       <c r="AQ11" s="9">
         <f t="shared" si="23"/>
-        <v>3.3103448275862144</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="9">
         <f t="shared" si="24"/>
-        <v>0.55248618784531167</v>
+        <v>0.28050490883590862</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2714,38 +2714,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>100.95</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>101.2</v>
+        <v>100.5</v>
       </c>
       <c r="D12">
-        <v>99.8</v>
+        <v>98.25</v>
       </c>
       <c r="E12">
-        <v>100.25</v>
+        <v>98.7</v>
       </c>
       <c r="F12">
-        <v>-0.29999999999999721</v>
+        <v>-0.89999999999999147</v>
       </c>
       <c r="G12">
-        <v>-0.29835902536051429</v>
+        <v>-0.90361445783131678</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>-0.69341258048539167</v>
+        <v>-1.2999999999999972</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="1"/>
-        <v>0.69341258048539167</v>
+        <v>1.2999999999999972</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="2"/>
-        <v>0.24764735017335313</v>
+        <v>0.5</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>0.44887780548628708</v>
+        <v>0.45592705167173536</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2776,38 +2776,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>100.95</v>
+        <v>99.45</v>
       </c>
       <c r="T12">
-        <v>101.5</v>
+        <v>100.3</v>
       </c>
       <c r="U12">
-        <v>99.75</v>
+        <v>99.15</v>
       </c>
       <c r="V12">
-        <v>100.55</v>
+        <v>99.6</v>
       </c>
       <c r="W12">
-        <v>0.1499999999999915</v>
+        <v>-0.65000000000000568</v>
       </c>
       <c r="X12">
-        <v>0.1494023904382385</v>
+        <v>-0.648379052369083</v>
       </c>
       <c r="Y12" s="9">
         <f t="shared" si="11"/>
-        <v>-0.39623576027737067</v>
+        <v>0.15082956259425989</v>
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="12"/>
-        <v>0.39623576027737067</v>
+        <v>0.15082956259425989</v>
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="13"/>
-        <v>0.5448241703813741</v>
+        <v>0.70281124497992264</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="14"/>
-        <v>0.79562406762804294</v>
+        <v>0.30165912518853411</v>
       </c>
       <c r="AC12" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2834,38 +2834,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>102</v>
+        <v>100.95</v>
       </c>
       <c r="AJ12">
-        <v>102.9</v>
+        <v>101.2</v>
       </c>
       <c r="AK12">
-        <v>99.85</v>
+        <v>99.8</v>
       </c>
       <c r="AL12">
-        <v>100.4</v>
+        <v>100.25</v>
       </c>
       <c r="AM12">
-        <v>-0.44999999999998858</v>
+        <v>-0.29999999999999721</v>
       </c>
       <c r="AN12">
-        <v>-0.44620723847296839</v>
+        <v>-0.29835902536051429</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="21"/>
-        <v>-1.5686274509803866</v>
+        <v>-0.69341258048539167</v>
       </c>
       <c r="AP12" s="9">
         <f t="shared" si="22"/>
-        <v>1.5686274509803866</v>
+        <v>0.69341258048539167</v>
       </c>
       <c r="AQ12" s="9">
         <f t="shared" si="23"/>
-        <v>0.88235294117647611</v>
+        <v>0.24764735017335313</v>
       </c>
       <c r="AR12" s="9">
         <f t="shared" si="24"/>
-        <v>0.54780876494025033</v>
+        <v>0.44887780548628708</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2897,42 +2897,42 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>119</v>
+        <v>119.6</v>
       </c>
       <c r="C13">
-        <v>120.3</v>
+        <v>120.35</v>
       </c>
       <c r="D13">
-        <v>117</v>
+        <v>116.6</v>
       </c>
       <c r="E13">
-        <v>117.7</v>
+        <v>119.15</v>
       </c>
       <c r="F13">
-        <v>-2.4500000000000028</v>
+        <v>0.55000000000001137</v>
       </c>
       <c r="G13">
-        <v>-2.039117769454851</v>
+        <v>0.46374367622260659</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>-1.0924369747899136</v>
+        <v>-0.37625418060199722</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="1"/>
-        <v>1.0924369747899136</v>
+        <v>0.37625418060199722</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="2"/>
-        <v>1.0924369747899136</v>
+        <v>0.62709030100334451</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
-        <v>0.5947323704333074</v>
+        <v>2.140159462861948</v>
       </c>
       <c r="L13" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="5"/>
@@ -2959,38 +2959,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>120.9</v>
+        <v>118</v>
       </c>
       <c r="T13">
-        <v>121.5</v>
+        <v>119.45</v>
       </c>
       <c r="U13">
-        <v>119.7</v>
+        <v>117.75</v>
       </c>
       <c r="V13">
-        <v>120.15</v>
+        <v>118.6</v>
       </c>
       <c r="W13">
-        <v>-4.9999999999997158E-2</v>
+        <v>0.89999999999999147</v>
       </c>
       <c r="X13">
-        <v>-4.1597337770380327E-2</v>
+        <v>0.76465590484281343</v>
       </c>
       <c r="Y13" s="9">
         <f t="shared" si="11"/>
-        <v>-0.6203473945409429</v>
+        <v>0.50847457627118164</v>
       </c>
       <c r="Z13" s="9">
         <f t="shared" si="12"/>
-        <v>0.6203473945409429</v>
+        <v>0.50847457627118164</v>
       </c>
       <c r="AA13" s="9">
         <f t="shared" si="13"/>
-        <v>0.49627791563274964</v>
+        <v>0.71669477234402068</v>
       </c>
       <c r="AB13" s="9">
         <f t="shared" si="14"/>
-        <v>0.37453183520599487</v>
+        <v>0.21186440677966101</v>
       </c>
       <c r="AC13" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3017,38 +3017,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>120.5</v>
+        <v>119</v>
       </c>
       <c r="AJ13">
-        <v>124.5</v>
+        <v>120.3</v>
       </c>
       <c r="AK13">
-        <v>119.55</v>
+        <v>117</v>
       </c>
       <c r="AL13">
-        <v>120.2</v>
+        <v>117.7</v>
       </c>
       <c r="AM13">
-        <v>0.35000000000000853</v>
+        <v>-2.4500000000000028</v>
       </c>
       <c r="AN13">
-        <v>0.29203170629954822</v>
+        <v>-2.039117769454851</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="21"/>
-        <v>-0.2489626556016574</v>
+        <v>-1.0924369747899136</v>
       </c>
       <c r="AP13" s="9">
         <f t="shared" si="22"/>
-        <v>0.2489626556016574</v>
+        <v>1.0924369747899136</v>
       </c>
       <c r="AQ13" s="9">
         <f t="shared" si="23"/>
-        <v>3.3195020746887969</v>
+        <v>1.0924369747899136</v>
       </c>
       <c r="AR13" s="9">
         <f t="shared" si="24"/>
-        <v>0.54076539101497978</v>
+        <v>0.5947323704333074</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3080,38 +3080,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>683.5</v>
+        <v>659.45</v>
       </c>
       <c r="C14">
-        <v>688</v>
+        <v>683.95</v>
       </c>
       <c r="D14">
-        <v>669.05</v>
+        <v>655</v>
       </c>
       <c r="E14">
-        <v>673.95</v>
+        <v>675.65</v>
       </c>
       <c r="F14">
-        <v>5.2000000000000446</v>
+        <v>19.549999999999951</v>
       </c>
       <c r="G14">
-        <v>0.77757009345795081</v>
+        <v>2.9797286998933021</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>-1.3972201901975061</v>
+        <v>2.4565926150579926</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="1"/>
-        <v>1.3972201901975061</v>
+        <v>2.4565926150579926</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="2"/>
-        <v>0.65837600585223111</v>
+        <v>1.2284466809738872</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
-        <v>0.72705690333112105</v>
+        <v>0.67480476154371749</v>
       </c>
       <c r="L14" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3142,38 +3142,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>658.9</v>
+        <v>671</v>
       </c>
       <c r="T14">
-        <v>686.9</v>
+        <v>676.75</v>
       </c>
       <c r="U14">
-        <v>653.29999999999995</v>
+        <v>648.25</v>
       </c>
       <c r="V14">
-        <v>668.75</v>
+        <v>656.1</v>
       </c>
       <c r="W14">
-        <v>16.049999999999951</v>
+        <v>-17.850000000000019</v>
       </c>
       <c r="X14">
-        <v>2.4590163934426159</v>
+        <v>-2.6485644335633238</v>
       </c>
       <c r="Y14" s="9">
         <f t="shared" si="11"/>
-        <v>1.4949157687054218</v>
+        <v>-2.2205663189269713</v>
       </c>
       <c r="Z14" s="9">
         <f t="shared" si="12"/>
-        <v>1.4949157687054218</v>
+        <v>2.2205663189269713</v>
       </c>
       <c r="AA14" s="9">
         <f t="shared" si="13"/>
-        <v>2.7140186915887816</v>
+        <v>0.856929955290611</v>
       </c>
       <c r="AB14" s="9">
         <f t="shared" si="14"/>
-        <v>0.84990135073607864</v>
+        <v>1.1964639536656032</v>
       </c>
       <c r="AC14" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3200,38 +3200,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>630.79999999999995</v>
+        <v>683.5</v>
       </c>
       <c r="AJ14">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="AK14">
-        <v>630.5</v>
+        <v>669.05</v>
       </c>
       <c r="AL14">
-        <v>652.70000000000005</v>
+        <v>673.95</v>
       </c>
       <c r="AM14">
-        <v>26.25</v>
+        <v>5.2000000000000446</v>
       </c>
       <c r="AN14">
-        <v>4.1902785537552871</v>
+        <v>0.77757009345795081</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="21"/>
-        <v>3.471781864299317</v>
+        <v>-1.3972201901975061</v>
       </c>
       <c r="AP14" s="9">
         <f t="shared" si="22"/>
-        <v>3.471781864299317</v>
+        <v>1.3972201901975061</v>
       </c>
       <c r="AQ14" s="9">
         <f t="shared" si="23"/>
-        <v>0.50559215566109306</v>
+        <v>0.65837600585223111</v>
       </c>
       <c r="AR14" s="9">
         <f t="shared" si="24"/>
-        <v>4.7558655675325703E-2</v>
+        <v>0.72705690333112105</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="AU14" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV14" t="str">
         <f t="shared" si="28"/>
@@ -3263,38 +3263,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>234.7</v>
+        <v>240.95</v>
       </c>
       <c r="C15">
-        <v>239.4</v>
+        <v>243.95</v>
       </c>
       <c r="D15">
-        <v>232.7</v>
+        <v>237.25</v>
       </c>
       <c r="E15">
-        <v>238.6</v>
+        <v>240.65</v>
       </c>
       <c r="F15">
-        <v>5.6999999999999886</v>
+        <v>1.0999999999999941</v>
       </c>
       <c r="G15">
-        <v>2.4474023185916649</v>
+        <v>0.45919432268837163</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="0"/>
-        <v>1.6616957818491718</v>
+        <v>-0.12450715916164472</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="1"/>
-        <v>1.6616957818491718</v>
+        <v>0.12450715916164472</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" si="2"/>
-        <v>0.3352891869237265</v>
+        <v>1.245071591616518</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="3"/>
-        <v>0.852151682999574</v>
+        <v>1.4128402243922733</v>
       </c>
       <c r="L15" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3325,38 +3325,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>234.5</v>
+        <v>239.5</v>
       </c>
       <c r="T15">
-        <v>235.2</v>
+        <v>243.4</v>
       </c>
       <c r="U15">
-        <v>229.75</v>
+        <v>237.1</v>
       </c>
       <c r="V15">
-        <v>232.9</v>
+        <v>239.55</v>
       </c>
       <c r="W15">
-        <v>0.80000000000001137</v>
+        <v>0.95000000000001705</v>
       </c>
       <c r="X15">
-        <v>0.34467901766480458</v>
+        <v>0.39815590947192669</v>
       </c>
       <c r="Y15" s="9">
         <f t="shared" si="11"/>
-        <v>-0.68230277185500821</v>
+        <v>2.087682672234295E-2</v>
       </c>
       <c r="Z15" s="9">
         <f t="shared" si="12"/>
-        <v>0.68230277185500821</v>
+        <v>2.087682672234295E-2</v>
       </c>
       <c r="AA15" s="9">
         <f t="shared" si="13"/>
-        <v>0.29850746268656231</v>
+        <v>1.6071801294093067</v>
       </c>
       <c r="AB15" s="9">
         <f t="shared" si="14"/>
-        <v>1.3525118076427676</v>
+        <v>1.0020876826722362</v>
       </c>
       <c r="AC15" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3383,38 +3383,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>230</v>
+        <v>234.7</v>
       </c>
       <c r="AJ15">
-        <v>236.2</v>
+        <v>239.4</v>
       </c>
       <c r="AK15">
-        <v>226.5</v>
+        <v>232.7</v>
       </c>
       <c r="AL15">
-        <v>232.1</v>
+        <v>238.6</v>
       </c>
       <c r="AM15">
-        <v>7.6500000000000057</v>
+        <v>5.6999999999999886</v>
       </c>
       <c r="AN15">
-        <v>3.4083314769436428</v>
+        <v>2.4474023185916649</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="21"/>
-        <v>0.91304347826086707</v>
+        <v>1.6616957818491718</v>
       </c>
       <c r="AP15" s="9">
         <f t="shared" si="22"/>
-        <v>0.91304347826086707</v>
+        <v>1.6616957818491718</v>
       </c>
       <c r="AQ15" s="9">
         <f t="shared" si="23"/>
-        <v>1.766479965532096</v>
+        <v>0.3352891869237265</v>
       </c>
       <c r="AR15" s="9">
         <f t="shared" si="24"/>
-        <v>1.5217391304347827</v>
+        <v>0.852151682999574</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3446,38 +3446,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>493.95</v>
+        <v>485</v>
       </c>
       <c r="C16">
-        <v>494</v>
+        <v>492.55</v>
       </c>
       <c r="D16">
-        <v>475.2</v>
+        <v>477.05</v>
       </c>
       <c r="E16">
-        <v>484</v>
+        <v>481.5</v>
       </c>
       <c r="F16">
-        <v>-5.0000000000011369E-2</v>
+        <v>-6.3000000000000114</v>
       </c>
       <c r="G16">
-        <v>-1.0329511414112459E-2</v>
+        <v>-1.291512915129154</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
-        <v>-2.0143739244862817</v>
+        <v>-0.72164948453608246</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="1"/>
-        <v>2.0143739244862817</v>
+        <v>0.72164948453608246</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="2"/>
-        <v>1.0122482032596693E-2</v>
+        <v>1.5567010309278375</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="3"/>
-        <v>1.8181818181818206</v>
+        <v>0.92419522326064141</v>
       </c>
       <c r="L16" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3508,38 +3508,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>474.1</v>
+        <v>479.9</v>
       </c>
       <c r="T16">
-        <v>494</v>
+        <v>491.3</v>
       </c>
       <c r="U16">
-        <v>468</v>
+        <v>474.15</v>
       </c>
       <c r="V16">
-        <v>484.05</v>
+        <v>487.8</v>
       </c>
       <c r="W16">
-        <v>12.5</v>
+        <v>3.8000000000000109</v>
       </c>
       <c r="X16">
-        <v>2.6508323613614668</v>
+        <v>0.78512396694215103</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="11"/>
-        <v>2.0987133516135814</v>
+        <v>1.6461762867264085</v>
       </c>
       <c r="Z16" s="9">
         <f t="shared" si="12"/>
-        <v>2.0987133516135814</v>
+        <v>1.6461762867264085</v>
       </c>
       <c r="AA16" s="9">
         <f t="shared" si="13"/>
-        <v>2.0555727714079102</v>
+        <v>0.71750717507175077</v>
       </c>
       <c r="AB16" s="9">
         <f t="shared" si="14"/>
-        <v>1.2866483864163727</v>
+        <v>1.198166284642634</v>
       </c>
       <c r="AC16" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="AD16" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AE16" s="9" t="str">
         <f t="shared" si="17"/>
@@ -3566,38 +3566,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>456.85</v>
+        <v>493.95</v>
       </c>
       <c r="AJ16">
-        <v>487.75</v>
+        <v>494</v>
       </c>
       <c r="AK16">
-        <v>456.1</v>
+        <v>475.2</v>
       </c>
       <c r="AL16">
-        <v>471.55</v>
+        <v>484</v>
       </c>
       <c r="AM16">
-        <v>15.150000000000031</v>
+        <v>-5.0000000000011369E-2</v>
       </c>
       <c r="AN16">
-        <v>3.3194566170026372</v>
+        <v>-1.0329511414112459E-2</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="21"/>
-        <v>3.2176863303053493</v>
+        <v>-2.0143739244862817</v>
       </c>
       <c r="AP16" s="9">
         <f t="shared" si="22"/>
-        <v>3.2176863303053493</v>
+        <v>2.0143739244862817</v>
       </c>
       <c r="AQ16" s="9">
         <f t="shared" si="23"/>
-        <v>3.4354787403244593</v>
+        <v>1.0122482032596693E-2</v>
       </c>
       <c r="AR16" s="9">
         <f t="shared" si="24"/>
-        <v>0.16416766991353837</v>
+        <v>1.8181818181818206</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3629,38 +3629,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>1231</v>
+        <v>1248.8</v>
       </c>
       <c r="C17">
-        <v>1272</v>
+        <v>1280.7</v>
       </c>
       <c r="D17">
-        <v>1231</v>
+        <v>1225.8499999999999</v>
       </c>
       <c r="E17">
-        <v>1254.95</v>
+        <v>1238.5999999999999</v>
       </c>
       <c r="F17">
-        <v>25.150000000000091</v>
+        <v>-5.25</v>
       </c>
       <c r="G17">
-        <v>2.0450479752805411</v>
+        <v>-0.42207661695542081</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
-        <v>1.945572705117794</v>
+        <v>-0.81678411274824192</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="1"/>
-        <v>1.945572705117794</v>
+        <v>0.81678411274824192</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="2"/>
-        <v>1.3586198653332766</v>
+        <v>2.5544522741832232</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0293880187308253</v>
       </c>
       <c r="L17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="O17" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P17" s="9" t="str">
         <f t="shared" si="8"/>
@@ -3691,38 +3691,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>1242.5</v>
+        <v>1235</v>
       </c>
       <c r="T17">
-        <v>1256.8499999999999</v>
+        <v>1259</v>
       </c>
       <c r="U17">
-        <v>1214</v>
+        <v>1235</v>
       </c>
       <c r="V17">
-        <v>1229.8</v>
+        <v>1243.8499999999999</v>
       </c>
       <c r="W17">
-        <v>-16.700000000000049</v>
+        <v>-11.10000000000014</v>
       </c>
       <c r="X17">
-        <v>-1.339751303650224</v>
+        <v>-0.8844973903342872</v>
       </c>
       <c r="Y17" s="9">
         <f t="shared" si="11"/>
-        <v>-1.0221327967806877</v>
+        <v>0.71659919028339347</v>
       </c>
       <c r="Z17" s="9">
         <f t="shared" si="12"/>
-        <v>1.0221327967806877</v>
+        <v>0.71659919028339347</v>
       </c>
       <c r="AA17" s="9">
         <f t="shared" si="13"/>
-        <v>1.1549295774647814</v>
+        <v>1.2179925232142212</v>
       </c>
       <c r="AB17" s="9">
         <f t="shared" si="14"/>
-        <v>1.2847617498780253</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3749,38 +3749,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>1207</v>
+        <v>1231</v>
       </c>
       <c r="AJ17">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="AK17">
-        <v>1197.5</v>
+        <v>1231</v>
       </c>
       <c r="AL17">
-        <v>1246.5</v>
+        <v>1254.95</v>
       </c>
       <c r="AM17">
-        <v>47.900000000000091</v>
+        <v>25.150000000000091</v>
       </c>
       <c r="AN17">
-        <v>3.9963290505589941</v>
+        <v>2.0450479752805411</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="21"/>
-        <v>3.272576636288318</v>
+        <v>1.945572705117794</v>
       </c>
       <c r="AP17" s="9">
         <f t="shared" si="22"/>
-        <v>3.272576636288318</v>
+        <v>1.945572705117794</v>
       </c>
       <c r="AQ17" s="9">
         <f t="shared" si="23"/>
-        <v>2.3666265543521861</v>
+        <v>1.3586198653332766</v>
       </c>
       <c r="AR17" s="9">
         <f t="shared" si="24"/>
-        <v>0.78707539353769684</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3812,38 +3812,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>163.35</v>
+        <v>168</v>
       </c>
       <c r="C18">
-        <v>167.4</v>
+        <v>169.5</v>
       </c>
       <c r="D18">
-        <v>162.55000000000001</v>
+        <v>164.9</v>
       </c>
       <c r="E18">
-        <v>166.1</v>
+        <v>167.25</v>
       </c>
       <c r="F18">
-        <v>2.9499999999999891</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="G18">
-        <v>1.808152007355188</v>
+        <v>-5.9755004481621937E-2</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="0"/>
-        <v>1.6835016835016834</v>
+        <v>-0.4464285714285714</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="1"/>
-        <v>1.6835016835016834</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="2"/>
-        <v>0.78266104756171662</v>
+        <v>0.89285714285714279</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="3"/>
-        <v>0.4897459442913884</v>
+        <v>1.4050822122570967</v>
       </c>
       <c r="L18" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3874,38 +3874,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>161.94999999999999</v>
+        <v>165.8</v>
       </c>
       <c r="T18">
-        <v>163.6</v>
+        <v>167.9</v>
       </c>
       <c r="U18">
-        <v>160.35</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="V18">
-        <v>163.15</v>
+        <v>167.35</v>
       </c>
       <c r="W18">
-        <v>2.9000000000000061</v>
+        <v>1.25</v>
       </c>
       <c r="X18">
-        <v>1.8096723868954789</v>
+        <v>0.75255869957856714</v>
       </c>
       <c r="Y18" s="9">
         <f t="shared" si="11"/>
-        <v>0.74096943501081636</v>
+        <v>0.93486127864896429</v>
       </c>
       <c r="Z18" s="9">
         <f t="shared" si="12"/>
-        <v>0.74096943501081636</v>
+        <v>0.93486127864896429</v>
       </c>
       <c r="AA18" s="9">
         <f t="shared" si="13"/>
-        <v>0.27581979773214133</v>
+        <v>0.32865252464894612</v>
       </c>
       <c r="AB18" s="9">
         <f t="shared" si="14"/>
-        <v>0.98795924668107094</v>
+        <v>1.8094089264173701</v>
       </c>
       <c r="AC18" s="9" t="str">
         <f t="shared" si="15"/>
@@ -3932,38 +3932,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>156.65</v>
+        <v>163.35</v>
       </c>
       <c r="AJ18">
-        <v>162.4</v>
+        <v>167.4</v>
       </c>
       <c r="AK18">
-        <v>156.4</v>
+        <v>162.55000000000001</v>
       </c>
       <c r="AL18">
-        <v>160.25</v>
+        <v>166.1</v>
       </c>
       <c r="AM18">
-        <v>4.5999999999999943</v>
+        <v>2.9499999999999891</v>
       </c>
       <c r="AN18">
-        <v>2.9553485383874039</v>
+        <v>1.808152007355188</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="21"/>
-        <v>2.298116820938394</v>
+        <v>1.6835016835016834</v>
       </c>
       <c r="AP18" s="9">
         <f t="shared" si="22"/>
-        <v>2.298116820938394</v>
+        <v>1.6835016835016834</v>
       </c>
       <c r="AQ18" s="9">
         <f t="shared" si="23"/>
-        <v>1.3416536661466494</v>
+        <v>0.78266104756171662</v>
       </c>
       <c r="AR18" s="9">
         <f t="shared" si="24"/>
-        <v>0.15959144589849983</v>
+        <v>0.4897459442913884</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3995,38 +3995,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>54.35</v>
+        <v>53.3</v>
       </c>
       <c r="C19">
-        <v>54.35</v>
+        <v>53.4</v>
       </c>
       <c r="D19">
-        <v>52.9</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>53.55</v>
+        <v>51.9</v>
       </c>
       <c r="F19">
-        <v>-0.70000000000000284</v>
+        <v>-0.75</v>
       </c>
       <c r="G19">
-        <v>-1.290322580645167</v>
+        <v>-1.424501424501424</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
-        <v>-1.4719411223551135</v>
+        <v>-2.6266416510318922</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="1"/>
-        <v>1.4719411223551135</v>
+        <v>2.6266416510318922</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18761726078799515</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="3"/>
-        <v>1.2138188608776819</v>
+        <v>1.7341040462427719</v>
       </c>
       <c r="L19" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4057,38 +4057,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
+        <v>53</v>
+      </c>
+      <c r="T19">
         <v>53.95</v>
       </c>
-      <c r="T19">
-        <v>54.45</v>
-      </c>
       <c r="U19">
-        <v>52.85</v>
+        <v>52.4</v>
       </c>
       <c r="V19">
-        <v>54.25</v>
+        <v>52.65</v>
       </c>
       <c r="W19">
-        <v>0.89999999999999858</v>
+        <v>-0.89999999999999858</v>
       </c>
       <c r="X19">
-        <v>1.6869728209934369</v>
+        <v>-1.6806722689075611</v>
       </c>
       <c r="Y19" s="9">
         <f t="shared" si="11"/>
-        <v>0.55607043558850255</v>
+        <v>-0.66037735849056878</v>
       </c>
       <c r="Z19" s="9">
         <f t="shared" si="12"/>
-        <v>0.55607043558850255</v>
+        <v>0.66037735849056878</v>
       </c>
       <c r="AA19" s="9">
         <f t="shared" si="13"/>
-        <v>0.36866359447005131</v>
+        <v>1.7924528301886848</v>
       </c>
       <c r="AB19" s="9">
         <f t="shared" si="14"/>
-        <v>2.0389249304911981</v>
+        <v>0.47483380816714149</v>
       </c>
       <c r="AC19" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4115,38 +4115,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>52.4</v>
+        <v>54.35</v>
       </c>
       <c r="AJ19">
-        <v>55</v>
+        <v>54.35</v>
       </c>
       <c r="AK19">
-        <v>52.3</v>
+        <v>52.9</v>
       </c>
       <c r="AL19">
-        <v>53.35</v>
+        <v>53.55</v>
       </c>
       <c r="AM19">
-        <v>1.550000000000004</v>
+        <v>-0.70000000000000284</v>
       </c>
       <c r="AN19">
-        <v>2.9922779922780012</v>
+        <v>-1.290322580645167</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="21"/>
-        <v>1.8129770992366467</v>
+        <v>-1.4719411223551135</v>
       </c>
       <c r="AP19" s="9">
         <f t="shared" si="22"/>
-        <v>1.8129770992366467</v>
+        <v>1.4719411223551135</v>
       </c>
       <c r="AQ19" s="9">
         <f t="shared" si="23"/>
-        <v>3.0927835051546366</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="9">
         <f t="shared" si="24"/>
-        <v>0.19083969465649128</v>
+        <v>1.2138188608776819</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4178,38 +4178,38 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>495</v>
+        <v>495.05</v>
       </c>
       <c r="C20">
-        <v>503.8</v>
+        <v>518.45000000000005</v>
       </c>
       <c r="D20">
-        <v>488.35</v>
+        <v>495.05</v>
       </c>
       <c r="E20">
-        <v>499.8</v>
+        <v>508.9</v>
       </c>
       <c r="F20">
-        <v>6.1999999999999886</v>
+        <v>16.199999999999989</v>
       </c>
       <c r="G20">
-        <v>1.2560777957860589</v>
+        <v>3.288004871118325</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="0"/>
-        <v>0.96969696969697194</v>
+        <v>2.7976972023027908</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="1"/>
-        <v>0.96969696969697194</v>
+        <v>2.7976972023027908</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" si="2"/>
-        <v>0.80032012805122055</v>
+        <v>1.8765965808606935</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="3"/>
-        <v>1.343434343434339</v>
+        <v>0</v>
       </c>
       <c r="L20" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4240,38 +4240,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>485.1</v>
+        <v>498.35</v>
       </c>
       <c r="T20">
-        <v>499.75</v>
+        <v>503</v>
       </c>
       <c r="U20">
-        <v>483</v>
+        <v>485.45</v>
       </c>
       <c r="V20">
-        <v>493.6</v>
+        <v>492.7</v>
       </c>
       <c r="W20">
-        <v>10.75</v>
+        <v>-7.1000000000000227</v>
       </c>
       <c r="X20">
-        <v>2.2263642953298119</v>
+        <v>-1.420568227290921</v>
       </c>
       <c r="Y20" s="9">
         <f t="shared" si="11"/>
-        <v>1.7522160379303235</v>
+        <v>-1.1337413464432695</v>
       </c>
       <c r="Z20" s="9">
         <f t="shared" si="12"/>
-        <v>1.7522160379303235</v>
+        <v>1.1337413464432695</v>
       </c>
       <c r="AA20" s="9">
         <f t="shared" si="13"/>
-        <v>1.245948136142621</v>
+        <v>0.93307916123206125</v>
       </c>
       <c r="AB20" s="9">
         <f t="shared" si="14"/>
-        <v>0.43290043290043756</v>
+        <v>1.4714836614572762</v>
       </c>
       <c r="AC20" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4298,38 +4298,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AJ20">
-        <v>492.2</v>
+        <v>503.8</v>
       </c>
       <c r="AK20">
-        <v>476</v>
+        <v>488.35</v>
       </c>
       <c r="AL20">
-        <v>482.85</v>
+        <v>499.8</v>
       </c>
       <c r="AM20">
-        <v>-2.299999999999955</v>
+        <v>6.1999999999999886</v>
       </c>
       <c r="AN20">
-        <v>-0.47408018138719049</v>
+        <v>1.2560777957860589</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="21"/>
-        <v>-0.8521560574948619</v>
+        <v>0.96969696969697194</v>
       </c>
       <c r="AP20" s="9">
         <f t="shared" si="22"/>
-        <v>0.8521560574948619</v>
+        <v>0.96969696969697194</v>
       </c>
       <c r="AQ20" s="9">
         <f t="shared" si="23"/>
-        <v>1.0677618069815173</v>
+        <v>0.80032012805122055</v>
       </c>
       <c r="AR20" s="9">
         <f t="shared" si="24"/>
-        <v>1.4186600393496991</v>
+        <v>1.343434343434339</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4361,38 +4361,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>23.85</v>
+        <v>23.7</v>
       </c>
       <c r="C21">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="D21">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E21">
-        <v>23.85</v>
+        <v>23.95</v>
       </c>
       <c r="F21">
-        <v>-4.9999999999997158E-2</v>
+        <v>0.14999999999999861</v>
       </c>
       <c r="G21">
-        <v>-0.2092050209204902</v>
+        <v>0.63025210084033012</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0548523206751055</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0548523206751055</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="2"/>
-        <v>1.0482180293501047</v>
+        <v>2.2964509394572055</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="3"/>
-        <v>1.0482180293501047</v>
+        <v>0</v>
       </c>
       <c r="L21" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4423,38 +4423,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>23.7</v>
+        <v>23.55</v>
       </c>
       <c r="T21">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="U21">
         <v>23.45</v>
       </c>
       <c r="V21">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="W21">
-        <v>0.19999999999999929</v>
+        <v>-5.0000000000000711E-2</v>
       </c>
       <c r="X21">
-        <v>0.84388185654008141</v>
+        <v>-0.2096436058700239</v>
       </c>
       <c r="Y21" s="9">
         <f t="shared" si="11"/>
-        <v>0.84388185654008141</v>
+        <v>1.0615711252653928</v>
       </c>
       <c r="Z21" s="9">
         <f t="shared" si="12"/>
-        <v>0.84388185654008141</v>
+        <v>1.0615711252653928</v>
       </c>
       <c r="AA21" s="9">
         <f t="shared" si="13"/>
-        <v>1.2552301255230156</v>
+        <v>0.42016806722688183</v>
       </c>
       <c r="AB21" s="9">
         <f t="shared" si="14"/>
-        <v>1.0548523206751055</v>
+        <v>0.42462845010616318</v>
       </c>
       <c r="AC21" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4481,38 +4481,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>23.65</v>
+        <v>23.85</v>
       </c>
       <c r="AJ21">
-        <v>24.25</v>
+        <v>24.1</v>
       </c>
       <c r="AK21">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AL21">
-        <v>23.7</v>
+        <v>23.85</v>
       </c>
       <c r="AM21">
-        <v>0.30000000000000071</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="AN21">
-        <v>1.282051282051285</v>
+        <v>-0.2092050209204902</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="21"/>
-        <v>0.21141649048626093</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="9">
         <f t="shared" si="22"/>
-        <v>0.21141649048626093</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="9">
         <f t="shared" si="23"/>
-        <v>2.3206751054852353</v>
+        <v>1.0482180293501047</v>
       </c>
       <c r="AR21" s="9">
         <f t="shared" si="24"/>
-        <v>0.63424947145876776</v>
+        <v>1.0482180293501047</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4547,35 +4547,35 @@
         <v>457</v>
       </c>
       <c r="C22">
-        <v>463</v>
+        <v>461.65</v>
       </c>
       <c r="D22">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E22">
-        <v>456.55</v>
+        <v>458.85</v>
       </c>
       <c r="F22">
-        <v>4.9000000000000341</v>
+        <v>0.1000000000000227</v>
       </c>
       <c r="G22">
-        <v>1.084910882320389</v>
+        <v>2.1798365122620761E-2</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="0"/>
-        <v>-9.8468271334789637E-2</v>
+        <v>0.40481400437637255</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="1"/>
-        <v>9.8468271334789637E-2</v>
+        <v>0.40481400437637255</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="2"/>
-        <v>1.3129102844638949</v>
+        <v>0.61022120518687029</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="3"/>
-        <v>0.77757091227686148</v>
+        <v>0</v>
       </c>
       <c r="L22" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4606,38 +4606,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>425</v>
+        <v>458.5</v>
       </c>
       <c r="T22">
-        <v>455.9</v>
+        <v>460</v>
       </c>
       <c r="U22">
-        <v>420.8</v>
+        <v>456.1</v>
       </c>
       <c r="V22">
-        <v>451.65</v>
+        <v>458.75</v>
       </c>
       <c r="W22">
-        <v>26.699999999999989</v>
+        <v>2.1999999999999891</v>
       </c>
       <c r="X22">
-        <v>6.2830921284857011</v>
+        <v>0.48187493155185379</v>
       </c>
       <c r="Y22" s="9">
         <f t="shared" si="11"/>
-        <v>6.2705882352941122</v>
+        <v>5.452562704471102E-2</v>
       </c>
       <c r="Z22" s="9">
         <f t="shared" si="12"/>
-        <v>6.2705882352941122</v>
+        <v>5.452562704471102E-2</v>
       </c>
       <c r="AA22" s="9">
         <f t="shared" si="13"/>
-        <v>0.94099413262482023</v>
+        <v>0.27247956403269752</v>
       </c>
       <c r="AB22" s="9">
         <f t="shared" si="14"/>
-        <v>0.98823529411764444</v>
+        <v>0.52344601962922077</v>
       </c>
       <c r="AC22" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4664,38 +4664,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>420.7</v>
+        <v>457</v>
       </c>
       <c r="AJ22">
-        <v>429.6</v>
+        <v>463</v>
       </c>
       <c r="AK22">
-        <v>409.5</v>
+        <v>453</v>
       </c>
       <c r="AL22">
-        <v>424.95</v>
+        <v>456.55</v>
       </c>
       <c r="AM22">
-        <v>7.75</v>
+        <v>4.9000000000000341</v>
       </c>
       <c r="AN22">
-        <v>1.8576222435282841</v>
+        <v>1.084910882320389</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="21"/>
-        <v>1.0102210601378656</v>
+        <v>-9.8468271334789637E-2</v>
       </c>
       <c r="AP22" s="9">
         <f t="shared" si="22"/>
-        <v>1.0102210601378656</v>
+        <v>9.8468271334789637E-2</v>
       </c>
       <c r="AQ22" s="9">
         <f t="shared" si="23"/>
-        <v>1.0942463819272936</v>
+        <v>1.3129102844638949</v>
       </c>
       <c r="AR22" s="9">
         <f t="shared" si="24"/>
-        <v>2.6622296173044897</v>
+        <v>0.77757091227686148</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4727,38 +4727,38 @@
         <v>71</v>
       </c>
       <c r="B23">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="C23">
         <v>32.299999999999997</v>
       </c>
-      <c r="C23">
-        <v>32.35</v>
-      </c>
       <c r="D23">
-        <v>31.55</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>32.1</v>
+        <v>31.1</v>
       </c>
       <c r="F23">
-        <v>-4.9999999999997158E-2</v>
+        <v>-0.84999999999999787</v>
       </c>
       <c r="G23">
-        <v>-0.15552099533436131</v>
+        <v>-2.660406885758992</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="0"/>
-        <v>-0.61919504643961532</v>
+        <v>-2.9641185647425767</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="1"/>
-        <v>0.61919504643961532</v>
+        <v>2.9641185647425767</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="2"/>
-        <v>0.15479876160992034</v>
+        <v>0.78003120124804992</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="3"/>
-        <v>1.7133956386292857</v>
+        <v>0.32154340836013318</v>
       </c>
       <c r="L23" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4789,38 +4789,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="T23">
         <v>32.4</v>
       </c>
       <c r="U23">
-        <v>30.65</v>
+        <v>31.5</v>
       </c>
       <c r="V23">
-        <v>32.15</v>
+        <v>31.95</v>
       </c>
       <c r="W23">
-        <v>1.0999999999999981</v>
+        <v>-0.1500000000000021</v>
       </c>
       <c r="X23">
-        <v>3.5426731078904918</v>
+        <v>-0.46728971962617488</v>
       </c>
       <c r="Y23" s="9">
         <f t="shared" si="11"/>
-        <v>2.7156549520766706</v>
+        <v>1.107594936708854</v>
       </c>
       <c r="Z23" s="9">
         <f t="shared" si="12"/>
-        <v>2.7156549520766706</v>
+        <v>1.107594936708854</v>
       </c>
       <c r="AA23" s="9">
         <f t="shared" si="13"/>
-        <v>0.77760497667185069</v>
+        <v>1.4084507042253498</v>
       </c>
       <c r="AB23" s="9">
         <f t="shared" si="14"/>
-        <v>2.0766773162939365</v>
+        <v>0.31645569620253611</v>
       </c>
       <c r="AC23" s="9" t="str">
         <f t="shared" si="15"/>
@@ -4847,38 +4847,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>31.4</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AJ23">
-        <v>31.7</v>
+        <v>32.35</v>
       </c>
       <c r="AK23">
-        <v>30.65</v>
+        <v>31.55</v>
       </c>
       <c r="AL23">
-        <v>31.05</v>
+        <v>32.1</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>-0.15552099533436131</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="21"/>
-        <v>-1.1146496815286557</v>
+        <v>-0.61919504643961532</v>
       </c>
       <c r="AP23" s="9">
         <f t="shared" si="22"/>
-        <v>1.1146496815286557</v>
+        <v>0.61919504643961532</v>
       </c>
       <c r="AQ23" s="9">
         <f t="shared" si="23"/>
-        <v>0.95541401273885584</v>
+        <v>0.15479876160992034</v>
       </c>
       <c r="AR23" s="9">
         <f t="shared" si="24"/>
-        <v>1.2882447665056429</v>
+        <v>1.7133956386292857</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4910,38 +4910,38 @@
         <v>72</v>
       </c>
       <c r="B24">
+        <v>420.5</v>
+      </c>
+      <c r="C24">
+        <v>426</v>
+      </c>
+      <c r="D24">
+        <v>412.3</v>
+      </c>
+      <c r="E24">
         <v>420</v>
       </c>
-      <c r="C24">
-        <v>422</v>
-      </c>
-      <c r="D24">
-        <v>408.85</v>
-      </c>
-      <c r="E24">
-        <v>413.2</v>
-      </c>
       <c r="F24">
-        <v>-6.6500000000000341</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="G24">
-        <v>-1.5838990115517531</v>
+        <v>0.33444816053511162</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>-1.6190476190476217</v>
+        <v>-0.11890606420927466</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="1"/>
-        <v>1.6190476190476217</v>
+        <v>0.11890606420927466</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="2"/>
-        <v>0.47619047619047622</v>
+        <v>1.3079667063020213</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="3"/>
-        <v>1.0527589545014437</v>
+        <v>1.8333333333333306</v>
       </c>
       <c r="L24" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4972,38 +4972,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>410.9</v>
+        <v>412.8</v>
       </c>
       <c r="T24">
-        <v>421.7</v>
+        <v>423.35</v>
       </c>
       <c r="U24">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="V24">
-        <v>419.85</v>
+        <v>418.6</v>
       </c>
       <c r="W24">
-        <v>11.05000000000001</v>
+        <v>5.4000000000000341</v>
       </c>
       <c r="X24">
-        <v>2.7030332681017639</v>
+        <v>1.306873184898363</v>
       </c>
       <c r="Y24" s="9">
         <f t="shared" si="11"/>
-        <v>2.1781455341932454</v>
+        <v>1.4050387596899252</v>
       </c>
       <c r="Z24" s="9">
         <f t="shared" si="12"/>
-        <v>2.1781455341932454</v>
+        <v>1.4050387596899252</v>
       </c>
       <c r="AA24" s="9">
         <f t="shared" si="13"/>
-        <v>0.44063355960461253</v>
+        <v>1.1347348303870042</v>
       </c>
       <c r="AB24" s="9">
         <f t="shared" si="14"/>
-        <v>0.2190313944998728</v>
+        <v>1.4050387596899252</v>
       </c>
       <c r="AC24" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5030,38 +5030,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>405.1</v>
+        <v>420</v>
       </c>
       <c r="AJ24">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AK24">
-        <v>402.8</v>
+        <v>408.85</v>
       </c>
       <c r="AL24">
-        <v>408.8</v>
+        <v>413.2</v>
       </c>
       <c r="AM24">
-        <v>5.6500000000000341</v>
+        <v>-6.6500000000000341</v>
       </c>
       <c r="AN24">
-        <v>1.401463475133333</v>
+        <v>-1.5838990115517531</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="21"/>
-        <v>0.91335472722784206</v>
+        <v>-1.6190476190476217</v>
       </c>
       <c r="AP24" s="9">
         <f t="shared" si="22"/>
-        <v>0.91335472722784206</v>
+        <v>1.6190476190476217</v>
       </c>
       <c r="AQ24" s="9">
         <f t="shared" si="23"/>
-        <v>1.2720156555772966</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="AR24" s="9">
         <f t="shared" si="24"/>
-        <v>0.5677610466551497</v>
+        <v>1.0527589545014437</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5093,38 +5093,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>208</v>
+        <v>201.55</v>
       </c>
       <c r="C25">
-        <v>209.8</v>
+        <v>203.5</v>
       </c>
       <c r="D25">
-        <v>202.15</v>
+        <v>197.1</v>
       </c>
       <c r="E25">
-        <v>204.15</v>
+        <v>198.3</v>
       </c>
       <c r="F25">
-        <v>-2.0499999999999829</v>
+        <v>-3.9499999999999891</v>
       </c>
       <c r="G25">
-        <v>-0.99418040737147584</v>
+        <v>-1.9530284301606871</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="0"/>
-        <v>-1.8509615384615357</v>
+        <v>-1.6125031009675019</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="1"/>
-        <v>1.8509615384615357</v>
+        <v>1.6125031009675019</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="2"/>
-        <v>0.86538461538462086</v>
+        <v>0.96750186058049537</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="3"/>
-        <v>0.97967180994366887</v>
+        <v>0.60514372163389663</v>
       </c>
       <c r="L25" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5155,38 +5155,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>209.65</v>
+        <v>200.1</v>
       </c>
       <c r="T25">
-        <v>211.5</v>
+        <v>204</v>
       </c>
       <c r="U25">
-        <v>202.55</v>
+        <v>198.6</v>
       </c>
       <c r="V25">
-        <v>206.2</v>
+        <v>202.25</v>
       </c>
       <c r="W25">
-        <v>-3.4500000000000171</v>
+        <v>-1.9000000000000059</v>
       </c>
       <c r="X25">
-        <v>-1.645599809205827</v>
+        <v>-0.93068821944648827</v>
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="11"/>
-        <v>-1.6455998092058273</v>
+        <v>1.0744627686156951</v>
       </c>
       <c r="Z25" s="9">
         <f t="shared" si="12"/>
-        <v>1.6455998092058273</v>
+        <v>1.0744627686156951</v>
       </c>
       <c r="AA25" s="9">
         <f t="shared" si="13"/>
-        <v>0.88242308609587128</v>
+        <v>0.86526576019777501</v>
       </c>
       <c r="AB25" s="9">
         <f t="shared" si="14"/>
-        <v>1.7701260911736068</v>
+        <v>0.7496251874062968</v>
       </c>
       <c r="AC25" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5213,38 +5213,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AJ25">
-        <v>211.35</v>
+        <v>209.8</v>
       </c>
       <c r="AK25">
-        <v>206.5</v>
+        <v>202.15</v>
       </c>
       <c r="AL25">
-        <v>209.65</v>
+        <v>204.15</v>
       </c>
       <c r="AM25">
-        <v>7.8000000000000114</v>
+        <v>-2.0499999999999829</v>
       </c>
       <c r="AN25">
-        <v>3.8642556353728081</v>
+        <v>-0.99418040737147584</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="21"/>
-        <v>-0.63981042654028164</v>
+        <v>-1.8509615384615357</v>
       </c>
       <c r="AP25" s="9">
         <f t="shared" si="22"/>
-        <v>0.63981042654028164</v>
+        <v>1.8509615384615357</v>
       </c>
       <c r="AQ25" s="9">
         <f t="shared" si="23"/>
-        <v>0.16587677725118213</v>
+        <v>0.86538461538462086</v>
       </c>
       <c r="AR25" s="9">
         <f t="shared" si="24"/>
-        <v>1.5025041736227072</v>
+        <v>0.97967180994366887</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5276,38 +5276,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>2363.35</v>
+        <v>2407.75</v>
       </c>
       <c r="C26">
-        <v>2389.5</v>
+        <v>2423.6</v>
       </c>
       <c r="D26">
-        <v>2345.1</v>
+        <v>2347.4499999999998</v>
       </c>
       <c r="E26">
-        <v>2382.6999999999998</v>
+        <v>2360.8000000000002</v>
       </c>
       <c r="F26">
-        <v>19.349999999999909</v>
+        <v>-46.949999999999818</v>
       </c>
       <c r="G26">
-        <v>0.81875304123383807</v>
+        <v>-1.9499532758799629</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="0"/>
-        <v>0.81875304123383807</v>
+        <v>-1.9499532758799634</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="1"/>
-        <v>0.81875304123383807</v>
+        <v>1.9499532758799634</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="2"/>
-        <v>0.28539052335586446</v>
+        <v>0.65829093552071061</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="3"/>
-        <v>0.7722089406985847</v>
+        <v>0.56548627583871414</v>
       </c>
       <c r="L26" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5338,38 +5338,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>2353</v>
+        <v>2378</v>
       </c>
       <c r="T26">
-        <v>2394.4</v>
+        <v>2414.85</v>
       </c>
       <c r="U26">
-        <v>2348</v>
+        <v>2360</v>
       </c>
       <c r="V26">
-        <v>2363.35</v>
+        <v>2407.75</v>
       </c>
       <c r="W26">
-        <v>16</v>
+        <v>25.050000000000178</v>
       </c>
       <c r="X26">
-        <v>0.68161969880929563</v>
+        <v>1.0513283250094509</v>
       </c>
       <c r="Y26" s="9">
         <f t="shared" si="11"/>
-        <v>0.43986400339991116</v>
+        <v>1.2510513036164845</v>
       </c>
       <c r="Z26" s="9">
         <f t="shared" si="12"/>
-        <v>0.43986400339991116</v>
+        <v>1.2510513036164845</v>
       </c>
       <c r="AA26" s="9">
         <f t="shared" si="13"/>
-        <v>1.3138130196543121</v>
+        <v>0.2948811130723667</v>
       </c>
       <c r="AB26" s="9">
         <f t="shared" si="14"/>
-        <v>0.21249468763280915</v>
+        <v>0.7569386038687973</v>
       </c>
       <c r="AC26" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5396,38 +5396,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>2357.9499999999998</v>
+        <v>2363.35</v>
       </c>
       <c r="AJ26">
-        <v>2368</v>
+        <v>2389.5</v>
       </c>
       <c r="AK26">
-        <v>2324.0500000000002</v>
+        <v>2345.1</v>
       </c>
       <c r="AL26">
-        <v>2347.35</v>
+        <v>2382.6999999999998</v>
       </c>
       <c r="AM26">
-        <v>20.049999999999731</v>
+        <v>19.349999999999909</v>
       </c>
       <c r="AN26">
-        <v>0.86151334164051596</v>
+        <v>0.81875304123383807</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="21"/>
-        <v>-0.44954303526367861</v>
+        <v>0.81875304123383807</v>
       </c>
       <c r="AP26" s="9">
         <f t="shared" si="22"/>
-        <v>0.44954303526367861</v>
+        <v>0.81875304123383807</v>
       </c>
       <c r="AQ26" s="9">
         <f t="shared" si="23"/>
-        <v>0.42621768909434815</v>
+        <v>0.28539052335586446</v>
       </c>
       <c r="AR26" s="9">
         <f t="shared" si="24"/>
-        <v>0.99260868639102517</v>
+        <v>0.7722089406985847</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5459,38 +5459,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>302.8</v>
+        <v>307.39999999999998</v>
       </c>
       <c r="C27">
-        <v>311.7</v>
+        <v>310.64999999999998</v>
       </c>
       <c r="D27">
-        <v>300</v>
+        <v>297.5</v>
       </c>
       <c r="E27">
-        <v>309.60000000000002</v>
+        <v>303.3</v>
       </c>
       <c r="F27">
-        <v>7.1500000000000341</v>
+        <v>-2.9499999999999891</v>
       </c>
       <c r="G27">
-        <v>2.364027111919337</v>
+        <v>-0.96326530612244521</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="0"/>
-        <v>2.2457067371202148</v>
+        <v>-1.3337670787247775</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="1"/>
-        <v>2.2457067371202148</v>
+        <v>1.3337670787247775</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="2"/>
-        <v>0.67829457364339985</v>
+        <v>1.0572543916720885</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="3"/>
-        <v>0.92470277410832602</v>
+        <v>1.9122980547312929</v>
       </c>
       <c r="L27" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5521,38 +5521,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>306</v>
+        <v>300.85000000000002</v>
       </c>
       <c r="T27">
-        <v>306.75</v>
+        <v>307.35000000000002</v>
       </c>
       <c r="U27">
-        <v>299.39999999999998</v>
+        <v>296.05</v>
       </c>
       <c r="V27">
-        <v>302.45</v>
+        <v>306.25</v>
       </c>
       <c r="W27">
-        <v>-0.1999999999999886</v>
+        <v>-3.3500000000000232</v>
       </c>
       <c r="X27">
-        <v>-6.6082934082269493E-2</v>
+        <v>-1.082041343669258</v>
       </c>
       <c r="Y27" s="9">
         <f t="shared" si="11"/>
-        <v>-1.160130718954252</v>
+        <v>1.7949144091739995</v>
       </c>
       <c r="Z27" s="9">
         <f t="shared" si="12"/>
-        <v>1.160130718954252</v>
+        <v>1.7949144091739995</v>
       </c>
       <c r="AA27" s="9">
         <f t="shared" si="13"/>
-        <v>0.24509803921568626</v>
+        <v>0.35918367346939517</v>
       </c>
       <c r="AB27" s="9">
         <f t="shared" si="14"/>
-        <v>1.0084311456439119</v>
+        <v>1.5954794748213434</v>
       </c>
       <c r="AC27" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5579,38 +5579,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
+        <v>302.8</v>
+      </c>
+      <c r="AJ27">
+        <v>311.7</v>
+      </c>
+      <c r="AK27">
         <v>300</v>
       </c>
-      <c r="AJ27">
-        <v>306.64999999999998</v>
-      </c>
-      <c r="AK27">
-        <v>297.25</v>
-      </c>
       <c r="AL27">
-        <v>302.64999999999998</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="AM27">
-        <v>6.1499999999999773</v>
+        <v>7.1500000000000341</v>
       </c>
       <c r="AN27">
-        <v>2.074198988195608</v>
+        <v>2.364027111919337</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="21"/>
-        <v>0.88333333333332575</v>
+        <v>2.2457067371202148</v>
       </c>
       <c r="AP27" s="9">
         <f t="shared" si="22"/>
-        <v>0.88333333333332575</v>
+        <v>2.2457067371202148</v>
       </c>
       <c r="AQ27" s="9">
         <f t="shared" si="23"/>
-        <v>1.3216586816454652</v>
+        <v>0.67829457364339985</v>
       </c>
       <c r="AR27" s="9">
         <f t="shared" si="24"/>
-        <v>0.91666666666666663</v>
+        <v>0.92470277410832602</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5642,38 +5642,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>137.80000000000001</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="C28">
-        <v>141.44999999999999</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="D28">
-        <v>136.30000000000001</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="E28">
-        <v>137.25</v>
+        <v>133.25</v>
       </c>
       <c r="F28">
-        <v>-0.84999999999999432</v>
+        <v>-2.8499999999999939</v>
       </c>
       <c r="G28">
-        <v>-0.61549601737870696</v>
+        <v>-2.0940484937545878</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="0"/>
-        <v>-0.3991291727140866</v>
+        <v>-2.8790087463556771</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="1"/>
-        <v>0.3991291727140866</v>
+        <v>2.8790087463556771</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="2"/>
-        <v>2.6487663280115941</v>
+        <v>0.80174927113704286</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="3"/>
-        <v>0.69216757741347079</v>
+        <v>0.41275797373359197</v>
       </c>
       <c r="L28" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="N28" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O28" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5704,38 +5704,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>134.69999999999999</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="T28">
-        <v>138.75</v>
+        <v>140.15</v>
       </c>
       <c r="U28">
-        <v>133.80000000000001</v>
+        <v>135.15</v>
       </c>
       <c r="V28">
-        <v>138.1</v>
+        <v>136.1</v>
       </c>
       <c r="W28">
-        <v>4.6500000000000057</v>
+        <v>-1.1500000000000059</v>
       </c>
       <c r="X28">
-        <v>3.4844511052828819</v>
+        <v>-0.83788706739526819</v>
       </c>
       <c r="Y28" s="9">
         <f t="shared" si="11"/>
-        <v>2.5241276911655572</v>
+        <v>-0.51169590643276097</v>
       </c>
       <c r="Z28" s="9">
         <f t="shared" si="12"/>
-        <v>2.5241276911655572</v>
+        <v>0.51169590643276097</v>
       </c>
       <c r="AA28" s="9">
         <f t="shared" si="13"/>
-        <v>0.47067342505431259</v>
+        <v>2.448830409356721</v>
       </c>
       <c r="AB28" s="9">
         <f t="shared" si="14"/>
-        <v>0.66815144766145307</v>
+        <v>0.69801616458485571</v>
       </c>
       <c r="AC28" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5762,38 +5762,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>131.69999999999999</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="AJ28">
-        <v>135.44999999999999</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="AK28">
-        <v>131.1</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="AL28">
-        <v>133.44999999999999</v>
+        <v>137.25</v>
       </c>
       <c r="AM28">
-        <v>2.5999999999999939</v>
+        <v>-0.84999999999999432</v>
       </c>
       <c r="AN28">
-        <v>1.9870080244554791</v>
+        <v>-0.61549601737870696</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="21"/>
-        <v>1.328777524677297</v>
+        <v>-0.3991291727140866</v>
       </c>
       <c r="AP28" s="9">
         <f t="shared" si="22"/>
-        <v>1.328777524677297</v>
+        <v>0.3991291727140866</v>
       </c>
       <c r="AQ28" s="9">
         <f t="shared" si="23"/>
-        <v>1.4986886474334957</v>
+        <v>2.6487663280115941</v>
       </c>
       <c r="AR28" s="9">
         <f t="shared" si="24"/>
-        <v>0.45558086560364036</v>
+        <v>0.69216757741347079</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="AV28" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW28" t="str">
         <f t="shared" si="29"/>
@@ -5825,38 +5825,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>159.6</v>
+        <v>161.5</v>
       </c>
       <c r="C29">
-        <v>162.65</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="D29">
-        <v>158.5</v>
+        <v>159.35</v>
       </c>
       <c r="E29">
-        <v>160.69999999999999</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.94999999999998863</v>
       </c>
       <c r="G29">
-        <v>0.31210986267166052</v>
+        <v>0.59282371294851088</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="0"/>
-        <v>0.68922305764410674</v>
+        <v>-0.18575851393189557</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="1"/>
-        <v>0.68922305764410674</v>
+        <v>0.18575851393189557</v>
       </c>
       <c r="J29" s="9">
         <f t="shared" si="2"/>
-        <v>1.2134411947728794</v>
+        <v>1.1145510835913384</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="3"/>
-        <v>0.68922305764410674</v>
+        <v>1.1476426799007411</v>
       </c>
       <c r="L29" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5887,38 +5887,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>162.1</v>
+        <v>158.5</v>
       </c>
       <c r="T29">
-        <v>162.1</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="U29">
-        <v>155.5</v>
+        <v>158</v>
       </c>
       <c r="V29">
-        <v>160.19999999999999</v>
+        <v>160.25</v>
       </c>
       <c r="W29">
-        <v>1.4499999999999891</v>
+        <v>-0.44999999999998858</v>
       </c>
       <c r="X29">
-        <v>0.91338582677164637</v>
+        <v>-0.2800248911014242</v>
       </c>
       <c r="Y29" s="9">
         <f t="shared" si="11"/>
-        <v>-1.1721159777914902</v>
+        <v>1.1041009463722398</v>
       </c>
       <c r="Z29" s="9">
         <f t="shared" si="12"/>
-        <v>1.1721159777914902</v>
+        <v>1.1041009463722398</v>
       </c>
       <c r="AA29" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.96723868954758896</v>
       </c>
       <c r="AB29" s="9">
         <f t="shared" si="14"/>
-        <v>2.9338327091136009</v>
+        <v>0.31545741324921134</v>
       </c>
       <c r="AC29" s="9" t="str">
         <f t="shared" si="15"/>
@@ -5945,38 +5945,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
+        <v>159.6</v>
+      </c>
+      <c r="AJ29">
+        <v>162.65</v>
+      </c>
+      <c r="AK29">
         <v>158.5</v>
       </c>
-      <c r="AJ29">
-        <v>162.9</v>
-      </c>
-      <c r="AK29">
-        <v>158</v>
-      </c>
       <c r="AL29">
-        <v>158.75</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="AM29">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AN29">
-        <v>0.95389507154213027</v>
+        <v>0.31210986267166052</v>
       </c>
       <c r="AO29" s="9">
         <f t="shared" si="21"/>
-        <v>0.15772870662460567</v>
+        <v>0.68922305764410674</v>
       </c>
       <c r="AP29" s="9">
         <f t="shared" si="22"/>
-        <v>0.15772870662460567</v>
+        <v>0.68922305764410674</v>
       </c>
       <c r="AQ29" s="9">
         <f t="shared" si="23"/>
-        <v>2.6141732283464605</v>
+        <v>1.2134411947728794</v>
       </c>
       <c r="AR29" s="9">
         <f t="shared" si="24"/>
-        <v>0.31545741324921134</v>
+        <v>0.68922305764410674</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -6008,38 +6008,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>619.95000000000005</v>
+        <v>622.9</v>
       </c>
       <c r="C30">
-        <v>629.25</v>
+        <v>628</v>
       </c>
       <c r="D30">
-        <v>615</v>
+        <v>606.15</v>
       </c>
       <c r="E30">
-        <v>620.85</v>
+        <v>610.5</v>
       </c>
       <c r="F30">
-        <v>2.200000000000045</v>
+        <v>-10.899999999999981</v>
       </c>
       <c r="G30">
-        <v>0.3556130283682285</v>
+        <v>-1.7541036369488221</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="0"/>
-        <v>0.14517299782240137</v>
+        <v>-1.9906887140793028</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="1"/>
-        <v>0.14517299782240137</v>
+        <v>1.9906887140793028</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" si="2"/>
-        <v>1.3529838125150966</v>
+        <v>0.81875100337133133</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="3"/>
-        <v>0.79845148802323507</v>
+        <v>0.7125307125307162</v>
       </c>
       <c r="L30" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6070,38 +6070,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="T30">
-        <v>632.79999999999995</v>
+        <v>626.29999999999995</v>
       </c>
       <c r="U30">
-        <v>611.25</v>
+        <v>606.5</v>
       </c>
       <c r="V30">
-        <v>618.65</v>
+        <v>621.4</v>
       </c>
       <c r="W30">
-        <v>-1.649999999999977</v>
+        <v>0.54999999999995453</v>
       </c>
       <c r="X30">
-        <v>-0.26600032242462962</v>
+        <v>8.8588225819433764E-2</v>
       </c>
       <c r="Y30" s="9">
         <f t="shared" si="11"/>
-        <v>-0.37842190016103427</v>
+        <v>0.22580645161289956</v>
       </c>
       <c r="Z30" s="9">
         <f t="shared" si="12"/>
-        <v>0.37842190016103427</v>
+        <v>0.22580645161289956</v>
       </c>
       <c r="AA30" s="9">
         <f t="shared" si="13"/>
-        <v>1.9001610305958059</v>
+        <v>0.78854200193111956</v>
       </c>
       <c r="AB30" s="9">
         <f t="shared" si="14"/>
-        <v>1.1961529136021947</v>
+        <v>2.1774193548387095</v>
       </c>
       <c r="AC30" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6128,38 +6128,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>605</v>
+        <v>619.95000000000005</v>
       </c>
       <c r="AJ30">
-        <v>631.9</v>
+        <v>629.25</v>
       </c>
       <c r="AK30">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="AL30">
-        <v>620.29999999999995</v>
+        <v>620.85</v>
       </c>
       <c r="AM30">
-        <v>22.449999999999928</v>
+        <v>2.200000000000045</v>
       </c>
       <c r="AN30">
-        <v>3.755122522371821</v>
+        <v>0.3556130283682285</v>
       </c>
       <c r="AO30" s="9">
         <f t="shared" si="21"/>
-        <v>2.5289256198347032</v>
+        <v>0.14517299782240137</v>
       </c>
       <c r="AP30" s="9">
         <f t="shared" si="22"/>
-        <v>2.5289256198347032</v>
+        <v>0.14517299782240137</v>
       </c>
       <c r="AQ30" s="9">
         <f t="shared" si="23"/>
-        <v>1.8700628728034858</v>
+        <v>1.3529838125150966</v>
       </c>
       <c r="AR30" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.79845148802323507</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6191,38 +6191,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C31">
-        <v>920</v>
+        <v>928.75</v>
       </c>
       <c r="D31">
-        <v>905</v>
+        <v>911.9</v>
       </c>
       <c r="E31">
-        <v>909.3</v>
+        <v>919.15</v>
       </c>
       <c r="F31">
-        <v>-27.25</v>
+        <v>7.4499999999999318</v>
       </c>
       <c r="G31">
-        <v>-2.9096150766109661</v>
+        <v>0.81715476582208313</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="0"/>
-        <v>-0.83969465648855457</v>
+        <v>0.34388646288209357</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="1"/>
-        <v>0.83969465648855457</v>
+        <v>0.34388646288209357</v>
       </c>
       <c r="J31" s="9">
         <f t="shared" si="2"/>
-        <v>0.32715376226826609</v>
+        <v>1.0444432355981095</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="3"/>
-        <v>0.47289123501594138</v>
+        <v>0.44759825327511166</v>
       </c>
       <c r="L31" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6253,38 +6253,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>939.45</v>
+        <v>911.6</v>
       </c>
       <c r="T31">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="U31">
-        <v>917.5</v>
+        <v>904.05</v>
       </c>
       <c r="V31">
-        <v>936.55</v>
+        <v>911.7</v>
       </c>
       <c r="W31">
-        <v>6.7999999999999554</v>
+        <v>2.4000000000000909</v>
       </c>
       <c r="X31">
-        <v>0.73137940306533522</v>
+        <v>0.26393929396239868</v>
       </c>
       <c r="Y31" s="9">
         <f t="shared" si="11"/>
-        <v>-0.30869125552185755</v>
+        <v>1.0969723562968707E-2</v>
       </c>
       <c r="Z31" s="9">
         <f t="shared" si="12"/>
-        <v>0.30869125552185755</v>
+        <v>1.0969723562968707E-2</v>
       </c>
       <c r="AA31" s="9">
         <f t="shared" si="13"/>
-        <v>0.1649901538133966</v>
+        <v>0.69101678183612525</v>
       </c>
       <c r="AB31" s="9">
         <f t="shared" si="14"/>
-        <v>2.0340611819977528</v>
+        <v>0.82821412900395652</v>
       </c>
       <c r="AC31" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6311,38 +6311,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="AJ31">
-        <v>949</v>
+        <v>920</v>
       </c>
       <c r="AK31">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="AL31">
-        <v>929.75</v>
+        <v>909.3</v>
       </c>
       <c r="AM31">
-        <v>23.649999999999981</v>
+        <v>-27.25</v>
       </c>
       <c r="AN31">
-        <v>2.6100871868447171</v>
+        <v>-2.9096150766109661</v>
       </c>
       <c r="AO31" s="9">
         <f t="shared" si="21"/>
-        <v>2.0581778265642154</v>
+        <v>-0.83969465648855457</v>
       </c>
       <c r="AP31" s="9">
         <f t="shared" si="22"/>
-        <v>2.0581778265642154</v>
+        <v>0.83969465648855457</v>
       </c>
       <c r="AQ31" s="9">
         <f t="shared" si="23"/>
-        <v>2.0704490454423232</v>
+        <v>0.32715376226826609</v>
       </c>
       <c r="AR31" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.47289123501594138</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="AV31" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW31" t="str">
         <f t="shared" si="29"/>
@@ -6374,38 +6374,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>1255</v>
+        <v>1281</v>
       </c>
       <c r="C32">
-        <v>1265.8</v>
+        <v>1292.45</v>
       </c>
       <c r="D32">
-        <v>1244.55</v>
+        <v>1265.9000000000001</v>
       </c>
       <c r="E32">
-        <v>1260.5999999999999</v>
+        <v>1272.5</v>
       </c>
       <c r="F32">
-        <v>8.8999999999998636</v>
+        <v>-2.200000000000045</v>
       </c>
       <c r="G32">
-        <v>0.71103299512661688</v>
+        <v>-0.1725896289323014</v>
       </c>
       <c r="H32" s="9">
         <f t="shared" si="0"/>
-        <v>0.4462151394422238</v>
+        <v>-0.66354410616705706</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="1"/>
-        <v>0.4462151394422238</v>
+        <v>0.66354410616705706</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>0.41250198318261511</v>
+        <v>0.89383294301327432</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="3"/>
-        <v>0.83266932270916694</v>
+        <v>0.5186640471512699</v>
       </c>
       <c r="L32" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6436,38 +6436,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>1226.5</v>
+        <v>1257.6500000000001</v>
       </c>
       <c r="T32">
-        <v>1256</v>
+        <v>1282</v>
       </c>
       <c r="U32">
-        <v>1217.7</v>
+        <v>1240</v>
       </c>
       <c r="V32">
-        <v>1251.7</v>
+        <v>1274.7</v>
       </c>
       <c r="W32">
-        <v>30</v>
+        <v>14.10000000000014</v>
       </c>
       <c r="X32">
-        <v>2.4555946631742649</v>
+        <v>1.118514992860554</v>
       </c>
       <c r="Y32" s="9">
         <f t="shared" si="11"/>
-        <v>2.054626987362417</v>
+        <v>1.3557030970460742</v>
       </c>
       <c r="Z32" s="9">
         <f t="shared" si="12"/>
-        <v>2.054626987362417</v>
+        <v>1.3557030970460742</v>
       </c>
       <c r="AA32" s="9">
         <f t="shared" si="13"/>
-        <v>0.34353279539825471</v>
+        <v>0.57268376872989368</v>
       </c>
       <c r="AB32" s="9">
         <f t="shared" si="14"/>
-        <v>0.71748878923766446</v>
+        <v>1.4034111239216069</v>
       </c>
       <c r="AC32" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6494,38 +6494,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>1195</v>
+        <v>1255</v>
       </c>
       <c r="AJ32">
-        <v>1238.6500000000001</v>
+        <v>1265.8</v>
       </c>
       <c r="AK32">
-        <v>1195</v>
+        <v>1244.55</v>
       </c>
       <c r="AL32">
-        <v>1221.7</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="AM32">
-        <v>37.900000000000091</v>
+        <v>8.8999999999998636</v>
       </c>
       <c r="AN32">
-        <v>3.2015543166075431</v>
+        <v>0.71103299512661688</v>
       </c>
       <c r="AO32" s="9">
         <f t="shared" si="21"/>
-        <v>2.2343096234309661</v>
+        <v>0.4462151394422238</v>
       </c>
       <c r="AP32" s="9">
         <f t="shared" si="22"/>
-        <v>2.2343096234309661</v>
+        <v>0.4462151394422238</v>
       </c>
       <c r="AQ32" s="9">
         <f t="shared" si="23"/>
-        <v>1.3874109846934637</v>
+        <v>0.41250198318261511</v>
       </c>
       <c r="AR32" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.83266932270916694</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6557,38 +6557,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>58600</v>
+        <v>59600.85</v>
       </c>
       <c r="C33">
-        <v>59850</v>
+        <v>59970</v>
       </c>
       <c r="D33">
-        <v>58508.45</v>
+        <v>58530.75</v>
       </c>
       <c r="E33">
-        <v>59573.95</v>
+        <v>58950.6</v>
       </c>
       <c r="F33">
-        <v>1165.5</v>
+        <v>-580.25</v>
       </c>
       <c r="G33">
-        <v>1.9954304556960509</v>
+        <v>-0.97470471192667341</v>
       </c>
       <c r="H33" s="9">
         <f t="shared" si="0"/>
-        <v>1.6620307167235444</v>
+        <v>-1.0910079302560283</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="1"/>
-        <v>1.6620307167235444</v>
+        <v>1.0910079302560283</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>0.46337367255319301</v>
+        <v>0.6193703613287419</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="3"/>
-        <v>0.15622866894198451</v>
+        <v>0.71220649153697935</v>
       </c>
       <c r="L33" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6619,38 +6619,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>58600</v>
+        <v>59310</v>
       </c>
       <c r="T33">
-        <v>59400</v>
+        <v>59778</v>
       </c>
       <c r="U33">
-        <v>58200</v>
+        <v>59154.55</v>
       </c>
       <c r="V33">
-        <v>58408.45</v>
+        <v>59530.85</v>
       </c>
       <c r="W33">
-        <v>-111.4000000000015</v>
+        <v>-43.099999999998538</v>
       </c>
       <c r="X33">
-        <v>-0.19036275725245611</v>
+        <v>-7.2347057732446055E-2</v>
       </c>
       <c r="Y33" s="9">
         <f t="shared" si="11"/>
-        <v>-0.32687713310580702</v>
+        <v>0.37236553700893366</v>
       </c>
       <c r="Z33" s="9">
         <f t="shared" si="12"/>
-        <v>0.32687713310580702</v>
+        <v>0.37236553700893366</v>
       </c>
       <c r="AA33" s="9">
         <f t="shared" si="13"/>
-        <v>1.3651877133105803</v>
+        <v>0.41516289453283711</v>
       </c>
       <c r="AB33" s="9">
         <f t="shared" si="14"/>
-        <v>0.35688329342757275</v>
+        <v>0.26209745405496054</v>
       </c>
       <c r="AC33" s="9" t="str">
         <f t="shared" si="15"/>
@@ -6677,38 +6677,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>59230.05</v>
+        <v>58600</v>
       </c>
       <c r="AJ33">
-        <v>59800</v>
+        <v>59850</v>
       </c>
       <c r="AK33">
-        <v>58199.85</v>
+        <v>58508.45</v>
       </c>
       <c r="AL33">
-        <v>58519.85</v>
+        <v>59573.95</v>
       </c>
       <c r="AM33">
-        <v>-706.84999999999854</v>
+        <v>1165.5</v>
       </c>
       <c r="AN33">
-        <v>-1.1934651094860911</v>
+        <v>1.9954304556960509</v>
       </c>
       <c r="AO33" s="9">
         <f t="shared" si="21"/>
-        <v>-1.1990535209745803</v>
+        <v>1.6620307167235444</v>
       </c>
       <c r="AP33" s="9">
         <f t="shared" si="22"/>
-        <v>1.1990535209745803</v>
+        <v>1.6620307167235444</v>
       </c>
       <c r="AQ33" s="9">
         <f t="shared" si="23"/>
-        <v>0.9622649313988374</v>
+        <v>0.46337367255319301</v>
       </c>
       <c r="AR33" s="9">
         <f t="shared" si="24"/>
-        <v>0.54682300108424742</v>
+        <v>0.15622866894198451</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6740,38 +6740,38 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>1135</v>
+        <v>1131.9000000000001</v>
       </c>
       <c r="C34">
-        <v>1173</v>
+        <v>1134.7</v>
       </c>
       <c r="D34">
-        <v>1128.1500000000001</v>
+        <v>1100</v>
       </c>
       <c r="E34">
-        <v>1144.45</v>
+        <v>1105</v>
       </c>
       <c r="F34">
-        <v>13.400000000000089</v>
+        <v>-20.900000000000091</v>
       </c>
       <c r="G34">
-        <v>1.184739843508253</v>
+        <v>-1.8562927435829191</v>
       </c>
       <c r="H34" s="9">
         <f t="shared" ref="H34:H50" si="31">(E34-B34)/B34*100</f>
-        <v>0.83259911894273531</v>
+        <v>-2.3765350295962619</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>0.83259911894273531</v>
+        <v>2.3765350295962619</v>
       </c>
       <c r="J34" s="9">
         <f t="shared" ref="J34:J50" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>2.4946480842325967</v>
+        <v>0.24737167594310044</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" ref="K34:K50" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>0.6035242290748819</v>
+        <v>0.45248868778280549</v>
       </c>
       <c r="L34" s="9" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
@@ -6802,38 +6802,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>1128</v>
+        <v>1143</v>
       </c>
       <c r="T34">
-        <v>1141.8499999999999</v>
+        <v>1143.45</v>
       </c>
       <c r="U34">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V34">
-        <v>1131.05</v>
+        <v>1125.9000000000001</v>
       </c>
       <c r="W34">
-        <v>7.5999999999999091</v>
+        <v>-18.549999999999951</v>
       </c>
       <c r="X34">
-        <v>0.67648760514485806</v>
+        <v>-1.620865918126607</v>
       </c>
       <c r="Y34" s="9">
         <f t="shared" ref="Y34:Y50" si="41">(V34-S34)/S34*100</f>
-        <v>0.27039007092198181</v>
+        <v>-1.4960629921259763</v>
       </c>
       <c r="Z34" s="9">
         <f t="shared" ref="Z34:Z65" si="42">ABS(Y34)</f>
-        <v>0.27039007092198181</v>
+        <v>1.4960629921259763</v>
       </c>
       <c r="AA34" s="9">
         <f t="shared" ref="AA34:AA50" si="43">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>0.95486494849917825</v>
+        <v>3.9370078740161456E-2</v>
       </c>
       <c r="AB34" s="9">
         <f t="shared" ref="AB34:AB50" si="44">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>1.0638297872340425</v>
+        <v>0.96811439737100013</v>
       </c>
       <c r="AC34" s="9" t="str">
         <f t="shared" ref="AC34:AC50" si="45">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6860,38 +6860,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="AJ34">
-        <v>1146.8499999999999</v>
+        <v>1173</v>
       </c>
       <c r="AK34">
-        <v>1113.4000000000001</v>
+        <v>1128.1500000000001</v>
       </c>
       <c r="AL34">
-        <v>1123.45</v>
+        <v>1144.45</v>
       </c>
       <c r="AM34">
-        <v>-5.0499999999999554</v>
+        <v>13.400000000000089</v>
       </c>
       <c r="AN34">
-        <v>-0.44749667700486973</v>
+        <v>1.184739843508253</v>
       </c>
       <c r="AO34" s="9">
         <f t="shared" ref="AO34:AO50" si="51">(AL34-AI34)/AI34*100</f>
-        <v>-1.2785588752196797</v>
+        <v>0.83259911894273531</v>
       </c>
       <c r="AP34" s="9">
         <f t="shared" ref="AP34:AP65" si="52">ABS(AO34)</f>
-        <v>1.2785588752196797</v>
+        <v>0.83259911894273531</v>
       </c>
       <c r="AQ34" s="9">
         <f t="shared" ref="AQ34:AQ50" si="53">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>0.77768014059753154</v>
+        <v>2.4946480842325967</v>
       </c>
       <c r="AR34" s="9">
         <f t="shared" ref="AR34:AR50" si="54">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>0.89456584627708879</v>
+        <v>0.6035242290748819</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS50" si="55">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6923,38 +6923,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>34.15</v>
+        <v>34.35</v>
       </c>
       <c r="C35">
-        <v>34.700000000000003</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="D35">
-        <v>33.700000000000003</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="E35">
-        <v>34.5</v>
+        <v>34.9</v>
       </c>
       <c r="F35">
-        <v>0.20000000000000279</v>
+        <v>0.44999999999999568</v>
       </c>
       <c r="G35">
-        <v>0.58309037900875471</v>
+        <v>1.3062409288824259</v>
       </c>
       <c r="H35" s="9">
         <f t="shared" si="31"/>
-        <v>1.0248901903367538</v>
+        <v>1.6011644832605447</v>
       </c>
       <c r="I35" s="9">
         <f t="shared" si="32"/>
-        <v>1.0248901903367538</v>
+        <v>1.6011644832605447</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="33"/>
-        <v>0.57971014492754447</v>
+        <v>1.5759312320917027</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="34"/>
-        <v>1.3177159590043799</v>
+        <v>0.87336244541485963</v>
       </c>
       <c r="L35" s="9" t="str">
         <f t="shared" si="35"/>
@@ -6985,38 +6985,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>35.299999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="T35">
-        <v>35.4</v>
+        <v>34.6</v>
       </c>
       <c r="U35">
-        <v>34.15</v>
+        <v>33.65</v>
       </c>
       <c r="V35">
-        <v>34.299999999999997</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="W35">
-        <v>-0.90000000000000568</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="X35">
-        <v>-2.5568181818181981</v>
+        <v>-0.14492753623187579</v>
       </c>
       <c r="Y35" s="9">
         <f t="shared" si="41"/>
-        <v>-2.8328611898017</v>
+        <v>-0.14492753623187582</v>
       </c>
       <c r="Z35" s="9">
         <f t="shared" si="42"/>
-        <v>2.8328611898017</v>
+        <v>0.14492753623187582</v>
       </c>
       <c r="AA35" s="9">
         <f t="shared" si="43"/>
-        <v>0.28328611898017403</v>
+        <v>0.28985507246377223</v>
       </c>
       <c r="AB35" s="9">
         <f t="shared" si="44"/>
-        <v>0.4373177842565556</v>
+        <v>2.3222060957910138</v>
       </c>
       <c r="AC35" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7043,38 +7043,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>35.299999999999997</v>
+        <v>34.15</v>
       </c>
       <c r="AJ35">
-        <v>36.450000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AK35">
-        <v>34.799999999999997</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="AL35">
-        <v>35.200000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="AM35">
-        <v>0.40000000000000568</v>
+        <v>0.20000000000000279</v>
       </c>
       <c r="AN35">
-        <v>1.149425287356338</v>
+        <v>0.58309037900875471</v>
       </c>
       <c r="AO35" s="9">
         <f t="shared" si="51"/>
-        <v>-0.28328611898015388</v>
+        <v>1.0248901903367538</v>
       </c>
       <c r="AP35" s="9">
         <f t="shared" si="52"/>
-        <v>0.28328611898015388</v>
+        <v>1.0248901903367538</v>
       </c>
       <c r="AQ35" s="9">
         <f t="shared" si="53"/>
-        <v>3.2577903682719711</v>
+        <v>0.57971014492754447</v>
       </c>
       <c r="AR35" s="9">
         <f t="shared" si="54"/>
-        <v>1.1363636363636525</v>
+        <v>1.3177159590043799</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="55"/>
@@ -7106,38 +7106,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>3560.7</v>
+        <v>3516.9</v>
       </c>
       <c r="C36">
-        <v>3581.7</v>
+        <v>3578.8</v>
       </c>
       <c r="D36">
-        <v>3505</v>
+        <v>3438.85</v>
       </c>
       <c r="E36">
-        <v>3539.8</v>
+        <v>3487.3</v>
       </c>
       <c r="F36">
-        <v>6.25</v>
+        <v>-29.599999999999909</v>
       </c>
       <c r="G36">
-        <v>0.17687594628631259</v>
+        <v>-0.8416503170405728</v>
       </c>
       <c r="H36" s="9">
         <f t="shared" si="31"/>
-        <v>-0.58696323756563706</v>
+        <v>-0.8416503170405728</v>
       </c>
       <c r="I36" s="9">
         <f t="shared" si="32"/>
-        <v>0.58696323756563706</v>
+        <v>0.8416503170405728</v>
       </c>
       <c r="J36" s="9">
         <f t="shared" si="33"/>
-        <v>0.58977167410902354</v>
+        <v>1.7600727913787737</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="34"/>
-        <v>0.98310639019154133</v>
+        <v>1.3893269864938569</v>
       </c>
       <c r="L36" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7168,38 +7168,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>3450</v>
+        <v>3540</v>
       </c>
       <c r="T36">
-        <v>3559.2</v>
+        <v>3618.05</v>
       </c>
       <c r="U36">
-        <v>3410.3</v>
+        <v>3497.45</v>
       </c>
       <c r="V36">
-        <v>3533.55</v>
+        <v>3516.9</v>
       </c>
       <c r="W36">
-        <v>99.450000000000273</v>
+        <v>-22.900000000000091</v>
       </c>
       <c r="X36">
-        <v>2.8959552721237092</v>
+        <v>-0.64692920503983531</v>
       </c>
       <c r="Y36" s="9">
         <f t="shared" si="41"/>
-        <v>2.4217391304347879</v>
+        <v>-0.65254237288135342</v>
       </c>
       <c r="Z36" s="9">
         <f t="shared" si="42"/>
-        <v>2.4217391304347879</v>
+        <v>0.65254237288135342</v>
       </c>
       <c r="AA36" s="9">
         <f t="shared" si="43"/>
-        <v>0.72589888355901677</v>
+        <v>2.2048022598870105</v>
       </c>
       <c r="AB36" s="9">
         <f t="shared" si="44"/>
-        <v>1.1507246376811542</v>
+        <v>0.55304387386619669</v>
       </c>
       <c r="AC36" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7226,38 +7226,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>3384.85</v>
+        <v>3560.7</v>
       </c>
       <c r="AJ36">
-        <v>3455</v>
+        <v>3581.7</v>
       </c>
       <c r="AK36">
-        <v>3381</v>
+        <v>3505</v>
       </c>
       <c r="AL36">
-        <v>3434.1</v>
+        <v>3539.8</v>
       </c>
       <c r="AM36">
-        <v>49.25</v>
+        <v>6.25</v>
       </c>
       <c r="AN36">
-        <v>1.4550127775233761</v>
+        <v>0.17687594628631259</v>
       </c>
       <c r="AO36" s="9">
         <f t="shared" si="51"/>
-        <v>1.4550127775233763</v>
+        <v>-0.58696323756563706</v>
       </c>
       <c r="AP36" s="9">
         <f t="shared" si="52"/>
-        <v>1.4550127775233763</v>
+        <v>0.58696323756563706</v>
       </c>
       <c r="AQ36" s="9">
         <f t="shared" si="53"/>
-        <v>0.60860196266853306</v>
+        <v>0.58977167410902354</v>
       </c>
       <c r="AR36" s="9">
         <f t="shared" si="54"/>
-        <v>0.11374211560334754</v>
+        <v>0.98310639019154133</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="55"/>
@@ -7289,38 +7289,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>26.45</v>
+        <v>25.85</v>
       </c>
       <c r="C37">
-        <v>26.7</v>
+        <v>26.35</v>
       </c>
       <c r="D37">
-        <v>26.2</v>
+        <v>25.65</v>
       </c>
       <c r="E37">
-        <v>26.5</v>
+        <v>25.75</v>
       </c>
       <c r="F37">
-        <v>-5.0000000000000711E-2</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="G37">
-        <v>-0.18832391713747909</v>
+        <v>-0.77071290944123039</v>
       </c>
       <c r="H37" s="9">
         <f t="shared" si="31"/>
-        <v>0.18903591682419929</v>
+        <v>-0.38684719535783912</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" si="32"/>
-        <v>0.18903591682419929</v>
+        <v>0.38684719535783912</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" si="33"/>
-        <v>0.75471698113207275</v>
+        <v>1.9342359767891681</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="34"/>
-        <v>0.94517958412098302</v>
+        <v>0.38834951456311234</v>
       </c>
       <c r="L37" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="N37" t="str">
         <f t="shared" si="37"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O37" s="9" t="str">
         <f t="shared" si="38"/>
@@ -7351,38 +7351,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="T37">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="U37">
-        <v>26.05</v>
+        <v>25.8</v>
       </c>
       <c r="V37">
-        <v>26.55</v>
+        <v>25.95</v>
       </c>
       <c r="W37">
-        <v>-0.69999999999999929</v>
+        <v>-0.55000000000000071</v>
       </c>
       <c r="X37">
-        <v>-2.5688073394495392</v>
+        <v>-2.0754716981132102</v>
       </c>
       <c r="Y37" s="9">
         <f t="shared" si="41"/>
-        <v>-1.6666666666666639</v>
+        <v>-1.3307984790874579</v>
       </c>
       <c r="Z37" s="9">
         <f t="shared" si="42"/>
-        <v>1.6666666666666639</v>
+        <v>1.3307984790874579</v>
       </c>
       <c r="AA37" s="9">
         <f t="shared" si="43"/>
-        <v>0.37037037037037562</v>
+        <v>0.76045627376425584</v>
       </c>
       <c r="AB37" s="9">
         <f t="shared" si="44"/>
-        <v>1.8832391713747645</v>
+        <v>0.57803468208091935</v>
       </c>
       <c r="AC37" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7409,38 +7409,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
+        <v>26.45</v>
+      </c>
+      <c r="AJ37">
+        <v>26.7</v>
+      </c>
+      <c r="AK37">
+        <v>26.2</v>
+      </c>
+      <c r="AL37">
         <v>26.5</v>
       </c>
-      <c r="AJ37">
-        <v>27.75</v>
-      </c>
-      <c r="AK37">
-        <v>26.45</v>
-      </c>
-      <c r="AL37">
-        <v>27.25</v>
-      </c>
       <c r="AM37">
-        <v>1.1999999999999991</v>
+        <v>-5.0000000000000711E-2</v>
       </c>
       <c r="AN37">
-        <v>4.6065259117082507</v>
+        <v>-0.18832391713747909</v>
       </c>
       <c r="AO37" s="9">
         <f t="shared" si="51"/>
-        <v>2.8301886792452833</v>
+        <v>0.18903591682419929</v>
       </c>
       <c r="AP37" s="9">
         <f t="shared" si="52"/>
-        <v>2.8301886792452833</v>
+        <v>0.18903591682419929</v>
       </c>
       <c r="AQ37" s="9">
         <f t="shared" si="53"/>
-        <v>1.834862385321101</v>
+        <v>0.75471698113207275</v>
       </c>
       <c r="AR37" s="9">
         <f t="shared" si="54"/>
-        <v>0.18867924528302155</v>
+        <v>0.94517958412098302</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="55"/>
@@ -7475,35 +7475,35 @@
         <v>95.85</v>
       </c>
       <c r="C38">
-        <v>96.2</v>
+        <v>97.95</v>
       </c>
       <c r="D38">
-        <v>93.75</v>
+        <v>95.55</v>
       </c>
       <c r="E38">
-        <v>93.9</v>
+        <v>96.65</v>
       </c>
       <c r="F38">
-        <v>-1.9499999999999891</v>
+        <v>1.6500000000000059</v>
       </c>
       <c r="G38">
-        <v>-2.0344287949921638</v>
+        <v>1.736842105263164</v>
       </c>
       <c r="H38" s="9">
         <f t="shared" si="31"/>
-        <v>-2.0344287949921638</v>
+        <v>0.83463745435577619</v>
       </c>
       <c r="I38" s="9">
         <f t="shared" si="32"/>
-        <v>2.0344287949921638</v>
+        <v>0.83463745435577619</v>
       </c>
       <c r="J38" s="9">
         <f t="shared" si="33"/>
-        <v>0.36515388628065576</v>
+        <v>1.3450594930160342</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="34"/>
-        <v>0.15974440894569295</v>
+        <v>0.31298904538340866</v>
       </c>
       <c r="L38" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7534,38 +7534,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>96</v>
+        <v>94.9</v>
       </c>
       <c r="T38">
-        <v>96.2</v>
+        <v>95.45</v>
       </c>
       <c r="U38">
-        <v>95.2</v>
+        <v>94.1</v>
       </c>
       <c r="V38">
-        <v>95.85</v>
+        <v>95</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>1.0999999999999941</v>
       </c>
       <c r="X38">
-        <v>0.52438384897745149</v>
+        <v>1.171458998935031</v>
       </c>
       <c r="Y38" s="9">
         <f t="shared" si="41"/>
-        <v>-0.15625000000000594</v>
+        <v>0.10537407797681171</v>
       </c>
       <c r="Z38" s="9">
         <f t="shared" si="42"/>
-        <v>0.15625000000000594</v>
+        <v>0.10537407797681171</v>
       </c>
       <c r="AA38" s="9">
         <f t="shared" si="43"/>
-        <v>0.20833333333333628</v>
+        <v>0.47368421052631876</v>
       </c>
       <c r="AB38" s="9">
         <f t="shared" si="44"/>
-        <v>0.67814293166404949</v>
+        <v>0.84299262381455353</v>
       </c>
       <c r="AC38" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7592,38 +7592,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>95.2</v>
+        <v>95.85</v>
       </c>
       <c r="AJ38">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="AK38">
-        <v>94.15</v>
+        <v>93.75</v>
       </c>
       <c r="AL38">
-        <v>95.35</v>
+        <v>93.9</v>
       </c>
       <c r="AM38">
-        <v>0.89999999999999147</v>
+        <v>-1.9499999999999891</v>
       </c>
       <c r="AN38">
-        <v>0.95288512440443784</v>
+        <v>-2.0344287949921638</v>
       </c>
       <c r="AO38" s="9">
         <f t="shared" si="51"/>
-        <v>0.15756302521007509</v>
+        <v>-2.0344287949921638</v>
       </c>
       <c r="AP38" s="9">
         <f t="shared" si="52"/>
-        <v>0.15756302521007509</v>
+        <v>2.0344287949921638</v>
       </c>
       <c r="AQ38" s="9">
         <f t="shared" si="53"/>
-        <v>0.68169900367069292</v>
+        <v>0.36515388628065576</v>
       </c>
       <c r="AR38" s="9">
         <f t="shared" si="54"/>
-        <v>1.1029411764705852</v>
+        <v>0.15974440894569295</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="55"/>
@@ -7655,38 +7655,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>735.15</v>
+        <v>754.3</v>
       </c>
       <c r="C39">
-        <v>773.15</v>
+        <v>765</v>
       </c>
       <c r="D39">
-        <v>732.55</v>
+        <v>738.55</v>
       </c>
       <c r="E39">
-        <v>768.15</v>
+        <v>745.5</v>
       </c>
       <c r="F39">
-        <v>37.799999999999947</v>
+        <v>-5</v>
       </c>
       <c r="G39">
-        <v>5.1756007393715278</v>
+        <v>-0.66622251832111923</v>
       </c>
       <c r="H39" s="9">
         <f t="shared" si="31"/>
-        <v>4.488879820444807</v>
+        <v>-1.1666445711255409</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="32"/>
-        <v>4.488879820444807</v>
+        <v>1.1666445711255409</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" si="33"/>
-        <v>0.65091453492156481</v>
+        <v>1.4185337398912961</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="34"/>
-        <v>0.35366931918656369</v>
+        <v>0.93226022803488195</v>
       </c>
       <c r="L39" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7717,38 +7717,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>728</v>
+        <v>759.2</v>
       </c>
       <c r="T39">
-        <v>734.9</v>
+        <v>767.95</v>
       </c>
       <c r="U39">
-        <v>724</v>
+        <v>748.75</v>
       </c>
       <c r="V39">
-        <v>730.35</v>
+        <v>750.5</v>
       </c>
       <c r="W39">
-        <v>7.8999999999999773</v>
+        <v>-17.649999999999981</v>
       </c>
       <c r="X39">
-        <v>1.09350128036542</v>
+        <v>-2.297728308273121</v>
       </c>
       <c r="Y39" s="9">
         <f t="shared" si="41"/>
-        <v>0.32280219780220093</v>
+        <v>-1.1459430979978984</v>
       </c>
       <c r="Z39" s="9">
         <f t="shared" si="42"/>
-        <v>0.32280219780220093</v>
+        <v>1.1459430979978984</v>
       </c>
       <c r="AA39" s="9">
         <f t="shared" si="43"/>
-        <v>0.622988977887308</v>
+        <v>1.1525289778714436</v>
       </c>
       <c r="AB39" s="9">
         <f t="shared" si="44"/>
-        <v>0.5494505494505495</v>
+        <v>0.23317788141239171</v>
       </c>
       <c r="AC39" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7775,38 +7775,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>706</v>
+        <v>735.15</v>
       </c>
       <c r="AJ39">
-        <v>726.4</v>
+        <v>773.15</v>
       </c>
       <c r="AK39">
-        <v>705</v>
+        <v>732.55</v>
       </c>
       <c r="AL39">
-        <v>722.45</v>
+        <v>768.15</v>
       </c>
       <c r="AM39">
-        <v>19.450000000000049</v>
+        <v>37.799999999999947</v>
       </c>
       <c r="AN39">
-        <v>2.766714082503563</v>
+        <v>5.1756007393715278</v>
       </c>
       <c r="AO39" s="9">
         <f t="shared" si="51"/>
-        <v>2.3300283286119043</v>
+        <v>4.488879820444807</v>
       </c>
       <c r="AP39" s="9">
         <f t="shared" si="52"/>
-        <v>2.3300283286119043</v>
+        <v>4.488879820444807</v>
       </c>
       <c r="AQ39" s="9">
         <f t="shared" si="53"/>
-        <v>0.54675064018270214</v>
+        <v>0.65091453492156481</v>
       </c>
       <c r="AR39" s="9">
         <f t="shared" si="54"/>
-        <v>0.14164305949008499</v>
+        <v>0.35366931918656369</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="55"/>
@@ -7838,38 +7838,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="C40">
-        <v>187.15</v>
+        <v>185.4</v>
       </c>
       <c r="D40">
-        <v>182.15</v>
+        <v>177.35</v>
       </c>
       <c r="E40">
-        <v>185.7</v>
+        <v>180.65</v>
       </c>
       <c r="F40">
-        <v>1.75</v>
+        <v>-3</v>
       </c>
       <c r="G40">
-        <v>0.95134547431367233</v>
+        <v>-1.6335420637081399</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="31"/>
-        <v>0.92391304347825465</v>
+        <v>-2.2985397512168739</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="32"/>
-        <v>0.92391304347825465</v>
+        <v>2.2985397512168739</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="33"/>
-        <v>0.78082929456112926</v>
+        <v>0.27041644131963222</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="34"/>
-        <v>1.0054347826086927</v>
+        <v>1.8267367838361537</v>
       </c>
       <c r="L40" s="9" t="str">
         <f t="shared" si="35"/>
@@ -7900,38 +7900,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>182</v>
+        <v>183.5</v>
       </c>
       <c r="T40">
-        <v>184.65</v>
+        <v>185.3</v>
       </c>
       <c r="U40">
-        <v>179.5</v>
+        <v>182.5</v>
       </c>
       <c r="V40">
-        <v>183.95</v>
+        <v>183.65</v>
       </c>
       <c r="W40">
-        <v>2.8999999999999768</v>
+        <v>-2.0499999999999829</v>
       </c>
       <c r="X40">
-        <v>1.6017674675503879</v>
+        <v>-1.103931071620885</v>
       </c>
       <c r="Y40" s="9">
         <f t="shared" si="41"/>
-        <v>1.0714285714285652</v>
+        <v>8.1743869209812359E-2</v>
       </c>
       <c r="Z40" s="9">
         <f t="shared" si="42"/>
-        <v>1.0714285714285652</v>
+        <v>8.1743869209812359E-2</v>
       </c>
       <c r="AA40" s="9">
         <f t="shared" si="43"/>
-        <v>0.3805381897254782</v>
+        <v>0.89844813503948029</v>
       </c>
       <c r="AB40" s="9">
         <f t="shared" si="44"/>
-        <v>1.3736263736263736</v>
+        <v>0.54495912806539504</v>
       </c>
       <c r="AC40" s="9" t="str">
         <f t="shared" si="45"/>
@@ -7958,38 +7958,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AJ40">
-        <v>187.5</v>
+        <v>187.15</v>
       </c>
       <c r="AK40">
-        <v>180</v>
+        <v>182.15</v>
       </c>
       <c r="AL40">
-        <v>181.05</v>
+        <v>185.7</v>
       </c>
       <c r="AM40">
-        <v>-1.5999999999999941</v>
+        <v>1.75</v>
       </c>
       <c r="AN40">
-        <v>-0.87599233506706498</v>
+        <v>0.95134547431367233</v>
       </c>
       <c r="AO40" s="9">
         <f t="shared" si="51"/>
-        <v>-2.1351351351351289</v>
+        <v>0.92391304347825465</v>
       </c>
       <c r="AP40" s="9">
         <f t="shared" si="52"/>
-        <v>2.1351351351351289</v>
+        <v>0.92391304347825465</v>
       </c>
       <c r="AQ40" s="9">
         <f t="shared" si="53"/>
-        <v>1.3513513513513513</v>
+        <v>0.78082929456112926</v>
       </c>
       <c r="AR40" s="9">
         <f t="shared" si="54"/>
-        <v>0.5799502899751513</v>
+        <v>1.0054347826086927</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="55"/>
@@ -8021,38 +8021,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>109.3</v>
+        <v>109.15</v>
       </c>
       <c r="C41">
-        <v>110.75</v>
+        <v>109.25</v>
       </c>
       <c r="D41">
-        <v>107.9</v>
+        <v>106.95</v>
       </c>
       <c r="E41">
-        <v>108.85</v>
+        <v>108</v>
       </c>
       <c r="F41">
-        <v>4.9999999999997158E-2</v>
+        <v>-0.65000000000000568</v>
       </c>
       <c r="G41">
-        <v>4.5955882352938557E-2</v>
+        <v>-0.59825126553152841</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="31"/>
-        <v>-0.4117108874656934</v>
+        <v>-1.0535959688502112</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="32"/>
-        <v>0.4117108874656934</v>
+        <v>1.0535959688502112</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="33"/>
-        <v>1.326623970722784</v>
+        <v>9.1617040769577926E-2</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="34"/>
-        <v>0.87276067983462435</v>
+        <v>0.97222222222221966</v>
       </c>
       <c r="L41" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8083,38 +8083,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>107.7</v>
+        <v>108.45</v>
       </c>
       <c r="T41">
-        <v>109.4</v>
+        <v>110.2</v>
       </c>
       <c r="U41">
-        <v>106.5</v>
+        <v>108.1</v>
       </c>
       <c r="V41">
-        <v>108.8</v>
+        <v>108.65</v>
       </c>
       <c r="W41">
-        <v>1.5499999999999969</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="X41">
-        <v>1.445221445221442</v>
+        <v>-0.18373909049149159</v>
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="41"/>
-        <v>1.0213556174558907</v>
+        <v>0.18441678192715799</v>
       </c>
       <c r="Z41" s="9">
         <f t="shared" si="42"/>
-        <v>1.0213556174558907</v>
+        <v>0.18441678192715799</v>
       </c>
       <c r="AA41" s="9">
         <f t="shared" si="43"/>
-        <v>0.55147058823530193</v>
+        <v>1.4265991716520912</v>
       </c>
       <c r="AB41" s="9">
         <f t="shared" si="44"/>
-        <v>1.1142061281337075</v>
+        <v>0.32272936837252975</v>
       </c>
       <c r="AC41" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="AF41" s="9" t="str">
         <f t="shared" si="48"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG41" s="9" t="str">
         <f t="shared" si="49"/>
@@ -8141,38 +8141,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>108.9</v>
+        <v>109.3</v>
       </c>
       <c r="AJ41">
-        <v>110.05</v>
+        <v>110.75</v>
       </c>
       <c r="AK41">
-        <v>106.8</v>
+        <v>107.9</v>
       </c>
       <c r="AL41">
-        <v>107.25</v>
+        <v>108.85</v>
       </c>
       <c r="AM41">
-        <v>-9.9999999999994316E-2</v>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="AN41">
-        <v>-9.3153237074983075E-2</v>
+        <v>4.5955882352938557E-2</v>
       </c>
       <c r="AO41" s="9">
         <f t="shared" si="51"/>
-        <v>-1.5151515151515202</v>
+        <v>-0.4117108874656934</v>
       </c>
       <c r="AP41" s="9">
         <f t="shared" si="52"/>
-        <v>1.5151515151515202</v>
+        <v>0.4117108874656934</v>
       </c>
       <c r="AQ41" s="9">
         <f t="shared" si="53"/>
-        <v>1.0560146923783209</v>
+        <v>1.326623970722784</v>
       </c>
       <c r="AR41" s="9">
         <f t="shared" si="54"/>
-        <v>0.41958041958042225</v>
+        <v>0.87276067983462435</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="55"/>
@@ -8204,38 +8204,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="C42">
-        <v>39.700000000000003</v>
+        <v>38.65</v>
       </c>
       <c r="D42">
-        <v>37.9</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E42">
-        <v>38</v>
+        <v>37.85</v>
       </c>
       <c r="F42">
-        <v>-1.4500000000000031</v>
+        <v>-0.29999999999999721</v>
       </c>
       <c r="G42">
-        <v>-3.675538656527257</v>
+        <v>-0.78636959370903592</v>
       </c>
       <c r="H42" s="9">
         <f t="shared" si="31"/>
-        <v>-2.8132992327365764</v>
+        <v>-1.4322916666666594</v>
       </c>
       <c r="I42" s="9">
         <f t="shared" si="32"/>
-        <v>2.8132992327365764</v>
+        <v>1.4322916666666594</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="33"/>
-        <v>1.5345268542199524</v>
+        <v>0.65104166666666674</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="34"/>
-        <v>0.26315789473684581</v>
+        <v>0.39630118890356297</v>
       </c>
       <c r="L42" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8266,38 +8266,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="T42">
         <v>39.5</v>
       </c>
-      <c r="T42">
-        <v>39.950000000000003</v>
-      </c>
       <c r="U42">
-        <v>38.25</v>
+        <v>37.6</v>
       </c>
       <c r="V42">
-        <v>39.450000000000003</v>
+        <v>38.15</v>
       </c>
       <c r="W42">
-        <v>-9.9999999999994316E-2</v>
+        <v>0.14999999999999861</v>
       </c>
       <c r="X42">
-        <v>-0.2528445006320969</v>
+        <v>0.39473684210525939</v>
       </c>
       <c r="Y42" s="9">
         <f t="shared" si="41"/>
-        <v>-0.12658227848100545</v>
+        <v>-0.78023407022107738</v>
       </c>
       <c r="Z42" s="9">
         <f t="shared" si="42"/>
-        <v>0.12658227848100545</v>
+        <v>0.78023407022107738</v>
       </c>
       <c r="AA42" s="9">
         <f t="shared" si="43"/>
-        <v>1.1392405063291211</v>
+        <v>2.7308192457737244</v>
       </c>
       <c r="AB42" s="9">
         <f t="shared" si="44"/>
-        <v>3.0418250950570411</v>
+        <v>1.4416775884665718</v>
       </c>
       <c r="AC42" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8324,38 +8324,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>39.35</v>
+        <v>39.1</v>
       </c>
       <c r="AJ42">
-        <v>40.200000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="AK42">
-        <v>39.1</v>
+        <v>37.9</v>
       </c>
       <c r="AL42">
-        <v>39.549999999999997</v>
+        <v>38</v>
       </c>
       <c r="AM42">
-        <v>0.64999999999999858</v>
+        <v>-1.4500000000000031</v>
       </c>
       <c r="AN42">
-        <v>1.6709511568123361</v>
+        <v>-3.675538656527257</v>
       </c>
       <c r="AO42" s="9">
         <f t="shared" si="51"/>
-        <v>0.50825921219821024</v>
+        <v>-2.8132992327365764</v>
       </c>
       <c r="AP42" s="9">
         <f t="shared" si="52"/>
-        <v>0.50825921219821024</v>
+        <v>2.8132992327365764</v>
       </c>
       <c r="AQ42" s="9">
         <f t="shared" si="53"/>
-        <v>1.6434892541087376</v>
+        <v>1.5345268542199524</v>
       </c>
       <c r="AR42" s="9">
         <f t="shared" si="54"/>
-        <v>0.63532401524777637</v>
+        <v>0.26315789473684581</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="55"/>
@@ -8387,38 +8387,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>4348</v>
+        <v>4424</v>
       </c>
       <c r="C43">
-        <v>4384</v>
+        <v>4443.3999999999996</v>
       </c>
       <c r="D43">
-        <v>4320.1499999999996</v>
+        <v>4287.5</v>
       </c>
       <c r="E43">
-        <v>4346.75</v>
+        <v>4317.95</v>
       </c>
       <c r="F43">
-        <v>30.300000000000178</v>
+        <v>-74.699999999999818</v>
       </c>
       <c r="G43">
-        <v>0.70196573573191356</v>
+        <v>-1.70056799426314</v>
       </c>
       <c r="H43" s="9">
         <f t="shared" si="31"/>
-        <v>-2.874885004599816E-2</v>
+        <v>-2.3971518987341813</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" si="32"/>
-        <v>2.874885004599816E-2</v>
+        <v>2.3971518987341813</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="33"/>
-        <v>0.82796688132474694</v>
+        <v>0.4385171790234999</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="34"/>
-        <v>0.61195145798585993</v>
+        <v>0.70519575261408352</v>
       </c>
       <c r="L43" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8449,38 +8449,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>4384</v>
+        <v>4320</v>
       </c>
       <c r="T43">
-        <v>4384</v>
+        <v>4475</v>
       </c>
       <c r="U43">
-        <v>4278</v>
+        <v>4311.05</v>
       </c>
       <c r="V43">
-        <v>4316.45</v>
+        <v>4392.6499999999996</v>
       </c>
       <c r="W43">
-        <v>-13.85000000000036</v>
+        <v>45.899999999999643</v>
       </c>
       <c r="X43">
-        <v>-0.3198392721058671</v>
+        <v>1.055961350434224</v>
       </c>
       <c r="Y43" s="9">
         <f t="shared" si="41"/>
-        <v>-1.540830291970807</v>
+        <v>1.6817129629629546</v>
       </c>
       <c r="Z43" s="9">
         <f t="shared" si="42"/>
-        <v>1.540830291970807</v>
+        <v>1.6817129629629546</v>
       </c>
       <c r="AA43" s="9">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1.8747225478925107</v>
       </c>
       <c r="AB43" s="9">
         <f t="shared" si="44"/>
-        <v>0.8907783016135904</v>
+        <v>0.20717592592592171</v>
       </c>
       <c r="AC43" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8507,38 +8507,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>4234.45</v>
+        <v>4348</v>
       </c>
       <c r="AJ43">
-        <v>4369.95</v>
+        <v>4384</v>
       </c>
       <c r="AK43">
-        <v>4223</v>
+        <v>4320.1499999999996</v>
       </c>
       <c r="AL43">
-        <v>4330.3</v>
+        <v>4346.75</v>
       </c>
       <c r="AM43">
-        <v>124.25</v>
+        <v>30.300000000000178</v>
       </c>
       <c r="AN43">
-        <v>2.9540780542314051</v>
+        <v>0.70196573573191356</v>
       </c>
       <c r="AO43" s="9">
         <f t="shared" si="51"/>
-        <v>2.2635761433007917</v>
+        <v>-2.874885004599816E-2</v>
       </c>
       <c r="AP43" s="9">
         <f t="shared" si="52"/>
-        <v>2.2635761433007917</v>
+        <v>2.874885004599816E-2</v>
       </c>
       <c r="AQ43" s="9">
         <f t="shared" si="53"/>
-        <v>0.91564094866405632</v>
+        <v>0.82796688132474694</v>
       </c>
       <c r="AR43" s="9">
         <f t="shared" si="54"/>
-        <v>0.27040111466659938</v>
+        <v>0.61195145798585993</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="55"/>
@@ -8570,38 +8570,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>496.5</v>
+        <v>478</v>
       </c>
       <c r="C44">
-        <v>497.8</v>
+        <v>488.3</v>
       </c>
       <c r="D44">
-        <v>462.2</v>
+        <v>475.4</v>
       </c>
       <c r="E44">
-        <v>479.05</v>
+        <v>484.5</v>
       </c>
       <c r="F44">
-        <v>-16.800000000000011</v>
+        <v>10.44999999999999</v>
       </c>
       <c r="G44">
-        <v>-3.3881214076837769</v>
+        <v>2.2044088176352679</v>
       </c>
       <c r="H44" s="9">
         <f t="shared" si="31"/>
-        <v>-3.5146022155085577</v>
+        <v>1.3598326359832638</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="32"/>
-        <v>3.5146022155085577</v>
+        <v>1.3598326359832638</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="33"/>
-        <v>0.2618328298086629</v>
+        <v>0.78431372549019851</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="34"/>
-        <v>3.5173781442438203</v>
+        <v>0.54393305439331019</v>
       </c>
       <c r="L44" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8632,38 +8632,38 @@
         <v>#REF!</v>
       </c>
       <c r="S44">
-        <v>502.95</v>
+        <v>479.05</v>
       </c>
       <c r="T44">
-        <v>505.95</v>
+        <v>483.7</v>
       </c>
       <c r="U44">
-        <v>494.65</v>
+        <v>470.15</v>
       </c>
       <c r="V44">
-        <v>495.85</v>
+        <v>474.05</v>
       </c>
       <c r="W44">
-        <v>-3.5</v>
+        <v>-5</v>
       </c>
       <c r="X44">
-        <v>-0.70091118453990187</v>
+        <v>-1.0437323870159689</v>
       </c>
       <c r="Y44" s="9">
         <f t="shared" si="41"/>
-        <v>-1.4116711402723863</v>
+        <v>-1.0437323870159692</v>
       </c>
       <c r="Z44" s="9">
         <f t="shared" si="42"/>
-        <v>1.4116711402723863</v>
+        <v>1.0437323870159692</v>
       </c>
       <c r="AA44" s="9">
         <f t="shared" si="43"/>
-        <v>0.59648076349537726</v>
+        <v>0.97067111992484645</v>
       </c>
       <c r="AB44" s="9">
         <f t="shared" si="44"/>
-        <v>0.24200867197742168</v>
+        <v>0.82269802763422306</v>
       </c>
       <c r="AC44" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8690,38 +8690,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>489</v>
+        <v>496.5</v>
       </c>
       <c r="AJ44">
-        <v>508.25</v>
+        <v>497.8</v>
       </c>
       <c r="AK44">
-        <v>489</v>
+        <v>462.2</v>
       </c>
       <c r="AL44">
-        <v>499.35</v>
+        <v>479.05</v>
       </c>
       <c r="AM44">
-        <v>12.450000000000051</v>
+        <v>-16.800000000000011</v>
       </c>
       <c r="AN44">
-        <v>2.5569932224276131</v>
+        <v>-3.3881214076837769</v>
       </c>
       <c r="AO44" s="9">
         <f t="shared" si="51"/>
-        <v>2.1165644171779188</v>
+        <v>-3.5146022155085577</v>
       </c>
       <c r="AP44" s="9">
         <f t="shared" si="52"/>
-        <v>2.1165644171779188</v>
+        <v>3.5146022155085577</v>
       </c>
       <c r="AQ44" s="9">
         <f t="shared" si="53"/>
-        <v>1.7823170121157459</v>
+        <v>0.2618328298086629</v>
       </c>
       <c r="AR44" s="9">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>3.5173781442438203</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="55"/>
@@ -8753,38 +8753,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>58.05</v>
+        <v>57.05</v>
       </c>
       <c r="C45">
-        <v>58.3</v>
+        <v>57.35</v>
       </c>
       <c r="D45">
-        <v>56.55</v>
+        <v>55.75</v>
       </c>
       <c r="E45">
-        <v>56.8</v>
+        <v>56.2</v>
       </c>
       <c r="F45">
-        <v>-0.95000000000000284</v>
+        <v>-0.54999999999999716</v>
       </c>
       <c r="G45">
-        <v>-1.6450216450216499</v>
+        <v>-0.96916299559470875</v>
       </c>
       <c r="H45" s="9">
         <f t="shared" si="31"/>
-        <v>-2.1533161068044793</v>
+        <v>-1.4899211218229524</v>
       </c>
       <c r="I45" s="9">
         <f t="shared" si="32"/>
-        <v>2.1533161068044793</v>
+        <v>1.4899211218229524</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" si="33"/>
-        <v>0.4306632213608958</v>
+        <v>0.52585451358458246</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="34"/>
-        <v>0.44014084507042256</v>
+        <v>0.80071174377224708</v>
       </c>
       <c r="L45" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8815,38 +8815,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>57.45</v>
+        <v>57.35</v>
       </c>
       <c r="T45">
-        <v>58.75</v>
+        <v>58.15</v>
       </c>
       <c r="U45">
-        <v>57.1</v>
+        <v>56.35</v>
       </c>
       <c r="V45">
-        <v>57.75</v>
+        <v>56.75</v>
       </c>
       <c r="W45">
-        <v>0.64999999999999858</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="X45">
-        <v>1.1383537653239899</v>
+        <v>-8.8028169014079505E-2</v>
       </c>
       <c r="Y45" s="9">
         <f t="shared" si="41"/>
-        <v>0.52219321148824571</v>
+        <v>-1.0462074978204035</v>
       </c>
       <c r="Z45" s="9">
         <f t="shared" si="42"/>
-        <v>0.52219321148824571</v>
+        <v>1.0462074978204035</v>
       </c>
       <c r="AA45" s="9">
         <f t="shared" si="43"/>
-        <v>1.7316017316017316</v>
+        <v>1.3949433304271963</v>
       </c>
       <c r="AB45" s="9">
         <f t="shared" si="44"/>
-        <v>0.60922541340296155</v>
+        <v>0.70484581497797105</v>
       </c>
       <c r="AC45" s="9" t="str">
         <f t="shared" si="45"/>
@@ -8873,38 +8873,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>56.9</v>
+        <v>58.05</v>
       </c>
       <c r="AJ45">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="AK45">
-        <v>56.45</v>
+        <v>56.55</v>
       </c>
       <c r="AL45">
-        <v>57.1</v>
+        <v>56.8</v>
       </c>
       <c r="AM45">
-        <v>0.39999999999999858</v>
+        <v>-0.95000000000000284</v>
       </c>
       <c r="AN45">
-        <v>0.70546737213403621</v>
+        <v>-1.6450216450216499</v>
       </c>
       <c r="AO45" s="9">
         <f t="shared" si="51"/>
-        <v>0.35149384885765</v>
+        <v>-2.1533161068044793</v>
       </c>
       <c r="AP45" s="9">
         <f t="shared" si="52"/>
-        <v>0.35149384885765</v>
+        <v>2.1533161068044793</v>
       </c>
       <c r="AQ45" s="9">
         <f t="shared" si="53"/>
-        <v>2.2767075306479807</v>
+        <v>0.4306632213608958</v>
       </c>
       <c r="AR45" s="9">
         <f t="shared" si="54"/>
-        <v>0.79086115992969375</v>
+        <v>0.44014084507042256</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="55"/>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="AX45" t="str">
         <f t="shared" si="60"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
@@ -8936,38 +8936,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>2822.55</v>
+        <v>2855</v>
       </c>
       <c r="C46">
-        <v>2864.8</v>
+        <v>2944.5</v>
       </c>
       <c r="D46">
-        <v>2817.35</v>
+        <v>2851.65</v>
       </c>
       <c r="E46">
-        <v>2843.05</v>
+        <v>2876.3</v>
       </c>
       <c r="F46">
-        <v>-7.4499999999998181</v>
+        <v>35.050000000000182</v>
       </c>
       <c r="G46">
-        <v>-0.2613576565514758</v>
+        <v>1.2336119665640191</v>
       </c>
       <c r="H46" s="9">
         <f t="shared" si="31"/>
-        <v>0.72629359975908303</v>
+        <v>0.74605954465850022</v>
       </c>
       <c r="I46" s="9">
         <f t="shared" si="32"/>
-        <v>0.72629359975908303</v>
+        <v>0.74605954465850022</v>
       </c>
       <c r="J46" s="9">
         <f t="shared" si="33"/>
-        <v>0.76502347830674799</v>
+        <v>2.3711017626812159</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="34"/>
-        <v>0.18423057164621609</v>
+        <v>0.11733800350262379</v>
       </c>
       <c r="L46" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8998,38 +8998,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>2800</v>
+        <v>2838</v>
       </c>
       <c r="T46">
-        <v>2887.9</v>
+        <v>2878</v>
       </c>
       <c r="U46">
-        <v>2800</v>
+        <v>2824.5</v>
       </c>
       <c r="V46">
-        <v>2850.5</v>
+        <v>2841.25</v>
       </c>
       <c r="W46">
-        <v>52.949999999999818</v>
+        <v>-1.8000000000001819</v>
       </c>
       <c r="X46">
-        <v>1.8927275651909641</v>
+        <v>-6.3312287859875194E-2</v>
       </c>
       <c r="Y46" s="9">
         <f t="shared" si="41"/>
-        <v>1.8035714285714286</v>
+        <v>0.11451726568005639</v>
       </c>
       <c r="Z46" s="9">
         <f t="shared" si="42"/>
-        <v>1.8035714285714286</v>
+        <v>0.11451726568005639</v>
       </c>
       <c r="AA46" s="9">
         <f t="shared" si="43"/>
-        <v>1.3120505174530817</v>
+        <v>1.2934447866256049</v>
       </c>
       <c r="AB46" s="9">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.47568710359408034</v>
       </c>
       <c r="AC46" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9056,38 +9056,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>2846</v>
+        <v>2822.55</v>
       </c>
       <c r="AJ46">
-        <v>2858.85</v>
+        <v>2864.8</v>
       </c>
       <c r="AK46">
-        <v>2781.15</v>
+        <v>2817.35</v>
       </c>
       <c r="AL46">
-        <v>2797.55</v>
+        <v>2843.05</v>
       </c>
       <c r="AM46">
-        <v>-39.649999999999643</v>
+        <v>-7.4499999999998181</v>
       </c>
       <c r="AN46">
-        <v>-1.3975045819822229</v>
+        <v>-0.2613576565514758</v>
       </c>
       <c r="AO46" s="9">
         <f t="shared" si="51"/>
-        <v>-1.7023893183415257</v>
+        <v>0.72629359975908303</v>
       </c>
       <c r="AP46" s="9">
         <f t="shared" si="52"/>
-        <v>1.7023893183415257</v>
+        <v>0.72629359975908303</v>
       </c>
       <c r="AQ46" s="9">
         <f t="shared" si="53"/>
-        <v>0.45151089248067144</v>
+        <v>0.76502347830674799</v>
       </c>
       <c r="AR46" s="9">
         <f t="shared" si="54"/>
-        <v>0.58622723454451531</v>
+        <v>0.18423057164621609</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="55"/>
@@ -9119,38 +9119,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>334.8</v>
+        <v>332.9</v>
       </c>
       <c r="C47">
-        <v>338</v>
+        <v>333.8</v>
       </c>
       <c r="D47">
-        <v>326.5</v>
+        <v>323.8</v>
       </c>
       <c r="E47">
-        <v>327.55</v>
+        <v>325.8</v>
       </c>
       <c r="F47">
-        <v>-4.6999999999999886</v>
+        <v>-6.75</v>
       </c>
       <c r="G47">
-        <v>-1.4145974416854741</v>
+        <v>-2.029769959404601</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="31"/>
-        <v>-2.1654719235364399</v>
+        <v>-2.1327726043856914</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="32"/>
-        <v>2.1654719235364399</v>
+        <v>2.1327726043856914</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="33"/>
-        <v>0.95579450418159762</v>
+        <v>0.27035145689397239</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="34"/>
-        <v>0.32056174629827855</v>
+        <v>0.61387354205033762</v>
       </c>
       <c r="L47" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9181,38 +9181,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>328.1</v>
+        <v>327.5</v>
       </c>
       <c r="T47">
-        <v>335.5</v>
+        <v>334.8</v>
       </c>
       <c r="U47">
-        <v>328</v>
+        <v>326.60000000000002</v>
       </c>
       <c r="V47">
-        <v>332.25</v>
+        <v>332.55</v>
       </c>
       <c r="W47">
-        <v>5.6999999999999886</v>
+        <v>5</v>
       </c>
       <c r="X47">
-        <v>1.745521359669266</v>
+        <v>1.5264845061822621</v>
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="41"/>
-        <v>1.2648582749161772</v>
+        <v>1.5419847328244309</v>
       </c>
       <c r="Z47" s="9">
         <f t="shared" si="42"/>
-        <v>1.2648582749161772</v>
+        <v>1.5419847328244309</v>
       </c>
       <c r="AA47" s="9">
         <f t="shared" si="43"/>
-        <v>0.97817908201655379</v>
+        <v>0.67658998646820023</v>
       </c>
       <c r="AB47" s="9">
         <f t="shared" si="44"/>
-        <v>3.0478512648589674E-2</v>
+        <v>0.27480916030533659</v>
       </c>
       <c r="AC47" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9239,38 +9239,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>325.35000000000002</v>
+        <v>334.8</v>
       </c>
       <c r="AJ47">
-        <v>331.65</v>
+        <v>338</v>
       </c>
       <c r="AK47">
-        <v>323.10000000000002</v>
+        <v>326.5</v>
       </c>
       <c r="AL47">
-        <v>326.55</v>
+        <v>327.55</v>
       </c>
       <c r="AM47">
-        <v>1.75</v>
+        <v>-4.6999999999999886</v>
       </c>
       <c r="AN47">
-        <v>0.5387931034482758</v>
+        <v>-1.4145974416854741</v>
       </c>
       <c r="AO47" s="9">
         <f t="shared" si="51"/>
-        <v>0.36883356385430721</v>
+        <v>-2.1654719235364399</v>
       </c>
       <c r="AP47" s="9">
         <f t="shared" si="52"/>
-        <v>0.36883356385430721</v>
+        <v>2.1654719235364399</v>
       </c>
       <c r="AQ47" s="9">
         <f t="shared" si="53"/>
-        <v>1.5617822691777572</v>
+        <v>0.95579450418159762</v>
       </c>
       <c r="AR47" s="9">
         <f t="shared" si="54"/>
-        <v>0.69156293222683263</v>
+        <v>0.32056174629827855</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="55"/>
@@ -9302,38 +9302,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>455.45</v>
+        <v>461.2</v>
       </c>
       <c r="C48">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D48">
-        <v>453.8</v>
+        <v>454.5</v>
       </c>
       <c r="E48">
-        <v>462.15</v>
+        <v>457.3</v>
       </c>
       <c r="F48">
-        <v>6.6999999999999886</v>
+        <v>0.25</v>
       </c>
       <c r="G48">
-        <v>1.471072565594465</v>
+        <v>5.4698610655289352E-2</v>
       </c>
       <c r="H48" s="9">
         <f t="shared" si="31"/>
-        <v>1.4710725655944645</v>
+        <v>-0.84562012142237153</v>
       </c>
       <c r="I48" s="9">
         <f t="shared" si="32"/>
-        <v>1.4710725655944645</v>
+        <v>0.84562012142237153</v>
       </c>
       <c r="J48" s="9">
         <f t="shared" si="33"/>
-        <v>2.1313426376717568</v>
+        <v>1.4744145706851717</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="34"/>
-        <v>0.36227906466131898</v>
+        <v>0.61228952547562021</v>
       </c>
       <c r="L48" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9364,38 +9364,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="T48">
-        <v>460</v>
+        <v>465.6</v>
       </c>
       <c r="U48">
-        <v>447.65</v>
+        <v>454.2</v>
       </c>
       <c r="V48">
-        <v>455.45</v>
+        <v>457.05</v>
       </c>
       <c r="W48">
-        <v>-1.1500000000000341</v>
+        <v>-5.0999999999999659</v>
       </c>
       <c r="X48">
-        <v>-0.25186158563294658</v>
+        <v>-1.103537812398564</v>
       </c>
       <c r="Y48" s="9">
         <f t="shared" si="41"/>
-        <v>-0.55676855895196753</v>
+        <v>-0.64130434782608448</v>
       </c>
       <c r="Z48" s="9">
         <f t="shared" si="42"/>
-        <v>0.55676855895196753</v>
+        <v>0.64130434782608448</v>
       </c>
       <c r="AA48" s="9">
         <f t="shared" si="43"/>
-        <v>0.43668122270742354</v>
+        <v>1.217391304347831</v>
       </c>
       <c r="AB48" s="9">
         <f t="shared" si="44"/>
-        <v>1.7125919420353524</v>
+        <v>0.62356416147030358</v>
       </c>
       <c r="AC48" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9422,38 +9422,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>448.2</v>
+        <v>455.45</v>
       </c>
       <c r="AJ48">
-        <v>458.9</v>
+        <v>472</v>
       </c>
       <c r="AK48">
-        <v>446.25</v>
+        <v>453.8</v>
       </c>
       <c r="AL48">
-        <v>456.6</v>
+        <v>462.15</v>
       </c>
       <c r="AM48">
-        <v>12.350000000000019</v>
+        <v>6.6999999999999886</v>
       </c>
       <c r="AN48">
-        <v>2.779966235227918</v>
+        <v>1.471072565594465</v>
       </c>
       <c r="AO48" s="9">
         <f t="shared" si="51"/>
-        <v>1.8741633199464602</v>
+        <v>1.4710725655944645</v>
       </c>
       <c r="AP48" s="9">
         <f t="shared" si="52"/>
-        <v>1.8741633199464602</v>
+        <v>1.4710725655944645</v>
       </c>
       <c r="AQ48" s="9">
         <f t="shared" si="53"/>
-        <v>0.5037231712658683</v>
+        <v>2.1313426376717568</v>
       </c>
       <c r="AR48" s="9">
         <f t="shared" si="54"/>
-        <v>0.43507362784470971</v>
+        <v>0.36227906466131898</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="55"/>
@@ -9485,38 +9485,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>28.2</v>
+        <v>27.65</v>
       </c>
       <c r="C49">
-        <v>28.35</v>
+        <v>27.7</v>
       </c>
       <c r="D49">
-        <v>27.3</v>
+        <v>26.65</v>
       </c>
       <c r="E49">
-        <v>27.9</v>
+        <v>26.85</v>
       </c>
       <c r="F49">
-        <v>-0.25</v>
+        <v>-0.64999999999999858</v>
       </c>
       <c r="G49">
-        <v>-0.88809946714031984</v>
+        <v>-2.363636363636358</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="31"/>
-        <v>-1.0638297872340452</v>
+        <v>-2.8933092224231363</v>
       </c>
       <c r="I49" s="9">
         <f t="shared" si="32"/>
-        <v>1.0638297872340452</v>
+        <v>2.8933092224231363</v>
       </c>
       <c r="J49" s="9">
         <f t="shared" si="33"/>
-        <v>0.53191489361702882</v>
+        <v>0.18083182640144924</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="34"/>
-        <v>2.1505376344085949</v>
+        <v>0.7448789571694705</v>
       </c>
       <c r="L49" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9547,38 +9547,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>28.9</v>
+        <v>27.75</v>
       </c>
       <c r="T49">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="U49">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="V49">
-        <v>28.15</v>
+        <v>27.5</v>
       </c>
       <c r="W49">
-        <v>-0.45000000000000279</v>
+        <v>-0.39999999999999858</v>
       </c>
       <c r="X49">
-        <v>-1.5734265734265831</v>
+        <v>-1.4336917562723961</v>
       </c>
       <c r="Y49" s="9">
         <f t="shared" si="41"/>
-        <v>-2.5951557093425608</v>
+        <v>-0.90090090090090091</v>
       </c>
       <c r="Z49" s="9">
         <f t="shared" si="42"/>
-        <v>2.5951557093425608</v>
+        <v>0.90090090090090091</v>
       </c>
       <c r="AA49" s="9">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.18018018018018275</v>
       </c>
       <c r="AB49" s="9">
         <f t="shared" si="44"/>
-        <v>1.2433392539964401</v>
+        <v>1.0909090909090935</v>
       </c>
       <c r="AC49" s="9" t="str">
         <f t="shared" si="45"/>
@@ -9605,38 +9605,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
       <c r="AJ49">
-        <v>28.95</v>
+        <v>28.35</v>
       </c>
       <c r="AK49">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="AL49">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="AM49">
-        <v>-4.9999999999997158E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="AN49">
-        <v>-0.17452006980801801</v>
+        <v>-0.88809946714031984</v>
       </c>
       <c r="AO49" s="9">
         <f t="shared" si="51"/>
-        <v>-0.34843205574912151</v>
+        <v>-1.0638297872340452</v>
       </c>
       <c r="AP49" s="9">
         <f t="shared" si="52"/>
-        <v>0.34843205574912151</v>
+        <v>1.0638297872340452</v>
       </c>
       <c r="AQ49" s="9">
         <f t="shared" si="53"/>
-        <v>0.87108013937282225</v>
+        <v>0.53191489361702882</v>
       </c>
       <c r="AR49" s="9">
         <f t="shared" si="54"/>
-        <v>0.34965034965035457</v>
+        <v>2.1505376344085949</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="55"/>
@@ -9668,38 +9668,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>682</v>
+        <v>697.95</v>
       </c>
       <c r="C50">
-        <v>694.7</v>
+        <v>713.5</v>
       </c>
       <c r="D50">
-        <v>680.95</v>
+        <v>676.3</v>
       </c>
       <c r="E50">
-        <v>686.8</v>
+        <v>679.5</v>
       </c>
       <c r="F50">
-        <v>7.4499999999999318</v>
+        <v>-14.149999999999981</v>
       </c>
       <c r="G50">
-        <v>1.0966364907632189</v>
+        <v>-2.0399336841346472</v>
       </c>
       <c r="H50" s="9">
         <f t="shared" si="31"/>
-        <v>0.70381231671553579</v>
+        <v>-2.6434558349452031</v>
       </c>
       <c r="I50" s="9">
         <f t="shared" si="32"/>
-        <v>0.70381231671553579</v>
+        <v>2.6434558349452031</v>
       </c>
       <c r="J50" s="9">
         <f t="shared" si="33"/>
-        <v>1.150262085032046</v>
+        <v>2.2279532917830722</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="34"/>
-        <v>0.15395894428151827</v>
+        <v>0.47093451066961667</v>
       </c>
       <c r="L50" s="9" t="str">
         <f t="shared" si="35"/>
@@ -9730,42 +9730,42 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>692.45</v>
+        <v>687</v>
       </c>
       <c r="T50">
-        <v>692.5</v>
+        <v>698.75</v>
       </c>
       <c r="U50">
-        <v>678</v>
+        <v>683.05</v>
       </c>
       <c r="V50">
-        <v>679.35</v>
+        <v>693.65</v>
       </c>
       <c r="W50">
-        <v>-6.25</v>
+        <v>6.8500000000000227</v>
       </c>
       <c r="X50">
-        <v>-0.91161026837806303</v>
+        <v>0.99737914967967733</v>
       </c>
       <c r="Y50" s="9">
         <f t="shared" si="41"/>
-        <v>-1.8918333453678997</v>
+        <v>0.96797671033478572</v>
       </c>
       <c r="Z50" s="9">
         <f t="shared" si="42"/>
-        <v>1.8918333453678997</v>
+        <v>0.96797671033478572</v>
       </c>
       <c r="AA50" s="9">
         <f t="shared" si="43"/>
-        <v>7.2207379594128847E-3</v>
+        <v>0.7352411158365203</v>
       </c>
       <c r="AB50" s="9">
         <f t="shared" si="44"/>
-        <v>0.19871936409803825</v>
+        <v>0.57496360989811435</v>
       </c>
       <c r="AC50" s="9" t="str">
         <f t="shared" si="45"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AD50" s="9" t="str">
         <f t="shared" si="46"/>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="AF50" s="9" t="str">
         <f t="shared" si="48"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG50" s="9" t="str">
         <f t="shared" si="49"/>
@@ -9788,38 +9788,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>662.4</v>
+        <v>682</v>
       </c>
       <c r="AJ50">
-        <v>699.6</v>
+        <v>694.7</v>
       </c>
       <c r="AK50">
-        <v>662.4</v>
+        <v>680.95</v>
       </c>
       <c r="AL50">
-        <v>685.6</v>
+        <v>686.8</v>
       </c>
       <c r="AM50">
-        <v>29.149999999999981</v>
+        <v>7.4499999999999318</v>
       </c>
       <c r="AN50">
-        <v>4.4405514509863622</v>
+        <v>1.0966364907632189</v>
       </c>
       <c r="AO50" s="9">
         <f t="shared" si="51"/>
-        <v>3.5024154589372052</v>
+        <v>0.70381231671553579</v>
       </c>
       <c r="AP50" s="9">
         <f t="shared" si="52"/>
-        <v>3.5024154589372052</v>
+        <v>0.70381231671553579</v>
       </c>
       <c r="AQ50" s="9">
         <f t="shared" si="53"/>
-        <v>2.0420070011668612</v>
+        <v>1.150262085032046</v>
       </c>
       <c r="AR50" s="9">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.15395894428151827</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="55"/>
